--- a/tests/regression_data_windows/performance_analysis_evaluate_cascade_throat_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_evaluate_cascade_throat_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015418723180754</v>
+        <v>2.01541565422898</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999955153</v>
+        <v>2.299999999961699</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740741523221237</v>
+        <v>2.740325648372088</v>
       </c>
       <c r="E2" t="n">
-        <v>92.55740650407078</v>
+        <v>92.55823833971145</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08633224112023</v>
+        <v>79.0869104925666</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455429097654986</v>
+        <v>0.1455443414739784</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23187515088573</v>
+        <v>-78.23245483404058</v>
       </c>
       <c r="I2" t="n">
-        <v>136206.7714353697</v>
+        <v>136187.0994266478</v>
       </c>
       <c r="J2" t="n">
-        <v>83.71651594060829</v>
+        <v>83.70442497028139</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.33236352413531</v>
+        <v>-24.35244700001155</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2462140253617</v>
+        <v>135.2468792335659</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372087.3800236343</v>
+        <v>372087.0166562755</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7160580180446803</v>
+        <v>0.7160036893502174</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069490739682527</v>
+        <v>2.069501792740832</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999930794</v>
+        <v>2.399999999842102</v>
       </c>
       <c r="D3" t="n">
-        <v>2.743090699512144</v>
+        <v>2.742713109876173</v>
       </c>
       <c r="E3" t="n">
-        <v>92.52973870942512</v>
+        <v>92.53028345021373</v>
       </c>
       <c r="F3" t="n">
-        <v>78.20283649490565</v>
+        <v>78.20384108645423</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548356497526792</v>
+        <v>0.1548297684775589</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35767214465834</v>
+        <v>-77.35867085493179</v>
       </c>
       <c r="I3" t="n">
-        <v>140861.8583172814</v>
+        <v>140844.2777766867</v>
       </c>
       <c r="J3" t="n">
-        <v>86.57766337878391</v>
+        <v>86.56685788364273</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.83045650033094</v>
+        <v>-26.84402697686152</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5987926287273</v>
+        <v>142.5960843677529</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370432.9178694558</v>
+        <v>370432.2582092887</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7037210756055948</v>
+        <v>0.7036726399250813</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.64649732377757</v>
+        <v>80.63354388912737</v>
       </c>
       <c r="D2" t="n">
-        <v>80.64649732377757</v>
+        <v>80.63354388912737</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.64649732377757</v>
+        <v>80.63354388912737</v>
       </c>
       <c r="H2" t="n">
-        <v>80.64649732377757</v>
+        <v>80.63354388912737</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3575835820928</v>
+        <v>292.3586251719582</v>
       </c>
       <c r="L2" t="n">
-        <v>132780.6069863121</v>
+        <v>132782.2605451979</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583004415639248</v>
+        <v>1.583018477910939</v>
       </c>
       <c r="N2" t="n">
-        <v>334653.6415477517</v>
+        <v>334654.3866651906</v>
       </c>
       <c r="O2" t="n">
-        <v>418532.5023231923</v>
+        <v>418533.5468885297</v>
       </c>
       <c r="P2" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687432.0723464922</v>
+        <v>-687434.9680295257</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7131410303389</v>
+        <v>717.7131881772935</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.64793165035</v>
+        <v>1006.647986356433</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576982504766</v>
+        <v>1.402576966591514</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980004170149</v>
+        <v>0.9994980076920315</v>
       </c>
       <c r="V2" t="n">
-        <v>342.911226237691</v>
+        <v>342.9118376532841</v>
       </c>
       <c r="W2" t="n">
-        <v>186142.4959000515</v>
+        <v>186144.8132519121</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372228384306969e-06</v>
+        <v>5.372161504423373e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132714.6375720728</v>
+        <v>132716.2912879382</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534963876587722e-06</v>
+        <v>7.534869986913835e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433399881336709</v>
+        <v>0.003433387668878224</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817166078005244e-05</v>
+        <v>1.817171174420211e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582469259684165</v>
+        <v>0.02582477109754461</v>
       </c>
       <c r="AD2" t="n">
-        <v>132780.6069863121</v>
+        <v>132782.2605451979</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583004415639248</v>
+        <v>1.583018477910939</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583004415639248</v>
+        <v>1.583018477910939</v>
       </c>
       <c r="AG2" t="n">
-        <v>334653.6415477517</v>
+        <v>334654.3866651906</v>
       </c>
       <c r="AH2" t="n">
-        <v>418532.5023231923</v>
+        <v>418533.5468885297</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7131410303389</v>
+        <v>717.7131881772935</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.64793165035</v>
+        <v>1006.647986356433</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.911226237691</v>
+        <v>342.9118376532841</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980004170149</v>
+        <v>0.9994980076920315</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817166078005244e-05</v>
+        <v>1.817171174420211e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582469259684165</v>
+        <v>0.02582477109754461</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2351818521913218</v>
+        <v>0.2351436580345045</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2351818521913218</v>
+        <v>0.2351436580345045</v>
       </c>
       <c r="DH2" t="n">
-        <v>183785.2928164395</v>
+        <v>183756.8902261596</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.740741523215668</v>
+        <v>2.74032564837179</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>268.7506812437591</v>
+        <v>268.6999508371382</v>
       </c>
       <c r="DU2" t="n">
-        <v>110.6475275648292</v>
+        <v>110.6156553274832</v>
       </c>
       <c r="DV2" t="n">
-        <v>244.9164210762009</v>
+        <v>244.8751526316052</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.68765713598374</v>
+        <v>65.69022765834487</v>
       </c>
       <c r="DX2" t="n">
-        <v>268.7506812437591</v>
+        <v>268.6999508371382</v>
       </c>
       <c r="DY2" t="n">
-        <v>110.6475275648292</v>
+        <v>110.6156553274832</v>
       </c>
       <c r="DZ2" t="n">
-        <v>244.9164210762009</v>
+        <v>244.8751526316052</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.68765713598376</v>
+        <v>65.69022765834487</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.5633104264184</v>
+        <v>259.5769212269681</v>
       </c>
       <c r="EC2" t="n">
-        <v>85907.64607530934</v>
+        <v>85923.87003275346</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.153787745485704</v>
+        <v>1.1539450680662</v>
       </c>
       <c r="EE2" t="n">
-        <v>311213.9044292192</v>
+        <v>311223.6284859345</v>
       </c>
       <c r="EF2" t="n">
-        <v>385670.9667540971</v>
+        <v>385684.5992986494</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.611348759198</v>
+        <v>3788.609699987804</v>
       </c>
       <c r="EH2" t="n">
-        <v>-597713.5368489382</v>
+        <v>-597751.0423548119</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5370912536621</v>
+        <v>716.5374584806458</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.204413623022</v>
+        <v>1005.20488445818</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402864451670329</v>
+        <v>1.40286438979705</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993241038539543</v>
+        <v>0.999324159686124</v>
       </c>
       <c r="EM2" t="n">
-        <v>323.0833304612476</v>
+        <v>323.0918122190376</v>
       </c>
       <c r="EN2" t="n">
-        <v>120435.6398102391</v>
+        <v>120458.3860156855</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.303189999037005e-06</v>
+        <v>8.301622104332238e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>85849.80513751102</v>
+        <v>85866.02303955554</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.164825008511361e-05</v>
+        <v>1.164605002771974e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003866076681644317</v>
+        <v>0.003865874441820213</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.652841742870182e-05</v>
+        <v>1.652911597564364e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02330669263500611</v>
+        <v>0.0233077573493556</v>
       </c>
       <c r="EU2" t="n">
-        <v>85907.64607530934</v>
+        <v>85923.87003275346</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.153787745485704</v>
+        <v>1.1539450680662</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.153787745485704</v>
+        <v>1.1539450680662</v>
       </c>
       <c r="EX2" t="n">
-        <v>311213.9044292192</v>
+        <v>311223.6284859345</v>
       </c>
       <c r="EY2" t="n">
-        <v>385670.9667540971</v>
+        <v>385684.5992986494</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.611348759198</v>
+        <v>3788.609699987804</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5370912536621</v>
+        <v>716.5374584806458</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.204413623022</v>
+        <v>1005.20488445818</v>
       </c>
       <c r="FC2" t="n">
-        <v>323.0833304612476</v>
+        <v>323.0918122190376</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993241038539543</v>
+        <v>0.999324159686124</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.652841742870182e-05</v>
+        <v>1.652911597564364e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02330669263500611</v>
+        <v>0.0233077573493556</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5937127363321</v>
+        <v>295.5937145390097</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135288.2845503057</v>
+        <v>135289.0619953354</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.595191426373007</v>
+        <v>1.595200587764112</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3686010354</v>
+        <v>336974.3683083591</v>
       </c>
       <c r="FM2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.611348764397</v>
+        <v>3788.609699993003</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698105.2636076815</v>
+        <v>-698104.783070865</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8561732208117</v>
+        <v>717.8561752458248</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.777060645981</v>
+        <v>1006.777073410792</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402477401745903</v>
+        <v>1.40247741557148</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995302925606396</v>
+        <v>0.9995302899143497</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027731289462</v>
+        <v>344.802774977356</v>
       </c>
       <c r="FU2" t="n">
-        <v>189650.6374910118</v>
+        <v>189651.7287125625</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.272853354091115e-06</v>
+        <v>5.272823015052011e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135225.4498039836</v>
+        <v>135226.2265380462</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.395057671832874e-06</v>
+        <v>7.395015194915965e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395619820265741</v>
+        <v>0.003395619871556629</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832925555050916e-05</v>
+        <v>1.832925575009539e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606729576326933</v>
+        <v>0.02606729614696339</v>
       </c>
       <c r="GB2" t="n">
-        <v>135288.2845503057</v>
+        <v>135289.0619953354</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.595191426373007</v>
+        <v>1.595200587764112</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595191426373007</v>
+        <v>1.595200587764112</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3686010354</v>
+        <v>336974.3683083591</v>
       </c>
       <c r="GF2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.611348764397</v>
+        <v>3788.609699993003</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8561732208117</v>
+        <v>717.8561752458248</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.777060645981</v>
+        <v>1006.777073410792</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8027731289462</v>
+        <v>344.802774977356</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995302925606396</v>
+        <v>0.9995302899143497</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832925555050916e-05</v>
+        <v>1.832925575009539e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606729576326933</v>
+        <v>0.02606729614696339</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5937127363321</v>
+        <v>295.5937145390097</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135288.2845503057</v>
+        <v>135289.0619953354</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595191426373007</v>
+        <v>1.595200587764112</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3686010354</v>
+        <v>336974.3683083591</v>
       </c>
       <c r="GT2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.611348764397</v>
+        <v>3788.609699993003</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698105.2636076815</v>
+        <v>-698104.783070865</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561732208117</v>
+        <v>717.8561752458248</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777060645981</v>
+        <v>1006.777073410792</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402477401745903</v>
+        <v>1.40247741557148</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302925606396</v>
+        <v>0.9995302899143497</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8027731289462</v>
+        <v>344.802774977356</v>
       </c>
       <c r="HB2" t="n">
-        <v>189650.6374910118</v>
+        <v>189651.7287125625</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.272853354091115e-06</v>
+        <v>5.272823015052011e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135225.4498039836</v>
+        <v>135226.2265380462</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.395057671832874e-06</v>
+        <v>7.395015194915965e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395619820265741</v>
+        <v>0.003395619871556629</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832925555050916e-05</v>
+        <v>1.832925575009539e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606729576326933</v>
+        <v>0.02606729614696339</v>
       </c>
       <c r="HI2" t="n">
-        <v>135288.2845503057</v>
+        <v>135289.0619953354</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.595191426373007</v>
+        <v>1.595200587764112</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595191426373007</v>
+        <v>1.595200587764112</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3686010354</v>
+        <v>336974.3683083591</v>
       </c>
       <c r="HM2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.611348764397</v>
+        <v>3788.609699993003</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8561732208117</v>
+        <v>717.8561752458248</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.777060645981</v>
+        <v>1006.777073410792</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8027731289462</v>
+        <v>344.802774977356</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995302925606396</v>
+        <v>0.9995302899143497</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832925555050916e-05</v>
+        <v>1.832925575009539e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606729576326933</v>
+        <v>0.02606729614696339</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8318308495213268</v>
+        <v>0.8316519969716074</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8318308495213268</v>
+        <v>0.8316519969716074</v>
       </c>
       <c r="HY2" t="n">
-        <v>490774.4701916264</v>
+        <v>490727.9959045267</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.740741523284643</v>
+        <v>2.740325648374551</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01593129418770512</v>
+        <v>0.01593369941067746</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.788191703860201e-07</v>
+        <v>-1.7880027280317e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01379057938680404</v>
+        <v>0.01379066038778113</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02519285335548665</v>
+        <v>0.02519180119322124</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.05491454811082543</v>
+        <v>0.05491598219140703</v>
       </c>
       <c r="IH2" t="n">
-        <v>2.388055031499192e-12</v>
+        <v>-6.60145549336022e-12</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>268.7506812437591</v>
+        <v>268.6999508371382</v>
       </c>
       <c r="IL2" t="n">
-        <v>110.6475275648292</v>
+        <v>110.6156553274832</v>
       </c>
       <c r="IM2" t="n">
-        <v>244.9164210762009</v>
+        <v>244.8751526316052</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.68765713598374</v>
+        <v>65.69022765834487</v>
       </c>
       <c r="IO2" t="n">
-        <v>136.3126565155917</v>
+        <v>136.2626832597061</v>
       </c>
       <c r="IP2" t="n">
-        <v>110.6475275648292</v>
+        <v>110.6156553274832</v>
       </c>
       <c r="IQ2" t="n">
-        <v>79.61322107620094</v>
+        <v>79.57195263160517</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.73580888925083</v>
+        <v>35.72955069951291</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.5633104265187</v>
+        <v>259.5769212269683</v>
       </c>
       <c r="IT2" t="n">
-        <v>85907.64607542494</v>
+        <v>85923.87003275362</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.15378774548681</v>
+        <v>1.153945068066201</v>
       </c>
       <c r="IV2" t="n">
-        <v>311213.904429291</v>
+        <v>311223.6284859346</v>
       </c>
       <c r="IW2" t="n">
-        <v>385670.9667541976</v>
+        <v>385684.5992986495</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.611348759199</v>
+        <v>3788.609699987805</v>
       </c>
       <c r="IY2" t="n">
-        <v>-597713.5368492183</v>
+        <v>-597751.0423548128</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5370912536649</v>
+        <v>716.537458480646</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.204413623025</v>
+        <v>1005.20488445818</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402864451670329</v>
+        <v>1.402864389797049</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993241038539548</v>
+        <v>0.999324159686124</v>
       </c>
       <c r="JD2" t="n">
-        <v>323.0833304613101</v>
+        <v>323.0918122190377</v>
       </c>
       <c r="JE2" t="n">
-        <v>120435.6398104011</v>
+        <v>120458.3860156857</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.30318999902583e-06</v>
+        <v>8.301622104332225e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>85849.80513762659</v>
+        <v>85866.0230395557</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.164825008509793e-05</v>
+        <v>1.164605002771972e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003866076681642825</v>
+        <v>0.003865874441820209</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.652841742870696e-05</v>
+        <v>1.652911597564365e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02330669263501395</v>
+        <v>0.02330775734935562</v>
       </c>
       <c r="JL2" t="n">
-        <v>85907.64607542494</v>
+        <v>85923.87003275362</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.15378774548681</v>
+        <v>1.153945068066201</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.15378774548681</v>
+        <v>1.153945068066201</v>
       </c>
       <c r="JO2" t="n">
-        <v>311213.904429291</v>
+        <v>311223.6284859346</v>
       </c>
       <c r="JP2" t="n">
-        <v>385670.9667541976</v>
+        <v>385684.5992986495</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.611348759199</v>
+        <v>3788.609699987805</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5370912536649</v>
+        <v>716.537458480646</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.204413623025</v>
+        <v>1005.20488445818</v>
       </c>
       <c r="JT2" t="n">
-        <v>323.0833304613101</v>
+        <v>323.0918122190377</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993241038539548</v>
+        <v>0.999324159686124</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.652841742870696e-05</v>
+        <v>1.652911597564365e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02330669263501395</v>
+        <v>0.02330775734935562</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5937127363321</v>
+        <v>295.5937145391097</v>
       </c>
       <c r="KA2" t="n">
-        <v>135288.2845503048</v>
+        <v>135289.0619954947</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.595191426372996</v>
+        <v>1.595200587765448</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3686010354</v>
+        <v>336974.3683084305</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.611348764399</v>
+        <v>3788.609699993005</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698105.263607682</v>
+        <v>-698104.7830711443</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8561732208117</v>
+        <v>717.8561752458295</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.777060645981</v>
+        <v>1006.777073410797</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477401745903</v>
+        <v>1.402477415571479</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995302925606396</v>
+        <v>0.9995302899143503</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8027731289462</v>
+        <v>344.8027749774143</v>
       </c>
       <c r="KL2" t="n">
-        <v>189650.6374910105</v>
+        <v>189651.7287127856</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.272853354091153e-06</v>
+        <v>5.272823015045808e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135225.4498039826</v>
+        <v>135226.2265382055</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.395057671832926e-06</v>
+        <v>7.395015194907254e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395619820265741</v>
+        <v>0.00339561987155548</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925555050916e-05</v>
+        <v>1.832925575010026e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606729576326933</v>
+        <v>0.0260672961469709</v>
       </c>
       <c r="KS2" t="n">
-        <v>135288.2845503048</v>
+        <v>135289.0619954947</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595191426372996</v>
+        <v>1.595200587765448</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.595191426372996</v>
+        <v>1.595200587765448</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3686010354</v>
+        <v>336974.3683084305</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.611348764399</v>
+        <v>3788.609699993005</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8561732208117</v>
+        <v>717.8561752458295</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.777060645981</v>
+        <v>1006.777073410797</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8027731289462</v>
+        <v>344.8027749774143</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995302925606396</v>
+        <v>0.9995302899143503</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925555050916e-05</v>
+        <v>1.832925575010026e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606729576326933</v>
+        <v>0.0260672961469709</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.8368568728532</v>
+        <v>268.8436668146696</v>
       </c>
       <c r="LH2" t="n">
-        <v>97112.52938233981</v>
+        <v>97121.67807634133</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.259229342743135</v>
+        <v>1.259316032346996</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317840.9314121074</v>
+        <v>317845.7972836862</v>
       </c>
       <c r="LK2" t="n">
-        <v>394961.5369173664</v>
+        <v>394968.3587231169</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.611348759199</v>
+        <v>3788.609699987805</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623556.8299958777</v>
+        <v>-623575.3651512297</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8076607247325</v>
+        <v>716.8078775150399</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.539531737258</v>
+        <v>1005.539805781736</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402802434785088</v>
+        <v>1.402802392835922</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993678904089074</v>
+        <v>0.9993679212747711</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.8113932530958</v>
+        <v>328.8155631278892</v>
       </c>
       <c r="LS2" t="n">
-        <v>136144.0136411405</v>
+        <v>136156.8395793907</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.345163208100223e-06</v>
+        <v>7.344471295670147e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97051.45233940089</v>
+        <v>97060.59832428313</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.030381283221684e-05</v>
+        <v>1.030284190768083e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003732968765660584</v>
+        <v>0.003732874461642775</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.700101343079063e-05</v>
+        <v>1.700135816400944e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.0240280648538908</v>
+        <v>0.02402859192856448</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97112.52938233981</v>
+        <v>97121.67807634133</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.259229342743135</v>
+        <v>1.259316032346996</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.259229342743135</v>
+        <v>1.259316032346996</v>
       </c>
       <c r="MC2" t="n">
-        <v>317840.9314121074</v>
+        <v>317845.7972836862</v>
       </c>
       <c r="MD2" t="n">
-        <v>394961.5369173664</v>
+        <v>394968.3587231169</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.611348759199</v>
+        <v>3788.609699987805</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8076607247325</v>
+        <v>716.8078775150399</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.539531737258</v>
+        <v>1005.539805781736</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.8113932530958</v>
+        <v>328.8155631278892</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993678904089074</v>
+        <v>0.9993679212747711</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.700101343079063e-05</v>
+        <v>1.700135816400944e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.0240280648538908</v>
+        <v>0.02402859192856448</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8318308495211657</v>
+        <v>0.8316519969716071</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4219117597957145</v>
+        <v>0.421746011834332</v>
       </c>
       <c r="MP2" t="n">
-        <v>247973.4831686598</v>
+        <v>247905.896428505</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.74074152328727</v>
+        <v>2.740325648374553</v>
       </c>
       <c r="MR2" t="n">
-        <v>381298.9629521463</v>
+        <v>381305.784758097</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>135.2462140253617</v>
+        <v>135.2468792335659</v>
       </c>
       <c r="MU2" t="n">
-        <v>123.2323857944462</v>
+        <v>123.2134512328284</v>
       </c>
       <c r="MV2" t="n">
-        <v>-55.7253757241952</v>
+        <v>-55.76884235587272</v>
       </c>
       <c r="MW2" t="n">
-        <v>-24.33236352413531</v>
+        <v>-24.35244700001155</v>
       </c>
       <c r="MX2" t="n">
-        <v>253.0609653724919</v>
+        <v>253.0897123079114</v>
       </c>
       <c r="MY2" t="n">
-        <v>123.2323857944462</v>
+        <v>123.2134512328284</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-221.0285757241952</v>
+        <v>-221.0720423558727</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.85856243520296</v>
+        <v>-60.86709821280708</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.8583537846965</v>
+        <v>236.8579024754758</v>
       </c>
       <c r="NC2" t="n">
-        <v>60000.00000017083</v>
+        <v>60000.00000000007</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8831259353169256</v>
+        <v>0.8831276233678736</v>
       </c>
       <c r="NE2" t="n">
-        <v>295001.130758256</v>
+        <v>295000.807288358</v>
       </c>
       <c r="NF2" t="n">
-        <v>362941.6108197307</v>
+        <v>362941.1574850663</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.932194884332</v>
+        <v>3799.930280934936</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537104.0733540407</v>
+        <v>-537102.3584102279</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0325652379935</v>
+        <v>716.0325594044144</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487930097627</v>
+        <v>1004.487930705635</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852298713198</v>
+        <v>1.402852310991492</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992718991515942</v>
+        <v>0.9992718931040352</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6117180245843</v>
+        <v>308.6114234934174</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.96720910366</v>
+        <v>84109.96743603591</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188919735890427e-05</v>
+        <v>1.188919732682671e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.39547103831</v>
+        <v>59956.39510804215</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878784479374e-05</v>
+        <v>1.667878794577272e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004235342330596457</v>
+        <v>0.00423535047354249</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534219067931598e-05</v>
+        <v>1.534216675137315e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150526509067154</v>
+        <v>0.02150522896514231</v>
       </c>
       <c r="NU2" t="n">
-        <v>60000.00000017083</v>
+        <v>60000.00000000007</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8831259353169256</v>
+        <v>0.8831276233678736</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8831259353169256</v>
+        <v>0.8831276233678736</v>
       </c>
       <c r="NX2" t="n">
-        <v>295001.130758256</v>
+        <v>295000.807288358</v>
       </c>
       <c r="NY2" t="n">
-        <v>362941.6108197307</v>
+        <v>362941.1574850663</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.932194884332</v>
+        <v>3799.930280934936</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0325652379935</v>
+        <v>716.0325594044144</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487930097627</v>
+        <v>1004.487930705635</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6117180245843</v>
+        <v>308.6114234934174</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992718991515942</v>
+        <v>0.9992718931040352</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534219067931598e-05</v>
+        <v>1.534216675137315e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150526509067154</v>
+        <v>0.02150522896514231</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>245.9915038240054</v>
+        <v>245.991142511229</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68472.12363885809</v>
+        <v>68472.22790402289</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9703801925259457</v>
+        <v>0.9703831011313334</v>
       </c>
       <c r="OL2" t="n">
-        <v>301525.2187529866</v>
+        <v>301524.9594397045</v>
       </c>
       <c r="OM2" t="n">
-        <v>372087.3800236343</v>
+        <v>372087.0166562755</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.932194892902</v>
+        <v>3799.930280943507</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562663.6550273245</v>
+        <v>-562662.1746160333</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2042443855654</v>
+        <v>716.2042388036805</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.719253170629</v>
+        <v>1004.719254983186</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402839010026507</v>
+        <v>1.402839023490603</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992991935220927</v>
+        <v>0.9992991876839037</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5125652822354</v>
+        <v>314.5123339767644</v>
       </c>
       <c r="OU2" t="n">
-        <v>95988.21705152486</v>
+        <v>95988.36357766608</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.041794535534728e-05</v>
+        <v>1.041792945236409e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68424.25707117394</v>
+        <v>68424.36086417375</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.461470014880562e-05</v>
+        <v>1.461467797974843e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004078402343566597</v>
+        <v>0.004078408410016692</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582421116893417e-05</v>
+        <v>1.582419230942888e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.0222354360060449</v>
+        <v>0.02223540746098079</v>
       </c>
       <c r="PB2" t="n">
-        <v>68472.12363885809</v>
+        <v>68472.22790402289</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9703801925259457</v>
+        <v>0.9703831011313334</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9703801925259457</v>
+        <v>0.9703831011313334</v>
       </c>
       <c r="PE2" t="n">
-        <v>301525.2187529866</v>
+        <v>301524.9594397045</v>
       </c>
       <c r="PF2" t="n">
-        <v>372087.3800236343</v>
+        <v>372087.0166562755</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.932194892902</v>
+        <v>3799.930280943507</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2042443855654</v>
+        <v>716.2042388036805</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.719253170629</v>
+        <v>1004.719254983186</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5125652822354</v>
+        <v>314.5123339767644</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992991935220927</v>
+        <v>0.9992991876839037</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582421116893417e-05</v>
+        <v>1.582419230942888e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.0222354360060449</v>
+        <v>0.02223540746098079</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.8262919568761</v>
+        <v>268.8331016741919</v>
       </c>
       <c r="PQ2" t="n">
-        <v>93354.79481097349</v>
+        <v>93363.67591387202</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.210522165901004</v>
+        <v>1.210606624791752</v>
       </c>
       <c r="PS2" t="n">
-        <v>317842.0942165952</v>
+        <v>317846.9602425732</v>
       </c>
       <c r="PT2" t="n">
-        <v>394961.5369171661</v>
+        <v>394968.358723217</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.932194884331</v>
+        <v>3799.930280934935</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626560.144721142</v>
+        <v>-626578.6848462049</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7953002662388</v>
+        <v>716.7955169862205</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.462111580895</v>
+        <v>1005.462384847421</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402718616050408</v>
+        <v>1.402718573178171</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993920969211177</v>
+        <v>0.9993921260126737</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.8030333836144</v>
+        <v>328.8072024811552</v>
       </c>
       <c r="QB2" t="n">
-        <v>130871.2881670836</v>
+        <v>130883.7381879612</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.641095415239574e-06</v>
+        <v>7.640368573244045e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>93298.31847214945</v>
+        <v>93307.19696069535</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.071830678597397e-05</v>
+        <v>1.071728690361623e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003732604897045811</v>
+        <v>0.00373251060381762</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.69999095456945e-05</v>
+        <v>1.700025423988013e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.0240259203224899</v>
+        <v>0.02402644732747622</v>
       </c>
       <c r="QI2" t="n">
-        <v>93354.79481097349</v>
+        <v>93363.67591387202</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.210522165901004</v>
+        <v>1.210606624791752</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.210522165901004</v>
+        <v>1.210606624791752</v>
       </c>
       <c r="QL2" t="n">
-        <v>317842.0942165952</v>
+        <v>317846.9602425732</v>
       </c>
       <c r="QM2" t="n">
-        <v>394961.5369171661</v>
+        <v>394968.358723217</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.932194884331</v>
+        <v>3799.930280934935</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7953002662388</v>
+        <v>716.7955169862205</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.462111580895</v>
+        <v>1005.462384847421</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.8030333836144</v>
+        <v>328.8072024811552</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993920969211177</v>
+        <v>0.9993921260126737</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.69999095456945e-05</v>
+        <v>1.700025423988013e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.0240259203224899</v>
+        <v>0.02402644732747622</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4382406957553954</v>
+        <v>0.4382432694895065</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8199979151547732</v>
+        <v>0.8200918470320647</v>
       </c>
       <c r="QY2" t="n">
-        <v>379607.5442545797</v>
+        <v>379651.9842811252</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.740741523221237</v>
+        <v>2.740325648372088</v>
       </c>
       <c r="RA2" t="n">
-        <v>381298.9629521463</v>
+        <v>381305.784758097</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02448664324695697</v>
+        <v>0.02447338350199654</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.001921552659666512</v>
+        <v>0.001918126997537766</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01188917040640959</v>
+        <v>0.01189012253329614</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03198686093142884</v>
+        <v>0.0319806601192749</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04237527463784172</v>
+        <v>0.04237524032753696</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1126595018823036</v>
+        <v>0.1126375334796423</v>
       </c>
       <c r="RH2" t="n">
-        <v>7.77954228814437e-11</v>
+        <v>-8.49376124989476e-12</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.71967492404218</v>
+        <v>80.70791210320603</v>
       </c>
       <c r="D3" t="n">
-        <v>80.71967492404218</v>
+        <v>80.70791210320603</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.71967492404218</v>
+        <v>80.70791210320603</v>
       </c>
       <c r="H3" t="n">
-        <v>80.71967492404218</v>
+        <v>80.70791210320603</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3516962046712</v>
+        <v>292.3526429223721</v>
       </c>
       <c r="L3" t="n">
-        <v>132771.2608546337</v>
+        <v>132772.7637242859</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582924932892706</v>
+        <v>1.582937713925763</v>
       </c>
       <c r="N3" t="n">
-        <v>334649.4299218854</v>
+        <v>334650.1071708495</v>
       </c>
       <c r="O3" t="n">
-        <v>418526.5981284673</v>
+        <v>418527.5475503594</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687415.7050790359</v>
+        <v>-687418.3370119581</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7128745544883</v>
+        <v>717.7129174035739</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647622448146</v>
+        <v>1006.647672167817</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577072444201</v>
+        <v>1.402577057982326</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979592980674</v>
+        <v>0.9994979659099996</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9077703131867</v>
+        <v>342.9083260443135</v>
       </c>
       <c r="W3" t="n">
-        <v>186129.3979225768</v>
+        <v>186131.5040938185</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372606429511818e-06</v>
+        <v>5.372545635777787e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132705.2905536367</v>
+        <v>132706.793565822</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535494597299578e-06</v>
+        <v>7.535409251704998e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433468911435361</v>
+        <v>0.00343345781088708</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817137271404222e-05</v>
+        <v>1.817141903655782e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582424888572707</v>
+        <v>0.02582432023673108</v>
       </c>
       <c r="AD3" t="n">
-        <v>132771.2608546337</v>
+        <v>132772.7637242859</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582924932892706</v>
+        <v>1.582937713925763</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582924932892706</v>
+        <v>1.582937713925763</v>
       </c>
       <c r="AG3" t="n">
-        <v>334649.4299218854</v>
+        <v>334650.1071708495</v>
       </c>
       <c r="AH3" t="n">
-        <v>418526.5981284673</v>
+        <v>418527.5475503594</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7128745544883</v>
+        <v>717.7129174035739</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647622448146</v>
+        <v>1006.647672167817</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9077703131867</v>
+        <v>342.9083260443135</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979592980674</v>
+        <v>0.9994979659099996</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817137271404222e-05</v>
+        <v>1.817141903655782e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582424888572707</v>
+        <v>0.02582432023673108</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2353976255782095</v>
+        <v>0.2353629409767562</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353976255782095</v>
+        <v>0.2353629409767562</v>
       </c>
       <c r="DH3" t="n">
-        <v>183945.7369941968</v>
+        <v>183919.9477942134</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.743090699357686</v>
+        <v>2.742713109641779</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>270.2219879930058</v>
+        <v>270.1888883003901</v>
       </c>
       <c r="DU3" t="n">
-        <v>111.1847218057538</v>
+        <v>111.1594838772343</v>
       </c>
       <c r="DV3" t="n">
-        <v>246.2882060348593</v>
+        <v>246.2632829009383</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.70360738394689</v>
+        <v>65.70631065725864</v>
       </c>
       <c r="DX3" t="n">
-        <v>270.2219879930058</v>
+        <v>270.1888883003901</v>
       </c>
       <c r="DY3" t="n">
-        <v>111.1847218057538</v>
+        <v>111.1594838772343</v>
       </c>
       <c r="DZ3" t="n">
-        <v>246.2882060348593</v>
+        <v>246.2632829009383</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.70360738394689</v>
+        <v>65.70631065725863</v>
       </c>
       <c r="EB3" t="n">
-        <v>259.1674391456264</v>
+        <v>259.1763686260447</v>
       </c>
       <c r="EC3" t="n">
-        <v>85435.2201311837</v>
+        <v>85445.8016389402</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.149197335196092</v>
+        <v>1.149300027539698</v>
       </c>
       <c r="EE3" t="n">
-        <v>310931.0845173469</v>
+        <v>310937.4640548259</v>
       </c>
       <c r="EF3" t="n">
-        <v>385274.4696911434</v>
+        <v>385283.4134078889</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.664462890379</v>
+        <v>3788.663445767447</v>
       </c>
       <c r="EH3" t="n">
-        <v>-596623.9969381961</v>
+        <v>-596648.6204123558</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5264444959189</v>
+        <v>716.5266836176218</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.190725460421</v>
+        <v>1005.191032145017</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402866193120869</v>
+        <v>1.402866152967225</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993224981992541</v>
+        <v>0.9993225347102096</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.8365400300199</v>
+        <v>322.842108826862</v>
       </c>
       <c r="EN3" t="n">
-        <v>119773.2898350672</v>
+        <v>119788.1252678603</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.349106895010077e-06</v>
+        <v>8.348072880879322e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>85377.55804679777</v>
+        <v>85388.13557836185</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.171267980576199e-05</v>
+        <v>1.17112288870892e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003871967879595171</v>
+        <v>0.00387183478814568</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.650809359936162e-05</v>
+        <v>1.650855216023973e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02327571726299294</v>
+        <v>0.02327641609984861</v>
       </c>
       <c r="EU3" t="n">
-        <v>85435.2201311837</v>
+        <v>85445.8016389402</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.149197335196092</v>
+        <v>1.149300027539698</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.149197335196092</v>
+        <v>1.149300027539698</v>
       </c>
       <c r="EX3" t="n">
-        <v>310931.0845173469</v>
+        <v>310937.4640548259</v>
       </c>
       <c r="EY3" t="n">
-        <v>385274.4696911434</v>
+        <v>385283.4134078889</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.664462890379</v>
+        <v>3788.663445767447</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5264444959189</v>
+        <v>716.5266836176218</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.190725460421</v>
+        <v>1005.191032145017</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.8365400300199</v>
+        <v>322.842108826862</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993224981992541</v>
+        <v>0.9993225347102096</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.650809359936162e-05</v>
+        <v>1.650855216023973e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02327571726299294</v>
+        <v>0.02327641609984861</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5936546697172</v>
+        <v>295.5936557815787</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135263.2420398112</v>
+        <v>135263.721554351</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594896326075724</v>
+        <v>1.594901976663307</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.3780285084</v>
+        <v>336974.377847991</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.664462895581</v>
+        <v>3788.663445772649</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698120.743815996</v>
+        <v>-698120.4473733804</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8561079924882</v>
+        <v>717.8561092414823</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.776649474755</v>
+        <v>1006.776657347874</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402476956405991</v>
+        <v>1.402476964933372</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995303778013894</v>
+        <v>0.9995303761691918</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8027135893668</v>
+        <v>344.8027147294302</v>
       </c>
       <c r="FU3" t="n">
-        <v>189615.4878412652</v>
+        <v>189616.1608873734</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.273830800346543e-06</v>
+        <v>5.273812080785517e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135200.4301925764</v>
+        <v>135200.909268682</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.39642616947019e-06</v>
+        <v>7.396399960689026e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395618168117568</v>
+        <v>0.003395618199752982</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832924912158184e-05</v>
+        <v>1.832924924468302e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606728340399746</v>
+        <v>0.02606728364065287</v>
       </c>
       <c r="GB3" t="n">
-        <v>135263.2420398112</v>
+        <v>135263.721554351</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594896326075724</v>
+        <v>1.594901976663307</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594896326075724</v>
+        <v>1.594901976663307</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.3780285084</v>
+        <v>336974.377847991</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.664462895581</v>
+        <v>3788.663445772649</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8561079924882</v>
+        <v>717.8561092414823</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.776649474755</v>
+        <v>1006.776657347874</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8027135893668</v>
+        <v>344.8027147294302</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995303778013894</v>
+        <v>0.9995303761691918</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832924912158184e-05</v>
+        <v>1.832924924468302e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606728340399746</v>
+        <v>0.02606728364065287</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5936546697172</v>
+        <v>295.5936557815787</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135263.2420398112</v>
+        <v>135263.721554351</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594896326075724</v>
+        <v>1.594901976663307</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.3780285084</v>
+        <v>336974.377847991</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.664462895581</v>
+        <v>3788.663445772649</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698120.743815996</v>
+        <v>-698120.4473733804</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8561079924882</v>
+        <v>717.8561092414823</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776649474755</v>
+        <v>1006.776657347874</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402476956405991</v>
+        <v>1.402476964933372</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995303778013894</v>
+        <v>0.9995303761691918</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8027135893668</v>
+        <v>344.8027147294302</v>
       </c>
       <c r="HB3" t="n">
-        <v>189615.4878412652</v>
+        <v>189616.1608873734</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.273830800346543e-06</v>
+        <v>5.273812080785517e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135200.4301925764</v>
+        <v>135200.909268682</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.39642616947019e-06</v>
+        <v>7.396399960689026e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395618168117568</v>
+        <v>0.003395618199752982</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832924912158184e-05</v>
+        <v>1.832924924468302e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606728340399746</v>
+        <v>0.02606728364065287</v>
       </c>
       <c r="HI3" t="n">
-        <v>135263.2420398112</v>
+        <v>135263.721554351</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594896326075724</v>
+        <v>1.594901976663307</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594896326075724</v>
+        <v>1.594901976663307</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.3780285084</v>
+        <v>336974.377847991</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.664462895581</v>
+        <v>3788.663445772649</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8561079924882</v>
+        <v>717.8561092414823</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.776649474755</v>
+        <v>1006.776657347874</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8027135893668</v>
+        <v>344.8027147294302</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995303778013894</v>
+        <v>0.9995303761691918</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832924912158184e-05</v>
+        <v>1.832924924468302e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606728340399746</v>
+        <v>0.02606728364065287</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8370241731864628</v>
+        <v>0.8369072091685865</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8370241731864628</v>
+        <v>0.8369072091685865</v>
       </c>
       <c r="HY3" t="n">
-        <v>492103.1126097435</v>
+        <v>492073.1347310892</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.743090699388397</v>
+        <v>2.74271310966397</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01594768449521579</v>
+        <v>0.01595022849390169</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.794076015863533e-07</v>
+        <v>-1.793955750320945e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01379111872476986</v>
+        <v>0.01379120448695535</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02518545009327276</v>
+        <v>0.0251843323886316</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.05492407390565682</v>
+        <v>0.0549255859739136</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.767752610959406e-13</v>
+        <v>-8.715250743307479e-14</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>270.2219879930058</v>
+        <v>270.1888883003901</v>
       </c>
       <c r="IL3" t="n">
-        <v>111.1847218057538</v>
+        <v>111.1594838772343</v>
       </c>
       <c r="IM3" t="n">
-        <v>246.2882060348593</v>
+        <v>246.2632829009383</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.70360738394689</v>
+        <v>65.70631065725864</v>
       </c>
       <c r="IO3" t="n">
-        <v>137.5522212306623</v>
+        <v>137.5171475823285</v>
       </c>
       <c r="IP3" t="n">
-        <v>111.1847218057538</v>
+        <v>111.1594838772343</v>
       </c>
       <c r="IQ3" t="n">
-        <v>80.98500603485934</v>
+        <v>80.96008290093835</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.06893979038145</v>
+        <v>36.06673717406792</v>
       </c>
       <c r="IS3" t="n">
-        <v>259.1674391455267</v>
+        <v>259.1763686261442</v>
       </c>
       <c r="IT3" t="n">
-        <v>85435.22013106864</v>
+        <v>85445.8016388909</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.149197335194986</v>
+        <v>1.149300027538592</v>
       </c>
       <c r="IV3" t="n">
-        <v>310931.0845172756</v>
+        <v>310937.4640548977</v>
       </c>
       <c r="IW3" t="n">
-        <v>385274.4696910436</v>
+        <v>385283.4134079892</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.66446289038</v>
+        <v>3788.663445768</v>
       </c>
       <c r="IY3" t="n">
-        <v>-596623.9969379185</v>
+        <v>-596648.6204127757</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5264444959162</v>
+        <v>716.5266836176237</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.190725460418</v>
+        <v>1005.191032145017</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.40286619312087</v>
+        <v>1.402866152967221</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993224981992537</v>
+        <v>0.9993225347102114</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.8365400299578</v>
+        <v>322.842108826924</v>
       </c>
       <c r="JE3" t="n">
-        <v>119773.2898349059</v>
+        <v>119788.1252677911</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.349106895021322e-06</v>
+        <v>8.348072880884149e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>85377.55804668272</v>
+        <v>85388.13557831272</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.171267980577777e-05</v>
+        <v>1.171122888709593e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003871967879596657</v>
+        <v>0.003871834788144171</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650809359935651e-05</v>
+        <v>1.650855216024482e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02327571726298514</v>
+        <v>0.02327641609985634</v>
       </c>
       <c r="JL3" t="n">
-        <v>85435.22013106864</v>
+        <v>85445.8016388909</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.149197335194986</v>
+        <v>1.149300027538592</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.149197335194986</v>
+        <v>1.149300027538592</v>
       </c>
       <c r="JO3" t="n">
-        <v>310931.0845172756</v>
+        <v>310937.4640548977</v>
       </c>
       <c r="JP3" t="n">
-        <v>385274.4696910436</v>
+        <v>385283.4134079892</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.66446289038</v>
+        <v>3788.663445768</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5264444959162</v>
+        <v>716.5266836176237</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.190725460418</v>
+        <v>1005.191032145017</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.8365400299578</v>
+        <v>322.842108826924</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993224981992537</v>
+        <v>0.9993225347102114</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.650809359935651e-05</v>
+        <v>1.650855216024482e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02327571726298514</v>
+        <v>0.02327641609985634</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5936546696171</v>
+        <v>295.5936557815779</v>
       </c>
       <c r="KA3" t="n">
-        <v>135263.2420396508</v>
+        <v>135263.7215540902</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.594896326074374</v>
+        <v>1.594901976660234</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.3780284367</v>
+        <v>336974.377847991</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.664462895581</v>
+        <v>3788.663445773202</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698120.7438157173</v>
+        <v>-698120.447373541</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8561079924835</v>
+        <v>717.8561092414815</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.77664947475</v>
+        <v>1006.776657347869</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402476956405992</v>
+        <v>1.402476964933367</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995303778013888</v>
+        <v>0.9995303761691927</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8027135893083</v>
+        <v>344.8027147294295</v>
       </c>
       <c r="KL3" t="n">
-        <v>189615.4878410405</v>
+        <v>189616.1608870073</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.273830800352794e-06</v>
+        <v>5.273812080795698e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135200.430192416</v>
+        <v>135200.9092684214</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.396426169478967e-06</v>
+        <v>7.39639996070328e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395618168118716</v>
+        <v>0.003395618199752965</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832924912157696e-05</v>
+        <v>1.832924924468294e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606728340398995</v>
+        <v>0.02606728364065273</v>
       </c>
       <c r="KS3" t="n">
-        <v>135263.2420396508</v>
+        <v>135263.7215540902</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594896326074374</v>
+        <v>1.594901976660234</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.594896326074374</v>
+        <v>1.594901976660234</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.3780284367</v>
+        <v>336974.377847991</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.664462895581</v>
+        <v>3788.663445773202</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8561079924835</v>
+        <v>717.8561092414815</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.77664947475</v>
+        <v>1006.776657347869</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8027135893083</v>
+        <v>344.8027147294295</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995303778013888</v>
+        <v>0.9995303761691927</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832924912157696e-05</v>
+        <v>1.832924924468294e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606728340398995</v>
+        <v>0.02606728364065273</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>268.6104916488127</v>
+        <v>268.6146044048708</v>
       </c>
       <c r="LH3" t="n">
-        <v>96809.35916704879</v>
+        <v>96814.87856791756</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.256357389603551</v>
+        <v>1.256409757967552</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317679.1870625636</v>
+        <v>317682.1256931711</v>
       </c>
       <c r="LK3" t="n">
-        <v>394734.776473788</v>
+        <v>394738.8963477793</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.664462897009</v>
+        <v>3788.66344577463</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622940.2475973627</v>
+        <v>-622951.4363621672</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.8004703943145</v>
+        <v>716.8006008466115</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.530448649372</v>
+        <v>1005.530613786793</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402803834791328</v>
+        <v>1.402803809872876</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993668628759717</v>
+        <v>0.9993668813935284</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.6727551335001</v>
+        <v>328.6752745342876</v>
       </c>
       <c r="LS3" t="n">
-        <v>135718.9869292851</v>
+        <v>135726.72483193</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.368165815451001e-06</v>
+        <v>7.367745749691502e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>96748.371770365</v>
+        <v>96753.88951519152</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.033609126129304e-05</v>
+        <v>1.033550180784193e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.00373610626342997</v>
+        <v>0.003736049214570709</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.698955247424052e-05</v>
+        <v>1.698976074144671e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02401054253448916</v>
+        <v>0.02401086093866492</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96809.35916704879</v>
+        <v>96814.87856791756</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.256357389603551</v>
+        <v>1.256409757967552</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.256357389603551</v>
+        <v>1.256409757967552</v>
       </c>
       <c r="MC3" t="n">
-        <v>317679.1870625636</v>
+        <v>317682.1256931711</v>
       </c>
       <c r="MD3" t="n">
-        <v>394734.776473788</v>
+        <v>394738.8963477793</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.664462897009</v>
+        <v>3788.66344577463</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.8004703943145</v>
+        <v>716.8006008466115</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.530448649372</v>
+        <v>1005.530613786793</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.6727551335001</v>
+        <v>328.6752745342876</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993668628759717</v>
+        <v>0.9993668813935284</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.698955247424052e-05</v>
+        <v>1.698976074144671e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02401054253448916</v>
+        <v>0.02401086093866492</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8370241731866238</v>
+        <v>0.8369072091684258</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.426073892434537</v>
+        <v>0.4259579027098091</v>
       </c>
       <c r="MP3" t="n">
-        <v>249539.733481098</v>
+        <v>249491.467622288</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.743090699385759</v>
+        <v>2.74271310966133</v>
       </c>
       <c r="MR3" t="n">
-        <v>381072.2025087682</v>
+        <v>381076.3223825592</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>142.5987926287273</v>
+        <v>142.5960843677529</v>
       </c>
       <c r="MU3" t="n">
-        <v>127.2474652148397</v>
+        <v>127.2298010647975</v>
       </c>
       <c r="MV3" t="n">
-        <v>-64.36224246846069</v>
+        <v>-64.39115620974172</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.83045650033094</v>
+        <v>-26.84402697686152</v>
       </c>
       <c r="MX3" t="n">
-        <v>262.560722248846</v>
+        <v>262.5774543893585</v>
       </c>
       <c r="MY3" t="n">
-        <v>127.2474652148397</v>
+        <v>127.2298010647975</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-229.6654424684607</v>
+        <v>-229.6943562097417</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.01110194036787</v>
+        <v>-61.01753110335147</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.1852745807493</v>
+        <v>234.1850023156993</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.00000070061</v>
+        <v>57500.00000282552</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559934547666574</v>
+        <v>0.8559944531107532</v>
       </c>
       <c r="NE3" t="n">
-        <v>293092.2992146962</v>
+        <v>293092.1040874916</v>
       </c>
       <c r="NF3" t="n">
-        <v>360265.7100398701</v>
+        <v>360265.4365709743</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.778264905809</v>
+        <v>3800.777097148623</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529820.5915476407</v>
+        <v>-529819.5567262326</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9876103782351</v>
+        <v>715.9876071317169</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421565091799</v>
+        <v>1004.421565720352</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402847689726353</v>
+        <v>1.402847696965198</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992670963017301</v>
+        <v>0.9992670926493074</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.8633530234507</v>
+        <v>306.863174313023</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.72418638217</v>
+        <v>80604.72431067291</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622072830002e-05</v>
+        <v>1.240622070916989e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.92987840711</v>
+        <v>57457.9296705169</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740403808693086e-05</v>
+        <v>1.740403814990092e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004283547972747426</v>
+        <v>0.004283552997260209</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.51997523159511e-05</v>
+        <v>1.519973781743294e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02128990263506639</v>
+        <v>0.02128988076544694</v>
       </c>
       <c r="NU3" t="n">
-        <v>57500.00000070061</v>
+        <v>57500.00000282552</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8559934547666574</v>
+        <v>0.8559944531107532</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8559934547666574</v>
+        <v>0.8559944531107532</v>
       </c>
       <c r="NX3" t="n">
-        <v>293092.2992146962</v>
+        <v>293092.1040874916</v>
       </c>
       <c r="NY3" t="n">
-        <v>360265.7100398701</v>
+        <v>360265.4365709743</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.778264905809</v>
+        <v>3800.777097148623</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9876103782351</v>
+        <v>715.9876071317169</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421565091799</v>
+        <v>1004.421565720352</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.8633530234507</v>
+        <v>306.863174313023</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992670963017301</v>
+        <v>0.9992670926493074</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.51997523159511e-05</v>
+        <v>1.519973781743294e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02128990263506639</v>
+        <v>0.02128988076544694</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.3387661673645</v>
+        <v>244.3381083700732</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66683.07200005747</v>
+        <v>66682.71585062797</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9514213232403403</v>
+        <v>0.9514188078328673</v>
       </c>
       <c r="OL3" t="n">
-        <v>300345.0710121361</v>
+        <v>300344.6003853729</v>
       </c>
       <c r="OM3" t="n">
-        <v>370432.9178694558</v>
+        <v>370432.2582092887</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.778264914484</v>
+        <v>3800.777097167028</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558244.5538554857</v>
+        <v>-558242.4280488009</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1698564742829</v>
+        <v>716.1698444835486</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.669742711975</v>
+        <v>1004.669732320505</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402837237045946</v>
+        <v>1.402837246023676</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992959144273851</v>
+        <v>0.9992959094911725</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4529907317338</v>
+        <v>313.4525682520572</v>
       </c>
       <c r="OU3" t="n">
-        <v>93479.78748467969</v>
+        <v>93479.28835101608</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.069749971526079e-05</v>
+        <v>1.069755683467535e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66636.23192775142</v>
+        <v>66635.87569832634</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.500685094385624e-05</v>
+        <v>1.500693116913772e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.00410589519527339</v>
+        <v>0.004105906280693507</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573746868411184e-05</v>
+        <v>1.573743417108405e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210384051871009</v>
+        <v>0.02210378822707524</v>
       </c>
       <c r="PB3" t="n">
-        <v>66683.07200005747</v>
+        <v>66682.71585062797</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9514213232403403</v>
+        <v>0.9514188078328673</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9514213232403403</v>
+        <v>0.9514188078328673</v>
       </c>
       <c r="PE3" t="n">
-        <v>300345.0710121361</v>
+        <v>300344.6003853729</v>
       </c>
       <c r="PF3" t="n">
-        <v>370432.9178694558</v>
+        <v>370432.2582092887</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.778264914484</v>
+        <v>3800.777097167028</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1698564742829</v>
+        <v>716.1698444835486</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.669742711975</v>
+        <v>1004.669732320505</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4529907317338</v>
+        <v>313.4525682520572</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992959144273851</v>
+        <v>0.9992959094911725</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573746868411184e-05</v>
+        <v>1.573743417108405e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210384051871009</v>
+        <v>0.02210378822707524</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>268.5992187000401</v>
+        <v>268.6033312906943</v>
       </c>
       <c r="PQ3" t="n">
-        <v>92806.46884200648</v>
+        <v>92811.80882562231</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.204428625549939</v>
+        <v>1.204479463981087</v>
       </c>
       <c r="PS3" t="n">
-        <v>317680.4231702611</v>
+        <v>317683.3619021432</v>
       </c>
       <c r="PT3" t="n">
-        <v>394734.7764737882</v>
+        <v>394738.8963475854</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.778264905809</v>
+        <v>3800.77709716527</v>
       </c>
       <c r="PV3" t="n">
-        <v>-626151.2959320062</v>
+        <v>-626162.493444381</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7872747139266</v>
+        <v>716.7874050978215</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.44780941214</v>
+        <v>1005.447973901107</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402714368518078</v>
+        <v>1.402714342844642</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993927734245591</v>
+        <v>0.9993927908455502</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.6638565114993</v>
+        <v>328.6663753956988</v>
       </c>
       <c r="QB3" t="n">
-        <v>130102.2965168696</v>
+        <v>130109.7823839769</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.686259403348317e-06</v>
+        <v>7.685817174367592e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>92750.38413865997</v>
+        <v>92755.72253729163</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.078162650523388e-05</v>
+        <v>1.07810059869671e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003735717348517025</v>
+        <v>0.003735660305935788</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.69883751758953e-05</v>
+        <v>1.698858341582304e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02400825517023993</v>
+        <v>0.02400857352538692</v>
       </c>
       <c r="QI3" t="n">
-        <v>92806.46884200648</v>
+        <v>92811.80882562231</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.204428625549939</v>
+        <v>1.204479463981087</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.204428625549939</v>
+        <v>1.204479463981087</v>
       </c>
       <c r="QL3" t="n">
-        <v>317680.4231702611</v>
+        <v>317683.3619021432</v>
       </c>
       <c r="QM3" t="n">
-        <v>394734.7764737882</v>
+        <v>394738.8963475854</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.778264905809</v>
+        <v>3800.77709716527</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7872747139266</v>
+        <v>716.7874050978215</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.44780941214</v>
+        <v>1005.447973901107</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.6638565114993</v>
+        <v>328.6663753956988</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993927734245591</v>
+        <v>0.9993927908455502</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.69883751758953e-05</v>
+        <v>1.698858341582304e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02400825517023993</v>
+        <v>0.02400857352538692</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.464698020222147</v>
+        <v>0.464689465221703</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8556274956324973</v>
+        <v>0.8556825203193336</v>
       </c>
       <c r="QY3" t="n">
-        <v>385334.684845897</v>
+        <v>385360.0579972008</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.743090699512144</v>
+        <v>2.742713109876173</v>
       </c>
       <c r="RA3" t="n">
-        <v>381072.2025087682</v>
+        <v>381076.3223825592</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02460453034440887</v>
+        <v>0.02459522109677447</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.002167610488659911</v>
+        <v>0.002166345439126797</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01188621339022377</v>
+        <v>0.01188682146156299</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.0320489395890997</v>
+        <v>0.03204523418683441</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04266825628343474</v>
+        <v>0.0426698637680997</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.113375550095827</v>
+        <v>0.1133634859523984</v>
       </c>
       <c r="RH3" t="n">
-        <v>-5.046979500988868e-11</v>
+        <v>-3.233054102214084e-11</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -6189,7 +6189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO3"/>
+  <dimension ref="A1:JM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6245,1330 +6245,1320 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>critical_mass_flow_rate_1</t>
+          <t>blade_speed_throat_1</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>blade_speed_throat_1</t>
+          <t>v_throat_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>v_throat_1</t>
+          <t>v_m_throat_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>v_m_throat_1</t>
+          <t>v_t_throat_1</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>v_t_throat_1</t>
+          <t>alpha_throat_1</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>alpha_throat_1</t>
+          <t>w_throat_1</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>w_throat_1</t>
+          <t>w_m_throat_1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>w_m_throat_1</t>
+          <t>w_t_throat_1</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>w_t_throat_1</t>
+          <t>beta_throat_1</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>beta_throat_1</t>
+          <t>T_throat_1</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>T_throat_1</t>
+          <t>p_throat_1</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>p_throat_1</t>
+          <t>rhomass_throat_1</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>rhomass_throat_1</t>
+          <t>umass_throat_1</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>umass_throat_1</t>
+          <t>hmass_throat_1</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>hmass_throat_1</t>
+          <t>smass_throat_1</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>smass_throat_1</t>
+          <t>gibbsmass_throat_1</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass_throat_1</t>
+          <t>cvmass_throat_1</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>cvmass_throat_1</t>
+          <t>cpmass_throat_1</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>cpmass_throat_1</t>
+          <t>gamma_throat_1</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>gamma_throat_1</t>
+          <t>compressibility_factor_throat_1</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor_throat_1</t>
+          <t>speed_sound_throat_1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound_throat_1</t>
+          <t>isentropic_bulk_modulus_throat_1</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus_throat_1</t>
+          <t>isentropic_compressibility_throat_1</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility_throat_1</t>
+          <t>isothermal_bulk_modulus_throat_1</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus_throat_1</t>
+          <t>isothermal_compressibility_throat_1</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility_throat_1</t>
+          <t>isobaric_expansion_coefficient_throat_1</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient_throat_1</t>
+          <t>viscosity_throat_1</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>viscosity_throat_1</t>
+          <t>conductivity_throat_1</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>conductivity_throat_1</t>
+          <t>P_throat_1</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>P_throat_1</t>
+          <t>rho_throat_1</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>rho_throat_1</t>
+          <t>d_throat_1</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>d_throat_1</t>
+          <t>u_throat_1</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>u_throat_1</t>
+          <t>h_throat_1</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>h_throat_1</t>
+          <t>s_throat_1</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>s_throat_1</t>
+          <t>cv_throat_1</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>cv_throat_1</t>
+          <t>cp_throat_1</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>cp_throat_1</t>
+          <t>a_throat_1</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>a_throat_1</t>
+          <t>Z_throat_1</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Z_throat_1</t>
+          <t>mu_throat_1</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>mu_throat_1</t>
+          <t>k_throat_1</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>k_throat_1</t>
+          <t>fluid_name_throat_1</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name_throat_1</t>
+          <t>converged_throat_1</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>converged_throat_1</t>
+          <t>T0_throat_1</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>T0_throat_1</t>
+          <t>p0_throat_1</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>p0_throat_1</t>
+          <t>rhomass0_throat_1</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_throat_1</t>
+          <t>umass0_throat_1</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>umass0_throat_1</t>
+          <t>hmass0_throat_1</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_throat_1</t>
+          <t>smass0_throat_1</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>smass0_throat_1</t>
+          <t>gibbsmass0_throat_1</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_throat_1</t>
+          <t>cvmass0_throat_1</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_throat_1</t>
+          <t>cpmass0_throat_1</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_throat_1</t>
+          <t>gamma0_throat_1</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_throat_1</t>
+          <t>compressibility_factor0_throat_1</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_throat_1</t>
+          <t>speed_sound0_throat_1</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_throat_1</t>
+          <t>isentropic_bulk_modulus0_throat_1</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_throat_1</t>
+          <t>isentropic_compressibility0_throat_1</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_throat_1</t>
+          <t>isothermal_bulk_modulus0_throat_1</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_throat_1</t>
+          <t>isothermal_compressibility0_throat_1</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_throat_1</t>
+          <t>isobaric_expansion_coefficient0_throat_1</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_throat_1</t>
+          <t>viscosity0_throat_1</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_throat_1</t>
+          <t>conductivity0_throat_1</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_throat_1</t>
+          <t>P0_throat_1</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>P0_throat_1</t>
+          <t>rho0_throat_1</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>rho0_throat_1</t>
+          <t>d0_throat_1</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>d0_throat_1</t>
+          <t>u0_throat_1</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>u0_throat_1</t>
+          <t>h0_throat_1</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>h0_throat_1</t>
+          <t>s0_throat_1</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>s0_throat_1</t>
+          <t>cv0_throat_1</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>cv0_throat_1</t>
+          <t>cp0_throat_1</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>cp0_throat_1</t>
+          <t>a0_throat_1</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>a0_throat_1</t>
+          <t>Z0_throat_1</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>Z0_throat_1</t>
+          <t>mu0_throat_1</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>mu0_throat_1</t>
+          <t>k0_throat_1</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>k0_throat_1</t>
+          <t>fluid_name0_throat_1</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_throat_1</t>
+          <t>converged0_throat_1</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>converged0_throat_1</t>
+          <t>T0_rel_throat_1</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>T0_rel_throat_1</t>
+          <t>p0_rel_throat_1</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>p0_rel_throat_1</t>
+          <t>rhomass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_rel_throat_1</t>
+          <t>umass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>umass0_rel_throat_1</t>
+          <t>hmass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_rel_throat_1</t>
+          <t>smass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>smass0_rel_throat_1</t>
+          <t>gibbsmass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_rel_throat_1</t>
+          <t>cvmass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_rel_throat_1</t>
+          <t>cpmass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_rel_throat_1</t>
+          <t>gamma0_rel_throat_1</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_rel_throat_1</t>
+          <t>compressibility_factor0_rel_throat_1</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_rel_throat_1</t>
+          <t>speed_sound0_rel_throat_1</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_rel_throat_1</t>
+          <t>isentropic_bulk_modulus0_rel_throat_1</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_rel_throat_1</t>
+          <t>isentropic_compressibility0_rel_throat_1</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_rel_throat_1</t>
+          <t>isothermal_bulk_modulus0_rel_throat_1</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_rel_throat_1</t>
+          <t>isothermal_compressibility0_rel_throat_1</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_rel_throat_1</t>
+          <t>isobaric_expansion_coefficient0_rel_throat_1</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_rel_throat_1</t>
+          <t>viscosity0_rel_throat_1</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_rel_throat_1</t>
+          <t>conductivity0_rel_throat_1</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_rel_throat_1</t>
+          <t>P0_rel_throat_1</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>P0_rel_throat_1</t>
+          <t>rho0_rel_throat_1</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>rho0_rel_throat_1</t>
+          <t>d0_rel_throat_1</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>d0_rel_throat_1</t>
+          <t>u0_rel_throat_1</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>u0_rel_throat_1</t>
+          <t>h0_rel_throat_1</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>h0_rel_throat_1</t>
+          <t>s0_rel_throat_1</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>s0_rel_throat_1</t>
+          <t>cv0_rel_throat_1</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>cv0_rel_throat_1</t>
+          <t>cp0_rel_throat_1</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>cp0_rel_throat_1</t>
+          <t>a0_rel_throat_1</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>a0_rel_throat_1</t>
+          <t>Z0_rel_throat_1</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>Z0_rel_throat_1</t>
+          <t>mu0_rel_throat_1</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>mu0_rel_throat_1</t>
+          <t>k0_rel_throat_1</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>k0_rel_throat_1</t>
+          <t>fluid_name0_rel_throat_1</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_rel_throat_1</t>
+          <t>converged0_rel_throat_1</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>converged0_rel_throat_1</t>
+          <t>loss_profile_throat_1</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_throat_1</t>
+          <t>loss_incidence_throat_1</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_throat_1</t>
+          <t>loss_trailing_throat_1</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_throat_1</t>
+          <t>loss_secondary_throat_1</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_throat_1</t>
+          <t>loss_clearance_throat_1</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_throat_1</t>
+          <t>loss_total_throat_1</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_throat_1</t>
+          <t>loss_error_throat_1</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_throat_1</t>
+          <t>Ma_throat_1</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>Ma_throat_1</t>
+          <t>Ma_rel_throat_1</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>Ma_rel_throat_1</t>
+          <t>Re_throat_1</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>Re_throat_1</t>
+          <t>mass_flow_throat_1</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>mass_flow_throat_1</t>
+          <t>rothalpy_throat_1</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>rothalpy_throat_1</t>
+          <t>blockage_throat_1</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>blockage_throat_1</t>
+          <t>dh_s_1</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>dh_s_1</t>
+          <t>incidence_1</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>incidence_1</t>
+          <t>efficiency_drop_profile_1</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_profile_1</t>
+          <t>efficiency_drop_incidence_1</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_incidence_1</t>
+          <t>efficiency_drop_secondary_1</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_secondary_1</t>
+          <t>efficiency_drop_clearance_1</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_clearance_1</t>
+          <t>efficiency_drop_trailing_1</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_trailing_1</t>
+          <t>loss_profile_2</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_2</t>
+          <t>loss_incidence_2</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_2</t>
+          <t>loss_trailing_2</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_2</t>
+          <t>loss_secondary_2</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_2</t>
+          <t>loss_clearance_2</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_2</t>
+          <t>loss_total_2</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_2</t>
+          <t>loss_error_2</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_2</t>
+          <t>critical_mach_2</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>critical_mach_2</t>
+          <t>blade_speed_throat_2</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>critical_mass_flow_rate_2</t>
+          <t>v_throat_2</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>blade_speed_throat_2</t>
+          <t>v_m_throat_2</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>v_throat_2</t>
+          <t>v_t_throat_2</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>v_m_throat_2</t>
+          <t>alpha_throat_2</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>v_t_throat_2</t>
+          <t>w_throat_2</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>alpha_throat_2</t>
+          <t>w_m_throat_2</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>w_throat_2</t>
+          <t>w_t_throat_2</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>w_m_throat_2</t>
+          <t>beta_throat_2</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>w_t_throat_2</t>
+          <t>T_throat_2</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>beta_throat_2</t>
+          <t>p_throat_2</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>T_throat_2</t>
+          <t>rhomass_throat_2</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>p_throat_2</t>
+          <t>umass_throat_2</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>rhomass_throat_2</t>
+          <t>hmass_throat_2</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>umass_throat_2</t>
+          <t>smass_throat_2</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>hmass_throat_2</t>
+          <t>gibbsmass_throat_2</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>smass_throat_2</t>
+          <t>cvmass_throat_2</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass_throat_2</t>
+          <t>cpmass_throat_2</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>cvmass_throat_2</t>
+          <t>gamma_throat_2</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>cpmass_throat_2</t>
+          <t>compressibility_factor_throat_2</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>gamma_throat_2</t>
+          <t>speed_sound_throat_2</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor_throat_2</t>
+          <t>isentropic_bulk_modulus_throat_2</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound_throat_2</t>
+          <t>isentropic_compressibility_throat_2</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus_throat_2</t>
+          <t>isothermal_bulk_modulus_throat_2</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility_throat_2</t>
+          <t>isothermal_compressibility_throat_2</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus_throat_2</t>
+          <t>isobaric_expansion_coefficient_throat_2</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility_throat_2</t>
+          <t>viscosity_throat_2</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient_throat_2</t>
+          <t>conductivity_throat_2</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>viscosity_throat_2</t>
+          <t>P_throat_2</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>conductivity_throat_2</t>
+          <t>rho_throat_2</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>P_throat_2</t>
+          <t>d_throat_2</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>rho_throat_2</t>
+          <t>u_throat_2</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>d_throat_2</t>
+          <t>h_throat_2</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>u_throat_2</t>
+          <t>s_throat_2</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>h_throat_2</t>
+          <t>cv_throat_2</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>s_throat_2</t>
+          <t>cp_throat_2</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>cv_throat_2</t>
+          <t>a_throat_2</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>cp_throat_2</t>
+          <t>Z_throat_2</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>a_throat_2</t>
+          <t>mu_throat_2</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>Z_throat_2</t>
+          <t>k_throat_2</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>mu_throat_2</t>
+          <t>fluid_name_throat_2</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>k_throat_2</t>
+          <t>converged_throat_2</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name_throat_2</t>
+          <t>T0_throat_2</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>converged_throat_2</t>
+          <t>p0_throat_2</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>T0_throat_2</t>
+          <t>rhomass0_throat_2</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>p0_throat_2</t>
+          <t>umass0_throat_2</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_throat_2</t>
+          <t>hmass0_throat_2</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>umass0_throat_2</t>
+          <t>smass0_throat_2</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_throat_2</t>
+          <t>gibbsmass0_throat_2</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>smass0_throat_2</t>
+          <t>cvmass0_throat_2</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_throat_2</t>
+          <t>cpmass0_throat_2</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_throat_2</t>
+          <t>gamma0_throat_2</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_throat_2</t>
+          <t>compressibility_factor0_throat_2</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_throat_2</t>
+          <t>speed_sound0_throat_2</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_throat_2</t>
+          <t>isentropic_bulk_modulus0_throat_2</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_throat_2</t>
+          <t>isentropic_compressibility0_throat_2</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_throat_2</t>
+          <t>isothermal_bulk_modulus0_throat_2</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_throat_2</t>
+          <t>isothermal_compressibility0_throat_2</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_throat_2</t>
+          <t>isobaric_expansion_coefficient0_throat_2</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_throat_2</t>
+          <t>viscosity0_throat_2</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_throat_2</t>
+          <t>conductivity0_throat_2</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_throat_2</t>
+          <t>P0_throat_2</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_throat_2</t>
+          <t>rho0_throat_2</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>P0_throat_2</t>
+          <t>d0_throat_2</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>rho0_throat_2</t>
+          <t>u0_throat_2</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>d0_throat_2</t>
+          <t>h0_throat_2</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>u0_throat_2</t>
+          <t>s0_throat_2</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>h0_throat_2</t>
+          <t>cv0_throat_2</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>s0_throat_2</t>
+          <t>cp0_throat_2</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>cv0_throat_2</t>
+          <t>a0_throat_2</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>cp0_throat_2</t>
+          <t>Z0_throat_2</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>a0_throat_2</t>
+          <t>mu0_throat_2</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>Z0_throat_2</t>
+          <t>k0_throat_2</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>mu0_throat_2</t>
+          <t>fluid_name0_throat_2</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>k0_throat_2</t>
+          <t>converged0_throat_2</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_throat_2</t>
+          <t>T0_rel_throat_2</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>converged0_throat_2</t>
+          <t>p0_rel_throat_2</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>T0_rel_throat_2</t>
+          <t>rhomass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>p0_rel_throat_2</t>
+          <t>umass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_rel_throat_2</t>
+          <t>hmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>umass0_rel_throat_2</t>
+          <t>smass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_rel_throat_2</t>
+          <t>gibbsmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>smass0_rel_throat_2</t>
+          <t>cvmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_rel_throat_2</t>
+          <t>cpmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_rel_throat_2</t>
+          <t>gamma0_rel_throat_2</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_rel_throat_2</t>
+          <t>compressibility_factor0_rel_throat_2</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_rel_throat_2</t>
+          <t>speed_sound0_rel_throat_2</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_rel_throat_2</t>
+          <t>isentropic_bulk_modulus0_rel_throat_2</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_rel_throat_2</t>
+          <t>isentropic_compressibility0_rel_throat_2</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_rel_throat_2</t>
+          <t>isothermal_bulk_modulus0_rel_throat_2</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_rel_throat_2</t>
+          <t>isothermal_compressibility0_rel_throat_2</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_rel_throat_2</t>
+          <t>isobaric_expansion_coefficient0_rel_throat_2</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_rel_throat_2</t>
+          <t>viscosity0_rel_throat_2</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_rel_throat_2</t>
+          <t>conductivity0_rel_throat_2</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_rel_throat_2</t>
+          <t>P0_rel_throat_2</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_rel_throat_2</t>
+          <t>rho0_rel_throat_2</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>P0_rel_throat_2</t>
+          <t>d0_rel_throat_2</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>rho0_rel_throat_2</t>
+          <t>u0_rel_throat_2</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>d0_rel_throat_2</t>
+          <t>h0_rel_throat_2</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>u0_rel_throat_2</t>
+          <t>s0_rel_throat_2</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>h0_rel_throat_2</t>
+          <t>cv0_rel_throat_2</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>s0_rel_throat_2</t>
+          <t>cp0_rel_throat_2</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>cv0_rel_throat_2</t>
+          <t>a0_rel_throat_2</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>cp0_rel_throat_2</t>
+          <t>Z0_rel_throat_2</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>a0_rel_throat_2</t>
+          <t>mu0_rel_throat_2</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>Z0_rel_throat_2</t>
+          <t>k0_rel_throat_2</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>mu0_rel_throat_2</t>
+          <t>fluid_name0_rel_throat_2</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>k0_rel_throat_2</t>
+          <t>converged0_rel_throat_2</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_rel_throat_2</t>
+          <t>loss_profile_throat_2</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>converged0_rel_throat_2</t>
+          <t>loss_incidence_throat_2</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_throat_2</t>
+          <t>loss_trailing_throat_2</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_throat_2</t>
+          <t>loss_secondary_throat_2</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_throat_2</t>
+          <t>loss_clearance_throat_2</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_throat_2</t>
+          <t>loss_total_throat_2</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_throat_2</t>
+          <t>loss_error_throat_2</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_throat_2</t>
+          <t>Ma_throat_2</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_throat_2</t>
+          <t>Ma_rel_throat_2</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>Ma_throat_2</t>
+          <t>Re_throat_2</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>Ma_rel_throat_2</t>
+          <t>mass_flow_throat_2</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>Re_throat_2</t>
+          <t>rothalpy_throat_2</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>mass_flow_throat_2</t>
+          <t>blockage_throat_2</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>rothalpy_throat_2</t>
+          <t>dh_s_2</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>blockage_throat_2</t>
+          <t>incidence_2</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>dh_s_2</t>
+          <t>efficiency_drop_profile_2</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>incidence_2</t>
+          <t>efficiency_drop_incidence_2</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_profile_2</t>
+          <t>efficiency_drop_secondary_2</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_incidence_2</t>
+          <t>efficiency_drop_clearance_2</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_secondary_2</t>
-        </is>
-      </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_clearance_2</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>efficiency_drop_trailing_2</t>
         </is>
@@ -7579,838 +7569,832 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593129418770512</v>
+        <v>0.01593369941067746</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788191703860201e-07</v>
+        <v>-1.7880027280317e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379057938680404</v>
+        <v>0.01379066038778113</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519285335548665</v>
+        <v>0.02519180119322124</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491454811082543</v>
+        <v>0.05491598219140703</v>
       </c>
       <c r="H2" t="n">
-        <v>2.388055031499192e-12</v>
+        <v>-6.60145549336022e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9817983309472608</v>
+        <v>0.9803465294422347</v>
       </c>
       <c r="J2" t="n">
-        <v>2.783722642467344</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>276.8642521560487</v>
+      </c>
+      <c r="L2" t="n">
+        <v>113.6237537541269</v>
+      </c>
+      <c r="M2" t="n">
+        <v>252.4746654711115</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65.77033838487367</v>
+      </c>
+      <c r="O2" t="n">
+        <v>276.8642521560487</v>
+      </c>
+      <c r="P2" t="n">
+        <v>113.6237537541269</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>252.4746654711115</v>
+      </c>
+      <c r="R2" t="n">
+        <v>65.77033838487367</v>
+      </c>
+      <c r="S2" t="n">
+        <v>257.353314135503</v>
+      </c>
+      <c r="T2" t="n">
+        <v>83295.00695863082</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.128315207103135</v>
+      </c>
+      <c r="V2" t="n">
+        <v>309635.0616212997</v>
+      </c>
+      <c r="W2" t="n">
+        <v>383457.5240274252</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3788.906534379122</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-591630.1295447052</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>716.4786262616307</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1005.129004450285</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.402873676350606</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.9993152889125843</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>321.7031770269187</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>116772.6513831478</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>8.563649006468617e-06</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>83238.17985302622</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.201371776468084e-05</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.003899196445667844</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.641480126873704e-05</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.02313358326626084</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>83295.00695863082</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.128315207103135</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.128315207103135</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>309635.0616212997</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>383457.5240274252</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>3788.906534379122</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>716.4786262616307</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1005.129004450285</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>321.7031770269187</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.9993152889125843</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.641480126873704e-05</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.02313358326626084</v>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="AY2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>295.5933901621255</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>135149.1677121869</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1.593552076306536</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>336974.4209724288</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>421784.4310885898</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>3788.906534379758</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-698191.2964161527</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>717.8558108617916</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1006.774776493022</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.402474927777461</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.9995307661003192</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>344.8024423752991</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>189455.3734066611</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>5.278287873384967e-06</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>135086.460124386</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>7.40266640401423e-06</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.003395610642150338</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1.832921983643461e-05</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.02606722710495358</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>135149.1677121869</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1.593552076306536</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1.593552076306536</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>336974.4209724288</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>421784.4310885898</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>3788.906534379758</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>717.8558108617916</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1006.774776493022</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>344.8024423752991</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.9995307661003192</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1.832921983643461e-05</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.02606722710495358</v>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="CF2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>295.5933901621255</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>135149.1677121869</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1.593552076306536</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>336974.4209724288</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>421784.4310885898</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>3788.906534379758</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>-698191.2964161527</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>717.8558108617916</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>1006.774776493022</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1.402474927777461</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.9995307661003192</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>344.8024423752991</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>189455.3734066611</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>5.278287873384967e-06</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>135086.460124386</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>7.40266640401423e-06</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.003395610642150338</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1.832921983643461e-05</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.02606722710495358</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>135149.1677121869</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1.593552076306536</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1.593552076306536</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>336974.4209724288</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>421784.4310885898</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>3788.906534379758</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>717.8558108617916</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1006.774776493022</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>344.8024423752991</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.9995307661003192</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>1.832921983643461e-05</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.02606722710495358</v>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="DM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.01602810879021515</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-1.82131547471478e-07</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.01379329073609899</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.02515667143974338</v>
+      </c>
+      <c r="DR2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="n">
-        <v>277.051495705611</v>
-      </c>
-      <c r="M2" t="n">
-        <v>113.7050375144388</v>
-      </c>
-      <c r="N2" t="n">
-        <v>252.6434161353829</v>
-      </c>
-      <c r="O2" t="n">
-        <v>65.76933148297235</v>
-      </c>
-      <c r="P2" t="n">
-        <v>277.051495705611</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>113.7050375144388</v>
-      </c>
-      <c r="R2" t="n">
-        <v>252.6434161353829</v>
-      </c>
-      <c r="S2" t="n">
-        <v>65.76933148297235</v>
-      </c>
-      <c r="T2" t="n">
-        <v>257.3015351516669</v>
-      </c>
-      <c r="U2" t="n">
-        <v>83234.57804620947</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.12772376084224</v>
-      </c>
-      <c r="W2" t="n">
-        <v>309598.0709539488</v>
-      </c>
-      <c r="X2" t="n">
-        <v>383405.6654521313</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3788.913188279342</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-591487.5144485404</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>716.4772849047174</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1005.127268361873</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.402873879659064</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.9993150861891459</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>321.6707699387335</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>116687.9279733986</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>8.569866800856815e-06</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>83177.77504115827</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1.202244228707942e-05</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.003899979244703452</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1.641213474467683e-05</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.02312952199220374</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>83234.57804620947</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1.12772376084224</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.12772376084224</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>309598.0709539488</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>383405.6654521313</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>3788.913188279342</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>716.4772849047174</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>1005.127268361873</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>321.6707699387335</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.9993150861891459</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1.641213474467683e-05</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.02312952199220374</v>
-      </c>
-      <c r="AY2" t="inlineStr">
+      <c r="DS2" t="n">
+        <v>0.05497788883451005</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>-1.18099974244501e-14</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.8606201987644092</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.8606201987644092</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>497851.0605065696</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>2.74032564836946</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>421784.4310884894</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1473.427404116665</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.006566568120790167</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-7.368685332366018e-08</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.01038200071163868</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.005683382655402879</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.02447338350199654</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.001918126997537766</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.01189012253329614</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.0319806601192749</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.04237524032753696</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.1126375334796423</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>-8.49376124989476e-12</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.961002100148993</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>143.1710351606576</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>127.5487452825975</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-65.03278316210458</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-27.01549358881859</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>263.2932729152385</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>127.5487452825975</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>-230.3359831621046</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>-61.02447140332883</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>234.226269083529</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>57554.70641306256</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.8566580262219269</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>293121.5251099349</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>360306.6849419077</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>3800.680444301841</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>-529912.515505642</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>715.9883610119419</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>1004.423052047408</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1.402848295784874</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.9992669504683053</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>306.8902321737571</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>80681.43607276773</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1.23944248971732e-05</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>57512.58800769156</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1.738749784423304e-05</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.004282804348705132</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>1.520194412783296e-05</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.02129321790044901</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>57554.70641306256</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.8566580262219269</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.8566580262219269</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>293121.5251099349</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>360306.6849419077</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>3800.680444301841</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>715.9883610119419</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>1004.423052047408</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>306.8902321737571</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.9992669504683053</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1.520194412783296e-05</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.02129321790044901</v>
+      </c>
+      <c r="GD2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="AZ2" t="b">
+      <c r="GE2" t="b">
         <v>1</v>
       </c>
-      <c r="BA2" t="n">
-        <v>295.5933828946467</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>135146.0334724445</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1.593515142463945</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>336974.4221523224</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>421784.4310885897</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>3788.913188279799</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>-698193.2357291774</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>717.8558026979819</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1006.77472503199</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1.402474872039953</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.999530776769178</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>344.8024349236314</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>189450.9742006267</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>5.278410439531496e-06</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>135083.3287480317</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>7.402838005756286e-06</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.003395610435369936</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>1.832921903181476e-05</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.02606722555811961</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>135146.0334724445</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1.593515142463945</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>1.593515142463945</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>336974.4221523224</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>421784.4310885897</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>3788.913188279799</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>717.8558026979819</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1006.77472503199</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>344.8024349236314</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.999530776769178</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1.832921903181476e-05</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.02606722555811961</v>
-      </c>
-      <c r="CF2" t="inlineStr">
+      <c r="GF2" t="n">
+        <v>244.4614066900872</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>66822.70615008012</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.9529351477624591</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>300432.6210949254</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>370555.6575963949</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>3800.68044430079</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>-558564.030196882</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>716.1724030949822</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1004.67358526559</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1.402837614132899</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0.9992960651378466</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>313.5317367504235</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>93675.5737877199</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1.067514144366086e-05</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>66775.77849637374</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1.497548995335644e-05</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0.004103843949462253</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1.574391435340559e-05</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>0.02211361781030357</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>66822.70615008012</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.9529351477624591</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0.9529351477624591</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>300432.6210949254</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>370555.6575963949</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>3800.68044430079</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>716.1724030949822</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>1004.67358526559</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>313.5317367504235</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>0.9992960651378466</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>1.574391435340559e-05</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>0.02211361781030357</v>
+      </c>
+      <c r="HK2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="CG2" t="b">
+      <c r="HL2" t="b">
         <v>1</v>
       </c>
-      <c r="CH2" t="n">
-        <v>295.5933828946467</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>135146.0334724445</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1.593515142463945</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>336974.4221523224</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>421784.4310885897</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>3788.913188279799</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>-698193.2357291774</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>717.8558026979819</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>1006.77472503199</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1.402474872039953</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.999530776769178</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>344.8024349236314</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>189450.9742006267</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>5.278410439531496e-06</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>135083.3287480317</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>7.402838005756286e-06</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.003395610435369936</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1.832921903181476e-05</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.02606722555811961</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>135146.0334724445</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1.593515142463945</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1.593515142463945</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>336974.4221523224</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>421784.4310885897</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>3788.913188279799</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>717.8558026979819</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>1006.77472503199</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>344.8024349236314</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.999530776769178</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1.832921903181476e-05</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.02606722555811961</v>
-      </c>
-      <c r="DM2" t="inlineStr">
+      <c r="HM2" t="n">
+        <v>268.8324161248232</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>93119.85352116219</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1.207446265609914</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>317847.0356685256</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>394968.358723117</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>3800.680444292119</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>-626777.7480342998</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>716.7947149388882</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1005.457361475757</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1.402713134626668</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0.9993936971367235</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>328.8066602147817</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>130541.6279802638</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>7.660391673307363e-06</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>93063.66694499331</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1.0745332016533e-05</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>0.003732486991476564</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>1.700018262274229e-05</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>0.02402630820228214</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>93119.85352116219</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>1.207446265609914</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>1.207446265609914</v>
+      </c>
+      <c r="II2" t="n">
+        <v>317847.0356685256</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>394968.358723117</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>3800.680444292119</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>716.7947149388882</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>1005.457361475757</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>328.8066602147817</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>0.9993936971367235</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1.700018262274229e-05</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0.02402630820228214</v>
+      </c>
+      <c r="IR2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="DN2" t="b">
+      <c r="IS2" t="b">
         <v>1</v>
       </c>
-      <c r="DO2" t="n">
-        <v>0.01602746807094815</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>-1.822088379186083e-07</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.01379326062349811</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.02515703990319456</v>
-      </c>
-      <c r="DS2" t="n">
+      <c r="IT2" t="n">
+        <v>0.02429238886948285</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>0.0019651446877099</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>0.01190257554965329</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>0.03190958695839356</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>0.04245126562480688</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>0.1125209616900465</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>-2.030431378585718e-12</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>0.4665219682834222</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>0.8579395670246209</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>386654.0207701409</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>2.740325648284855</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>381305.784758097</v>
+      </c>
+      <c r="JF2" t="n">
         <v>0</v>
       </c>
-      <c r="DT2" t="n">
-        <v>0.0549775863888029</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1.285360706759775e-13</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.8612889998005697</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.8612889998005697</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>498007.5144208173</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>2.74074152321303</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>421784.4310884894</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>1473.775687225512</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.006567386313747315</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>-7.371495111395995e-08</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.01038529565656707</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.005684915566585798</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.02448664324695697</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.001921552659666512</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.01188917040640959</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.03198686093142884</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.04237527463784172</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.1126595018823036</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>7.77954228814437e-11</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.963341986852656</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>2.778686157139243</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>143.4433306455285</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>127.7128147041986</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>-65.31022942092179</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-27.0844541973993</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>263.6154716039016</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>127.7128147041986</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>-230.6134294209218</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>-61.02248761035497</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>234.1346587669474</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>57470.58946059921</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.8557408417686283</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>293056.1067129861</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>360214.9784828787</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>3800.708363477319</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-529662.5772725667</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>715.9868666457077</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1004.420831930554</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1.40284812294968</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.9992667915968547</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>306.8301427788954</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>80563.49607575714</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1.241256957195178e-05</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>57428.52327190016</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>1.741294992499487e-05</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.004284475388520757</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1.519705206959546e-05</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.02128582471123655</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>57470.58946059921</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.8557408417686283</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.8557408417686283</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>293056.1067129861</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>360214.9784828787</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>3800.708363477319</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>715.9868666457077</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1004.420831930554</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>306.8301427788954</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.9992667915968547</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1.519705206959546e-05</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.02128582471123655</v>
-      </c>
-      <c r="GF2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="GG2" t="b">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>244.4087757845531</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>66766.01589333668</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0.9523318330495555</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>300395.0405106203</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>370502.9730361338</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>3800.708363495724</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>-558423.5051999685</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>716.1713231710465</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1004.672020145798</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>1.402837544091174</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.9992959659994338</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>313.4979449542676</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>93596.08821016728</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1.068420720484097e-05</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>66719.12125847995</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1.498820699580034e-05</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.004104724630817353</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1.57411488788624e-05</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.02210942336633638</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>66766.01589333668</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0.9523318330495555</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0.9523318330495555</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>300395.0405106203</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>370502.9730361338</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>3800.708363495724</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>716.1713231710465</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>1004.672020145798</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>313.4979449542676</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0.9992959659994338</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>1.57411488788624e-05</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0.02210942336633638</v>
-      </c>
-      <c r="HM2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="HN2" t="b">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>268.8255827063149</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>93102.55546705979</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1.207252625312134</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>317842.172241541</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>394961.5369171724</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>3800.708363493953</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-626766.1035958539</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>716.7944704770191</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>1005.456914479944</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>1.402712989416371</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0.9993937225180124</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>328.8024724104383</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>130517.3680886619</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>7.661815547189775e-06</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>93046.38160010659</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1.074732819055539e-05</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0.003732580467111093</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1.699983545363788e-05</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>0.02402577638905553</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>93102.55546705979</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1.207252625312134</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>1.207252625312134</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>317842.172241541</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>394961.5369171724</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>3800.708363493953</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>716.7944704770191</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>1005.456914479944</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>328.8024724104383</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>0.9993937225180124</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1.699983545363788e-05</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>0.02402577638905553</v>
-      </c>
-      <c r="IT2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="IU2" t="b">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>0.0242989590704534</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>0.001970334091276208</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>0.01190214067851343</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>0.03191283379874912</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>0.04245439804707012</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>0.1125386656860623</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>1.443034303161284e-10</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>0.4675007785949344</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>0.8591576734162827</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>386837.1858913673</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>2.740741523314057</v>
-      </c>
       <c r="JG2" t="n">
-        <v>381298.9629521463</v>
+        <v>2666.316166081058</v>
       </c>
       <c r="JH2" t="n">
-        <v>0</v>
+        <v>6.129550699512912</v>
       </c>
       <c r="JI2" t="n">
-        <v>2666.383352196659</v>
+        <v>0.008898450241893039</v>
       </c>
       <c r="JJ2" t="n">
-        <v>6.135808889250832</v>
+        <v>0.0006974253332739654</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.008901876174807201</v>
+        <v>0.01162807393391457</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.0006985614021165797</v>
+        <v>0.01540751271731942</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.01162850589035897</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>0.01540511061051185</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>0.004322189926632469</v>
+        <v>0.004323213572978802</v>
       </c>
     </row>
     <row r="3">
@@ -8418,838 +8402,832 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01594768449521579</v>
+        <v>0.01595022849390169</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.794076015863533e-07</v>
+        <v>-1.793955750320945e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379111872476986</v>
+        <v>0.01379120448695535</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02518545009327276</v>
+        <v>0.0251843323886316</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05492407390565682</v>
+        <v>0.0549255859739136</v>
       </c>
       <c r="H3" t="n">
-        <v>1.767752610959406e-13</v>
+        <v>-8.715250743307479e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9817966431019384</v>
+        <v>0.9803447272965711</v>
       </c>
       <c r="J3" t="n">
-        <v>2.78371708721733</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>277.9577307387854</v>
+      </c>
+      <c r="L3" t="n">
+        <v>114.0320323096803</v>
+      </c>
+      <c r="M3" t="n">
+        <v>253.4900307404201</v>
+      </c>
+      <c r="N3" t="n">
+        <v>65.77948826708277</v>
+      </c>
+      <c r="O3" t="n">
+        <v>277.9577307387854</v>
+      </c>
+      <c r="P3" t="n">
+        <v>114.0320323096803</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>253.4900307404201</v>
+      </c>
+      <c r="R3" t="n">
+        <v>65.77948826708277</v>
+      </c>
+      <c r="S3" t="n">
+        <v>257.0504352106868</v>
+      </c>
+      <c r="T3" t="n">
+        <v>82941.78308413591</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.124855601924983</v>
+      </c>
+      <c r="V3" t="n">
+        <v>309418.6874076592</v>
+      </c>
+      <c r="W3" t="n">
+        <v>383154.1810498621</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3788.946161244649</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-590796.078687936</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>716.4707974534959</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1005.118863265417</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.402874851058611</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.9993141076252628</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>321.5135668764602</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>116277.4188267142</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8.600122105309876e-06</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>82885.09751170692</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.206489501757246e-05</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.003903779826831379</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.639920054051342e-05</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.02310982339528539</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>82941.78308413591</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.124855601924983</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.124855601924983</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>309418.6874076592</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>383154.1810498621</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3788.946161244649</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>716.4707974534959</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1005.118863265417</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>321.5135668764602</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.9993141076252628</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.639920054051342e-05</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.02310982339528539</v>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="AY3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>295.5933468836039</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>135130.5030262998</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1.593332131862222</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>336974.4279987979</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>421784.4310885897</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>3788.946161244358</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>-698202.8458754132</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>717.8557622455387</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>1006.774470037784</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.402474595855403</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.9995308296344998</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>344.8023979999745</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>189429.1757340114</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>5.279017849943867e-06</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>135067.8124893051</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>7.403688425613482e-06</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.003395609410752984</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>1.832921504485096e-05</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.02606721789341968</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>135130.5030262998</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>1.593332131862222</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1.593332131862222</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>336974.4279987979</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>421784.4310885897</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>3788.946161244358</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>717.8557622455387</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>1006.774470037784</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>344.8023979999745</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.9995308296344998</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>1.832921504485096e-05</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.02606721789341968</v>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="CF3" t="b">
+        <v>1</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>295.5933468836039</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>135130.5030262998</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>1.593332131862222</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>336974.4279987979</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>421784.4310885897</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>3788.946161244358</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>-698202.8458754132</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>717.8557622455387</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>1006.774470037784</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1.402474595855403</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.9995308296344998</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>344.8023979999745</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>189429.1757340114</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>5.279017849943867e-06</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>135067.8124893051</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>7.403688425613482e-06</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.003395609410752984</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>1.832921504485096e-05</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0.02606721789341968</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>135130.5030262998</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>1.593332131862222</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>1.593332131862222</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>336974.4279987979</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>421784.4310885897</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>3788.946161244358</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>717.8557622455387</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>1006.774470037784</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>344.8023979999745</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0.9995308296344998</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>1.832921504485096e-05</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0.02606721789341968</v>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="DM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.01603742871331182</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>-1.82590809424715e-07</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0.01379361004716647</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0.02515223164248119</v>
+      </c>
+      <c r="DR3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
-        <v>278.1336240543716</v>
-      </c>
-      <c r="M3" t="n">
-        <v>114.1089762256425</v>
-      </c>
-      <c r="N3" t="n">
-        <v>253.6482887274312</v>
-      </c>
-      <c r="O3" t="n">
-        <v>65.77840768304371</v>
-      </c>
-      <c r="P3" t="n">
-        <v>278.1336240543716</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>114.1089762256425</v>
-      </c>
-      <c r="R3" t="n">
-        <v>253.6482887274312</v>
-      </c>
-      <c r="S3" t="n">
-        <v>65.77840768304372</v>
-      </c>
-      <c r="T3" t="n">
-        <v>257.0016035739661</v>
-      </c>
-      <c r="U3" t="n">
-        <v>82884.97725754407</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.124298997822706</v>
-      </c>
-      <c r="W3" t="n">
-        <v>309383.8025224373</v>
-      </c>
-      <c r="X3" t="n">
-        <v>383105.2746735798</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3788.952412253338</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>-590661.5711409751</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>716.469539491313</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1005.117233373973</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.40287503930397</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.9993139174911859</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>321.4829865502155</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>116197.7749776161</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>8.606016769190601e-06</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>82828.31451279306</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1.207316611332888e-05</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.003904519798161985</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.639668464709837e-05</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.02310599192463813</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>82884.97725754407</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1.124298997822706</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.124298997822706</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>309383.8025224373</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>383105.2746735798</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>3788.952412253338</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>716.469539491313</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1005.117233373973</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>321.4829865502155</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.9993139174911859</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>1.639668464709837e-05</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.02310599192463813</v>
-      </c>
-      <c r="AY3" t="inlineStr">
+      <c r="DS3" t="n">
+        <v>0.05498308781215006</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>3.566660855547354e-13</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0.8645287769321071</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0.8645287769321071</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>498758.8280900404</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>2.742713109670771</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>421784.4310884894</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>1485.004309760756</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>0.006324338054746256</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>-7.113116043838133e-08</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0.009985702196661155</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.005468275228219223</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.02459522109677447</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0.002166345439126797</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0.01188682146156299</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0.03204523418683441</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0.0426698637680997</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0.1133634859523984</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>-3.233054102214084e-11</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0.9607508105112061</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>147.8703209333577</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>130.1084645481723</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>-70.26677213200563</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>-28.37184243401143</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>269.1122894208975</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>130.1084645481723</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>-235.5699721320056</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>-61.08753904159543</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>232.4495874004596</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>55931.5961195757</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0.8388647153544341</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>291852.8370254793</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>358528.1841891083</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>3801.263841052801</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>-525074.0272639017</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>715.9598802283006</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>1004.380331903843</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>1.402844432544981</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0.9992640790444464</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>305.7227757803538</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>78405.67814336758</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>1.275417831565036e-05</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>55890.50098814403</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>1.789212804179602e-05</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0.004315445128706044</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>1.510693775192345e-05</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0.02114967868927848</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>55931.5961195757</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0.8388647153544341</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0.8388647153544341</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>291852.8370254793</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>358528.1841891083</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>3801.263841052801</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>715.9598802283006</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>1004.380331903843</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>305.7227757803538</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0.9992640790444464</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>1.510693775192345e-05</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0.02114967868927848</v>
+      </c>
+      <c r="GD3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="AZ3" t="b">
+      <c r="GE3" t="b">
         <v>1</v>
       </c>
-      <c r="BA3" t="n">
-        <v>295.5933400569003</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>135127.5589681948</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>1.593297439113021</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>336974.4291069513</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>421784.431088389</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>3788.952412252922</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>-698204.6677661018</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>717.8557545770841</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>1006.774421699313</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>1.402474543499957</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0.9995308396560382</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>344.8023910003639</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>189425.0434675882</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>5.279133010578436e-06</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>135064.871120489</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>7.403849659086541e-06</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0.003395609216521676</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>1.832921428904528e-05</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0.02606721644043243</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>135127.5589681948</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>1.593297439113021</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>1.593297439113021</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>336974.4291069513</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>421784.431088389</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>3788.952412252922</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>717.8557545770841</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>1006.774421699313</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>344.8023910003639</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0.9995308396560382</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>1.832921428904528e-05</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0.02606721644043243</v>
-      </c>
-      <c r="CF3" t="inlineStr">
+      <c r="GF3" t="n">
+        <v>243.3678546858984</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>65651.70334151338</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0.9404446718333792</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>299651.7861056423</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>369461.0000953676</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>3801.263841051526</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>-555644.4259964202</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>716.1501976961299</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>1004.641302974724</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>1.402836033846917</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>0.9992940563464537</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>312.828874753061</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>92033.70701917098</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>1.086558427763532e-05</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>65605.46264754276</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>1.524263315346736e-05</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0.004122220614581247</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>1.56864070548928e-05</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0.02202641086288826</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>65651.70334151338</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0.9404446718333792</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>0.9404446718333792</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>299651.7861056423</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>369461.0000953676</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>3801.263841051526</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>716.1501976961299</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>1004.641302974724</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>312.828874753061</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0.9992940563464537</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>1.56864070548928e-05</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>0.02202641086288826</v>
+      </c>
+      <c r="HK3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="CG3" t="b">
+      <c r="HL3" t="b">
         <v>1</v>
       </c>
-      <c r="CH3" t="n">
-        <v>295.5933400569003</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>135127.5589681948</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>1.593297439113021</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>336974.4291069513</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>421784.431088389</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>3788.952412252922</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>-698204.6677661018</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>717.8557545770841</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>1006.774421699313</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>1.402474543499957</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0.9995308396560382</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>344.8023910003639</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>189425.0434675882</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>5.279133010578436e-06</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>135064.871120489</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>7.403849659086541e-06</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0.003395609216521676</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>1.832921428904528e-05</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>0.02606721644043243</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>135127.5589681948</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>1.593297439113021</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>1.593297439113021</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>336974.4291069513</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>421784.431088389</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>3788.952412252922</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>717.8557545770841</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>1006.774421699313</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>344.8023910003639</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0.9995308396560382</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>1.832921428904528e-05</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>0.02606721644043243</v>
-      </c>
-      <c r="DM3" t="inlineStr">
+      <c r="HM3" t="n">
+        <v>268.6028881494947</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>92654.46754285764</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>1.202438301323907</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>317683.4104728895</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>394738.8963475854</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>3801.263841042875</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>-626291.5499747724</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>716.7868863791216</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>1005.444725569468</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>1.402710826154359</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>0.9993938096917594</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>328.6660257344423</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>129889.0163829838</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>7.698880381474702e-06</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>92598.56982717151</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>1.079930286036196e-05</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0.003735645016499462</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>1.698853714516622e-05</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>0.0240084836305924</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>92654.46754285764</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>1.202438301323907</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>1.202438301323907</v>
+      </c>
+      <c r="II3" t="n">
+        <v>317683.4104728895</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>394738.8963475854</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>3801.263841042875</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>716.7868863791216</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>1005.444725569468</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>328.6660257344423</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>0.9993938096917594</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>1.698853714516622e-05</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0.0240084836305924</v>
+      </c>
+      <c r="IR3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="DN3" t="b">
+      <c r="IS3" t="b">
         <v>1</v>
       </c>
-      <c r="DO3" t="n">
-        <v>0.01603672025684693</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>-1.826638728031845e-07</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>0.01379357719010032</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0.02515263942087414</v>
-      </c>
-      <c r="DS3" t="n">
+      <c r="IT3" t="n">
+        <v>0.0244817175957501</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>0.002201228145369613</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>0.01189238600740461</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>0.03201339421380241</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>0.04270336871631689</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>0.1132920946786436</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>-2.990495351351541e-11</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>0.4836745334263058</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>0.8802493982791814</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>389424.6425384417</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>2.742713110023133</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>381076.3223825592</v>
+      </c>
+      <c r="JF3" t="n">
         <v>0</v>
       </c>
-      <c r="DT3" t="n">
-        <v>0.05498275420394858</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>6.334106850136578e-12</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0.8651581442582104</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>0.8651581442582104</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>498904.0319578606</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>2.743090699378967</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>421784.4310884894</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>1485.215247605811</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0.006324452933745898</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>-7.114856909349547e-08</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0.009987919799761154</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0.005469212869409009</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0.02460453034440887</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0.002167610488659911</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>0.01188621339022377</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0.0320489395890997</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>0.04266825628343474</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>0.113375550095827</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>-5.046979500988868e-11</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>0.9631018588365728</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>2.770297730504659</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>148.1544009328437</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>130.275750848333</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>-70.55462604728947</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>-28.43905014319365</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>269.4451435206254</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>130.275750848333</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>-235.8578260472895</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>-61.08599395103977</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>232.3559345378319</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>55847.67419797452</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>0.8379437832975454</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>291785.9600967812</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>358434.4337905631</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>3801.291150592436</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>-524818.1239557326</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>715.9584136015213</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>1004.378133345707</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>1.40284423545403</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0.999263924898625</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>305.6611132580566</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>78288.01188619647</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>1.277334774388769e-05</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>55806.63191794675</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>1.791901724996258e-05</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0.004317179698166892</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>1.51019223013499e-05</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0.02114210372237892</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>55847.67419797452</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0.8379437832975454</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>0.8379437832975454</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>291785.9600967812</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>358434.4337905631</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>3801.291150592436</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>715.9584136015213</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>1004.378133345707</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>305.6611132580566</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0.999263924898625</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>1.51019223013499e-05</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0.02114210372237892</v>
-      </c>
-      <c r="GF3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="GG3" t="b">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>243.3162037005187</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>65596.84681057047</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>0.9398584231790804</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>299614.9054752184</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>369409.2970482476</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>3801.291150591142</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>-555506.4348739659</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>716.149161343382</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>1004.639792993849</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>1.4028359554444</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>0.999293963094996</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>312.7956381746849</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>91956.79255195434</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>1.087467246571278e-05</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>65550.63847278109</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1.52553815385831e-05</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0.004123092681936552</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1.56836884243485e-05</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0.02202228901005918</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>65596.84681057047</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0.9398584231790804</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0.9398584231790804</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>299614.9054752184</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>369409.2970482476</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>3801.291150591142</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>716.149161343382</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>1004.639792993849</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>312.7956381746849</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>0.999293963094996</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>1.56836884243485e-05</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0.02202228901005918</v>
-      </c>
-      <c r="HM3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="HN3" t="b">
-        <v>1</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>268.5987517928817</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>92640.69424343141</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>1.202278025767225</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>317680.4743424711</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>394734.7764738883</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3801.291150582497</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>-626287.2817738972</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>716.7867281707038</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>1005.444386846709</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>1.402710663201985</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>0.9993938469742997</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>328.6634881139822</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>129869.6977366863</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>7.700025621277124e-06</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>92584.80821713517</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>1.080090804589391e-05</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0.003735701238593815</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1.698832642414155e-05</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>0.02400816045500341</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>92640.69424343141</v>
-      </c>
-      <c r="II3" t="n">
-        <v>1.202278025767225</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>1.202278025767225</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>317680.4743424711</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>394734.7764738883</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>3801.291150582497</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>716.7867281707038</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>1005.444386846709</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>328.6634881139822</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>0.9993938469742997</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>1.698832642414155e-05</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>0.02400816045500341</v>
-      </c>
-      <c r="IT3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="IU3" t="b">
-        <v>1</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>0.02448487147009686</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>0.002204429595876891</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>0.01189216561970382</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0.03201488114766971</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0.04270408032961561</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>0.1133004281629629</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>-2.558525613594043e-11</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0.4847015027644793</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>0.8815159398217084</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>389607.6030814059</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>2.743090699963003</v>
-      </c>
       <c r="JG3" t="n">
-        <v>381072.2025087682</v>
+        <v>2819.797503659793</v>
       </c>
       <c r="JH3" t="n">
-        <v>0</v>
+        <v>6.466737174067916</v>
       </c>
       <c r="JI3" t="n">
-        <v>2819.83563552401</v>
+        <v>0.008972027844770889</v>
       </c>
       <c r="JJ3" t="n">
-        <v>6.468939790381448</v>
+        <v>0.000790255616111824</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.008974662807774723</v>
+        <v>0.01168969907955769</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.0007906500535475218</v>
+        <v>0.01556543055066001</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.01169005960011233</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0.01556352457776377</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0.004335573804714217</v>
+        <v>0.004336163221275119</v>
       </c>
     </row>
   </sheetData>
@@ -9288,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4088683473074192</v>
+        <v>0.4091107084554654</v>
       </c>
     </row>
     <row r="3">
@@ -9296,7 +9274,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4292546933586491</v>
+        <v>0.4294038855846937</v>
       </c>
     </row>
   </sheetData>
@@ -10086,7 +10064,7 @@
         <v>115</v>
       </c>
       <c r="H2" t="n">
-        <v>1.644259603653577e-10</v>
+        <v>1.566032936518113e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10117,7 +10095,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>1.209041913266735e-10</v>
+        <v>1.022765917159682e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_windows/performance_analysis_evaluate_cascade_throat_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_evaluate_cascade_throat_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.01541565422898</v>
+        <v>2.015415654245029</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999961699</v>
+        <v>2.299999999961945</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740325648372088</v>
+        <v>2.740325648321303</v>
       </c>
       <c r="E2" t="n">
-        <v>92.55823833971145</v>
+        <v>92.55823833794622</v>
       </c>
       <c r="F2" t="n">
-        <v>79.0869104925666</v>
+        <v>79.08691049167719</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455443414739784</v>
+        <v>0.145544341467292</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23245483404058</v>
+        <v>-78.23245483314447</v>
       </c>
       <c r="I2" t="n">
-        <v>136187.0994266478</v>
+        <v>136187.0994225923</v>
       </c>
       <c r="J2" t="n">
-        <v>83.70442497028139</v>
+        <v>83.70442496778878</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.35244700001155</v>
+        <v>-24.35244699886395</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2468792335659</v>
+        <v>135.2468792304593</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372087.0166562755</v>
+        <v>372087.0166568345</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7160036893502174</v>
+        <v>0.7160036893435827</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069501792740832</v>
+        <v>2.069501792761232</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999842102</v>
+        <v>2.40000000002027</v>
       </c>
       <c r="D3" t="n">
-        <v>2.742713109876173</v>
+        <v>2.742713109638594</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53028345021373</v>
+        <v>92.53028345091477</v>
       </c>
       <c r="F3" t="n">
-        <v>78.20384108645423</v>
+        <v>78.20384108767327</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548297684775589</v>
+        <v>0.1548297684707878</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35867085493179</v>
+        <v>-77.35867085614406</v>
       </c>
       <c r="I3" t="n">
-        <v>140844.2777766867</v>
+        <v>140844.277766682</v>
       </c>
       <c r="J3" t="n">
-        <v>86.56685788364273</v>
+        <v>86.56685787749353</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.84402697686152</v>
+        <v>-26.84402697604786</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5960843677529</v>
+        <v>142.5960843646348</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370432.2582092887</v>
+        <v>370432.2582084882</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7036726399250813</v>
+        <v>0.7036726398946045</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.63354388912737</v>
+        <v>80.6335438875531</v>
       </c>
       <c r="D2" t="n">
-        <v>80.63354388912737</v>
+        <v>80.6335438875531</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.63354388912737</v>
+        <v>80.6335438875531</v>
       </c>
       <c r="H2" t="n">
-        <v>80.63354388912737</v>
+        <v>80.6335438875531</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3586251719582</v>
+        <v>292.3586251720851</v>
       </c>
       <c r="L2" t="n">
-        <v>132782.2605451979</v>
+        <v>132782.2605453995</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583018477910939</v>
+        <v>1.583018477912653</v>
       </c>
       <c r="N2" t="n">
-        <v>334654.3866651906</v>
+        <v>334654.3866652814</v>
       </c>
       <c r="O2" t="n">
-        <v>418533.5468885297</v>
+        <v>418533.546888657</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687434.9680295257</v>
+        <v>-687434.968029878</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7131881772935</v>
+        <v>717.7131881772995</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.647986356433</v>
+        <v>1006.647986356439</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576966591514</v>
+        <v>1.402576966591511</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980076920315</v>
+        <v>0.9994980076920323</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9118376532841</v>
+        <v>342.9118376533586</v>
       </c>
       <c r="W2" t="n">
-        <v>186144.8132519121</v>
+        <v>186144.8132521946</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372161504423373e-06</v>
+        <v>5.372161504415221e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132716.2912879382</v>
+        <v>132716.2912881398</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534869986913835e-06</v>
+        <v>7.534869986902392e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433387668878224</v>
+        <v>0.003433387668876737</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817171174420211e-05</v>
+        <v>1.817171174420831e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582477109754461</v>
+        <v>0.02582477109755416</v>
       </c>
       <c r="AD2" t="n">
-        <v>132782.2605451979</v>
+        <v>132782.2605453995</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583018477910939</v>
+        <v>1.583018477912653</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583018477910939</v>
+        <v>1.583018477912653</v>
       </c>
       <c r="AG2" t="n">
-        <v>334654.3866651906</v>
+        <v>334654.3866652814</v>
       </c>
       <c r="AH2" t="n">
-        <v>418533.5468885297</v>
+        <v>418533.546888657</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7131881772935</v>
+        <v>717.7131881772995</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.647986356433</v>
+        <v>1006.647986356439</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9118376532841</v>
+        <v>342.9118376533586</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980076920315</v>
+        <v>0.9994980076920323</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817171174420211e-05</v>
+        <v>1.817171174420831e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582477109754461</v>
+        <v>0.02582477109755416</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2351436580345045</v>
+        <v>0.2351436580298626</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2351436580345045</v>
+        <v>0.2351436580298626</v>
       </c>
       <c r="DH2" t="n">
-        <v>183756.8902261596</v>
+        <v>183756.8902227083</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.74032564837179</v>
+        <v>2.740325648321257</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>268.6999508371382</v>
+        <v>268.6999508368797</v>
       </c>
       <c r="DU2" t="n">
-        <v>110.6156553274832</v>
+        <v>110.6156553273885</v>
       </c>
       <c r="DV2" t="n">
-        <v>244.8751526316052</v>
+        <v>244.8751526313643</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.69022765834487</v>
+        <v>65.69022765834211</v>
       </c>
       <c r="DX2" t="n">
-        <v>268.6999508371382</v>
+        <v>268.6999508368797</v>
       </c>
       <c r="DY2" t="n">
-        <v>110.6156553274832</v>
+        <v>110.6156553273885</v>
       </c>
       <c r="DZ2" t="n">
-        <v>244.8751526316052</v>
+        <v>244.8751526313643</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.69022765834487</v>
+        <v>65.69022765834211</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.5769212269681</v>
+        <v>259.5769212270329</v>
       </c>
       <c r="EC2" t="n">
-        <v>85923.87003275346</v>
+        <v>85923.87003126992</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.1539450680662</v>
+        <v>1.153945068045973</v>
       </c>
       <c r="EE2" t="n">
-        <v>311223.6284859345</v>
+        <v>311223.6284859849</v>
       </c>
       <c r="EF2" t="n">
-        <v>385684.5992986494</v>
+        <v>385684.5992987192</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.609699987804</v>
+        <v>3788.609699993026</v>
       </c>
       <c r="EH2" t="n">
-        <v>-597751.0423548119</v>
+        <v>-597751.0423563434</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5374584806458</v>
+        <v>716.5374584806422</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.20488445818</v>
+        <v>1005.204884458147</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.40286438979705</v>
+        <v>1.402864389797011</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.999324159686124</v>
+        <v>0.9993241596861365</v>
       </c>
       <c r="EM2" t="n">
-        <v>323.0918122190376</v>
+        <v>323.0918122190776</v>
       </c>
       <c r="EN2" t="n">
-        <v>120458.3860156855</v>
+        <v>120458.3860136039</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.301622104332238e-06</v>
+        <v>8.301622104475695e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>85866.02303955554</v>
+        <v>85866.02303807408</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.164605002771974e-05</v>
+        <v>1.164605002792068e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003865874441820213</v>
+        <v>0.003865874441819004</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.652911597564364e-05</v>
+        <v>1.652911597564673e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0233077573493556</v>
+        <v>0.0233077573493601</v>
       </c>
       <c r="EU2" t="n">
-        <v>85923.87003275346</v>
+        <v>85923.87003126992</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.1539450680662</v>
+        <v>1.153945068045973</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.1539450680662</v>
+        <v>1.153945068045973</v>
       </c>
       <c r="EX2" t="n">
-        <v>311223.6284859345</v>
+        <v>311223.6284859849</v>
       </c>
       <c r="EY2" t="n">
-        <v>385684.5992986494</v>
+        <v>385684.5992987192</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.609699987804</v>
+        <v>3788.609699993026</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5374584806458</v>
+        <v>716.5374584806422</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.20488445818</v>
+        <v>1005.204884458147</v>
       </c>
       <c r="FC2" t="n">
-        <v>323.0918122190376</v>
+        <v>323.0918122190776</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.999324159686124</v>
+        <v>0.9993241596861365</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.652911597564364e-05</v>
+        <v>1.652911597564673e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0233077573493556</v>
+        <v>0.0233077573493601</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5937145390097</v>
+        <v>295.5937145388037</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135289.0619953354</v>
+        <v>135289.0619925523</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.595200587764112</v>
+        <v>1.595200587732395</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3683083591</v>
+        <v>336974.3683082166</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.431088389</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.609699993003</v>
+        <v>3788.609699998226</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698104.783070865</v>
+        <v>-698104.7830718291</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8561752458248</v>
+        <v>717.8561752458089</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.777073410792</v>
+        <v>1006.777073410741</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.40247741557148</v>
+        <v>1.40247741557144</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995302899143497</v>
+        <v>0.9995302899143566</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.802774977356</v>
+        <v>344.8027749772333</v>
       </c>
       <c r="FU2" t="n">
-        <v>189651.7287125625</v>
+        <v>189651.7287086568</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.272823015052011e-06</v>
+        <v>5.2728230151606e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135226.2265380462</v>
+        <v>135226.2265352652</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.395015194915965e-06</v>
+        <v>7.395015195068044e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395619871556629</v>
+        <v>0.003395619871558761</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832925575009539e-05</v>
+        <v>1.8329255750085e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606729614696339</v>
+        <v>0.02606729614694714</v>
       </c>
       <c r="GB2" t="n">
-        <v>135289.0619953354</v>
+        <v>135289.0619925523</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.595200587764112</v>
+        <v>1.595200587732395</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595200587764112</v>
+        <v>1.595200587732395</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3683083591</v>
+        <v>336974.3683082166</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.609699993003</v>
+        <v>3788.609699998226</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8561752458248</v>
+        <v>717.8561752458089</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.777073410792</v>
+        <v>1006.777073410741</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.802774977356</v>
+        <v>344.8027749772333</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995302899143497</v>
+        <v>0.9995302899143566</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832925575009539e-05</v>
+        <v>1.8329255750085e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606729614696339</v>
+        <v>0.02606729614694714</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5937145390097</v>
+        <v>295.5937145388037</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135289.0619953354</v>
+        <v>135289.0619925523</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595200587764112</v>
+        <v>1.595200587732395</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3683083591</v>
+        <v>336974.3683082166</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.609699993003</v>
+        <v>3788.609699998226</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698104.783070865</v>
+        <v>-698104.7830718291</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561752458248</v>
+        <v>717.8561752458089</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777073410792</v>
+        <v>1006.777073410741</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.40247741557148</v>
+        <v>1.40247741557144</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302899143497</v>
+        <v>0.9995302899143566</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.802774977356</v>
+        <v>344.8027749772333</v>
       </c>
       <c r="HB2" t="n">
-        <v>189651.7287125625</v>
+        <v>189651.7287086568</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.272823015052011e-06</v>
+        <v>5.2728230151606e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135226.2265380462</v>
+        <v>135226.2265352652</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.395015194915965e-06</v>
+        <v>7.395015195068044e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395619871556629</v>
+        <v>0.003395619871558761</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832925575009539e-05</v>
+        <v>1.8329255750085e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606729614696339</v>
+        <v>0.02606729614694714</v>
       </c>
       <c r="HI2" t="n">
-        <v>135289.0619953354</v>
+        <v>135289.0619925523</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.595200587764112</v>
+        <v>1.595200587732395</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595200587764112</v>
+        <v>1.595200587732395</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3683083591</v>
+        <v>336974.3683082166</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.431088389</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.609699993003</v>
+        <v>3788.609699998226</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8561752458248</v>
+        <v>717.8561752458089</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.777073410792</v>
+        <v>1006.777073410741</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.802774977356</v>
+        <v>344.8027749772333</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995302899143497</v>
+        <v>0.9995302899143566</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832925575009539e-05</v>
+        <v>1.8329255750085e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606729614696339</v>
+        <v>0.02606729614694714</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8316519969716074</v>
+        <v>0.8316519969707042</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8316519969716074</v>
+        <v>0.8316519969707042</v>
       </c>
       <c r="HY2" t="n">
-        <v>490727.9959045267</v>
+        <v>490727.9958953614</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.740325648374551</v>
+        <v>2.740325648324172</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01593369941067746</v>
+        <v>0.01593369941071624</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.7880027280317e-07</v>
+        <v>-1.788002728034547e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01379066038778113</v>
+        <v>0.01379066038778067</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02519180119322124</v>
+        <v>0.0251918011932314</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.05491598219140703</v>
+        <v>0.05491598219145551</v>
       </c>
       <c r="IH2" t="n">
-        <v>-6.60145549336022e-12</v>
+        <v>2.716923908074875e-13</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>268.6999508371382</v>
+        <v>268.6999508368796</v>
       </c>
       <c r="IL2" t="n">
-        <v>110.6156553274832</v>
+        <v>110.6156553273885</v>
       </c>
       <c r="IM2" t="n">
-        <v>244.8751526316052</v>
+        <v>244.8751526313642</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.69022765834487</v>
+        <v>65.69022765834211</v>
       </c>
       <c r="IO2" t="n">
-        <v>136.2626832597061</v>
+        <v>136.2626832594884</v>
       </c>
       <c r="IP2" t="n">
-        <v>110.6156553274832</v>
+        <v>110.6156553273885</v>
       </c>
       <c r="IQ2" t="n">
-        <v>79.57195263160517</v>
+        <v>79.57195263136421</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.72955069951291</v>
+        <v>35.72955069945392</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.5769212269683</v>
+        <v>259.576921226933</v>
       </c>
       <c r="IT2" t="n">
-        <v>85923.87003275362</v>
+        <v>85923.87003131883</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.153945068066201</v>
+        <v>1.153945068047076</v>
       </c>
       <c r="IV2" t="n">
-        <v>311223.6284859346</v>
+        <v>311223.6284859128</v>
       </c>
       <c r="IW2" t="n">
-        <v>385684.5992986495</v>
+        <v>385684.5992986183</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.609699987805</v>
+        <v>3788.609699992474</v>
       </c>
       <c r="IY2" t="n">
-        <v>-597751.0423548128</v>
+        <v>-597751.0423559224</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.537458480646</v>
+        <v>716.5374584806398</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.20488445818</v>
+        <v>1005.204884458147</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402864389797049</v>
+        <v>1.402864389797016</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.999324159686124</v>
+        <v>0.9993241596861347</v>
       </c>
       <c r="JD2" t="n">
-        <v>323.0918122190377</v>
+        <v>323.0918122190153</v>
       </c>
       <c r="JE2" t="n">
-        <v>120458.3860156857</v>
+        <v>120458.3860136726</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.301622104332225e-06</v>
+        <v>8.301622104470959e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>85866.0230395557</v>
+        <v>85866.02303812277</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.164605002771972e-05</v>
+        <v>1.164605002791407e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003865874441820209</v>
+        <v>0.003865874441820516</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.652911597564365e-05</v>
+        <v>1.652911597564162e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02330775734935562</v>
+        <v>0.02330775734935235</v>
       </c>
       <c r="JL2" t="n">
-        <v>85923.87003275362</v>
+        <v>85923.87003131883</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.153945068066201</v>
+        <v>1.153945068047076</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.153945068066201</v>
+        <v>1.153945068047076</v>
       </c>
       <c r="JO2" t="n">
-        <v>311223.6284859346</v>
+        <v>311223.6284859128</v>
       </c>
       <c r="JP2" t="n">
-        <v>385684.5992986495</v>
+        <v>385684.5992986183</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.609699987805</v>
+        <v>3788.609699992474</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.537458480646</v>
+        <v>716.5374584806398</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.20488445818</v>
+        <v>1005.204884458147</v>
       </c>
       <c r="JT2" t="n">
-        <v>323.0918122190377</v>
+        <v>323.0918122190153</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.999324159686124</v>
+        <v>0.9993241596861347</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.652911597564365e-05</v>
+        <v>1.652911597564162e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02330775734935562</v>
+        <v>0.02330775734935235</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5937145391097</v>
+        <v>295.5937145389044</v>
       </c>
       <c r="KA2" t="n">
-        <v>135289.0619954947</v>
+        <v>135289.0619929729</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.595200587765448</v>
+        <v>1.595200587736812</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3683084305</v>
+        <v>336974.3683082882</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884895</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.609699993005</v>
+        <v>3788.609699997674</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698104.7830711443</v>
+        <v>-698104.7830719475</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8561752458295</v>
+        <v>717.8561752458144</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.777073410797</v>
+        <v>1006.777073410751</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477415571479</v>
+        <v>1.402477415571443</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995302899143503</v>
+        <v>0.9995302899143564</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8027749774143</v>
+        <v>344.8027749772924</v>
       </c>
       <c r="KL2" t="n">
-        <v>189651.7287127856</v>
+        <v>189651.7287092468</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.272823015045808e-06</v>
+        <v>5.272823015144195e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135226.2265382055</v>
+        <v>135226.2265356857</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.395015194907254e-06</v>
+        <v>7.395015195045053e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.00339561987155548</v>
+        <v>0.003395619871557631</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925575010026e-05</v>
+        <v>1.832925575008994e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.0260672961469709</v>
+        <v>0.02606729614695478</v>
       </c>
       <c r="KS2" t="n">
-        <v>135289.0619954947</v>
+        <v>135289.0619929729</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595200587765448</v>
+        <v>1.595200587736812</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.595200587765448</v>
+        <v>1.595200587736812</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3683084305</v>
+        <v>336974.3683082882</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884895</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.609699993005</v>
+        <v>3788.609699997674</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8561752458295</v>
+        <v>717.8561752458144</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.777073410797</v>
+        <v>1006.777073410751</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8027749774143</v>
+        <v>344.8027749772924</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995302899143503</v>
+        <v>0.9995302899143564</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925575010026e-05</v>
+        <v>1.832925575008994e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.0260672961469709</v>
+        <v>0.02606729614695478</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.8436668146696</v>
+        <v>268.8436668147045</v>
       </c>
       <c r="LH2" t="n">
-        <v>97121.67807634133</v>
+        <v>97121.67807481025</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.259316032346996</v>
+        <v>1.259316032326967</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317845.7972836862</v>
+        <v>317845.7972837149</v>
       </c>
       <c r="LK2" t="n">
-        <v>394968.3587231169</v>
+        <v>394968.3587231564</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.609699987805</v>
+        <v>3788.609699992474</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623575.3651512297</v>
+        <v>-623575.3651525779</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8078775150399</v>
+        <v>716.8078775150358</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.539805781736</v>
+        <v>1005.539805781705</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402802392835922</v>
+        <v>1.402802392835886</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993679212747711</v>
+        <v>0.9993679212747815</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.8155631278892</v>
+        <v>328.8155631279097</v>
       </c>
       <c r="LS2" t="n">
-        <v>136156.8395793907</v>
+        <v>136156.8395772421</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.344471295670147e-06</v>
+        <v>7.344471295786043e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97060.59832428313</v>
+        <v>97060.59832275403</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.030284190768083e-05</v>
+        <v>1.030284190784314e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003732874461642775</v>
+        <v>0.003732874461642077</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.700135816400944e-05</v>
+        <v>1.700135816401097e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02402859192856448</v>
+        <v>0.02402859192856662</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97121.67807634133</v>
+        <v>97121.67807481025</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.259316032346996</v>
+        <v>1.259316032326967</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.259316032346996</v>
+        <v>1.259316032326967</v>
       </c>
       <c r="MC2" t="n">
-        <v>317845.7972836862</v>
+        <v>317845.7972837149</v>
       </c>
       <c r="MD2" t="n">
-        <v>394968.3587231169</v>
+        <v>394968.3587231564</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.609699987805</v>
+        <v>3788.609699992474</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8078775150399</v>
+        <v>716.8078775150358</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.539805781736</v>
+        <v>1005.539805781705</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.8155631278892</v>
+        <v>328.8155631279097</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993679212747711</v>
+        <v>0.9993679212747815</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.700135816400944e-05</v>
+        <v>1.700135816401097e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02402859192856448</v>
+        <v>0.02402859192856662</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8316519969716071</v>
+        <v>0.8316519969708644</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.421746011834332</v>
+        <v>0.4217460118336877</v>
       </c>
       <c r="MP2" t="n">
-        <v>247905.896428505</v>
+        <v>247905.8964240309</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.740325648374553</v>
+        <v>2.740325648326791</v>
       </c>
       <c r="MR2" t="n">
-        <v>381305.784758097</v>
+        <v>381305.784757936</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>135.2468792335659</v>
+        <v>135.2468792304593</v>
       </c>
       <c r="MU2" t="n">
-        <v>123.2134512328284</v>
+        <v>123.2134512311152</v>
       </c>
       <c r="MV2" t="n">
-        <v>-55.76884235587272</v>
+        <v>-55.76884235212381</v>
       </c>
       <c r="MW2" t="n">
-        <v>-24.35244700001155</v>
+        <v>-24.35244699886395</v>
       </c>
       <c r="MX2" t="n">
-        <v>253.0897123079114</v>
+        <v>253.0897123038027</v>
       </c>
       <c r="MY2" t="n">
-        <v>123.2134512328284</v>
+        <v>123.2134512311152</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-221.0720423558727</v>
+        <v>-221.0720423521238</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.86709821280708</v>
+        <v>-60.86709821273267</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.8579024754758</v>
+        <v>236.8579024765432</v>
       </c>
       <c r="NC2" t="n">
-        <v>60000.00000000007</v>
+        <v>59999.99999999364</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8831276233678736</v>
+        <v>0.8831276233637865</v>
       </c>
       <c r="NE2" t="n">
-        <v>295000.807288358</v>
+        <v>295000.807289123</v>
       </c>
       <c r="NF2" t="n">
-        <v>362941.1574850663</v>
+        <v>362941.1574861384</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.930280934936</v>
+        <v>3799.930280939493</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537102.3584102279</v>
+        <v>-537102.3584142915</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0325594044144</v>
+        <v>716.0325594044278</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487930705635</v>
+        <v>1004.487930705633</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852310991492</v>
+        <v>1.402852310991463</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992718931040352</v>
+        <v>0.9992718931040495</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6114234934174</v>
+        <v>308.611423494114</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.96743603591</v>
+        <v>84109.96743602635</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188919732682671e-05</v>
+        <v>1.188919732682806e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.39510804215</v>
+        <v>59956.39510803659</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878794577272e-05</v>
+        <v>1.667878794577427e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.00423535047354249</v>
+        <v>0.004235350473523228</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534216675137315e-05</v>
+        <v>1.534216675142975e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150522896514231</v>
+        <v>0.02150522896522775</v>
       </c>
       <c r="NU2" t="n">
-        <v>60000.00000000007</v>
+        <v>59999.99999999364</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8831276233678736</v>
+        <v>0.8831276233637865</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8831276233678736</v>
+        <v>0.8831276233637865</v>
       </c>
       <c r="NX2" t="n">
-        <v>295000.807288358</v>
+        <v>295000.807289123</v>
       </c>
       <c r="NY2" t="n">
-        <v>362941.1574850663</v>
+        <v>362941.1574861384</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.930280934936</v>
+        <v>3799.930280939493</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0325594044144</v>
+        <v>716.0325594044278</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487930705635</v>
+        <v>1004.487930705633</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6114234934174</v>
+        <v>308.611423494114</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992718931040352</v>
+        <v>0.9992718931040495</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534216675137315e-05</v>
+        <v>1.534216675142975e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150522896514231</v>
+        <v>0.02150522896522775</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>245.991142511229</v>
+        <v>245.9911425117834</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68472.22790402289</v>
+        <v>68472.22790347763</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9703831011313334</v>
+        <v>0.9703831011214067</v>
       </c>
       <c r="OL2" t="n">
-        <v>301524.9594397045</v>
+        <v>301524.9594401034</v>
       </c>
       <c r="OM2" t="n">
-        <v>372087.0166562755</v>
+        <v>372087.0166568345</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.930280943507</v>
+        <v>3799.930280948064</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562662.1746160333</v>
+        <v>-562662.1746187019</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2042388036805</v>
+        <v>716.2042388036874</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.719254983186</v>
+        <v>1004.719254983173</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402839023490603</v>
+        <v>1.402839023490571</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992991876839037</v>
+        <v>0.9992991876839166</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5123339767644</v>
+        <v>314.5123339771193</v>
       </c>
       <c r="OU2" t="n">
-        <v>95988.36357766608</v>
+        <v>95988.36357690084</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.041792945236409e-05</v>
+        <v>1.041792945244714e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68424.36086417375</v>
+        <v>68424.36086362974</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.461467797974843e-05</v>
+        <v>1.461467797986462e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004078408410016692</v>
+        <v>0.004078408410007309</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582419230942888e-05</v>
+        <v>1.582419230945775e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02223540746098079</v>
+        <v>0.02223540746102444</v>
       </c>
       <c r="PB2" t="n">
-        <v>68472.22790402289</v>
+        <v>68472.22790347763</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9703831011313334</v>
+        <v>0.9703831011214067</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9703831011313334</v>
+        <v>0.9703831011214067</v>
       </c>
       <c r="PE2" t="n">
-        <v>301524.9594397045</v>
+        <v>301524.9594401034</v>
       </c>
       <c r="PF2" t="n">
-        <v>372087.0166562755</v>
+        <v>372087.0166568345</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.930280943507</v>
+        <v>3799.930280948064</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2042388036805</v>
+        <v>716.2042388036874</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.719254983186</v>
+        <v>1004.719254983173</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5123339767644</v>
+        <v>314.5123339771193</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992991876839037</v>
+        <v>0.9992991876839166</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582419230942888e-05</v>
+        <v>1.582419230945775e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02223540746098079</v>
+        <v>0.02223540746102444</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.8331016741919</v>
+        <v>268.8331016739271</v>
       </c>
       <c r="PQ2" t="n">
-        <v>93363.67591387202</v>
+        <v>93363.67591207243</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.210606624791752</v>
+        <v>1.2106066247696</v>
       </c>
       <c r="PS2" t="n">
-        <v>317846.9602425732</v>
+        <v>317846.9602423871</v>
       </c>
       <c r="PT2" t="n">
-        <v>394968.358723217</v>
+        <v>394968.3587229557</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.930280934935</v>
+        <v>3799.930280939493</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626578.6848462049</v>
+        <v>-626578.6848466855</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7955169862205</v>
+        <v>716.7955169862075</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.462384847421</v>
+        <v>1005.46238484738</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402718573178171</v>
+        <v>1.40271857317814</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993921260126737</v>
+        <v>0.999392126012682</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.8072024811552</v>
+        <v>328.8072024809923</v>
       </c>
       <c r="QB2" t="n">
-        <v>130883.7381879612</v>
+        <v>130883.7381854365</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.640368573244045e-06</v>
+        <v>7.640368573391423e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>93307.19696069535</v>
+        <v>93307.19695889756</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.071728690361623e-05</v>
+        <v>1.071728690382272e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.00373251060381762</v>
+        <v>0.003732510603821091</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.700025423988013e-05</v>
+        <v>1.700025423986651e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02402644732747622</v>
+        <v>0.02402644732745522</v>
       </c>
       <c r="QI2" t="n">
-        <v>93363.67591387202</v>
+        <v>93363.67591207243</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.210606624791752</v>
+        <v>1.2106066247696</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.210606624791752</v>
+        <v>1.2106066247696</v>
       </c>
       <c r="QL2" t="n">
-        <v>317846.9602425732</v>
+        <v>317846.9602423871</v>
       </c>
       <c r="QM2" t="n">
-        <v>394968.358723217</v>
+        <v>394968.3587229557</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.930280934935</v>
+        <v>3799.930280939493</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7955169862205</v>
+        <v>716.7955169862075</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.462384847421</v>
+        <v>1005.46238484738</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.8072024811552</v>
+        <v>328.8072024809923</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993921260126737</v>
+        <v>0.999392126012682</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.700025423988013e-05</v>
+        <v>1.700025423986651e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02402644732747622</v>
+        <v>0.02402644732745522</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4382432694895065</v>
+        <v>0.4382432694784508</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8200918470320647</v>
+        <v>0.8200918470169001</v>
       </c>
       <c r="QY2" t="n">
-        <v>379651.9842811252</v>
+        <v>379651.9842718044</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.740325648372088</v>
+        <v>2.740325648321303</v>
       </c>
       <c r="RA2" t="n">
-        <v>381305.784758097</v>
+        <v>381305.784757936</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02447338350199654</v>
+        <v>0.02447338350214479</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.001918126997537766</v>
+        <v>0.001918126997485428</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01189012253329614</v>
+        <v>0.01189012253329266</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.0319806601192749</v>
+        <v>0.03198066011929526</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04237524032753696</v>
+        <v>0.04237524032746241</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1126375334796423</v>
+        <v>0.1126375334796806</v>
       </c>
       <c r="RH2" t="n">
-        <v>-8.49376124989476e-12</v>
+        <v>5.569794625515101e-12</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.70791210320603</v>
+        <v>80.70791210214804</v>
       </c>
       <c r="D3" t="n">
-        <v>80.70791210320603</v>
+        <v>80.70791210214804</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.70791210320603</v>
+        <v>80.70791210214804</v>
       </c>
       <c r="H3" t="n">
-        <v>80.70791210320603</v>
+        <v>80.70791210214804</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3526429223721</v>
+        <v>292.3526429226577</v>
       </c>
       <c r="L3" t="n">
-        <v>132772.7637242859</v>
+        <v>132772.7637247388</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582937713925763</v>
+        <v>1.582937713929613</v>
       </c>
       <c r="N3" t="n">
-        <v>334650.1071708495</v>
+        <v>334650.1071710537</v>
       </c>
       <c r="O3" t="n">
-        <v>418527.5475503594</v>
+        <v>418527.5475506458</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718239</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687418.3370119581</v>
+        <v>-687418.3370127517</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7129174035739</v>
+        <v>717.7129174035867</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647672167817</v>
+        <v>1006.647672167832</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577057982326</v>
+        <v>1.402577057982322</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979659099996</v>
+        <v>0.9994979659100016</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9083260443135</v>
+        <v>342.9083260444811</v>
       </c>
       <c r="W3" t="n">
-        <v>186131.5040938185</v>
+        <v>186131.5040944531</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372545635777787e-06</v>
+        <v>5.37254563575947e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132706.793565822</v>
+        <v>132706.7935662748</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535409251704998e-06</v>
+        <v>7.535409251679282e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00343345781088708</v>
+        <v>0.003433457810883733</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817141903655782e-05</v>
+        <v>1.817141903657179e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582432023673108</v>
+        <v>0.0258243202367526</v>
       </c>
       <c r="AD3" t="n">
-        <v>132772.7637242859</v>
+        <v>132772.7637247388</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582937713925763</v>
+        <v>1.582937713929613</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582937713925763</v>
+        <v>1.582937713929613</v>
       </c>
       <c r="AG3" t="n">
-        <v>334650.1071708495</v>
+        <v>334650.1071710537</v>
       </c>
       <c r="AH3" t="n">
-        <v>418527.5475503594</v>
+        <v>418527.5475506458</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718239</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7129174035739</v>
+        <v>717.7129174035867</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647672167817</v>
+        <v>1006.647672167832</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9083260443135</v>
+        <v>342.9083260444811</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979659099996</v>
+        <v>0.9994979659100016</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817141903655782e-05</v>
+        <v>1.817141903657179e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582432023673108</v>
+        <v>0.0258243202367526</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2353629409767562</v>
+        <v>0.2353629409735558</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353629409767562</v>
+        <v>0.2353629409735558</v>
       </c>
       <c r="DH3" t="n">
-        <v>183919.9477942134</v>
+        <v>183919.9477921083</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.742713109641779</v>
+        <v>2.742713109612496</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>270.1888883003901</v>
+        <v>270.1888883090332</v>
       </c>
       <c r="DU3" t="n">
-        <v>111.1594838772343</v>
+        <v>111.1594838803912</v>
       </c>
       <c r="DV3" t="n">
-        <v>246.2632829009383</v>
+        <v>246.2632829089961</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.70631065725864</v>
+        <v>65.70631065735147</v>
       </c>
       <c r="DX3" t="n">
-        <v>270.1888883003901</v>
+        <v>270.1888883090332</v>
       </c>
       <c r="DY3" t="n">
-        <v>111.1594838772343</v>
+        <v>111.1594838803912</v>
       </c>
       <c r="DZ3" t="n">
-        <v>246.2632829009383</v>
+        <v>246.2632829089961</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.70631065725863</v>
+        <v>65.70631065735145</v>
       </c>
       <c r="EB3" t="n">
-        <v>259.1763686260447</v>
+        <v>259.1763686239086</v>
       </c>
       <c r="EC3" t="n">
-        <v>85445.8016389402</v>
+        <v>85445.80163483584</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.149300027539698</v>
+        <v>1.14930002749396</v>
       </c>
       <c r="EE3" t="n">
-        <v>310937.4640548259</v>
+        <v>310937.4640533037</v>
       </c>
       <c r="EF3" t="n">
-        <v>385283.4134078889</v>
+        <v>385283.4134057541</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.663445767447</v>
+        <v>3788.66344577299</v>
       </c>
       <c r="EH3" t="n">
-        <v>-596648.6204123558</v>
+        <v>-596648.6204078342</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5266836176218</v>
+        <v>716.5266836175588</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.191032145017</v>
+        <v>1005.191032144908</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402866152967225</v>
+        <v>1.402866152967197</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993225347102096</v>
+        <v>0.9993225347102133</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.842108826862</v>
+        <v>322.8421088255294</v>
       </c>
       <c r="EN3" t="n">
-        <v>119788.1252678603</v>
+        <v>119788.1252621043</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.348072880879322e-06</v>
+        <v>8.34807288128046e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>85388.13557836185</v>
+        <v>85388.13557426055</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.17112288870892e-05</v>
+        <v>1.17112288876517e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.00387183478814568</v>
+        <v>0.00387183478817727</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.650855216023973e-05</v>
+        <v>1.650855216012979e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02327641609984861</v>
+        <v>0.02327641609968085</v>
       </c>
       <c r="EU3" t="n">
-        <v>85445.8016389402</v>
+        <v>85445.80163483584</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.149300027539698</v>
+        <v>1.14930002749396</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.149300027539698</v>
+        <v>1.14930002749396</v>
       </c>
       <c r="EX3" t="n">
-        <v>310937.4640548259</v>
+        <v>310937.4640533037</v>
       </c>
       <c r="EY3" t="n">
-        <v>385283.4134078889</v>
+        <v>385283.4134057541</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.663445767447</v>
+        <v>3788.66344577299</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5266836176218</v>
+        <v>716.5266836175588</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.191032145017</v>
+        <v>1005.191032144908</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.842108826862</v>
+        <v>322.8421088255294</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993225347102096</v>
+        <v>0.9993225347102133</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.650855216023973e-05</v>
+        <v>1.650855216012979e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02327641609984861</v>
+        <v>0.02327641609968085</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5936557815787</v>
+        <v>295.5936557815726</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135263.721554351</v>
+        <v>135263.7215517381</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594901976663307</v>
+        <v>1.594901976632516</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.377847991</v>
+        <v>336974.377847992</v>
       </c>
       <c r="FM3" t="n">
         <v>421784.4310885896</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.663445772649</v>
+        <v>3788.663445778191</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698120.4473733804</v>
+        <v>-698120.4473749956</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8561092414823</v>
+        <v>717.8561092414753</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.776657347874</v>
+        <v>1006.77665734783</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402476964933372</v>
+        <v>1.402476964933326</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995303761691918</v>
+        <v>0.9995303761692007</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8027147294302</v>
+        <v>344.802714729424</v>
       </c>
       <c r="FU3" t="n">
-        <v>189616.1608873734</v>
+        <v>189616.1608837059</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.273812080785517e-06</v>
+        <v>5.27381208088752e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135200.909268682</v>
+        <v>135200.9092660715</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.396399960689026e-06</v>
+        <v>7.396399960831839e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395618199752982</v>
+        <v>0.003395618199752809</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832924924468302e-05</v>
+        <v>1.832924924468235e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606728364065287</v>
+        <v>0.02606728364065158</v>
       </c>
       <c r="GB3" t="n">
-        <v>135263.721554351</v>
+        <v>135263.7215517381</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594901976663307</v>
+        <v>1.594901976632516</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594901976663307</v>
+        <v>1.594901976632516</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.377847991</v>
+        <v>336974.377847992</v>
       </c>
       <c r="GF3" t="n">
         <v>421784.4310885896</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.663445772649</v>
+        <v>3788.663445778191</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8561092414823</v>
+        <v>717.8561092414753</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.776657347874</v>
+        <v>1006.77665734783</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8027147294302</v>
+        <v>344.802714729424</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995303761691918</v>
+        <v>0.9995303761692007</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832924924468302e-05</v>
+        <v>1.832924924468235e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606728364065287</v>
+        <v>0.02606728364065158</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5936557815787</v>
+        <v>295.5936557815726</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135263.721554351</v>
+        <v>135263.7215517381</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594901976663307</v>
+        <v>1.594901976632516</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.377847991</v>
+        <v>336974.377847992</v>
       </c>
       <c r="GT3" t="n">
         <v>421784.4310885896</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.663445772649</v>
+        <v>3788.663445778191</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698120.4473733804</v>
+        <v>-698120.4473749956</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8561092414823</v>
+        <v>717.8561092414753</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776657347874</v>
+        <v>1006.77665734783</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402476964933372</v>
+        <v>1.402476964933326</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995303761691918</v>
+        <v>0.9995303761692007</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8027147294302</v>
+        <v>344.802714729424</v>
       </c>
       <c r="HB3" t="n">
-        <v>189616.1608873734</v>
+        <v>189616.1608837059</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.273812080785517e-06</v>
+        <v>5.27381208088752e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135200.909268682</v>
+        <v>135200.9092660715</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.396399960689026e-06</v>
+        <v>7.396399960831839e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395618199752982</v>
+        <v>0.003395618199752809</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832924924468302e-05</v>
+        <v>1.832924924468235e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606728364065287</v>
+        <v>0.02606728364065158</v>
       </c>
       <c r="HI3" t="n">
-        <v>135263.721554351</v>
+        <v>135263.7215517381</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594901976663307</v>
+        <v>1.594901976632516</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594901976663307</v>
+        <v>1.594901976632516</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.377847991</v>
+        <v>336974.377847992</v>
       </c>
       <c r="HM3" t="n">
         <v>421784.4310885896</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.663445772649</v>
+        <v>3788.663445778191</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8561092414823</v>
+        <v>717.8561092414753</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.776657347874</v>
+        <v>1006.77665734783</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8027147294302</v>
+        <v>344.802714729424</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995303761691918</v>
+        <v>0.9995303761692007</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832924924468302e-05</v>
+        <v>1.832924924468235e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606728364065287</v>
+        <v>0.02606728364065158</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8369072091685865</v>
+        <v>0.8369072091988127</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8369072091685865</v>
+        <v>0.8369072091988127</v>
       </c>
       <c r="HY3" t="n">
-        <v>492073.1347310892</v>
+        <v>492073.1347305246</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.74271310966397</v>
+        <v>2.742713109632713</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01595022849390169</v>
+        <v>0.01595022849403729</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.793955750320945e-07</v>
+        <v>-1.793955750225705e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01379120448695535</v>
+        <v>0.01379120448695816</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.0251843323886316</v>
+        <v>0.02518433238859637</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.0549255859739136</v>
+        <v>0.0549255859740168</v>
       </c>
       <c r="IH3" t="n">
-        <v>-8.715250743307479e-14</v>
+        <v>1.731600973720049e-13</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>270.1888883003901</v>
+        <v>270.1888883090332</v>
       </c>
       <c r="IL3" t="n">
-        <v>111.1594838772343</v>
+        <v>111.1594838803912</v>
       </c>
       <c r="IM3" t="n">
-        <v>246.2632829009383</v>
+        <v>246.2632829089961</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.70631065725864</v>
+        <v>65.70631065735147</v>
       </c>
       <c r="IO3" t="n">
-        <v>137.5171475823285</v>
+        <v>137.5171475896241</v>
       </c>
       <c r="IP3" t="n">
-        <v>111.1594838772343</v>
+        <v>111.1594838803912</v>
       </c>
       <c r="IQ3" t="n">
-        <v>80.96008290093835</v>
+        <v>80.96008290899613</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.06673717406792</v>
+        <v>36.06673717600733</v>
       </c>
       <c r="IS3" t="n">
-        <v>259.1763686261442</v>
+        <v>259.1763686240084</v>
       </c>
       <c r="IT3" t="n">
-        <v>85445.8016388909</v>
+        <v>85445.80163495065</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.149300027538592</v>
+        <v>1.149300027495062</v>
       </c>
       <c r="IV3" t="n">
-        <v>310937.4640548977</v>
+        <v>310937.464053375</v>
       </c>
       <c r="IW3" t="n">
-        <v>385283.4134079892</v>
+        <v>385283.4134058541</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.663445768</v>
+        <v>3788.663445772991</v>
       </c>
       <c r="IY3" t="n">
-        <v>-596648.6204127757</v>
+        <v>-596648.6204081128</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5266836176237</v>
+        <v>716.5266836175616</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.191032145017</v>
+        <v>1005.191032144912</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402866152967221</v>
+        <v>1.402866152967196</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993225347102114</v>
+        <v>0.9993225347102137</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.842108826924</v>
+        <v>322.8421088255917</v>
       </c>
       <c r="JE3" t="n">
-        <v>119788.1252677911</v>
+        <v>119788.1252622653</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.348072880884149e-06</v>
+        <v>8.348072881269242e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>85388.13557831272</v>
+        <v>85388.13557437537</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.171122888709593e-05</v>
+        <v>1.171122888763595e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003871834788144171</v>
+        <v>0.003871834788175779</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650855216024482e-05</v>
+        <v>1.650855216013492e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02327641609985634</v>
+        <v>0.02327641609968866</v>
       </c>
       <c r="JL3" t="n">
-        <v>85445.8016388909</v>
+        <v>85445.80163495065</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.149300027538592</v>
+        <v>1.149300027495062</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.149300027538592</v>
+        <v>1.149300027495062</v>
       </c>
       <c r="JO3" t="n">
-        <v>310937.4640548977</v>
+        <v>310937.464053375</v>
       </c>
       <c r="JP3" t="n">
-        <v>385283.4134079892</v>
+        <v>385283.4134058541</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.663445768</v>
+        <v>3788.663445772991</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5266836176237</v>
+        <v>716.5266836175616</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.191032145017</v>
+        <v>1005.191032144912</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.842108826924</v>
+        <v>322.8421088255917</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993225347102114</v>
+        <v>0.9993225347102137</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.650855216024482e-05</v>
+        <v>1.650855216013492e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02327641609985634</v>
+        <v>0.02327641609968866</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5936557815779</v>
+        <v>295.5936557816727</v>
       </c>
       <c r="KA3" t="n">
-        <v>135263.7215540902</v>
+        <v>135263.7215518981</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.594901976660234</v>
+        <v>1.594901976633862</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.377847991</v>
+        <v>336974.3778480637</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.663445773202</v>
+        <v>3788.663445778192</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698120.447373541</v>
+        <v>-698120.4473752747</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8561092414815</v>
+        <v>717.85610924148</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.776657347869</v>
+        <v>1006.776657347836</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402476964933367</v>
+        <v>1.402476964933324</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995303761691927</v>
+        <v>0.9995303761692014</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8027147294295</v>
+        <v>344.8027147294824</v>
       </c>
       <c r="KL3" t="n">
-        <v>189616.1608870073</v>
+        <v>189616.1608839301</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.273812080795698e-06</v>
+        <v>5.273812080881285e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135200.9092684214</v>
+        <v>135200.9092662315</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.39639996070328e-06</v>
+        <v>7.396399960823083e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395618199752965</v>
+        <v>0.003395618199751661</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832924924468294e-05</v>
+        <v>1.832924924468722e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606728364065273</v>
+        <v>0.0260672836406591</v>
       </c>
       <c r="KS3" t="n">
-        <v>135263.7215540902</v>
+        <v>135263.7215518981</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594901976660234</v>
+        <v>1.594901976633862</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.594901976660234</v>
+        <v>1.594901976633862</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.377847991</v>
+        <v>336974.3778480637</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.663445773202</v>
+        <v>3788.663445778192</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8561092414815</v>
+        <v>717.85610924148</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.776657347869</v>
+        <v>1006.776657347836</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8027147294295</v>
+        <v>344.8027147294824</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995303761691927</v>
+        <v>0.9995303761692014</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832924924468294e-05</v>
+        <v>1.832924924468722e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606728364065273</v>
+        <v>0.0260672836406591</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>268.6146044048708</v>
+        <v>268.6146044033366</v>
       </c>
       <c r="LH3" t="n">
-        <v>96814.87856791756</v>
+        <v>96814.87856430754</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.256409757967552</v>
+        <v>1.256409757927876</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317682.1256931711</v>
+        <v>317682.1256920785</v>
       </c>
       <c r="LK3" t="n">
-        <v>394738.8963477793</v>
+        <v>394738.8963462469</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.66344577463</v>
+        <v>3788.663445779621</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622951.4363621672</v>
+        <v>-622951.4363592279</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.8006008466115</v>
+        <v>716.800600846558</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.530613786793</v>
+        <v>1005.5306137867</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402803809872876</v>
+        <v>1.40280380987285</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993668813935284</v>
+        <v>0.9993668813935316</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.6752745342876</v>
+        <v>328.675274533347</v>
       </c>
       <c r="LS3" t="n">
-        <v>135726.72483193</v>
+        <v>135726.724826867</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.367745749691502e-06</v>
+        <v>7.36774574996634e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>96753.88951519152</v>
+        <v>96753.88951158409</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.033550180784193e-05</v>
+        <v>1.033550180822728e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003736049214570709</v>
+        <v>0.003736049214591777</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.698976074144671e-05</v>
+        <v>1.698976074136878e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02401086093866492</v>
+        <v>0.0240108609385456</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96814.87856791756</v>
+        <v>96814.87856430754</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.256409757967552</v>
+        <v>1.256409757927876</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.256409757967552</v>
+        <v>1.256409757927876</v>
       </c>
       <c r="MC3" t="n">
-        <v>317682.1256931711</v>
+        <v>317682.1256920785</v>
       </c>
       <c r="MD3" t="n">
-        <v>394738.8963477793</v>
+        <v>394738.8963462469</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.66344577463</v>
+        <v>3788.663445779621</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.8006008466115</v>
+        <v>716.800600846558</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.530613786793</v>
+        <v>1005.5306137867</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.6752745342876</v>
+        <v>328.675274533347</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993668813935284</v>
+        <v>0.9993668813935316</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.698976074144671e-05</v>
+        <v>1.698976074136878e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02401086093866492</v>
+        <v>0.0240108609385456</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8369072091684258</v>
+        <v>0.8369072091986514</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4259579027098091</v>
+        <v>0.4259579027341652</v>
       </c>
       <c r="MP3" t="n">
-        <v>249491.467622288</v>
+        <v>249491.4676277353</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.74271310966133</v>
+        <v>2.742713109635339</v>
       </c>
       <c r="MR3" t="n">
-        <v>381076.3223825592</v>
+        <v>381076.3223812272</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>142.5960843677529</v>
+        <v>142.5960843646348</v>
       </c>
       <c r="MU3" t="n">
-        <v>127.2298010647975</v>
+        <v>127.2298010629298</v>
       </c>
       <c r="MV3" t="n">
-        <v>-64.39115620974172</v>
+        <v>-64.39115620652692</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.84402697686152</v>
+        <v>-26.84402697604786</v>
       </c>
       <c r="MX3" t="n">
-        <v>262.5774543893585</v>
+        <v>262.5774543856414</v>
       </c>
       <c r="MY3" t="n">
-        <v>127.2298010647975</v>
+        <v>127.2298010629298</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-229.6943562097417</v>
+        <v>-229.6943562065269</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.01753110335147</v>
+        <v>-61.01753110336806</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.1850023156993</v>
+        <v>234.185002315151</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.00000282552</v>
+        <v>57499.99999855691</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559944531107532</v>
+        <v>0.8559944530491707</v>
       </c>
       <c r="NE3" t="n">
-        <v>293092.1040874916</v>
+        <v>293092.1040871109</v>
       </c>
       <c r="NF3" t="n">
-        <v>360265.4365709743</v>
+        <v>360265.4365704395</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.777097148623</v>
+        <v>3800.777097167635</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529819.5567262326</v>
+        <v>-529819.5567291358</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9876071317169</v>
+        <v>715.9876071316901</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421565720352</v>
+        <v>1004.42156572023</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402847696965198</v>
+        <v>1.402847696965079</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992670926493074</v>
+        <v>0.9992670926493543</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.863174313023</v>
+        <v>306.8631743126654</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.72431067291</v>
+        <v>80604.72430468611</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622070916989e-05</v>
+        <v>1.240622071009134e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.9296705169</v>
+        <v>57457.92966625411</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740403814990092e-05</v>
+        <v>1.740403815119212e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004283552997260209</v>
+        <v>0.00428355299726933</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.519973781743294e-05</v>
+        <v>1.519973781740305e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02128988076544694</v>
+        <v>0.02128988076540115</v>
       </c>
       <c r="NU3" t="n">
-        <v>57500.00000282552</v>
+        <v>57499.99999855691</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8559944531107532</v>
+        <v>0.8559944530491707</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8559944531107532</v>
+        <v>0.8559944530491707</v>
       </c>
       <c r="NX3" t="n">
-        <v>293092.1040874916</v>
+        <v>293092.1040871109</v>
       </c>
       <c r="NY3" t="n">
-        <v>360265.4365709743</v>
+        <v>360265.4365704395</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.777097148623</v>
+        <v>3800.777097167635</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9876071317169</v>
+        <v>715.9876071316901</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421565720352</v>
+        <v>1004.42156572023</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.863174313023</v>
+        <v>306.8631743126654</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992670926493074</v>
+        <v>0.9992670926493543</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.519973781743294e-05</v>
+        <v>1.519973781740305e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02128988076544694</v>
+        <v>0.02128988076540115</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.3381083700732</v>
+        <v>244.3381083692744</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66682.71585062797</v>
+        <v>66682.71584997066</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9514188078328673</v>
+        <v>0.951418807826603</v>
       </c>
       <c r="OL3" t="n">
-        <v>300344.6003853729</v>
+        <v>300344.6003848019</v>
       </c>
       <c r="OM3" t="n">
-        <v>370432.2582092887</v>
+        <v>370432.2582084882</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.777097167028</v>
+        <v>3800.77709716658</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558242.4280488009</v>
+        <v>-558242.4280464554</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1698444835486</v>
+        <v>716.1698444835329</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.669732320505</v>
+        <v>1004.669732320486</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402837246023676</v>
+        <v>1.40283724602368</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992959094911725</v>
+        <v>0.9992959094911689</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4525682520572</v>
+        <v>313.4525682515441</v>
       </c>
       <c r="OU3" t="n">
-        <v>93479.28835101608</v>
+        <v>93479.28835009459</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.069755683467535e-05</v>
+        <v>1.06975568347808e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66635.87569832634</v>
+        <v>66635.87569766924</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.500693116913772e-05</v>
+        <v>1.50069311692857e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004105906280693507</v>
+        <v>0.004105906280706927</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573743417108405e-05</v>
+        <v>1.57374341710421e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210378822707524</v>
+        <v>0.02210378822701164</v>
       </c>
       <c r="PB3" t="n">
-        <v>66682.71585062797</v>
+        <v>66682.71584997066</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9514188078328673</v>
+        <v>0.951418807826603</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9514188078328673</v>
+        <v>0.951418807826603</v>
       </c>
       <c r="PE3" t="n">
-        <v>300344.6003853729</v>
+        <v>300344.6003848019</v>
       </c>
       <c r="PF3" t="n">
-        <v>370432.2582092887</v>
+        <v>370432.2582084882</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.777097167028</v>
+        <v>3800.77709716658</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1698444835486</v>
+        <v>716.1698444835329</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.669732320505</v>
+        <v>1004.669732320486</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4525682520572</v>
+        <v>313.4525682515441</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992959094911725</v>
+        <v>0.9992959094911689</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573743417108405e-05</v>
+        <v>1.57374341710421e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210378822707524</v>
+        <v>0.02210378822701164</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>268.6033312906943</v>
+        <v>268.6033312895656</v>
       </c>
       <c r="PQ3" t="n">
-        <v>92811.80882562231</v>
+        <v>92811.80882663459</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.204479463981087</v>
+        <v>1.20447946399931</v>
       </c>
       <c r="PS3" t="n">
-        <v>317683.3619021432</v>
+        <v>317683.3619013306</v>
       </c>
       <c r="PT3" t="n">
-        <v>394738.8963475854</v>
+        <v>394738.8963464473</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.77709716527</v>
+        <v>3800.777097157905</v>
       </c>
       <c r="PV3" t="n">
-        <v>-626162.493444381</v>
+        <v>-626162.4934392507</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7874050978215</v>
+        <v>716.7874050977941</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.447973901107</v>
+        <v>1005.447973901113</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402714342844642</v>
+        <v>1.402714342844704</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993927908455502</v>
+        <v>0.9993927908455292</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.6663753956988</v>
+        <v>328.6663753950087</v>
       </c>
       <c r="QB3" t="n">
-        <v>130109.7823839769</v>
+        <v>130109.7823853991</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.685817174367592e-06</v>
+        <v>7.685817174283585e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>92755.72253729163</v>
+        <v>92755.72253830136</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.07810059869671e-05</v>
+        <v>1.078100598684974e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003735660305935788</v>
+        <v>0.00373566030595178</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.698858341582304e-05</v>
+        <v>1.698858341576627e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02400857352538692</v>
+        <v>0.02400857352530042</v>
       </c>
       <c r="QI3" t="n">
-        <v>92811.80882562231</v>
+        <v>92811.80882663459</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.204479463981087</v>
+        <v>1.20447946399931</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.204479463981087</v>
+        <v>1.20447946399931</v>
       </c>
       <c r="QL3" t="n">
-        <v>317683.3619021432</v>
+        <v>317683.3619013306</v>
       </c>
       <c r="QM3" t="n">
-        <v>394738.8963475854</v>
+        <v>394738.8963464473</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.77709716527</v>
+        <v>3800.777097157905</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7874050978215</v>
+        <v>716.7874050977941</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.447973901107</v>
+        <v>1005.447973901113</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.6663753956988</v>
+        <v>328.6663753950087</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993927908455502</v>
+        <v>0.9993927908455292</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.698858341582304e-05</v>
+        <v>1.698858341576627e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02400857352538692</v>
+        <v>0.02400857352530042</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.464689465221703</v>
+        <v>0.4646894652120835</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8556825203193336</v>
+        <v>0.8556825203082176</v>
       </c>
       <c r="QY3" t="n">
-        <v>385360.0579972008</v>
+        <v>385360.0579647793</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.742713109876173</v>
+        <v>2.742713109638594</v>
       </c>
       <c r="RA3" t="n">
-        <v>381076.3223825592</v>
+        <v>381076.3223812272</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02459522109677447</v>
+        <v>0.02459522109724313</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.002166345439126797</v>
+        <v>0.002166345440326452</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01188682146156299</v>
+        <v>0.01188682146147578</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03204523418683441</v>
+        <v>0.03204523418760414</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.0426698637680997</v>
+        <v>0.04266986376939112</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1133634859523984</v>
+        <v>0.1133634859560406</v>
       </c>
       <c r="RH3" t="n">
-        <v>-3.233054102214084e-11</v>
+        <v>-1.838258434361251e-10</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -7569,148 +7569,148 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593369941067746</v>
+        <v>0.01593369941071624</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.7880027280317e-07</v>
+        <v>-1.788002728034547e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379066038778113</v>
+        <v>0.01379066038778067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519180119322124</v>
+        <v>0.0251918011932314</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491598219140703</v>
+        <v>0.05491598219145551</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.60145549336022e-12</v>
+        <v>2.716923908074875e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9803465294422347</v>
+        <v>0.9803465294422316</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>276.8642521560487</v>
+        <v>276.8642521502554</v>
       </c>
       <c r="L2" t="n">
-        <v>113.6237537541269</v>
+        <v>113.623753751971</v>
       </c>
       <c r="M2" t="n">
-        <v>252.4746654711115</v>
+        <v>252.4746654657287</v>
       </c>
       <c r="N2" t="n">
-        <v>65.77033838487367</v>
+        <v>65.77033838482339</v>
       </c>
       <c r="O2" t="n">
-        <v>276.8642521560487</v>
+        <v>276.8642521502554</v>
       </c>
       <c r="P2" t="n">
-        <v>113.6237537541269</v>
+        <v>113.623753751971</v>
       </c>
       <c r="Q2" t="n">
-        <v>252.4746654711115</v>
+        <v>252.4746654657287</v>
       </c>
       <c r="R2" t="n">
-        <v>65.77033838487367</v>
+        <v>65.77033838482339</v>
       </c>
       <c r="S2" t="n">
-        <v>257.353314135503</v>
+        <v>257.3533141371005</v>
       </c>
       <c r="T2" t="n">
-        <v>83295.00695863082</v>
+        <v>83295.00695919436</v>
       </c>
       <c r="U2" t="n">
-        <v>1.128315207103135</v>
+        <v>1.128315207103746</v>
       </c>
       <c r="V2" t="n">
-        <v>309635.0616212997</v>
+        <v>309635.0616224441</v>
       </c>
       <c r="W2" t="n">
-        <v>383457.5240274252</v>
+        <v>383457.524029029</v>
       </c>
       <c r="X2" t="n">
-        <v>3788.906534379122</v>
+        <v>3788.906534383414</v>
       </c>
       <c r="Y2" t="n">
-        <v>-591630.1295447052</v>
+        <v>-591630.1295502587</v>
       </c>
       <c r="Z2" t="n">
-        <v>716.4786262616307</v>
+        <v>716.4786262616675</v>
       </c>
       <c r="AA2" t="n">
-        <v>1005.129004450285</v>
+        <v>1005.129004450309</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.402873676350606</v>
+        <v>1.402873676350567</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9993152889125843</v>
+        <v>0.9993152889126012</v>
       </c>
       <c r="AD2" t="n">
-        <v>321.7031770269187</v>
+        <v>321.7031770279182</v>
       </c>
       <c r="AE2" t="n">
-        <v>116772.6513831478</v>
+        <v>116772.6513839366</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.563649006468617e-06</v>
+        <v>8.563649006410772e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83238.17985302622</v>
+        <v>83238.17985359077</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.201371776468084e-05</v>
+        <v>1.201371776459936e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.003899196445667844</v>
+        <v>0.003899196445643486</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.641480126873704e-05</v>
+        <v>1.641480126881911e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.02313358326626084</v>
+        <v>0.02313358326638565</v>
       </c>
       <c r="AL2" t="n">
-        <v>83295.00695863082</v>
+        <v>83295.00695919436</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.128315207103135</v>
+        <v>1.128315207103746</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.128315207103135</v>
+        <v>1.128315207103746</v>
       </c>
       <c r="AO2" t="n">
-        <v>309635.0616212997</v>
+        <v>309635.0616224441</v>
       </c>
       <c r="AP2" t="n">
-        <v>383457.5240274252</v>
+        <v>383457.524029029</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3788.906534379122</v>
+        <v>3788.906534383414</v>
       </c>
       <c r="AR2" t="n">
-        <v>716.4786262616307</v>
+        <v>716.4786262616675</v>
       </c>
       <c r="AS2" t="n">
-        <v>1005.129004450285</v>
+        <v>1005.129004450309</v>
       </c>
       <c r="AT2" t="n">
-        <v>321.7031770269187</v>
+        <v>321.7031770279182</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9993152889125843</v>
+        <v>0.9993152889126012</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.641480126873704e-05</v>
+        <v>1.641480126881911e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.02313358326626084</v>
+        <v>0.02313358326638565</v>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
@@ -7721,97 +7721,97 @@
         <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>295.5933901621255</v>
+        <v>295.5933901619206</v>
       </c>
       <c r="BA2" t="n">
-        <v>135149.1677121869</v>
+        <v>135149.1677098449</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.593552076306536</v>
+        <v>1.593552076280017</v>
       </c>
       <c r="BC2" t="n">
-        <v>336974.4209724288</v>
+        <v>336974.4209722863</v>
       </c>
       <c r="BD2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="BE2" t="n">
-        <v>3788.906534379758</v>
+        <v>3788.90653438405</v>
       </c>
       <c r="BF2" t="n">
-        <v>-698191.2964161527</v>
+        <v>-698191.2964168461</v>
       </c>
       <c r="BG2" t="n">
-        <v>717.8558108617916</v>
+        <v>717.8558108617768</v>
       </c>
       <c r="BH2" t="n">
-        <v>1006.774776493022</v>
+        <v>1006.774776492977</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.402474927777461</v>
+        <v>1.402474927777428</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9995307661003192</v>
+        <v>0.9995307661003247</v>
       </c>
       <c r="BK2" t="n">
-        <v>344.8024423752991</v>
+        <v>344.8024423751774</v>
       </c>
       <c r="BL2" t="n">
-        <v>189455.3734066611</v>
+        <v>189455.3734033747</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.278287873384967e-06</v>
+        <v>5.278287873476527e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>135086.460124386</v>
+        <v>135086.4601220459</v>
       </c>
       <c r="BO2" t="n">
-        <v>7.40266640401423e-06</v>
+        <v>7.402666404142468e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.003395610642150338</v>
+        <v>0.0033956106421525</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.832921983643461e-05</v>
+        <v>1.832921983642434e-05</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.02606722710495358</v>
+        <v>0.02606722710493755</v>
       </c>
       <c r="BS2" t="n">
-        <v>135149.1677121869</v>
+        <v>135149.1677098449</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.593552076306536</v>
+        <v>1.593552076280017</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.593552076306536</v>
+        <v>1.593552076280017</v>
       </c>
       <c r="BV2" t="n">
-        <v>336974.4209724288</v>
+        <v>336974.4209722863</v>
       </c>
       <c r="BW2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="BX2" t="n">
-        <v>3788.906534379758</v>
+        <v>3788.90653438405</v>
       </c>
       <c r="BY2" t="n">
-        <v>717.8558108617916</v>
+        <v>717.8558108617768</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1006.774776493022</v>
+        <v>1006.774776492977</v>
       </c>
       <c r="CA2" t="n">
-        <v>344.8024423752991</v>
+        <v>344.8024423751774</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.9995307661003192</v>
+        <v>0.9995307661003247</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.832921983643461e-05</v>
+        <v>1.832921983642434e-05</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.02606722710495358</v>
+        <v>0.02606722710493755</v>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
@@ -7822,97 +7822,97 @@
         <v>1</v>
       </c>
       <c r="CG2" t="n">
-        <v>295.5933901621255</v>
+        <v>295.5933901619206</v>
       </c>
       <c r="CH2" t="n">
-        <v>135149.1677121869</v>
+        <v>135149.1677098449</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.593552076306536</v>
+        <v>1.593552076280017</v>
       </c>
       <c r="CJ2" t="n">
-        <v>336974.4209724288</v>
+        <v>336974.4209722863</v>
       </c>
       <c r="CK2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="CL2" t="n">
-        <v>3788.906534379758</v>
+        <v>3788.90653438405</v>
       </c>
       <c r="CM2" t="n">
-        <v>-698191.2964161527</v>
+        <v>-698191.2964168461</v>
       </c>
       <c r="CN2" t="n">
-        <v>717.8558108617916</v>
+        <v>717.8558108617768</v>
       </c>
       <c r="CO2" t="n">
-        <v>1006.774776493022</v>
+        <v>1006.774776492977</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.402474927777461</v>
+        <v>1.402474927777428</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.9995307661003192</v>
+        <v>0.9995307661003247</v>
       </c>
       <c r="CR2" t="n">
-        <v>344.8024423752991</v>
+        <v>344.8024423751774</v>
       </c>
       <c r="CS2" t="n">
-        <v>189455.3734066611</v>
+        <v>189455.3734033747</v>
       </c>
       <c r="CT2" t="n">
-        <v>5.278287873384967e-06</v>
+        <v>5.278287873476527e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>135086.460124386</v>
+        <v>135086.4601220459</v>
       </c>
       <c r="CV2" t="n">
-        <v>7.40266640401423e-06</v>
+        <v>7.402666404142468e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.003395610642150338</v>
+        <v>0.0033956106421525</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.832921983643461e-05</v>
+        <v>1.832921983642434e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02606722710495358</v>
+        <v>0.02606722710493755</v>
       </c>
       <c r="CZ2" t="n">
-        <v>135149.1677121869</v>
+        <v>135149.1677098449</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.593552076306536</v>
+        <v>1.593552076280017</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.593552076306536</v>
+        <v>1.593552076280017</v>
       </c>
       <c r="DC2" t="n">
-        <v>336974.4209724288</v>
+        <v>336974.4209722863</v>
       </c>
       <c r="DD2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="DE2" t="n">
-        <v>3788.906534379758</v>
+        <v>3788.90653438405</v>
       </c>
       <c r="DF2" t="n">
-        <v>717.8558108617916</v>
+        <v>717.8558108617768</v>
       </c>
       <c r="DG2" t="n">
-        <v>1006.774776493022</v>
+        <v>1006.774776492977</v>
       </c>
       <c r="DH2" t="n">
-        <v>344.8024423752991</v>
+        <v>344.8024423751774</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.9995307661003192</v>
+        <v>0.9995307661003247</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.832921983643461e-05</v>
+        <v>1.832921983642434e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.02606722710495358</v>
+        <v>0.02606722710493755</v>
       </c>
       <c r="DL2" t="inlineStr">
         <is>
@@ -7923,37 +7923,37 @@
         <v>1</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01602810879021515</v>
+        <v>0.01602810879019507</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.82131547471478e-07</v>
+        <v>-1.821315474778071e-07</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01379329073609899</v>
+        <v>0.01379329073609696</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.02515667143974338</v>
+        <v>0.02515667143977441</v>
       </c>
       <c r="DR2" t="n">
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.05497788883451005</v>
+        <v>0.05497788883451896</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.18099974244501e-14</v>
+        <v>-2.359362705206536e-13</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.8606201987644092</v>
+        <v>0.860620198743727</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.8606201987644092</v>
+        <v>0.860620198743727</v>
       </c>
       <c r="DW2" t="n">
-        <v>497851.0605065696</v>
+        <v>497851.0604939325</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.74032564836946</v>
+        <v>2.740325648313601</v>
       </c>
       <c r="DY2" t="n">
         <v>421784.4310884894</v>
@@ -7962,169 +7962,169 @@
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>1473.427404116665</v>
+        <v>1473.42740546487</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.006566568120790167</v>
+        <v>0.006566568126454198</v>
       </c>
       <c r="ED2" t="n">
-        <v>-7.368685332366018e-08</v>
+        <v>-7.368685338715721e-08</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01038200071163868</v>
+        <v>0.01038200072057266</v>
       </c>
       <c r="EF2" t="n">
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.005683382655402879</v>
+        <v>0.005683382660291089</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.02447338350199654</v>
+        <v>0.02447338350214479</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.001918126997537766</v>
+        <v>0.001918126997485428</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01189012253329614</v>
+        <v>0.01189012253329266</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0319806601192749</v>
+        <v>0.03198066011929526</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.04237524032753696</v>
+        <v>0.04237524032746241</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.1126375334796423</v>
+        <v>0.1126375334796806</v>
       </c>
       <c r="EN2" t="n">
-        <v>-8.49376124989476e-12</v>
+        <v>5.569794625515101e-12</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.961002100148993</v>
+        <v>0.9610021001488511</v>
       </c>
       <c r="EP2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EQ2" t="n">
-        <v>143.1710351606576</v>
+        <v>143.1710351171172</v>
       </c>
       <c r="ER2" t="n">
-        <v>127.5487452825975</v>
+        <v>127.5487452588582</v>
       </c>
       <c r="ES2" t="n">
-        <v>-65.03278316210458</v>
+        <v>-65.03278311280945</v>
       </c>
       <c r="ET2" t="n">
-        <v>-27.01549358881859</v>
+        <v>-27.01549357555902</v>
       </c>
       <c r="EU2" t="n">
-        <v>263.2932729152385</v>
+        <v>263.2932728606136</v>
       </c>
       <c r="EV2" t="n">
-        <v>127.5487452825975</v>
+        <v>127.5487452588582</v>
       </c>
       <c r="EW2" t="n">
-        <v>-230.3359831621046</v>
+        <v>-230.3359831128095</v>
       </c>
       <c r="EX2" t="n">
-        <v>-61.02447140332883</v>
+        <v>-61.0244714026515</v>
       </c>
       <c r="EY2" t="n">
-        <v>234.226269083529</v>
+        <v>234.2262690979399</v>
       </c>
       <c r="EZ2" t="n">
-        <v>57554.70641306256</v>
+        <v>57554.70642748707</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.8566580262219269</v>
+        <v>0.85665802638391</v>
       </c>
       <c r="FB2" t="n">
-        <v>293121.5251099349</v>
+        <v>293121.5251202224</v>
       </c>
       <c r="FC2" t="n">
-        <v>360306.6849419077</v>
+        <v>360306.6849563295</v>
       </c>
       <c r="FD2" t="n">
-        <v>3800.680444301841</v>
+        <v>3800.680444291525</v>
       </c>
       <c r="FE2" t="n">
-        <v>-529912.515505642</v>
+        <v>-529912.515543575</v>
       </c>
       <c r="FF2" t="n">
-        <v>715.9883610119419</v>
+        <v>715.9883610121828</v>
       </c>
       <c r="FG2" t="n">
-        <v>1004.423052047408</v>
+        <v>1004.423052047792</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.402848295784874</v>
+        <v>1.402848295784938</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.9992669504683053</v>
+        <v>0.9992669504683152</v>
       </c>
       <c r="FJ2" t="n">
-        <v>306.8902321737571</v>
+        <v>306.890232183208</v>
       </c>
       <c r="FK2" t="n">
-        <v>80681.43607276773</v>
+        <v>80681.43609299284</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.23944248971732e-05</v>
+        <v>1.239442489406618e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>57512.58800769156</v>
+        <v>57512.58802210615</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.738749784423304e-05</v>
+        <v>1.738749783987515e-05</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.004282804348705132</v>
+        <v>0.004282804348442645</v>
       </c>
       <c r="FP2" t="n">
-        <v>1.520194412783296e-05</v>
+        <v>1.520194412860265e-05</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.02129321790044901</v>
+        <v>0.02129321790161242</v>
       </c>
       <c r="FR2" t="n">
-        <v>57554.70641306256</v>
+        <v>57554.70642748707</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.8566580262219269</v>
+        <v>0.85665802638391</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.8566580262219269</v>
+        <v>0.85665802638391</v>
       </c>
       <c r="FU2" t="n">
-        <v>293121.5251099349</v>
+        <v>293121.5251202224</v>
       </c>
       <c r="FV2" t="n">
-        <v>360306.6849419077</v>
+        <v>360306.6849563295</v>
       </c>
       <c r="FW2" t="n">
-        <v>3800.680444301841</v>
+        <v>3800.680444291525</v>
       </c>
       <c r="FX2" t="n">
-        <v>715.9883610119419</v>
+        <v>715.9883610121828</v>
       </c>
       <c r="FY2" t="n">
-        <v>1004.423052047408</v>
+        <v>1004.423052047792</v>
       </c>
       <c r="FZ2" t="n">
-        <v>306.8902321737571</v>
+        <v>306.890232183208</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.9992669504683053</v>
+        <v>0.9992669504683152</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.520194412783296e-05</v>
+        <v>1.520194412860265e-05</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.02129321790044901</v>
+        <v>0.02129321790161242</v>
       </c>
       <c r="GD2" t="inlineStr">
         <is>
@@ -8135,97 +8135,97 @@
         <v>1</v>
       </c>
       <c r="GF2" t="n">
-        <v>244.4614066900872</v>
+        <v>244.4614066980638</v>
       </c>
       <c r="GG2" t="n">
-        <v>66822.70615008012</v>
+        <v>66822.70615783027</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.9529351477624591</v>
+        <v>0.9529351478418646</v>
       </c>
       <c r="GI2" t="n">
-        <v>300432.6210949254</v>
+        <v>300432.6211006235</v>
       </c>
       <c r="GJ2" t="n">
-        <v>370555.6575963949</v>
+        <v>370555.6576043827</v>
       </c>
       <c r="GK2" t="n">
-        <v>3800.68044430079</v>
+        <v>3800.680444300197</v>
       </c>
       <c r="GL2" t="n">
-        <v>-558564.030196882</v>
+        <v>-558564.0302190657</v>
       </c>
       <c r="GM2" t="n">
-        <v>716.1724030949822</v>
+        <v>716.1724030951426</v>
       </c>
       <c r="GN2" t="n">
-        <v>1004.67358526559</v>
+        <v>1004.673585265806</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.402837614132899</v>
+        <v>1.402837614132886</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.9992960651378466</v>
+        <v>0.9992960651378705</v>
       </c>
       <c r="GQ2" t="n">
-        <v>313.5317367504235</v>
+        <v>313.5317367555447</v>
       </c>
       <c r="GR2" t="n">
-        <v>93675.5737877199</v>
+        <v>93675.57379858583</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.067514144366086e-05</v>
+        <v>1.06751414424226e-05</v>
       </c>
       <c r="GT2" t="n">
-        <v>66775.77849637374</v>
+        <v>66775.77850412006</v>
       </c>
       <c r="GU2" t="n">
-        <v>1.497548995335644e-05</v>
+        <v>1.497548995161921e-05</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.004103843949462253</v>
+        <v>0.004103843949328639</v>
       </c>
       <c r="GW2" t="n">
-        <v>1.574391435340559e-05</v>
+        <v>1.574391435382457e-05</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.02211361781030357</v>
+        <v>0.02211361781093892</v>
       </c>
       <c r="GY2" t="n">
-        <v>66822.70615008012</v>
+        <v>66822.70615783027</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9529351477624591</v>
+        <v>0.9529351478418646</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9529351477624591</v>
+        <v>0.9529351478418646</v>
       </c>
       <c r="HB2" t="n">
-        <v>300432.6210949254</v>
+        <v>300432.6211006235</v>
       </c>
       <c r="HC2" t="n">
-        <v>370555.6575963949</v>
+        <v>370555.6576043827</v>
       </c>
       <c r="HD2" t="n">
-        <v>3800.68044430079</v>
+        <v>3800.680444300197</v>
       </c>
       <c r="HE2" t="n">
-        <v>716.1724030949822</v>
+        <v>716.1724030951426</v>
       </c>
       <c r="HF2" t="n">
-        <v>1004.67358526559</v>
+        <v>1004.673585265806</v>
       </c>
       <c r="HG2" t="n">
-        <v>313.5317367504235</v>
+        <v>313.5317367555447</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.9992960651378466</v>
+        <v>0.9992960651378705</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.574391435340559e-05</v>
+        <v>1.574391435382457e-05</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.02211361781030357</v>
+        <v>0.02211361781093892</v>
       </c>
       <c r="HK2" t="inlineStr">
         <is>
@@ -8236,97 +8236,97 @@
         <v>1</v>
       </c>
       <c r="HM2" t="n">
-        <v>268.8324161248232</v>
+        <v>268.8324161246628</v>
       </c>
       <c r="HN2" t="n">
-        <v>93119.85352116219</v>
+        <v>93119.85352339246</v>
       </c>
       <c r="HO2" t="n">
-        <v>1.207446265609914</v>
+        <v>1.207446265639573</v>
       </c>
       <c r="HP2" t="n">
-        <v>317847.0356685256</v>
+        <v>317847.0356684051</v>
       </c>
       <c r="HQ2" t="n">
-        <v>394968.358723117</v>
+        <v>394968.3587229493</v>
       </c>
       <c r="HR2" t="n">
-        <v>3800.680444292119</v>
+        <v>3800.680444284625</v>
       </c>
       <c r="HS2" t="n">
-        <v>-626777.7480342998</v>
+        <v>-626777.7480318432</v>
       </c>
       <c r="HT2" t="n">
-        <v>716.7947149388882</v>
+        <v>716.794714938891</v>
       </c>
       <c r="HU2" t="n">
-        <v>1005.457361475757</v>
+        <v>1005.4573614758</v>
       </c>
       <c r="HV2" t="n">
-        <v>1.402713134626668</v>
+        <v>1.402713134626723</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.9993936971367235</v>
+        <v>0.9993936971367071</v>
       </c>
       <c r="HX2" t="n">
-        <v>328.8066602147817</v>
+        <v>328.8066602146848</v>
       </c>
       <c r="HY2" t="n">
-        <v>130541.6279802638</v>
+        <v>130541.6279833933</v>
       </c>
       <c r="HZ2" t="n">
-        <v>7.660391673307363e-06</v>
+        <v>7.660391673123716e-06</v>
       </c>
       <c r="IA2" t="n">
-        <v>93063.66694499331</v>
+        <v>93063.66694722068</v>
       </c>
       <c r="IB2" t="n">
-        <v>1.0745332016533e-05</v>
+        <v>1.074533201627582e-05</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.003732486991476564</v>
+        <v>0.003732486991479118</v>
       </c>
       <c r="ID2" t="n">
-        <v>1.700018262274229e-05</v>
+        <v>1.700018262273454e-05</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02402630820228214</v>
+        <v>0.0240263082022706</v>
       </c>
       <c r="IF2" t="n">
-        <v>93119.85352116219</v>
+        <v>93119.85352339246</v>
       </c>
       <c r="IG2" t="n">
-        <v>1.207446265609914</v>
+        <v>1.207446265639573</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.207446265609914</v>
+        <v>1.207446265639573</v>
       </c>
       <c r="II2" t="n">
-        <v>317847.0356685256</v>
+        <v>317847.0356684051</v>
       </c>
       <c r="IJ2" t="n">
-        <v>394968.358723117</v>
+        <v>394968.3587229493</v>
       </c>
       <c r="IK2" t="n">
-        <v>3800.680444292119</v>
+        <v>3800.680444284625</v>
       </c>
       <c r="IL2" t="n">
-        <v>716.7947149388882</v>
+        <v>716.794714938891</v>
       </c>
       <c r="IM2" t="n">
-        <v>1005.457361475757</v>
+        <v>1005.4573614758</v>
       </c>
       <c r="IN2" t="n">
-        <v>328.8066602147817</v>
+        <v>328.8066602146848</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.9993936971367235</v>
+        <v>0.9993936971367071</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.700018262274229e-05</v>
+        <v>1.700018262273454e-05</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.02402630820228214</v>
+        <v>0.0240263082022706</v>
       </c>
       <c r="IR2" t="inlineStr">
         <is>
@@ -8337,64 +8337,64 @@
         <v>1</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.02429238886948285</v>
+        <v>0.02429238887033931</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.0019651446877099</v>
+        <v>0.00196514468741502</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.01190257554965329</v>
+        <v>0.01190257554960184</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.03190958695839356</v>
+        <v>0.03190958695868697</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.04245126562480688</v>
+        <v>0.04245126562443861</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.1125209616900465</v>
+        <v>0.1125209616904817</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-2.030431378585718e-12</v>
+        <v>-6.964499810191427e-11</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.4665219682834222</v>
+        <v>0.4665219681271793</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.8579395670246209</v>
+        <v>0.8579395668202052</v>
       </c>
       <c r="JC2" t="n">
-        <v>386654.0207701409</v>
+        <v>386654.0207434575</v>
       </c>
       <c r="JD2" t="n">
-        <v>2.740325648284855</v>
+        <v>2.740325648234486</v>
       </c>
       <c r="JE2" t="n">
-        <v>381305.784758097</v>
+        <v>381305.784757936</v>
       </c>
       <c r="JF2" t="n">
         <v>0</v>
       </c>
       <c r="JG2" t="n">
-        <v>2666.316166081058</v>
+        <v>2666.316166067147</v>
       </c>
       <c r="JH2" t="n">
-        <v>6.129550699512912</v>
+        <v>6.129550699453915</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.008898450241893039</v>
+        <v>0.008898450241416901</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.0006974253332739654</v>
+        <v>0.0006974253332133927</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.01162807393391457</v>
+        <v>0.01162807393322934</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.01540751271731942</v>
+        <v>0.01540751271637455</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.004323213572978802</v>
+        <v>0.004323213572720023</v>
       </c>
     </row>
     <row r="3">
@@ -8402,148 +8402,148 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01595022849390169</v>
+        <v>0.01595022849403729</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.793955750320945e-07</v>
+        <v>-1.793955750225705e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379120448695535</v>
+        <v>0.01379120448695816</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0251843323886316</v>
+        <v>0.02518433238859637</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0549255859739136</v>
+        <v>0.0549255859740168</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.715250743307479e-14</v>
+        <v>1.731600973720049e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9803447272965711</v>
+        <v>0.9803447272965506</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>277.9577307387854</v>
+        <v>277.9577307425636</v>
       </c>
       <c r="L3" t="n">
-        <v>114.0320323096803</v>
+        <v>114.0320323110966</v>
       </c>
       <c r="M3" t="n">
-        <v>253.4900307404201</v>
+        <v>253.4900307439259</v>
       </c>
       <c r="N3" t="n">
-        <v>65.77948826708277</v>
+        <v>65.77948826711301</v>
       </c>
       <c r="O3" t="n">
-        <v>277.9577307387854</v>
+        <v>277.9577307425636</v>
       </c>
       <c r="P3" t="n">
-        <v>114.0320323096803</v>
+        <v>114.0320323110966</v>
       </c>
       <c r="Q3" t="n">
-        <v>253.4900307404201</v>
+        <v>253.4900307439259</v>
       </c>
       <c r="R3" t="n">
-        <v>65.77948826708277</v>
+        <v>65.77948826711301</v>
       </c>
       <c r="S3" t="n">
-        <v>257.0504352106868</v>
+        <v>257.0504352096336</v>
       </c>
       <c r="T3" t="n">
-        <v>82941.78308413591</v>
+        <v>82941.78308141034</v>
       </c>
       <c r="U3" t="n">
-        <v>1.124855601924983</v>
+        <v>1.124855601892618</v>
       </c>
       <c r="V3" t="n">
-        <v>309418.6874076592</v>
+        <v>309418.6874069105</v>
       </c>
       <c r="W3" t="n">
-        <v>383154.1810498621</v>
+        <v>383154.1810488119</v>
       </c>
       <c r="X3" t="n">
-        <v>3788.946161244649</v>
+        <v>3788.94616124999</v>
       </c>
       <c r="Y3" t="n">
-        <v>-590796.078687936</v>
+        <v>-590796.0786863687</v>
       </c>
       <c r="Z3" t="n">
-        <v>716.4707974534959</v>
+        <v>716.4707974534631</v>
       </c>
       <c r="AA3" t="n">
-        <v>1005.118863265417</v>
+        <v>1005.118863265347</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.402874851058611</v>
+        <v>1.402874851058578</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9993141076252628</v>
+        <v>0.9993141076252712</v>
       </c>
       <c r="AD3" t="n">
-        <v>321.5135668764602</v>
+        <v>321.5135668758004</v>
       </c>
       <c r="AE3" t="n">
-        <v>116277.4188267142</v>
+        <v>116277.4188228914</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.600122105309876e-06</v>
+        <v>8.600122105592621e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>82885.09751170692</v>
+        <v>82885.09750898388</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.206489501757246e-05</v>
+        <v>1.206489501796883e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.003903779826831379</v>
+        <v>0.00390377982684709</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.639920054051342e-05</v>
+        <v>1.639920054045892e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02310982339528539</v>
+        <v>0.0231098233952022</v>
       </c>
       <c r="AL3" t="n">
-        <v>82941.78308413591</v>
+        <v>82941.78308141034</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.124855601924983</v>
+        <v>1.124855601892618</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.124855601924983</v>
+        <v>1.124855601892618</v>
       </c>
       <c r="AO3" t="n">
-        <v>309418.6874076592</v>
+        <v>309418.6874069105</v>
       </c>
       <c r="AP3" t="n">
-        <v>383154.1810498621</v>
+        <v>383154.1810488119</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3788.946161244649</v>
+        <v>3788.94616124999</v>
       </c>
       <c r="AR3" t="n">
-        <v>716.4707974534959</v>
+        <v>716.4707974534631</v>
       </c>
       <c r="AS3" t="n">
-        <v>1005.118863265417</v>
+        <v>1005.118863265347</v>
       </c>
       <c r="AT3" t="n">
-        <v>321.5135668764602</v>
+        <v>321.5135668758004</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9993141076252628</v>
+        <v>0.9993141076252712</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.639920054051342e-05</v>
+        <v>1.639920054045892e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.02310982339528539</v>
+        <v>0.0231098233952022</v>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
@@ -8554,97 +8554,97 @@
         <v>1</v>
       </c>
       <c r="AZ3" t="n">
-        <v>295.5933468836039</v>
+        <v>295.5933468835981</v>
       </c>
       <c r="BA3" t="n">
-        <v>135130.5030262998</v>
+        <v>135130.503023785</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.593332131862222</v>
+        <v>1.593332131832587</v>
       </c>
       <c r="BC3" t="n">
-        <v>336974.4279987979</v>
+        <v>336974.4279987988</v>
       </c>
       <c r="BD3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="BE3" t="n">
-        <v>3788.946161244358</v>
+        <v>3788.946161249698</v>
       </c>
       <c r="BF3" t="n">
-        <v>-698202.8458754132</v>
+        <v>-698202.8458769697</v>
       </c>
       <c r="BG3" t="n">
-        <v>717.8557622455387</v>
+        <v>717.8557622455322</v>
       </c>
       <c r="BH3" t="n">
-        <v>1006.774470037784</v>
+        <v>1006.774470037743</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.402474595855403</v>
+        <v>1.402474595855358</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9995308296344998</v>
+        <v>0.9995308296345083</v>
       </c>
       <c r="BK3" t="n">
-        <v>344.8023979999745</v>
+        <v>344.8023979999685</v>
       </c>
       <c r="BL3" t="n">
-        <v>189429.1757340114</v>
+        <v>189429.1757304816</v>
       </c>
       <c r="BM3" t="n">
-        <v>5.279017849943867e-06</v>
+        <v>5.279017850042236e-06</v>
       </c>
       <c r="BN3" t="n">
-        <v>135067.8124893051</v>
+        <v>135067.8124867925</v>
       </c>
       <c r="BO3" t="n">
-        <v>7.403688425613482e-06</v>
+        <v>7.403688425751206e-06</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.003395609410752984</v>
+        <v>0.003395609410752818</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.832921504485096e-05</v>
+        <v>1.832921504485031e-05</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.02606721789341968</v>
+        <v>0.02606721789341843</v>
       </c>
       <c r="BS3" t="n">
-        <v>135130.5030262998</v>
+        <v>135130.503023785</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.593332131862222</v>
+        <v>1.593332131832587</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.593332131862222</v>
+        <v>1.593332131832587</v>
       </c>
       <c r="BV3" t="n">
-        <v>336974.4279987979</v>
+        <v>336974.4279987988</v>
       </c>
       <c r="BW3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="BX3" t="n">
-        <v>3788.946161244358</v>
+        <v>3788.946161249698</v>
       </c>
       <c r="BY3" t="n">
-        <v>717.8557622455387</v>
+        <v>717.8557622455322</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1006.774470037784</v>
+        <v>1006.774470037743</v>
       </c>
       <c r="CA3" t="n">
-        <v>344.8023979999745</v>
+        <v>344.8023979999685</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.9995308296344998</v>
+        <v>0.9995308296345083</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.832921504485096e-05</v>
+        <v>1.832921504485031e-05</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02606721789341968</v>
+        <v>0.02606721789341843</v>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
@@ -8655,97 +8655,97 @@
         <v>1</v>
       </c>
       <c r="CG3" t="n">
-        <v>295.5933468836039</v>
+        <v>295.5933468835981</v>
       </c>
       <c r="CH3" t="n">
-        <v>135130.5030262998</v>
+        <v>135130.503023785</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.593332131862222</v>
+        <v>1.593332131832587</v>
       </c>
       <c r="CJ3" t="n">
-        <v>336974.4279987979</v>
+        <v>336974.4279987988</v>
       </c>
       <c r="CK3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="CL3" t="n">
-        <v>3788.946161244358</v>
+        <v>3788.946161249698</v>
       </c>
       <c r="CM3" t="n">
-        <v>-698202.8458754132</v>
+        <v>-698202.8458769697</v>
       </c>
       <c r="CN3" t="n">
-        <v>717.8557622455387</v>
+        <v>717.8557622455322</v>
       </c>
       <c r="CO3" t="n">
-        <v>1006.774470037784</v>
+        <v>1006.774470037743</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.402474595855403</v>
+        <v>1.402474595855358</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.9995308296344998</v>
+        <v>0.9995308296345083</v>
       </c>
       <c r="CR3" t="n">
-        <v>344.8023979999745</v>
+        <v>344.8023979999685</v>
       </c>
       <c r="CS3" t="n">
-        <v>189429.1757340114</v>
+        <v>189429.1757304816</v>
       </c>
       <c r="CT3" t="n">
-        <v>5.279017849943867e-06</v>
+        <v>5.279017850042236e-06</v>
       </c>
       <c r="CU3" t="n">
-        <v>135067.8124893051</v>
+        <v>135067.8124867925</v>
       </c>
       <c r="CV3" t="n">
-        <v>7.403688425613482e-06</v>
+        <v>7.403688425751206e-06</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.003395609410752984</v>
+        <v>0.003395609410752818</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.832921504485096e-05</v>
+        <v>1.832921504485031e-05</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02606721789341968</v>
+        <v>0.02606721789341843</v>
       </c>
       <c r="CZ3" t="n">
-        <v>135130.5030262998</v>
+        <v>135130.503023785</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.593332131862222</v>
+        <v>1.593332131832587</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.593332131862222</v>
+        <v>1.593332131832587</v>
       </c>
       <c r="DC3" t="n">
-        <v>336974.4279987979</v>
+        <v>336974.4279987988</v>
       </c>
       <c r="DD3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="DE3" t="n">
-        <v>3788.946161244358</v>
+        <v>3788.946161249698</v>
       </c>
       <c r="DF3" t="n">
-        <v>717.8557622455387</v>
+        <v>717.8557622455322</v>
       </c>
       <c r="DG3" t="n">
-        <v>1006.774470037784</v>
+        <v>1006.774470037743</v>
       </c>
       <c r="DH3" t="n">
-        <v>344.8023979999745</v>
+        <v>344.8023979999685</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.9995308296344998</v>
+        <v>0.9995308296345083</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.832921504485096e-05</v>
+        <v>1.832921504485031e-05</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.02606721789341968</v>
+        <v>0.02606721789341843</v>
       </c>
       <c r="DL3" t="inlineStr">
         <is>
@@ -8756,37 +8756,37 @@
         <v>1</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.01603742871331182</v>
+        <v>0.0160374287133779</v>
       </c>
       <c r="DO3" t="n">
-        <v>-1.82590809424715e-07</v>
+        <v>-1.825908094205932e-07</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01379361004716647</v>
+        <v>0.01379361004716724</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.02515223164248119</v>
+        <v>0.02515223164247335</v>
       </c>
       <c r="DR3" t="n">
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.05498308781215006</v>
+        <v>0.05498308781220907</v>
       </c>
       <c r="DT3" t="n">
-        <v>3.566660855547354e-13</v>
+        <v>1.135480598435379e-13</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.8645287769321071</v>
+        <v>0.8645287769456325</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.8645287769321071</v>
+        <v>0.8645287769456325</v>
       </c>
       <c r="DW3" t="n">
-        <v>498758.8280900404</v>
+        <v>498758.8280841266</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.742713109670771</v>
+        <v>2.742713109629137</v>
       </c>
       <c r="DY3" t="n">
         <v>421784.4310884894</v>
@@ -8795,169 +8795,169 @@
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>1485.004309760756</v>
+        <v>1485.00431117625</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.006324338054746256</v>
+        <v>0.006324338053164483</v>
       </c>
       <c r="ED3" t="n">
-        <v>-7.113116043838133e-08</v>
+        <v>-7.113116041620977e-08</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.009985702196661155</v>
+        <v>0.009985702194064784</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.005468275228219223</v>
+        <v>0.005468275226806188</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.02459522109677447</v>
+        <v>0.02459522109724313</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.002166345439126797</v>
+        <v>0.002166345440326452</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.01188682146156299</v>
+        <v>0.01188682146147578</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.03204523418683441</v>
+        <v>0.03204523418760414</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0426698637680997</v>
+        <v>0.04266986376939112</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.1133634859523984</v>
+        <v>0.1133634859560406</v>
       </c>
       <c r="EN3" t="n">
-        <v>-3.233054102214084e-11</v>
+        <v>-1.838258434361251e-10</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.9607508105112061</v>
+        <v>0.9607508105101528</v>
       </c>
       <c r="EP3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EQ3" t="n">
-        <v>147.8703209333577</v>
+        <v>147.8703210740053</v>
       </c>
       <c r="ER3" t="n">
-        <v>130.1084645481723</v>
+        <v>130.1084646252046</v>
       </c>
       <c r="ES3" t="n">
-        <v>-70.26677213200563</v>
+        <v>-70.26677228535038</v>
       </c>
       <c r="ET3" t="n">
-        <v>-28.37184243401143</v>
+        <v>-28.37184247210787</v>
       </c>
       <c r="EU3" t="n">
-        <v>269.1122894208975</v>
+        <v>269.1122895923723</v>
       </c>
       <c r="EV3" t="n">
-        <v>130.1084645481723</v>
+        <v>130.1084646252046</v>
       </c>
       <c r="EW3" t="n">
-        <v>-235.5699721320056</v>
+        <v>-235.5699722853504</v>
       </c>
       <c r="EX3" t="n">
-        <v>-61.08753904159543</v>
+        <v>-61.0875390430234</v>
       </c>
       <c r="EY3" t="n">
-        <v>232.4495874004596</v>
+        <v>232.4495873530192</v>
       </c>
       <c r="EZ3" t="n">
-        <v>55931.5961195757</v>
+        <v>55931.5960777679</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.8388647153544341</v>
+        <v>0.8388647148986752</v>
       </c>
       <c r="FB3" t="n">
-        <v>291852.8370254793</v>
+        <v>291852.8369916002</v>
       </c>
       <c r="FC3" t="n">
-        <v>358528.1841891083</v>
+        <v>358528.1841416156</v>
       </c>
       <c r="FD3" t="n">
-        <v>3801.263841052801</v>
+        <v>3801.263841062894</v>
       </c>
       <c r="FE3" t="n">
-        <v>-525074.0272639017</v>
+        <v>-525074.0271334068</v>
       </c>
       <c r="FF3" t="n">
-        <v>715.9598802283006</v>
+        <v>715.9598802275607</v>
       </c>
       <c r="FG3" t="n">
-        <v>1004.380331903843</v>
+        <v>1004.38033190275</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.402844432544981</v>
+        <v>1.402844432544904</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.9992640790444464</v>
+        <v>0.9992640790443587</v>
       </c>
       <c r="FJ3" t="n">
-        <v>305.7227757803538</v>
+        <v>305.722775749121</v>
       </c>
       <c r="FK3" t="n">
-        <v>78405.67814336758</v>
+        <v>78405.67808474951</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.275417831565036e-05</v>
+        <v>1.275417832518571e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>55890.50098814403</v>
+        <v>55890.50094636193</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.789212804179602e-05</v>
+        <v>1.789212805517165e-05</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.004315445128706044</v>
+        <v>0.004315445129584522</v>
       </c>
       <c r="FP3" t="n">
-        <v>1.510693775192345e-05</v>
+        <v>1.510693774938315e-05</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.02114967868927848</v>
+        <v>0.02114967868544187</v>
       </c>
       <c r="FR3" t="n">
-        <v>55931.5961195757</v>
+        <v>55931.5960777679</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.8388647153544341</v>
+        <v>0.8388647148986752</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.8388647153544341</v>
+        <v>0.8388647148986752</v>
       </c>
       <c r="FU3" t="n">
-        <v>291852.8370254793</v>
+        <v>291852.8369916002</v>
       </c>
       <c r="FV3" t="n">
-        <v>358528.1841891083</v>
+        <v>358528.1841416156</v>
       </c>
       <c r="FW3" t="n">
-        <v>3801.263841052801</v>
+        <v>3801.263841062894</v>
       </c>
       <c r="FX3" t="n">
-        <v>715.9598802283006</v>
+        <v>715.9598802275607</v>
       </c>
       <c r="FY3" t="n">
-        <v>1004.380331903843</v>
+        <v>1004.38033190275</v>
       </c>
       <c r="FZ3" t="n">
-        <v>305.7227757803538</v>
+        <v>305.722775749121</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.9992640790444464</v>
+        <v>0.9992640790443587</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.510693775192345e-05</v>
+        <v>1.510693774938315e-05</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.02114967868927848</v>
+        <v>0.02114967868544187</v>
       </c>
       <c r="GD3" t="inlineStr">
         <is>
@@ -8968,97 +8968,97 @@
         <v>1</v>
       </c>
       <c r="GF3" t="n">
-        <v>243.3678546858984</v>
+        <v>243.3678546592403</v>
       </c>
       <c r="GG3" t="n">
-        <v>65651.70334151338</v>
+        <v>65651.70331184019</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.9404446718333792</v>
+        <v>0.9404446715113648</v>
       </c>
       <c r="GI3" t="n">
-        <v>299651.7861056423</v>
+        <v>299651.786086611</v>
       </c>
       <c r="GJ3" t="n">
-        <v>369461.0000953676</v>
+        <v>369461.0000686872</v>
       </c>
       <c r="GK3" t="n">
-        <v>3801.263841051526</v>
+        <v>3801.263841071544</v>
       </c>
       <c r="GL3" t="n">
-        <v>-555644.4259964202</v>
+        <v>-555644.425926638</v>
       </c>
       <c r="GM3" t="n">
-        <v>716.1501976961299</v>
+        <v>716.1501976955888</v>
       </c>
       <c r="GN3" t="n">
-        <v>1004.641302974724</v>
+        <v>1004.641302973909</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.402836033846917</v>
+        <v>1.402836033846839</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.9992940563464537</v>
+        <v>0.99929405634642</v>
       </c>
       <c r="GQ3" t="n">
-        <v>312.828874753061</v>
+        <v>312.8288747359081</v>
       </c>
       <c r="GR3" t="n">
-        <v>92033.70701917098</v>
+        <v>92033.70697756532</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.086558427763532e-05</v>
+        <v>1.086558428254733e-05</v>
       </c>
       <c r="GT3" t="n">
-        <v>65605.46264754276</v>
+        <v>65605.46261788822</v>
       </c>
       <c r="GU3" t="n">
-        <v>1.524263315346736e-05</v>
+        <v>1.524263316035724e-05</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.004122220614581247</v>
+        <v>0.00412222061503097</v>
       </c>
       <c r="GW3" t="n">
-        <v>1.56864070548928e-05</v>
+        <v>1.568640705348951e-05</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.02202641086288826</v>
+        <v>0.02202641086076043</v>
       </c>
       <c r="GY3" t="n">
-        <v>65651.70334151338</v>
+        <v>65651.70331184019</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9404446718333792</v>
+        <v>0.9404446715113648</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9404446718333792</v>
+        <v>0.9404446715113648</v>
       </c>
       <c r="HB3" t="n">
-        <v>299651.7861056423</v>
+        <v>299651.786086611</v>
       </c>
       <c r="HC3" t="n">
-        <v>369461.0000953676</v>
+        <v>369461.0000686872</v>
       </c>
       <c r="HD3" t="n">
-        <v>3801.263841051526</v>
+        <v>3801.263841071544</v>
       </c>
       <c r="HE3" t="n">
-        <v>716.1501976961299</v>
+        <v>716.1501976955888</v>
       </c>
       <c r="HF3" t="n">
-        <v>1004.641302974724</v>
+        <v>1004.641302973909</v>
       </c>
       <c r="HG3" t="n">
-        <v>312.828874753061</v>
+        <v>312.8288747359081</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.9992940563464537</v>
+        <v>0.99929405634642</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.56864070548928e-05</v>
+        <v>1.568640705348951e-05</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.02202641086288826</v>
+        <v>0.02202641086076043</v>
       </c>
       <c r="HK3" t="inlineStr">
         <is>
@@ -9069,97 +9069,97 @@
         <v>1</v>
       </c>
       <c r="HM3" t="n">
-        <v>268.6028881494947</v>
+        <v>268.6028881481409</v>
       </c>
       <c r="HN3" t="n">
-        <v>92654.46754285764</v>
+        <v>92654.46753478315</v>
       </c>
       <c r="HO3" t="n">
-        <v>1.202438301323907</v>
+        <v>1.202438301225137</v>
       </c>
       <c r="HP3" t="n">
-        <v>317683.4104728895</v>
+        <v>317683.4104719367</v>
       </c>
       <c r="HQ3" t="n">
-        <v>394738.8963475854</v>
+        <v>394738.8963462471</v>
       </c>
       <c r="HR3" t="n">
-        <v>3801.263841042875</v>
+        <v>3801.263841062894</v>
       </c>
       <c r="HS3" t="n">
-        <v>-626291.5499747724</v>
+        <v>-626291.549976342</v>
       </c>
       <c r="HT3" t="n">
-        <v>716.7868863791216</v>
+        <v>716.7868863790583</v>
       </c>
       <c r="HU3" t="n">
-        <v>1005.444725569468</v>
+        <v>1005.444725569284</v>
       </c>
       <c r="HV3" t="n">
-        <v>1.402710826154359</v>
+        <v>1.402710826154226</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.9993938096917594</v>
+        <v>0.9993938096917948</v>
       </c>
       <c r="HX3" t="n">
-        <v>328.6660257344423</v>
+        <v>328.6660257336101</v>
       </c>
       <c r="HY3" t="n">
-        <v>129889.0163829838</v>
+        <v>129889.0163716567</v>
       </c>
       <c r="HZ3" t="n">
-        <v>7.698880381474702e-06</v>
+        <v>7.698880382146091e-06</v>
       </c>
       <c r="IA3" t="n">
-        <v>92598.56982717151</v>
+        <v>92598.56981910511</v>
       </c>
       <c r="IB3" t="n">
-        <v>1.079930286036196e-05</v>
+        <v>1.07993028613027e-05</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.003735645016499462</v>
+        <v>0.003735645016517376</v>
       </c>
       <c r="ID3" t="n">
-        <v>1.698853714516622e-05</v>
+        <v>1.698853714509671e-05</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.0240084836305924</v>
+        <v>0.02400848363048537</v>
       </c>
       <c r="IF3" t="n">
-        <v>92654.46754285764</v>
+        <v>92654.46753478315</v>
       </c>
       <c r="IG3" t="n">
-        <v>1.202438301323907</v>
+        <v>1.202438301225137</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.202438301323907</v>
+        <v>1.202438301225137</v>
       </c>
       <c r="II3" t="n">
-        <v>317683.4104728895</v>
+        <v>317683.4104719367</v>
       </c>
       <c r="IJ3" t="n">
-        <v>394738.8963475854</v>
+        <v>394738.8963462471</v>
       </c>
       <c r="IK3" t="n">
-        <v>3801.263841042875</v>
+        <v>3801.263841062894</v>
       </c>
       <c r="IL3" t="n">
-        <v>716.7868863791216</v>
+        <v>716.7868863790583</v>
       </c>
       <c r="IM3" t="n">
-        <v>1005.444725569468</v>
+        <v>1005.444725569284</v>
       </c>
       <c r="IN3" t="n">
-        <v>328.6660257344423</v>
+        <v>328.6660257336101</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.9993938096917594</v>
+        <v>0.9993938096917948</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.698853714516622e-05</v>
+        <v>1.698853714509671e-05</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.0240084836305924</v>
+        <v>0.02400848363048537</v>
       </c>
       <c r="IR3" t="inlineStr">
         <is>
@@ -9170,64 +9170,64 @@
         <v>1</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.0244817175957501</v>
+        <v>0.02448171759469558</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.002201228145369613</v>
+        <v>0.002201228147540871</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.01189238600740461</v>
+        <v>0.01189238600742983</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.03201339421380241</v>
+        <v>0.03201339421392882</v>
       </c>
       <c r="IX3" t="n">
-        <v>0.04270336871631689</v>
+        <v>0.0427033687182823</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.1132920946786436</v>
+        <v>0.1132920946818774</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-2.990495351351541e-11</v>
+        <v>-1.563593698961085e-11</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.4836745334263058</v>
+        <v>0.4836745339357676</v>
       </c>
       <c r="JB3" t="n">
-        <v>0.8802493982791814</v>
+        <v>0.8802493989299914</v>
       </c>
       <c r="JC3" t="n">
-        <v>389424.6425384417</v>
+        <v>389424.6426404853</v>
       </c>
       <c r="JD3" t="n">
-        <v>2.742713110023133</v>
+        <v>2.742713110280626</v>
       </c>
       <c r="JE3" t="n">
-        <v>381076.3223825592</v>
+        <v>381076.3223812272</v>
       </c>
       <c r="JF3" t="n">
         <v>0</v>
       </c>
       <c r="JG3" t="n">
-        <v>2819.797503659793</v>
+        <v>2819.797506897477</v>
       </c>
       <c r="JH3" t="n">
-        <v>6.466737174067916</v>
+        <v>6.466737176007328</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.008972027844770889</v>
+        <v>0.008972027844099787</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.000790255616111824</v>
+        <v>0.0007902556164752744</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.01168969907955769</v>
+        <v>0.01168969907874135</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.01556543055066001</v>
+        <v>0.01556543054967022</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.004336163221275119</v>
+        <v>0.004336163220836337</v>
       </c>
     </row>
   </sheetData>
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4091107084554654</v>
+        <v>0.4091107084443905</v>
       </c>
     </row>
     <row r="3">
@@ -9274,7 +9274,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4294038855846937</v>
+        <v>0.4294038855511785</v>
       </c>
     </row>
   </sheetData>
@@ -9288,7 +9288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9522,6 +9522,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -9529,223 +9749,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
     <row r="3">
@@ -9754,223 +10022,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
   </sheetData>
@@ -10064,7 +10380,7 @@
         <v>115</v>
       </c>
       <c r="H2" t="n">
-        <v>1.566032936518113e-11</v>
+        <v>7.082069225226791e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10095,7 +10411,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>1.022765917159682e-10</v>
+        <v>2.147995634712346e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_windows/performance_analysis_evaluate_cascade_throat_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_evaluate_cascade_throat_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015415654245029</v>
+        <v>2.015416512413595</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999961945</v>
+        <v>2.299999999958307</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740325648321303</v>
+        <v>2.740321957346736</v>
       </c>
       <c r="E2" t="n">
-        <v>92.55823833794622</v>
+        <v>92.55823378509079</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08691049167719</v>
+        <v>79.08695059165633</v>
       </c>
       <c r="G2" t="n">
-        <v>0.145544341467292</v>
+        <v>0.1455438661968548</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23245483314447</v>
+        <v>-78.23249445785319</v>
       </c>
       <c r="I2" t="n">
-        <v>136187.0994225923</v>
+        <v>136186.9850424866</v>
       </c>
       <c r="J2" t="n">
-        <v>83.70442496778878</v>
+        <v>83.704354666556</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.35244699886395</v>
+        <v>-24.35240832620558</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2468792304593</v>
+        <v>135.2466584080788</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372087.0166568345</v>
+        <v>372086.9914584132</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7160036893435827</v>
+        <v>0.716003207146823</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069501792761232</v>
+        <v>2.069502772201159</v>
       </c>
       <c r="C3" t="n">
-        <v>2.40000000002027</v>
+        <v>2.399999999771385</v>
       </c>
       <c r="D3" t="n">
-        <v>2.742713109638594</v>
+        <v>2.742709944164941</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53028345091477</v>
+        <v>92.53027716136778</v>
       </c>
       <c r="F3" t="n">
-        <v>78.20384108767327</v>
+        <v>78.20388215397108</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548297684707878</v>
+        <v>0.1548292672074487</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35867085614406</v>
+        <v>-77.35871142117853</v>
       </c>
       <c r="I3" t="n">
-        <v>140844.277766682</v>
+        <v>140844.1891726076</v>
       </c>
       <c r="J3" t="n">
-        <v>86.56685787749353</v>
+        <v>86.56680342508147</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.84402697604786</v>
+        <v>-26.84397151585621</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5960843646348</v>
+        <v>142.5958535361322</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370432.2582084882</v>
+        <v>370432.231242503</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7036726398946045</v>
+        <v>0.703672233826278</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.6335438875531</v>
+        <v>80.63342892254525</v>
       </c>
       <c r="D2" t="n">
-        <v>80.6335438875531</v>
+        <v>80.63342892254525</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.6335438875531</v>
+        <v>80.63342892254525</v>
       </c>
       <c r="H2" t="n">
-        <v>80.6335438875531</v>
+        <v>80.63342892254525</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3586251720851</v>
+        <v>292.3586344157082</v>
       </c>
       <c r="L2" t="n">
-        <v>132782.2605453995</v>
+        <v>132782.2752200276</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583018477912653</v>
+        <v>1.583018602709077</v>
       </c>
       <c r="N2" t="n">
-        <v>334654.3866652814</v>
+        <v>334654.3932778504</v>
       </c>
       <c r="O2" t="n">
-        <v>418533.546888657</v>
+        <v>418533.5561586862</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687434.968029878</v>
+        <v>-687434.9937277113</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7131881772995</v>
+        <v>717.7131885957094</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.647986356439</v>
+        <v>1006.647986841933</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576966591511</v>
+        <v>1.402576966450287</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980076920323</v>
+        <v>0.9994980077565951</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9118376533586</v>
+        <v>342.9118430793812</v>
       </c>
       <c r="W2" t="n">
-        <v>186144.8132521946</v>
+        <v>186144.8338177014</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372161504415221e-06</v>
+        <v>5.372160910892308e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132716.2912881398</v>
+        <v>132716.3059641612</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534869986902392e-06</v>
+        <v>7.534869153682143e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433387668876737</v>
+        <v>0.003433387560497264</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817171174420831e-05</v>
+        <v>1.817171219649099e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582477109755416</v>
+        <v>0.02582477179421082</v>
       </c>
       <c r="AD2" t="n">
-        <v>132782.2605453995</v>
+        <v>132782.2752200276</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583018477912653</v>
+        <v>1.583018602709077</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583018477912653</v>
+        <v>1.583018602709077</v>
       </c>
       <c r="AG2" t="n">
-        <v>334654.3866652814</v>
+        <v>334654.3932778504</v>
       </c>
       <c r="AH2" t="n">
-        <v>418533.546888657</v>
+        <v>418533.5561586862</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7131881772995</v>
+        <v>717.7131885957094</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.647986356439</v>
+        <v>1006.647986841933</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9118376533586</v>
+        <v>342.9118430793812</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980076920323</v>
+        <v>0.9994980077565951</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817171174420831e-05</v>
+        <v>1.817171219649099e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582477109755416</v>
+        <v>0.02582477179421082</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2351436580298626</v>
+        <v>0.2351433190479784</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2351436580298626</v>
+        <v>0.2351433190479784</v>
       </c>
       <c r="DH2" t="n">
-        <v>183756.8902227083</v>
+        <v>183756.6381401409</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.740325648321257</v>
+        <v>2.740321957274894</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>268.6999508368797</v>
+        <v>268.7002207322083</v>
       </c>
       <c r="DU2" t="n">
-        <v>110.6156553273885</v>
+        <v>110.6155878012886</v>
       </c>
       <c r="DV2" t="n">
-        <v>244.8751526313643</v>
+        <v>244.8754792887864</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.69022765834211</v>
+        <v>65.69026945496361</v>
       </c>
       <c r="DX2" t="n">
-        <v>268.6999508368797</v>
+        <v>268.7002207322083</v>
       </c>
       <c r="DY2" t="n">
-        <v>110.6156553273885</v>
+        <v>110.6155878012886</v>
       </c>
       <c r="DZ2" t="n">
-        <v>244.8751526313643</v>
+        <v>244.8754792887864</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.69022765834211</v>
+        <v>65.69026945496361</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.5769212270329</v>
+        <v>259.5768488189154</v>
       </c>
       <c r="EC2" t="n">
-        <v>85923.87003126992</v>
+        <v>85923.78275685551</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.153945068045973</v>
+        <v>1.153944218186534</v>
       </c>
       <c r="EE2" t="n">
-        <v>311223.6284859849</v>
+        <v>311223.5767572943</v>
       </c>
       <c r="EF2" t="n">
-        <v>385684.5992987192</v>
+        <v>385684.5267778143</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.609699993026</v>
+        <v>3788.609711975854</v>
       </c>
       <c r="EH2" t="n">
-        <v>-597751.0423563434</v>
+        <v>-597750.8436616167</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5374584806422</v>
+        <v>716.5374565233992</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.204884458147</v>
+        <v>1005.204881931627</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402864389797011</v>
+        <v>1.402864390102963</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993241596861365</v>
+        <v>0.9993241593965888</v>
       </c>
       <c r="EM2" t="n">
-        <v>323.0918122190776</v>
+        <v>323.0917670972826</v>
       </c>
       <c r="EN2" t="n">
-        <v>120458.3860136039</v>
+        <v>120458.2636526967</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.301622104475695e-06</v>
+        <v>8.301630537222284e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>85866.02303807408</v>
+        <v>85865.93579715547</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.164605002792068e-05</v>
+        <v>1.164606186046047e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003865874441819004</v>
+        <v>0.003865875517508875</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.652911597564673e-05</v>
+        <v>1.652911225933552e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0233077573493601</v>
+        <v>0.02330775168487713</v>
       </c>
       <c r="EU2" t="n">
-        <v>85923.87003126992</v>
+        <v>85923.78275685551</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.153945068045973</v>
+        <v>1.153944218186534</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.153945068045973</v>
+        <v>1.153944218186534</v>
       </c>
       <c r="EX2" t="n">
-        <v>311223.6284859849</v>
+        <v>311223.5767572943</v>
       </c>
       <c r="EY2" t="n">
-        <v>385684.5992987192</v>
+        <v>385684.5267778143</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.609699993026</v>
+        <v>3788.609711975854</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5374584806422</v>
+        <v>716.5374565233992</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.204884458147</v>
+        <v>1005.204881931627</v>
       </c>
       <c r="FC2" t="n">
-        <v>323.0918122190776</v>
+        <v>323.0917670972826</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993241596861365</v>
+        <v>0.9993241593965888</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.652911597564673e-05</v>
+        <v>1.652911225933552e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0233077573493601</v>
+        <v>0.02330775168487713</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5937145388037</v>
+        <v>295.5937145257022</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135289.0619925523</v>
+        <v>135289.0563422752</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.595200587732395</v>
+        <v>1.595200521149685</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3683082166</v>
+        <v>336974.3683103439</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.609699998226</v>
+        <v>3788.609711981052</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698104.7830718291</v>
+        <v>-698104.7865642412</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8561752458089</v>
+        <v>717.8561752310915</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.777073410741</v>
+        <v>1006.777073317969</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.40247741557144</v>
+        <v>1.402477415470959</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995302899143566</v>
+        <v>0.9995302899335892</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027749772333</v>
+        <v>344.8027749637995</v>
       </c>
       <c r="FU2" t="n">
-        <v>189651.7287086568</v>
+        <v>189651.7207779301</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.2728230151606e-06</v>
+        <v>5.27282323565593e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135226.2265352652</v>
+        <v>135226.2208901553</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.395015195068044e-06</v>
+        <v>7.395015503777948e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395619871558761</v>
+        <v>0.003395619871185993</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.8329255750085e-05</v>
+        <v>1.832925574863445e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606729614694714</v>
+        <v>0.02606729614415853</v>
       </c>
       <c r="GB2" t="n">
-        <v>135289.0619925523</v>
+        <v>135289.0563422752</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.595200587732395</v>
+        <v>1.595200521149685</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595200587732395</v>
+        <v>1.595200521149685</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3683082166</v>
+        <v>336974.3683103439</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.609699998226</v>
+        <v>3788.609711981052</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8561752458089</v>
+        <v>717.8561752310915</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.777073410741</v>
+        <v>1006.777073317969</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8027749772333</v>
+        <v>344.8027749637995</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995302899143566</v>
+        <v>0.9995302899335892</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.8329255750085e-05</v>
+        <v>1.832925574863445e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606729614694714</v>
+        <v>0.02606729614415853</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5937145388037</v>
+        <v>295.5937145257022</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135289.0619925523</v>
+        <v>135289.0563422752</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595200587732395</v>
+        <v>1.595200521149685</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3683082166</v>
+        <v>336974.3683103439</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.609699998226</v>
+        <v>3788.609711981052</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698104.7830718291</v>
+        <v>-698104.7865642412</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561752458089</v>
+        <v>717.8561752310915</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777073410741</v>
+        <v>1006.777073317969</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.40247741557144</v>
+        <v>1.402477415470959</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302899143566</v>
+        <v>0.9995302899335892</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8027749772333</v>
+        <v>344.8027749637995</v>
       </c>
       <c r="HB2" t="n">
-        <v>189651.7287086568</v>
+        <v>189651.7207779301</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.2728230151606e-06</v>
+        <v>5.27282323565593e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135226.2265352652</v>
+        <v>135226.2208901553</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.395015195068044e-06</v>
+        <v>7.395015503777948e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395619871558761</v>
+        <v>0.003395619871185993</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.8329255750085e-05</v>
+        <v>1.832925574863445e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606729614694714</v>
+        <v>0.02606729614415853</v>
       </c>
       <c r="HI2" t="n">
-        <v>135289.0619925523</v>
+        <v>135289.0563422752</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.595200587732395</v>
+        <v>1.595200521149685</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595200587732395</v>
+        <v>1.595200521149685</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3683082166</v>
+        <v>336974.3683103439</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.609699998226</v>
+        <v>3788.609711981052</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8561752458089</v>
+        <v>717.8561752310915</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.777073410741</v>
+        <v>1006.777073317969</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8027749772333</v>
+        <v>344.8027749637995</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995302899143566</v>
+        <v>0.9995302899335892</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.8329255750085e-05</v>
+        <v>1.832925574863445e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606729614694714</v>
+        <v>0.02606729614415853</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8316519969707042</v>
+        <v>0.8316529484680522</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8316519969707042</v>
+        <v>0.8316529484680522</v>
       </c>
       <c r="HY2" t="n">
-        <v>490727.9958953614</v>
+        <v>490728.2377264337</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.740325648324172</v>
+        <v>2.740321957274736</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01593369941071624</v>
+        <v>0.01593373937723827</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.788002728034547e-07</v>
+        <v>-1.788003961088507e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01379066038778067</v>
+        <v>0.01379066172769853</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.0251918011932314</v>
+        <v>0.02519178354024262</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.05491598219145551</v>
+        <v>0.05491600584478332</v>
       </c>
       <c r="IH2" t="n">
-        <v>2.716923908074875e-13</v>
+        <v>3.398878400950878e-12</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>268.6999508368796</v>
+        <v>268.7002207322083</v>
       </c>
       <c r="IL2" t="n">
-        <v>110.6156553273885</v>
+        <v>110.6155878012886</v>
       </c>
       <c r="IM2" t="n">
-        <v>244.8751526313642</v>
+        <v>244.8754792887864</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.69022765834211</v>
+        <v>65.6902694549636</v>
       </c>
       <c r="IO2" t="n">
-        <v>136.2626832594884</v>
+        <v>136.2628191981848</v>
       </c>
       <c r="IP2" t="n">
-        <v>110.6156553273885</v>
+        <v>110.6155878012886</v>
       </c>
       <c r="IQ2" t="n">
-        <v>79.57195263136421</v>
+        <v>79.57227928878635</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.72955069945392</v>
+        <v>35.72967878070872</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.576921226933</v>
+        <v>259.5768488186224</v>
       </c>
       <c r="IT2" t="n">
-        <v>85923.87003131883</v>
+        <v>85923.78275667573</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.153945068047076</v>
+        <v>1.153944218185426</v>
       </c>
       <c r="IV2" t="n">
-        <v>311223.6284859128</v>
+        <v>311223.5767570845</v>
       </c>
       <c r="IW2" t="n">
-        <v>385684.5992986183</v>
+        <v>385684.5267775203</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.609699992474</v>
+        <v>3788.609711975321</v>
       </c>
       <c r="IY2" t="n">
-        <v>-597751.0423559224</v>
+        <v>-597750.8436606622</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5374584806398</v>
+        <v>716.5374565233918</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.204884458147</v>
+        <v>1005.20488193162</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402864389797016</v>
+        <v>1.402864390102968</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993241596861347</v>
+        <v>0.9993241593965863</v>
       </c>
       <c r="JD2" t="n">
-        <v>323.0918122190153</v>
+        <v>323.0917670971</v>
       </c>
       <c r="JE2" t="n">
-        <v>120458.3860136726</v>
+        <v>120458.2636524448</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.301622104470959e-06</v>
+        <v>8.301630537239641e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>85866.02303812277</v>
+        <v>85865.93579697561</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.164605002791407e-05</v>
+        <v>1.164606186048487e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003865874441820516</v>
+        <v>0.003865875517513255</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.652911597564162e-05</v>
+        <v>1.652911225932051e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02330775734935235</v>
+        <v>0.02330775168485426</v>
       </c>
       <c r="JL2" t="n">
-        <v>85923.87003131883</v>
+        <v>85923.78275667573</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.153945068047076</v>
+        <v>1.153944218185426</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.153945068047076</v>
+        <v>1.153944218185426</v>
       </c>
       <c r="JO2" t="n">
-        <v>311223.6284859128</v>
+        <v>311223.5767570845</v>
       </c>
       <c r="JP2" t="n">
-        <v>385684.5992986183</v>
+        <v>385684.5267775203</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.609699992474</v>
+        <v>3788.609711975321</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5374584806398</v>
+        <v>716.5374565233918</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.204884458147</v>
+        <v>1005.20488193162</v>
       </c>
       <c r="JT2" t="n">
-        <v>323.0918122190153</v>
+        <v>323.0917670971</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993241596861347</v>
+        <v>0.9993241593965863</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.652911597564162e-05</v>
+        <v>1.652911225932051e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02330775734935235</v>
+        <v>0.02330775168485426</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5937145389044</v>
+        <v>295.5937145256028</v>
       </c>
       <c r="KA2" t="n">
-        <v>135289.0619929729</v>
+        <v>135289.0563423656</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.595200587736812</v>
+        <v>1.59520052115129</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3683082882</v>
+        <v>336974.3683102719</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310884895</v>
+        <v>421784.4310882884</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.609699997674</v>
+        <v>3788.609711980521</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698104.7830719475</v>
+        <v>-698104.7865638077</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8561752458144</v>
+        <v>717.8561752310876</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.777073410751</v>
+        <v>1006.777073317968</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477415571443</v>
+        <v>1.402477415470965</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995302899143564</v>
+        <v>0.9995302899335876</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8027749772924</v>
+        <v>344.8027749637417</v>
       </c>
       <c r="KL2" t="n">
-        <v>189651.7287092468</v>
+        <v>189651.7207780573</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.272823015144195e-06</v>
+        <v>5.272823235652392e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135226.2265356857</v>
+        <v>135226.2208902455</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.395015195045053e-06</v>
+        <v>7.395015503773019e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395619871557631</v>
+        <v>0.003395619871187158</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925575008994e-05</v>
+        <v>1.832925574862964e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606729614695478</v>
+        <v>0.02606729614415115</v>
       </c>
       <c r="KS2" t="n">
-        <v>135289.0619929729</v>
+        <v>135289.0563423656</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595200587736812</v>
+        <v>1.59520052115129</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.595200587736812</v>
+        <v>1.59520052115129</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3683082882</v>
+        <v>336974.3683102719</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310884895</v>
+        <v>421784.4310882884</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.609699997674</v>
+        <v>3788.609711980521</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8561752458144</v>
+        <v>717.8561752310876</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.777073410751</v>
+        <v>1006.777073317968</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8027749772924</v>
+        <v>344.8027749637417</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995302899143564</v>
+        <v>0.9995302899335876</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925575008994e-05</v>
+        <v>1.832925574862964e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606729614695478</v>
+        <v>0.02606729614415115</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.8436668147045</v>
+        <v>268.8436129121171</v>
       </c>
       <c r="LH2" t="n">
-        <v>97121.67807481025</v>
+        <v>97121.60601798874</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.259316032326967</v>
+        <v>1.259315350812133</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317845.7972837149</v>
+        <v>317845.7587681435</v>
       </c>
       <c r="LK2" t="n">
-        <v>394968.3587231564</v>
+        <v>394968.3047256393</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.609699992474</v>
+        <v>3788.60971197532</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623575.3651525779</v>
+        <v>-623575.2181557413</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8078775150358</v>
+        <v>716.8078758001399</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.539805781705</v>
+        <v>1005.539803619874</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402802392835886</v>
+        <v>1.402802393176045</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993679212747815</v>
+        <v>0.9993679210281223</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.8155631279097</v>
+        <v>328.8155301225783</v>
       </c>
       <c r="LS2" t="n">
-        <v>136156.8395772421</v>
+        <v>136156.7385582221</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.344471295786043e-06</v>
+        <v>7.344476744883169e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97060.59832275403</v>
+        <v>97060.52628692308</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.030284190784314e-05</v>
+        <v>1.030284955434792e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003732874461642077</v>
+        <v>0.003732875208115008</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.700135816401097e-05</v>
+        <v>1.700135543541983e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02402859192856662</v>
+        <v>0.02402858775676756</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97121.67807481025</v>
+        <v>97121.60601798874</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.259316032326967</v>
+        <v>1.259315350812133</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.259316032326967</v>
+        <v>1.259315350812133</v>
       </c>
       <c r="MC2" t="n">
-        <v>317845.7972837149</v>
+        <v>317845.7587681435</v>
       </c>
       <c r="MD2" t="n">
-        <v>394968.3587231564</v>
+        <v>394968.3047256393</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.609699992474</v>
+        <v>3788.60971197532</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8078775150358</v>
+        <v>716.8078758001399</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.539805781705</v>
+        <v>1005.539803619874</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.8155631279097</v>
+        <v>328.8155301225783</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993679212747815</v>
+        <v>0.9993679210281223</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.700135816401097e-05</v>
+        <v>1.700135543541983e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02402859192856662</v>
+        <v>0.02402858775676756</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8316519969708644</v>
+        <v>0.831652948468522</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4217460118336877</v>
+        <v>0.4217464914766251</v>
       </c>
       <c r="MP2" t="n">
-        <v>247905.8964240309</v>
+        <v>247906.0168995833</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.740325648326791</v>
+        <v>2.740321957272104</v>
       </c>
       <c r="MR2" t="n">
-        <v>381305.784757936</v>
+        <v>381305.730760419</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>135.2468792304593</v>
+        <v>135.2466584080788</v>
       </c>
       <c r="MU2" t="n">
-        <v>123.2134512311152</v>
+        <v>123.2132876980791</v>
       </c>
       <c r="MV2" t="n">
-        <v>-55.76884235212381</v>
+        <v>-55.76866813168428</v>
       </c>
       <c r="MW2" t="n">
-        <v>-24.35244699886395</v>
+        <v>-24.35240832620558</v>
       </c>
       <c r="MX2" t="n">
-        <v>253.0897123038027</v>
+        <v>253.0894805095669</v>
       </c>
       <c r="MY2" t="n">
-        <v>123.2134512311152</v>
+        <v>123.2132876980791</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-221.0720423521238</v>
+        <v>-221.0718681316843</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.86709821273267</v>
+        <v>-60.86711134942018</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.8579024765432</v>
+        <v>236.8579071228905</v>
       </c>
       <c r="NC2" t="n">
-        <v>59999.99999999364</v>
+        <v>60000.00000008855</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8831276233637865</v>
+        <v>0.8831276059861962</v>
       </c>
       <c r="NE2" t="n">
-        <v>295000.807289123</v>
+        <v>295000.8106193306</v>
       </c>
       <c r="NF2" t="n">
-        <v>362941.1574861384</v>
+        <v>362941.162153338</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.930280939493</v>
+        <v>3799.930300643679</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537102.3584142915</v>
+        <v>-537102.3760699802</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0325594044278</v>
+        <v>716.0325594644862</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487930705633</v>
+        <v>1004.487930699376</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852310991463</v>
+        <v>1.402852310865057</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992718931040495</v>
+        <v>0.9992718931663098</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.611423494114</v>
+        <v>308.6114265263915</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.96743602635</v>
+        <v>84109.9674338207</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188919732682806e-05</v>
+        <v>1.188919732713984e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.39510803659</v>
+        <v>59956.39511186678</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878794577427e-05</v>
+        <v>1.667878794470878e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004235350473523228</v>
+        <v>0.004235350389689312</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534216675142975e-05</v>
+        <v>1.534216699777433e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150522896522775</v>
+        <v>0.02150522933714974</v>
       </c>
       <c r="NU2" t="n">
-        <v>59999.99999999364</v>
+        <v>60000.00000008855</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8831276233637865</v>
+        <v>0.8831276059861962</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8831276233637865</v>
+        <v>0.8831276059861962</v>
       </c>
       <c r="NX2" t="n">
-        <v>295000.807289123</v>
+        <v>295000.8106193306</v>
       </c>
       <c r="NY2" t="n">
-        <v>362941.1574861384</v>
+        <v>362941.162153338</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.930280939493</v>
+        <v>3799.930300643679</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0325594044278</v>
+        <v>716.0325594644862</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487930705633</v>
+        <v>1004.487930699376</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.611423494114</v>
+        <v>308.6114265263915</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992718931040495</v>
+        <v>0.9992718931663098</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534216675142975e-05</v>
+        <v>1.534216699777433e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150522896522775</v>
+        <v>0.02150522933714974</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>245.9911425117834</v>
+        <v>245.9911173344623</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68472.22790347763</v>
+        <v>68472.19874785979</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9703831011214067</v>
+        <v>0.9703827872834022</v>
       </c>
       <c r="OL2" t="n">
-        <v>301524.9594401034</v>
+        <v>301524.9414662153</v>
       </c>
       <c r="OM2" t="n">
-        <v>372087.0166568345</v>
+        <v>372086.9914584132</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.930280948064</v>
+        <v>3799.93030065225</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562662.1746187019</v>
+        <v>-562662.1089921131</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2042388036874</v>
+        <v>716.2042382643683</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.719254983173</v>
+        <v>1004.719254177958</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402839023490571</v>
+        <v>1.402839023422662</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992991876839166</v>
+        <v>0.9992991876489368</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5123339771193</v>
+        <v>314.5123178630325</v>
       </c>
       <c r="OU2" t="n">
-        <v>95988.36357690084</v>
+        <v>95988.32269671743</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.041792945244714e-05</v>
+        <v>1.041793388930837e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68424.36086362974</v>
+        <v>68424.33172590542</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.461467797986462e-05</v>
+        <v>1.461468420335921e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004078408410007309</v>
+        <v>0.004078408825700776</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582419230945775e-05</v>
+        <v>1.582419098949267e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02223540746102444</v>
+        <v>0.02223540545772361</v>
       </c>
       <c r="PB2" t="n">
-        <v>68472.22790347763</v>
+        <v>68472.19874785979</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9703831011214067</v>
+        <v>0.9703827872834022</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9703831011214067</v>
+        <v>0.9703827872834022</v>
       </c>
       <c r="PE2" t="n">
-        <v>301524.9594401034</v>
+        <v>301524.9414662153</v>
       </c>
       <c r="PF2" t="n">
-        <v>372087.0166568345</v>
+        <v>372086.9914584132</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.930280948064</v>
+        <v>3799.93030065225</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2042388036874</v>
+        <v>716.2042382643683</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.719254983173</v>
+        <v>1004.719254177958</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5123339771193</v>
+        <v>314.5123178630325</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992991876839166</v>
+        <v>0.9992991876489368</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582419230945775e-05</v>
+        <v>1.582419098949267e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02223540746102444</v>
+        <v>0.02223540545772361</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.8331016739271</v>
+        <v>268.833047767935</v>
       </c>
       <c r="PQ2" t="n">
-        <v>93363.67591207243</v>
+        <v>93363.60412959165</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.2106066247696</v>
+        <v>1.21060593701324</v>
       </c>
       <c r="PS2" t="n">
-        <v>317846.9602423871</v>
+        <v>317846.9217261657</v>
       </c>
       <c r="PT2" t="n">
-        <v>394968.3587229557</v>
+        <v>394968.3047254386</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.930280939493</v>
+        <v>3799.930300643679</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626578.6848466855</v>
+        <v>-626578.5393023271</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7955169862075</v>
+        <v>716.7955152658036</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.46238484738</v>
+        <v>1005.46238265372</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.40271857317814</v>
+        <v>1.402718573484479</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.999392126012682</v>
+        <v>0.9993921257919464</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.8072024809923</v>
+        <v>328.8071694777134</v>
       </c>
       <c r="QB2" t="n">
-        <v>130883.7381854365</v>
+        <v>130883.6375549223</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.640368573391423e-06</v>
+        <v>7.640374447725547e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>93307.19695889756</v>
+        <v>93307.1251988883</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.071728690382272e-05</v>
+        <v>1.071729514620084e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003732510603821091</v>
+        <v>0.003732511350030044</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.700025423986651e-05</v>
+        <v>1.700025151104284e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02402644732745522</v>
+        <v>0.02402644315515578</v>
       </c>
       <c r="QI2" t="n">
-        <v>93363.67591207243</v>
+        <v>93363.60412959165</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.2106066247696</v>
+        <v>1.21060593701324</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.2106066247696</v>
+        <v>1.21060593701324</v>
       </c>
       <c r="QL2" t="n">
-        <v>317846.9602423871</v>
+        <v>317846.9217261657</v>
       </c>
       <c r="QM2" t="n">
-        <v>394968.3587229557</v>
+        <v>394968.3047254386</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.930280939493</v>
+        <v>3799.930300643679</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7955169862075</v>
+        <v>716.7955152658036</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.46238484738</v>
+        <v>1005.46238265372</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.8072024809923</v>
+        <v>328.8071694777134</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.999392126012682</v>
+        <v>0.9993921257919464</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.700025423986651e-05</v>
+        <v>1.700025151104284e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02402644732745522</v>
+        <v>0.02402644315515578</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4382432694784508</v>
+        <v>0.4382425496371339</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8200918470169001</v>
+        <v>0.8200910878713801</v>
       </c>
       <c r="QY2" t="n">
-        <v>379651.9842718044</v>
+        <v>379651.6229980186</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.740325648321303</v>
+        <v>2.740321957346736</v>
       </c>
       <c r="RA2" t="n">
-        <v>381305.784757936</v>
+        <v>381305.730760419</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02447338350214479</v>
+        <v>0.02447341407688595</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.001918126997485428</v>
+        <v>0.00191819942120034</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01189012253329266</v>
+        <v>0.01189011779732759</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03198066011929526</v>
+        <v>0.03198070534311114</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04237524032746241</v>
+        <v>0.04237533103259179</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1126375334796806</v>
+        <v>0.1126377676711168</v>
       </c>
       <c r="RH2" t="n">
-        <v>5.569794625515101e-12</v>
+        <v>-6.632952520568836e-11</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.70791210214804</v>
+        <v>80.70781348251367</v>
       </c>
       <c r="D3" t="n">
-        <v>80.70791210214804</v>
+        <v>80.70781348251367</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.70791210214804</v>
+        <v>80.70781348251367</v>
       </c>
       <c r="H3" t="n">
-        <v>80.70791210214804</v>
+        <v>80.70781348251367</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3526429226577</v>
+        <v>292.3526508591667</v>
       </c>
       <c r="L3" t="n">
-        <v>132772.7637247388</v>
+        <v>132772.776323624</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582937713929613</v>
+        <v>1.582937821075637</v>
       </c>
       <c r="N3" t="n">
-        <v>334650.1071710537</v>
+        <v>334650.1128485569</v>
       </c>
       <c r="O3" t="n">
-        <v>418527.5475506458</v>
+        <v>418527.5555098248</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687418.3370127517</v>
+        <v>-687418.3590767304</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7129174035867</v>
+        <v>717.7129177628011</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647672167832</v>
+        <v>1006.647672584644</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577057982322</v>
+        <v>1.402577057861084</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979659100016</v>
+        <v>0.9994979659654309</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9083260444811</v>
+        <v>342.9083307032737</v>
       </c>
       <c r="W3" t="n">
-        <v>186131.5040944531</v>
+        <v>186131.5217509475</v>
       </c>
       <c r="X3" t="n">
-        <v>5.37254563575947e-06</v>
+        <v>5.372545126118111e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132706.7935662748</v>
+        <v>132706.8061663551</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535409251679282e-06</v>
+        <v>7.535408536216644e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433457810883733</v>
+        <v>0.003433457717826092</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817141903657179e-05</v>
+        <v>1.817141942490172e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0258243202367526</v>
+        <v>0.02582432083490091</v>
       </c>
       <c r="AD3" t="n">
-        <v>132772.7637247388</v>
+        <v>132772.776323624</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582937713929613</v>
+        <v>1.582937821075637</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582937713929613</v>
+        <v>1.582937821075637</v>
       </c>
       <c r="AG3" t="n">
-        <v>334650.1071710537</v>
+        <v>334650.1128485569</v>
       </c>
       <c r="AH3" t="n">
-        <v>418527.5475506458</v>
+        <v>418527.5555098248</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7129174035867</v>
+        <v>717.7129177628011</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647672167832</v>
+        <v>1006.647672584644</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9083260444811</v>
+        <v>342.9083307032737</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979659100016</v>
+        <v>0.9994979659654309</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817141903657179e-05</v>
+        <v>1.817141942490172e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0258243202367526</v>
+        <v>0.02582432083490091</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2353629409735558</v>
+        <v>0.2353626501782249</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353629409735558</v>
+        <v>0.2353626501782249</v>
       </c>
       <c r="DH3" t="n">
-        <v>183919.9477921083</v>
+        <v>183919.7315730573</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.742713109612496</v>
+        <v>2.742709943850523</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>270.1888883090332</v>
+        <v>270.1892348626343</v>
       </c>
       <c r="DU3" t="n">
-        <v>111.1594838803912</v>
+        <v>111.1594610757349</v>
       </c>
       <c r="DV3" t="n">
-        <v>246.2632829089961</v>
+        <v>246.2636734254728</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.70631065735147</v>
+        <v>65.70634913510118</v>
       </c>
       <c r="DX3" t="n">
-        <v>270.1888883090332</v>
+        <v>270.1892348626343</v>
       </c>
       <c r="DY3" t="n">
-        <v>111.1594838803912</v>
+        <v>111.1594610757349</v>
       </c>
       <c r="DZ3" t="n">
-        <v>246.2632829089961</v>
+        <v>246.2636734254728</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.70631065735145</v>
+        <v>65.70634913510119</v>
       </c>
       <c r="EB3" t="n">
-        <v>259.1763686239086</v>
+        <v>259.1762751342602</v>
       </c>
       <c r="EC3" t="n">
-        <v>85445.80163483584</v>
+        <v>85445.68968293426</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.14930002749396</v>
+        <v>1.14929893667237</v>
       </c>
       <c r="EE3" t="n">
-        <v>310937.4640533037</v>
+        <v>310937.3972638179</v>
       </c>
       <c r="EF3" t="n">
-        <v>385283.4134057541</v>
+        <v>385283.3197705679</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.66344577299</v>
+        <v>3788.663460333076</v>
       </c>
       <c r="EH3" t="n">
-        <v>-596648.6204078342</v>
+        <v>-596648.3636158359</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5266836175588</v>
+        <v>716.5266811096819</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.191032144908</v>
+        <v>1005.191028907674</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402866152967197</v>
+        <v>1.40286615335934</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993225347102133</v>
+        <v>0.9993225343370902</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.8421088255294</v>
+        <v>322.8420505216656</v>
       </c>
       <c r="EN3" t="n">
-        <v>119788.1252621043</v>
+        <v>119787.9683026414</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.34807288128046e-06</v>
+        <v>8.348083819850121e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>85388.13557426055</v>
+        <v>85388.02366554644</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.17112288876517e-05</v>
+        <v>1.171124423627448e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.00387183478817727</v>
+        <v>0.003871836181384519</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.650855216012979e-05</v>
+        <v>1.6508547358953e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02327641609968085</v>
+        <v>0.02327640878262657</v>
       </c>
       <c r="EU3" t="n">
-        <v>85445.80163483584</v>
+        <v>85445.68968293426</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.14930002749396</v>
+        <v>1.14929893667237</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.14930002749396</v>
+        <v>1.14929893667237</v>
       </c>
       <c r="EX3" t="n">
-        <v>310937.4640533037</v>
+        <v>310937.3972638179</v>
       </c>
       <c r="EY3" t="n">
-        <v>385283.4134057541</v>
+        <v>385283.3197705679</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.66344577299</v>
+        <v>3788.663460333076</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5266836175588</v>
+        <v>716.5266811096819</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.191032144908</v>
+        <v>1005.191028907674</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.8421088255294</v>
+        <v>322.8420505216656</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993225347102133</v>
+        <v>0.9993225343370902</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.650855216012979e-05</v>
+        <v>1.6508547358953e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02327641609968085</v>
+        <v>0.02327640878262657</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5936557815726</v>
+        <v>295.5936557654641</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135263.7215517381</v>
+        <v>135263.7146905865</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594901976632516</v>
+        <v>1.594901895781954</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.377847992</v>
+        <v>336974.3778504317</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.431088389</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.663445778191</v>
+        <v>3788.663460331028</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698120.4473749956</v>
+        <v>-698120.4516158929</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8561092414753</v>
+        <v>717.8561092235954</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.77665734783</v>
+        <v>1006.776657235172</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402476964933326</v>
+        <v>1.402476964811321</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995303761692007</v>
+        <v>0.9995303761925526</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.802714729424</v>
+        <v>344.8027147129953</v>
       </c>
       <c r="FU3" t="n">
-        <v>189616.1608837059</v>
+        <v>189616.1512534014</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.27381208088752e-06</v>
+        <v>5.273812348736098e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135200.9092660715</v>
+        <v>135200.9024111929</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.396399960831839e-06</v>
+        <v>7.396400335839865e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395618199752809</v>
+        <v>0.003395618199302468</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832924924468235e-05</v>
+        <v>1.832924924291128e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606728364065158</v>
+        <v>0.02606728363725052</v>
       </c>
       <c r="GB3" t="n">
-        <v>135263.7215517381</v>
+        <v>135263.7146905865</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594901976632516</v>
+        <v>1.594901895781954</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594901976632516</v>
+        <v>1.594901895781954</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.377847992</v>
+        <v>336974.3778504317</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.663445778191</v>
+        <v>3788.663460331028</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8561092414753</v>
+        <v>717.8561092235954</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.77665734783</v>
+        <v>1006.776657235172</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.802714729424</v>
+        <v>344.8027147129953</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995303761692007</v>
+        <v>0.9995303761925526</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832924924468235e-05</v>
+        <v>1.832924924291128e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606728364065158</v>
+        <v>0.02606728363725052</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5936557815726</v>
+        <v>295.5936557654641</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135263.7215517381</v>
+        <v>135263.7146905865</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594901976632516</v>
+        <v>1.594901895781954</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.377847992</v>
+        <v>336974.3778504317</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.663445778191</v>
+        <v>3788.663460331028</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698120.4473749956</v>
+        <v>-698120.4516158929</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8561092414753</v>
+        <v>717.8561092235954</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.77665734783</v>
+        <v>1006.776657235172</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402476964933326</v>
+        <v>1.402476964811321</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995303761692007</v>
+        <v>0.9995303761925526</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.802714729424</v>
+        <v>344.8027147129953</v>
       </c>
       <c r="HB3" t="n">
-        <v>189616.1608837059</v>
+        <v>189616.1512534014</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.27381208088752e-06</v>
+        <v>5.273812348736098e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135200.9092660715</v>
+        <v>135200.9024111929</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.396399960831839e-06</v>
+        <v>7.396400335839865e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395618199752809</v>
+        <v>0.003395618199302468</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832924924468235e-05</v>
+        <v>1.832924924291128e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606728364065158</v>
+        <v>0.02606728363725052</v>
       </c>
       <c r="HI3" t="n">
-        <v>135263.7215517381</v>
+        <v>135263.7146905865</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594901976632516</v>
+        <v>1.594901895781954</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594901976632516</v>
+        <v>1.594901895781954</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.377847992</v>
+        <v>336974.3778504317</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.431088389</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.663445778191</v>
+        <v>3788.663460331028</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8561092414753</v>
+        <v>717.8561092235954</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.77665734783</v>
+        <v>1006.776657235172</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.802714729424</v>
+        <v>344.8027147129953</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995303761692007</v>
+        <v>0.9995303761925526</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832924924468235e-05</v>
+        <v>1.832924924291128e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606728364065158</v>
+        <v>0.02606728363725052</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8369072091988127</v>
+        <v>0.8369084337868873</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8369072091988127</v>
+        <v>0.8369084337868873</v>
       </c>
       <c r="HY3" t="n">
-        <v>492073.1347305246</v>
+        <v>492073.4419539075</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.742713109632713</v>
+        <v>2.742709943799571</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01595022849403729</v>
+        <v>0.01595026541612997</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.793955750225705e-07</v>
+        <v>-1.79395729891294e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01379120448695816</v>
+        <v>0.01379120572413062</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02518433238859637</v>
+        <v>0.02518431608788884</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.0549255859740168</v>
+        <v>0.05492560783241954</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.731600973720049e-13</v>
+        <v>9.384992782912605e-13</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>270.1888883090332</v>
+        <v>270.1892348626343</v>
       </c>
       <c r="IL3" t="n">
-        <v>111.1594838803912</v>
+        <v>111.1594610757349</v>
       </c>
       <c r="IM3" t="n">
-        <v>246.2632829089961</v>
+        <v>246.2636734254728</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.70631065735147</v>
+        <v>65.70634913510118</v>
       </c>
       <c r="IO3" t="n">
-        <v>137.5171475896241</v>
+        <v>137.5173590639542</v>
       </c>
       <c r="IP3" t="n">
-        <v>111.1594838803912</v>
+        <v>111.1594610757349</v>
       </c>
       <c r="IQ3" t="n">
-        <v>80.96008290899613</v>
+        <v>80.96047342547283</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.06673717600733</v>
+        <v>36.06687429046098</v>
       </c>
       <c r="IS3" t="n">
-        <v>259.1763686240084</v>
+        <v>259.1762751341533</v>
       </c>
       <c r="IT3" t="n">
-        <v>85445.80163495065</v>
+        <v>85445.68968281627</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.149300027495062</v>
+        <v>1.149298936671258</v>
       </c>
       <c r="IV3" t="n">
-        <v>310937.464053375</v>
+        <v>310937.3972637413</v>
       </c>
       <c r="IW3" t="n">
-        <v>385283.4134058541</v>
+        <v>385283.3197704607</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.663445772991</v>
+        <v>3788.663460333058</v>
       </c>
       <c r="IY3" t="n">
-        <v>-596648.6204081128</v>
+        <v>-596648.3636155332</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5266836175616</v>
+        <v>716.526681109679</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.191032144912</v>
+        <v>1005.191028907671</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402866152967196</v>
+        <v>1.402866153359341</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993225347102137</v>
+        <v>0.9993225343370897</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.8421088255917</v>
+        <v>322.842050521599</v>
       </c>
       <c r="JE3" t="n">
-        <v>119788.1252622653</v>
+        <v>119787.9683024761</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.348072881269242e-06</v>
+        <v>8.348083819861644e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>85388.13557437537</v>
+        <v>85388.02366542848</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.171122888763595e-05</v>
+        <v>1.171124423629066e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003871834788175779</v>
+        <v>0.003871836181386114</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650855216013492e-05</v>
+        <v>1.650854735894751e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02327641609968866</v>
+        <v>0.0232764087826182</v>
       </c>
       <c r="JL3" t="n">
-        <v>85445.80163495065</v>
+        <v>85445.68968281627</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.149300027495062</v>
+        <v>1.149298936671258</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.149300027495062</v>
+        <v>1.149298936671258</v>
       </c>
       <c r="JO3" t="n">
-        <v>310937.464053375</v>
+        <v>310937.3972637413</v>
       </c>
       <c r="JP3" t="n">
-        <v>385283.4134058541</v>
+        <v>385283.3197704607</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.663445772991</v>
+        <v>3788.663460333058</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5266836175616</v>
+        <v>716.526681109679</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.191032144912</v>
+        <v>1005.191028907671</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.8421088255917</v>
+        <v>322.842050521599</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993225347102137</v>
+        <v>0.9993225343370897</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.650855216013492e-05</v>
+        <v>1.650854735894751e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02327641609968866</v>
+        <v>0.0232764087826182</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5936557816727</v>
+        <v>295.5936557655563</v>
       </c>
       <c r="KA3" t="n">
-        <v>135263.7215518981</v>
+        <v>135263.7146873375</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.594901976633862</v>
+        <v>1.594901895743127</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.3778480637</v>
+        <v>336974.3778505046</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884895</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.663445778192</v>
+        <v>3788.66346033826</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698120.4473752747</v>
+        <v>-698120.4516182797</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.85610924148</v>
+        <v>717.8561092235914</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.776657347836</v>
+        <v>1006.776657235122</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402476964933324</v>
+        <v>1.402476964811258</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995303761692014</v>
+        <v>0.9995303761925649</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8027147294824</v>
+        <v>344.8027147130456</v>
       </c>
       <c r="KL3" t="n">
-        <v>189616.1608839301</v>
+        <v>189616.1512488407</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.273812080881285e-06</v>
+        <v>5.273812348862944e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135200.9092662315</v>
+        <v>135200.9024079471</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.396399960823083e-06</v>
+        <v>7.396400336017435e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395618199751661</v>
+        <v>0.003395618199301096</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832924924468722e-05</v>
+        <v>1.832924924291528e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.0260672836406591</v>
+        <v>0.02606728363725635</v>
       </c>
       <c r="KS3" t="n">
-        <v>135263.7215518981</v>
+        <v>135263.7146873375</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594901976633862</v>
+        <v>1.594901895743127</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.594901976633862</v>
+        <v>1.594901895743127</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.3778480637</v>
+        <v>336974.3778505046</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884895</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.663445778192</v>
+        <v>3788.66346033826</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.85610924148</v>
+        <v>717.8561092235914</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.776657347836</v>
+        <v>1006.776657235122</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8027147294824</v>
+        <v>344.8027147130456</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995303761692014</v>
+        <v>0.9995303761925649</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832924924468722e-05</v>
+        <v>1.832924924291528e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.0260672836406591</v>
+        <v>0.02606728363725635</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>268.6146044033366</v>
+        <v>268.6145399623552</v>
       </c>
       <c r="LH3" t="n">
-        <v>96814.87856430754</v>
+        <v>96814.79254440499</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.256409757927876</v>
+        <v>1.256408943391981</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317682.1256920785</v>
+        <v>317682.0796468758</v>
       </c>
       <c r="LK3" t="n">
-        <v>394738.8963462469</v>
+        <v>394738.8317924232</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.663445779621</v>
+        <v>3788.663460339689</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622951.4363592279</v>
+        <v>-622951.260678907</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.800600846558</v>
+        <v>716.8005988039788</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.5306137867</v>
+        <v>1005.530611208703</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.40280380987285</v>
+        <v>1.402803810273717</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993668813935316</v>
+        <v>0.9993668811003646</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.675274533347</v>
+        <v>328.6752350583353</v>
       </c>
       <c r="LS3" t="n">
-        <v>135726.724826867</v>
+        <v>135726.6042321887</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.36774574996634e-06</v>
+        <v>7.367752296294774e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>96753.88951158409</v>
+        <v>96753.80351704743</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.033550180822728e-05</v>
+        <v>1.033551099439523e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003736049214591777</v>
+        <v>0.003736050108515326</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.698976074136878e-05</v>
+        <v>1.698975747820092e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.0240108609385456</v>
+        <v>0.02401085594978529</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96814.87856430754</v>
+        <v>96814.79254440499</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.256409757927876</v>
+        <v>1.256408943391981</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.256409757927876</v>
+        <v>1.256408943391981</v>
       </c>
       <c r="MC3" t="n">
-        <v>317682.1256920785</v>
+        <v>317682.0796468758</v>
       </c>
       <c r="MD3" t="n">
-        <v>394738.8963462469</v>
+        <v>394738.8317924232</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.663445779621</v>
+        <v>3788.663460339689</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.800600846558</v>
+        <v>716.8005988039788</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.5306137867</v>
+        <v>1005.530611208703</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.675274533347</v>
+        <v>328.6752350583353</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993668813935316</v>
+        <v>0.9993668811003646</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.698976074136878e-05</v>
+        <v>1.698975747820092e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.0240108609385456</v>
+        <v>0.02401085594978529</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8369072091986514</v>
+        <v>0.8369084337870599</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4259579027341652</v>
+        <v>0.4259586347000789</v>
       </c>
       <c r="MP3" t="n">
-        <v>249491.4676277353</v>
+        <v>249491.6870585546</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.742713109635339</v>
+        <v>2.742709943796917</v>
       </c>
       <c r="MR3" t="n">
-        <v>381076.3223812272</v>
+        <v>381076.2578274033</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>142.5960843646348</v>
+        <v>142.5958535361322</v>
       </c>
       <c r="MU3" t="n">
-        <v>127.2298010629298</v>
+        <v>127.2296574368088</v>
       </c>
       <c r="MV3" t="n">
-        <v>-64.39115620652692</v>
+        <v>-64.39092881928599</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.84402697604786</v>
+        <v>-26.84397151585621</v>
       </c>
       <c r="MX3" t="n">
-        <v>262.5774543856414</v>
+        <v>262.5771858816726</v>
       </c>
       <c r="MY3" t="n">
-        <v>127.2298010629298</v>
+        <v>127.2296574368088</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-229.6943562065269</v>
+        <v>-229.694128819286</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.01753110336806</v>
+        <v>-61.01753447701464</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.185002315151</v>
+        <v>234.185008238191</v>
       </c>
       <c r="NC3" t="n">
-        <v>57499.99999855691</v>
+        <v>57500.00000451977</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559944530491707</v>
+        <v>0.8559944314200082</v>
       </c>
       <c r="NE3" t="n">
-        <v>293092.1040871109</v>
+        <v>293092.1083320247</v>
       </c>
       <c r="NF3" t="n">
-        <v>360265.4365704395</v>
+        <v>360265.4425196468</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.777097167635</v>
+        <v>3800.777122541765</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529819.5567291358</v>
+        <v>-529819.5792343244</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9876071316901</v>
+        <v>715.9876072023453</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.42156572023</v>
+        <v>1004.421565706729</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402847696965079</v>
+        <v>1.402847696807787</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992670926493543</v>
+        <v>0.9992670927287353</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.8631743126654</v>
+        <v>306.8631782004522</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.72430468611</v>
+        <v>80604.72431041043</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622071009134e-05</v>
+        <v>1.240622070921029e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.92966625411</v>
+        <v>57457.92967677701</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740403815119212e-05</v>
+        <v>1.740403814800473e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.00428355299726933</v>
+        <v>0.004283552887963922</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.519973781740305e-05</v>
+        <v>1.519973813281477e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02128988076540115</v>
+        <v>0.02128988124117035</v>
       </c>
       <c r="NU3" t="n">
-        <v>57499.99999855691</v>
+        <v>57500.00000451977</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8559944530491707</v>
+        <v>0.8559944314200082</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8559944530491707</v>
+        <v>0.8559944314200082</v>
       </c>
       <c r="NX3" t="n">
-        <v>293092.1040871109</v>
+        <v>293092.1083320247</v>
       </c>
       <c r="NY3" t="n">
-        <v>360265.4365704395</v>
+        <v>360265.4425196468</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.777097167635</v>
+        <v>3800.777122541765</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9876071316901</v>
+        <v>715.9876072023453</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.42156572023</v>
+        <v>1004.421565706729</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.8631743126654</v>
+        <v>306.8631782004522</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992670926493543</v>
+        <v>0.9992670927287353</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.519973781740305e-05</v>
+        <v>1.519973813281477e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02128988076540115</v>
+        <v>0.02128988124117035</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.3381083692744</v>
+        <v>244.3380814220052</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66682.71584997066</v>
+        <v>66682.68429083715</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.951418807826603</v>
+        <v>0.9514184624969469</v>
       </c>
       <c r="OL3" t="n">
-        <v>300344.6003848019</v>
+        <v>300344.581150206</v>
       </c>
       <c r="OM3" t="n">
-        <v>370432.2582084882</v>
+        <v>370432.231242503</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.77709716658</v>
+        <v>3800.77712256017</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558242.4280464554</v>
+        <v>-558242.3587964987</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1698444835329</v>
+        <v>716.1698439208691</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.669732320486</v>
+        <v>1004.669731453466</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.40283724602368</v>
+        <v>1.402837245915194</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992959094911689</v>
+        <v>0.9992959094677045</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4525682515441</v>
+        <v>313.4525509469935</v>
       </c>
       <c r="OU3" t="n">
-        <v>93479.28835009459</v>
+        <v>93479.24409930452</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.06975568347808e-05</v>
+        <v>1.069756189874282e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66635.87569766924</v>
+        <v>66635.84415904198</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.50069311692857e-05</v>
+        <v>1.50069382720397e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004105906280706927</v>
+        <v>0.004105906731467877</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.57374341710421e-05</v>
+        <v>1.573743275448254e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210378822701164</v>
+        <v>0.02210378607817319</v>
       </c>
       <c r="PB3" t="n">
-        <v>66682.71584997066</v>
+        <v>66682.68429083715</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.951418807826603</v>
+        <v>0.9514184624969469</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.951418807826603</v>
+        <v>0.9514184624969469</v>
       </c>
       <c r="PE3" t="n">
-        <v>300344.6003848019</v>
+        <v>300344.581150206</v>
       </c>
       <c r="PF3" t="n">
-        <v>370432.2582084882</v>
+        <v>370432.231242503</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.77709716658</v>
+        <v>3800.77712256017</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1698444835329</v>
+        <v>716.1698439208691</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.669732320486</v>
+        <v>1004.669731453466</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4525682515441</v>
+        <v>313.4525509469935</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992959094911689</v>
+        <v>0.9992959094677045</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.57374341710421e-05</v>
+        <v>1.573743275448254e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210378822701164</v>
+        <v>0.02210378607817319</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>268.6033312895656</v>
+        <v>268.6032668433917</v>
       </c>
       <c r="PQ3" t="n">
-        <v>92811.80882663459</v>
+        <v>92811.72285738548</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.20447946399931</v>
+        <v>1.204478637622643</v>
       </c>
       <c r="PS3" t="n">
-        <v>317683.3619013306</v>
+        <v>317683.3158553866</v>
       </c>
       <c r="PT3" t="n">
-        <v>394738.8963464473</v>
+        <v>394738.8317926173</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.777097157905</v>
+        <v>3800.777122551494</v>
       </c>
       <c r="PV3" t="n">
-        <v>-626162.4934392507</v>
+        <v>-626162.3198683402</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7874050977941</v>
+        <v>716.7874030471856</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.447973901113</v>
+        <v>1005.447971276284</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402714342844704</v>
+        <v>1.402714343195699</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993927908455292</v>
+        <v>0.9993927905874178</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.6663753950087</v>
+        <v>328.6663359219499</v>
       </c>
       <c r="QB3" t="n">
-        <v>130109.7823853991</v>
+        <v>130109.6618663543</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.685817174283585e-06</v>
+        <v>7.685824293565354e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>92755.72253830136</v>
+        <v>92755.63659663968</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.078100598684974e-05</v>
+        <v>1.078101597586607e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.00373566030595178</v>
+        <v>0.003735661199508851</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.698858341576627e-05</v>
+        <v>1.698858015221348e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02400857352530042</v>
+        <v>0.02400856853573028</v>
       </c>
       <c r="QI3" t="n">
-        <v>92811.80882663459</v>
+        <v>92811.72285738548</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.20447946399931</v>
+        <v>1.204478637622643</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.20447946399931</v>
+        <v>1.204478637622643</v>
       </c>
       <c r="QL3" t="n">
-        <v>317683.3619013306</v>
+        <v>317683.3158553866</v>
       </c>
       <c r="QM3" t="n">
-        <v>394738.8963464473</v>
+        <v>394738.8317926173</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.777097157905</v>
+        <v>3800.777122551494</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7874050977941</v>
+        <v>716.7874030471856</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.447973901113</v>
+        <v>1005.447971276284</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.6663753950087</v>
+        <v>328.6663359219499</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993927908455292</v>
+        <v>0.9993927905874178</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.698858341576627e-05</v>
+        <v>1.698858015221348e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02400857352530042</v>
+        <v>0.02400856853573028</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4646894652120835</v>
+        <v>0.464688707105107</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8556825203082176</v>
+        <v>0.8556816344714692</v>
       </c>
       <c r="QY3" t="n">
-        <v>385360.0579647793</v>
+        <v>385359.6461730694</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.742713109638594</v>
+        <v>2.742709944164941</v>
       </c>
       <c r="RA3" t="n">
-        <v>381076.3223812272</v>
+        <v>381076.2578274033</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02459522109724313</v>
+        <v>0.02459527083900296</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.002166345440326452</v>
+        <v>0.002166430091196224</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01188682146147578</v>
+        <v>0.01188681547315103</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03204523418760414</v>
+        <v>0.03204528799460138</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04266986376939112</v>
+        <v>0.04266995612110982</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1133634859560406</v>
+        <v>0.1133637605190614</v>
       </c>
       <c r="RH3" t="n">
-        <v>-1.838258434361251e-10</v>
+        <v>-1.69581848563638e-10</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -7569,148 +7569,148 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593369941071624</v>
+        <v>0.01593373937723827</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788002728034547e-07</v>
+        <v>-1.788003961088507e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379066038778067</v>
+        <v>0.01379066172769853</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0251918011932314</v>
+        <v>0.02519178354024262</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491598219145551</v>
+        <v>0.05491600584478332</v>
       </c>
       <c r="H2" t="n">
-        <v>2.716923908074875e-13</v>
+        <v>3.398878400950878e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9803465294422316</v>
+        <v>0.980328512695522</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>276.8642521502554</v>
+        <v>276.8866482906694</v>
       </c>
       <c r="L2" t="n">
-        <v>113.623753751971</v>
+        <v>113.1374588738324</v>
       </c>
       <c r="M2" t="n">
-        <v>252.4746654657287</v>
+        <v>252.7174932631548</v>
       </c>
       <c r="N2" t="n">
-        <v>65.77033838482339</v>
+        <v>65.88272377225761</v>
       </c>
       <c r="O2" t="n">
-        <v>276.8642521502554</v>
+        <v>276.8866482906694</v>
       </c>
       <c r="P2" t="n">
-        <v>113.623753751971</v>
+        <v>113.1374588738324</v>
       </c>
       <c r="Q2" t="n">
-        <v>252.4746654657287</v>
+        <v>252.7174932631548</v>
       </c>
       <c r="R2" t="n">
-        <v>65.77033838482339</v>
+        <v>65.88272377225761</v>
       </c>
       <c r="S2" t="n">
-        <v>257.3533141371005</v>
+        <v>257.347117731936</v>
       </c>
       <c r="T2" t="n">
-        <v>83295.00695919436</v>
+        <v>83286.15113019425</v>
       </c>
       <c r="U2" t="n">
-        <v>1.128315207103746</v>
+        <v>1.128222423019083</v>
       </c>
       <c r="V2" t="n">
-        <v>309635.0616224441</v>
+        <v>309630.6389470272</v>
       </c>
       <c r="W2" t="n">
-        <v>383457.524029029</v>
+        <v>383451.323087769</v>
       </c>
       <c r="X2" t="n">
-        <v>3788.906534383414</v>
+        <v>3788.912938498741</v>
       </c>
       <c r="Y2" t="n">
-        <v>-591630.1295502587</v>
+        <v>-591614.5009721221</v>
       </c>
       <c r="Z2" t="n">
-        <v>716.4786262616675</v>
+        <v>716.4784597907448</v>
       </c>
       <c r="AA2" t="n">
-        <v>1005.129004450309</v>
+        <v>1005.128759490811</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.402873676350567</v>
+        <v>1.402873660408953</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9993152889126012</v>
+        <v>0.9993152779336608</v>
       </c>
       <c r="AD2" t="n">
-        <v>321.7031770279182</v>
+        <v>321.6992986763784</v>
       </c>
       <c r="AE2" t="n">
-        <v>116772.6513839366</v>
+        <v>116760.2335871268</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.563649006410772e-06</v>
+        <v>8.564559775857228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83238.17985359077</v>
+        <v>83229.32911370642</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.201371776459936e-05</v>
+        <v>1.201499532254811e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.003899196445643486</v>
+        <v>0.003899289844111572</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.641480126881911e-05</v>
+        <v>1.641448192401238e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.02313358326638565</v>
+        <v>0.02313309666287896</v>
       </c>
       <c r="AL2" t="n">
-        <v>83295.00695919436</v>
+        <v>83286.15113019425</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.128315207103746</v>
+        <v>1.128222423019083</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.128315207103746</v>
+        <v>1.128222423019083</v>
       </c>
       <c r="AO2" t="n">
-        <v>309635.0616224441</v>
+        <v>309630.6389470272</v>
       </c>
       <c r="AP2" t="n">
-        <v>383457.524029029</v>
+        <v>383451.323087769</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3788.906534383414</v>
+        <v>3788.912938498741</v>
       </c>
       <c r="AR2" t="n">
-        <v>716.4786262616675</v>
+        <v>716.4784597907448</v>
       </c>
       <c r="AS2" t="n">
-        <v>1005.129004450309</v>
+        <v>1005.128759490811</v>
       </c>
       <c r="AT2" t="n">
-        <v>321.7031770279182</v>
+        <v>321.6992986763784</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9993152889126012</v>
+        <v>0.9993152779336608</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.641480126881911e-05</v>
+        <v>1.641448192401238e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.02313358326638565</v>
+        <v>0.02313309666287896</v>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
@@ -7721,97 +7721,97 @@
         <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>295.5933901619206</v>
+        <v>295.5933831674573</v>
       </c>
       <c r="BA2" t="n">
-        <v>135149.1677098449</v>
+        <v>135146.1511272137</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.593552076280017</v>
+        <v>1.593516528906317</v>
       </c>
       <c r="BC2" t="n">
-        <v>336974.4209722863</v>
+        <v>336974.422108031</v>
       </c>
       <c r="BD2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="BE2" t="n">
-        <v>3788.90653438405</v>
+        <v>3788.912938499349</v>
       </c>
       <c r="BF2" t="n">
-        <v>-698191.2964168461</v>
+        <v>-698193.1629293847</v>
       </c>
       <c r="BG2" t="n">
-        <v>717.8558108617768</v>
+        <v>717.8558030044395</v>
       </c>
       <c r="BH2" t="n">
-        <v>1006.774776492977</v>
+        <v>1006.774726963762</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.402474927777428</v>
+        <v>1.402474874132257</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9995307661003247</v>
+        <v>0.9995307763686845</v>
       </c>
       <c r="BK2" t="n">
-        <v>344.8024423751774</v>
+        <v>344.8024352033561</v>
       </c>
       <c r="BL2" t="n">
-        <v>189455.3734033747</v>
+        <v>189451.139340373</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.278287873476527e-06</v>
+        <v>5.278405838475181e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>135086.4601220459</v>
+        <v>135083.4462953147</v>
       </c>
       <c r="BO2" t="n">
-        <v>7.402666404142468e-06</v>
+        <v>7.402831563934452e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0033956106421525</v>
+        <v>0.003395610443132169</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.832921983642434e-05</v>
+        <v>1.832921906201903e-05</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.02606722710493755</v>
+        <v>0.0260672256161855</v>
       </c>
       <c r="BS2" t="n">
-        <v>135149.1677098449</v>
+        <v>135146.1511272137</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.593552076280017</v>
+        <v>1.593516528906317</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.593552076280017</v>
+        <v>1.593516528906317</v>
       </c>
       <c r="BV2" t="n">
-        <v>336974.4209722863</v>
+        <v>336974.422108031</v>
       </c>
       <c r="BW2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="BX2" t="n">
-        <v>3788.90653438405</v>
+        <v>3788.912938499349</v>
       </c>
       <c r="BY2" t="n">
-        <v>717.8558108617768</v>
+        <v>717.8558030044395</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1006.774776492977</v>
+        <v>1006.774726963762</v>
       </c>
       <c r="CA2" t="n">
-        <v>344.8024423751774</v>
+        <v>344.8024352033561</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.9995307661003247</v>
+        <v>0.9995307763686845</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.832921983642434e-05</v>
+        <v>1.832921906201903e-05</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.02606722710493755</v>
+        <v>0.0260672256161855</v>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
@@ -7822,97 +7822,97 @@
         <v>1</v>
       </c>
       <c r="CG2" t="n">
-        <v>295.5933901619206</v>
+        <v>295.5933831674573</v>
       </c>
       <c r="CH2" t="n">
-        <v>135149.1677098449</v>
+        <v>135146.1511272137</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.593552076280017</v>
+        <v>1.593516528906317</v>
       </c>
       <c r="CJ2" t="n">
-        <v>336974.4209722863</v>
+        <v>336974.422108031</v>
       </c>
       <c r="CK2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="CL2" t="n">
-        <v>3788.90653438405</v>
+        <v>3788.912938499349</v>
       </c>
       <c r="CM2" t="n">
-        <v>-698191.2964168461</v>
+        <v>-698193.1629293847</v>
       </c>
       <c r="CN2" t="n">
-        <v>717.8558108617768</v>
+        <v>717.8558030044395</v>
       </c>
       <c r="CO2" t="n">
-        <v>1006.774776492977</v>
+        <v>1006.774726963762</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.402474927777428</v>
+        <v>1.402474874132257</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.9995307661003247</v>
+        <v>0.9995307763686845</v>
       </c>
       <c r="CR2" t="n">
-        <v>344.8024423751774</v>
+        <v>344.8024352033561</v>
       </c>
       <c r="CS2" t="n">
-        <v>189455.3734033747</v>
+        <v>189451.139340373</v>
       </c>
       <c r="CT2" t="n">
-        <v>5.278287873476527e-06</v>
+        <v>5.278405838475181e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>135086.4601220459</v>
+        <v>135083.4462953147</v>
       </c>
       <c r="CV2" t="n">
-        <v>7.402666404142468e-06</v>
+        <v>7.402831563934452e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0033956106421525</v>
+        <v>0.003395610443132169</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.832921983642434e-05</v>
+        <v>1.832921906201903e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02606722710493755</v>
+        <v>0.0260672256161855</v>
       </c>
       <c r="CZ2" t="n">
-        <v>135149.1677098449</v>
+        <v>135146.1511272137</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.593552076280017</v>
+        <v>1.593516528906317</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.593552076280017</v>
+        <v>1.593516528906317</v>
       </c>
       <c r="DC2" t="n">
-        <v>336974.4209722863</v>
+        <v>336974.422108031</v>
       </c>
       <c r="DD2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="DE2" t="n">
-        <v>3788.90653438405</v>
+        <v>3788.912938499349</v>
       </c>
       <c r="DF2" t="n">
-        <v>717.8558108617768</v>
+        <v>717.8558030044395</v>
       </c>
       <c r="DG2" t="n">
-        <v>1006.774776492977</v>
+        <v>1006.774726963762</v>
       </c>
       <c r="DH2" t="n">
-        <v>344.8024423751774</v>
+        <v>344.8024352033561</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.9995307661003247</v>
+        <v>0.9995307763686845</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.832921983642434e-05</v>
+        <v>1.832921906201903e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.02606722710493755</v>
+        <v>0.0260672256161855</v>
       </c>
       <c r="DL2" t="inlineStr">
         <is>
@@ -7923,37 +7923,37 @@
         <v>1</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01602810879019507</v>
+        <v>0.01612578355692618</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.821315474778071e-07</v>
+        <v>-1.821900015202942e-07</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01379329073609696</v>
+        <v>0.01379701422308553</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.02515667143977441</v>
+        <v>0.02510725074487449</v>
       </c>
       <c r="DR2" t="n">
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.05497788883451896</v>
+        <v>0.05502986633488468</v>
       </c>
       <c r="DT2" t="n">
-        <v>-2.359362705206536e-13</v>
+        <v>2.395791898202049e-13</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.860620198743727</v>
+        <v>0.8607001924776049</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.860620198743727</v>
+        <v>0.8607001924776049</v>
       </c>
       <c r="DW2" t="n">
-        <v>497851.0604939325</v>
+        <v>497860.0756337244</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.740325648313601</v>
+        <v>2.740321957280215</v>
       </c>
       <c r="DY2" t="n">
         <v>421784.4310884894</v>
@@ -7962,169 +7962,169 @@
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>1473.42740546487</v>
+        <v>1473.430087346758</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.006566568126454198</v>
+        <v>0.006566594185884041</v>
       </c>
       <c r="ED2" t="n">
-        <v>-7.368685338715721e-08</v>
+        <v>-7.368701180084484e-08</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01038200072057266</v>
+        <v>0.01038200860519402</v>
       </c>
       <c r="EF2" t="n">
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.005683382660291089</v>
+        <v>0.005683391511346205</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.02447338350214479</v>
+        <v>0.02447341407688595</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.001918126997485428</v>
+        <v>0.00191819942120034</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01189012253329266</v>
+        <v>0.01189011779732759</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.03198066011929526</v>
+        <v>0.03198070534311114</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.04237524032746241</v>
+        <v>0.04237533103259179</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.1126375334796806</v>
+        <v>0.1126377676711168</v>
       </c>
       <c r="EN2" t="n">
-        <v>5.569794625515101e-12</v>
+        <v>-6.632952520568836e-11</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.9610021001488511</v>
+        <v>0.9609971910903922</v>
       </c>
       <c r="EP2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EQ2" t="n">
-        <v>143.1710351171172</v>
+        <v>142.8392306618756</v>
       </c>
       <c r="ER2" t="n">
-        <v>127.5487452588582</v>
+        <v>127.0237013781557</v>
       </c>
       <c r="ES2" t="n">
-        <v>-65.03278311280945</v>
+        <v>-65.33012401847745</v>
       </c>
       <c r="ET2" t="n">
-        <v>-27.01549357555902</v>
+        <v>-27.2174132071944</v>
       </c>
       <c r="EU2" t="n">
-        <v>263.2932728606136</v>
+        <v>263.2997357758243</v>
       </c>
       <c r="EV2" t="n">
-        <v>127.5487452588582</v>
+        <v>127.0237013781557</v>
       </c>
       <c r="EW2" t="n">
-        <v>-230.3359831128095</v>
+        <v>-230.6333240184775</v>
       </c>
       <c r="EX2" t="n">
-        <v>-61.0244714026515</v>
+        <v>-61.15576777799674</v>
       </c>
       <c r="EY2" t="n">
-        <v>234.2262690979399</v>
+        <v>234.2245141449717</v>
       </c>
       <c r="EZ2" t="n">
-        <v>57554.70642748707</v>
+        <v>57552.78501119111</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.85665802638391</v>
+        <v>0.8566358451981306</v>
       </c>
       <c r="FB2" t="n">
-        <v>293121.5251202224</v>
+        <v>293120.2727888638</v>
       </c>
       <c r="FC2" t="n">
-        <v>360306.6849563295</v>
+        <v>360304.92929583</v>
       </c>
       <c r="FD2" t="n">
-        <v>3800.680444291525</v>
+        <v>3800.682524721649</v>
       </c>
       <c r="FE2" t="n">
-        <v>-529912.515543575</v>
+        <v>-529908.0884763828</v>
       </c>
       <c r="FF2" t="n">
-        <v>715.9883610121828</v>
+        <v>715.988330878846</v>
       </c>
       <c r="FG2" t="n">
-        <v>1004.423052047792</v>
+        <v>1004.423000552428</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.402848295784938</v>
+        <v>1.402848282903634</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.9992669504683152</v>
+        <v>0.9992669513502628</v>
       </c>
       <c r="FJ2" t="n">
-        <v>306.890232183208</v>
+        <v>306.8890813343365</v>
       </c>
       <c r="FK2" t="n">
-        <v>80681.43609299284</v>
+        <v>80678.74193361285</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.239442489406618e-05</v>
+        <v>1.239483878941566e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>57512.58802210615</v>
+        <v>57510.66805786217</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.738749783987515e-05</v>
+        <v>1.738807831259912e-05</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.004282804348442645</v>
+        <v>0.004282836275626885</v>
       </c>
       <c r="FP2" t="n">
-        <v>1.520194412860265e-05</v>
+        <v>1.52018503694895e-05</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.02129321790161242</v>
+        <v>0.02129307615338264</v>
       </c>
       <c r="FR2" t="n">
-        <v>57554.70642748707</v>
+        <v>57552.78501119111</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.85665802638391</v>
+        <v>0.8566358451981306</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.85665802638391</v>
+        <v>0.8566358451981306</v>
       </c>
       <c r="FU2" t="n">
-        <v>293121.5251202224</v>
+        <v>293120.2727888638</v>
       </c>
       <c r="FV2" t="n">
-        <v>360306.6849563295</v>
+        <v>360304.92929583</v>
       </c>
       <c r="FW2" t="n">
-        <v>3800.680444291525</v>
+        <v>3800.682524721649</v>
       </c>
       <c r="FX2" t="n">
-        <v>715.9883610121828</v>
+        <v>715.988330878846</v>
       </c>
       <c r="FY2" t="n">
-        <v>1004.423052047792</v>
+        <v>1004.423000552428</v>
       </c>
       <c r="FZ2" t="n">
-        <v>306.890232183208</v>
+        <v>306.8890813343365</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.9992669504683152</v>
+        <v>0.9992669513502628</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.520194412860265e-05</v>
+        <v>1.52018503694895e-05</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.02129321790161242</v>
+        <v>0.02129307615338264</v>
       </c>
       <c r="GD2" t="inlineStr">
         <is>
@@ -8135,97 +8135,97 @@
         <v>1</v>
       </c>
       <c r="GF2" t="n">
-        <v>244.4614066980638</v>
+        <v>244.412270269999</v>
       </c>
       <c r="GG2" t="n">
-        <v>66822.70615783027</v>
+        <v>66775.3440294719</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.9529351478418646</v>
+        <v>0.9524513186419514</v>
       </c>
       <c r="GI2" t="n">
-        <v>300432.6211006235</v>
+        <v>300397.5209412455</v>
       </c>
       <c r="GJ2" t="n">
-        <v>370555.6576043827</v>
+        <v>370506.4522036676</v>
       </c>
       <c r="GK2" t="n">
-        <v>3800.680444300197</v>
+        <v>3800.682524730321</v>
       </c>
       <c r="GL2" t="n">
-        <v>-558564.0302190657</v>
+        <v>-558426.9922411819</v>
       </c>
       <c r="GM2" t="n">
-        <v>716.1724030951426</v>
+        <v>716.1714182521346</v>
       </c>
       <c r="GN2" t="n">
-        <v>1004.673585265806</v>
+        <v>1004.672268655722</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.402837614132886</v>
+        <v>1.402837704844035</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.9992960651378705</v>
+        <v>0.9992959140329984</v>
       </c>
       <c r="GQ2" t="n">
-        <v>313.5317367555447</v>
+        <v>313.500187827094</v>
       </c>
       <c r="GR2" t="n">
-        <v>93675.57379858583</v>
+        <v>93609.17077952593</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.06751414424226e-05</v>
+        <v>1.068271400838772e-05</v>
       </c>
       <c r="GT2" t="n">
-        <v>66775.77850412006</v>
+        <v>66728.43940271284</v>
       </c>
       <c r="GU2" t="n">
-        <v>1.497548995161921e-05</v>
+        <v>1.498611400103185e-05</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.004103843949328639</v>
+        <v>0.004104667247492335</v>
       </c>
       <c r="GW2" t="n">
-        <v>1.574391435382457e-05</v>
+        <v>1.574133338826685e-05</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.02211361781093892</v>
+        <v>0.02210970405375197</v>
       </c>
       <c r="GY2" t="n">
-        <v>66822.70615783027</v>
+        <v>66775.3440294719</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9529351478418646</v>
+        <v>0.9524513186419514</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9529351478418646</v>
+        <v>0.9524513186419514</v>
       </c>
       <c r="HB2" t="n">
-        <v>300432.6211006235</v>
+        <v>300397.5209412455</v>
       </c>
       <c r="HC2" t="n">
-        <v>370555.6576043827</v>
+        <v>370506.4522036676</v>
       </c>
       <c r="HD2" t="n">
-        <v>3800.680444300197</v>
+        <v>3800.682524730321</v>
       </c>
       <c r="HE2" t="n">
-        <v>716.1724030951426</v>
+        <v>716.1714182521346</v>
       </c>
       <c r="HF2" t="n">
-        <v>1004.673585265806</v>
+        <v>1004.672268655722</v>
       </c>
       <c r="HG2" t="n">
-        <v>313.5317367555447</v>
+        <v>313.500187827094</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.9992960651378705</v>
+        <v>0.9992959140329984</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.574391435382457e-05</v>
+        <v>1.574133338826685e-05</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.02211361781093892</v>
+        <v>0.02210970405375197</v>
       </c>
       <c r="HK2" t="inlineStr">
         <is>
@@ -8236,97 +8236,97 @@
         <v>1</v>
       </c>
       <c r="HM2" t="n">
-        <v>268.8324161246628</v>
+        <v>268.832360338356</v>
       </c>
       <c r="HN2" t="n">
-        <v>93119.85352339246</v>
+        <v>93119.11301617336</v>
       </c>
       <c r="HO2" t="n">
-        <v>1.207446265639573</v>
+        <v>1.207436909409114</v>
       </c>
       <c r="HP2" t="n">
-        <v>317847.0356684051</v>
+        <v>317846.9973591591</v>
       </c>
       <c r="HQ2" t="n">
-        <v>394968.3587229493</v>
+        <v>394968.3047256394</v>
       </c>
       <c r="HR2" t="n">
-        <v>3800.680444284625</v>
+        <v>3800.682524721649</v>
       </c>
       <c r="HS2" t="n">
-        <v>-626777.7480318432</v>
+        <v>-626778.1492920235</v>
       </c>
       <c r="HT2" t="n">
-        <v>716.794714938891</v>
+        <v>716.7947110183087</v>
       </c>
       <c r="HU2" t="n">
-        <v>1005.4573614758</v>
+        <v>1005.457345502206</v>
       </c>
       <c r="HV2" t="n">
-        <v>1.402713134626723</v>
+        <v>1.402713120014252</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.9993936971367071</v>
+        <v>0.9993937012269706</v>
       </c>
       <c r="HX2" t="n">
-        <v>328.8066602146848</v>
+        <v>328.8066257243974</v>
       </c>
       <c r="HY2" t="n">
-        <v>130541.6279833933</v>
+        <v>130540.5890593755</v>
       </c>
       <c r="HZ2" t="n">
-        <v>7.660391673123716e-06</v>
+        <v>7.660452639333173e-06</v>
       </c>
       <c r="IA2" t="n">
-        <v>93063.66694722068</v>
+        <v>93062.92726345148</v>
       </c>
       <c r="IB2" t="n">
-        <v>1.074533201627582e-05</v>
+        <v>1.074541742244045e-05</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.003732486991479118</v>
+        <v>0.003732487672904552</v>
       </c>
       <c r="ID2" t="n">
-        <v>1.700018262273454e-05</v>
+        <v>1.70001796974797e-05</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.0240263082022706</v>
+        <v>0.02402630364837266</v>
       </c>
       <c r="IF2" t="n">
-        <v>93119.85352339246</v>
+        <v>93119.11301617336</v>
       </c>
       <c r="IG2" t="n">
-        <v>1.207446265639573</v>
+        <v>1.207436909409114</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.207446265639573</v>
+        <v>1.207436909409114</v>
       </c>
       <c r="II2" t="n">
-        <v>317847.0356684051</v>
+        <v>317846.9973591591</v>
       </c>
       <c r="IJ2" t="n">
-        <v>394968.3587229493</v>
+        <v>394968.3047256394</v>
       </c>
       <c r="IK2" t="n">
-        <v>3800.680444284625</v>
+        <v>3800.682524721649</v>
       </c>
       <c r="IL2" t="n">
-        <v>716.794714938891</v>
+        <v>716.7947110183087</v>
       </c>
       <c r="IM2" t="n">
-        <v>1005.4573614758</v>
+        <v>1005.457345502206</v>
       </c>
       <c r="IN2" t="n">
-        <v>328.8066602146848</v>
+        <v>328.8066257243974</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.9993936971367071</v>
+        <v>0.9993937012269706</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.700018262273454e-05</v>
+        <v>1.70001796974797e-05</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.0240263082022706</v>
+        <v>0.02402630364837266</v>
       </c>
       <c r="IR2" t="inlineStr">
         <is>
@@ -8337,64 +8337,64 @@
         <v>1</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.02429238887033931</v>
+        <v>0.02429129783225098</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.00196514468741502</v>
+        <v>0.001965973237287362</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.01190257554960184</v>
+        <v>0.01191299607167525</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.03190958695868697</v>
+        <v>0.03185011009748257</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.04245126562443861</v>
+        <v>0.04251564289121203</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.1125209616904817</v>
+        <v>0.1125360201299082</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-6.964499810191427e-11</v>
+        <v>-7.029729576224497e-11</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.4665219681271793</v>
+        <v>0.4654425307046399</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.8579395668202052</v>
+        <v>0.8579638435848281</v>
       </c>
       <c r="JC2" t="n">
-        <v>386654.0207434575</v>
+        <v>386655.8846951178</v>
       </c>
       <c r="JD2" t="n">
-        <v>2.740325648234486</v>
+        <v>2.740321957341152</v>
       </c>
       <c r="JE2" t="n">
-        <v>381305.784757936</v>
+        <v>381305.730760419</v>
       </c>
       <c r="JF2" t="n">
         <v>0</v>
       </c>
       <c r="JG2" t="n">
-        <v>2666.316166067147</v>
+        <v>2666.318026735506</v>
       </c>
       <c r="JH2" t="n">
-        <v>6.129550699453915</v>
+        <v>6.129678780708716</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.008898450241416901</v>
+        <v>0.008898449696283188</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.0006974253332133927</v>
+        <v>0.0006974507522067246</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.01162807393322934</v>
+        <v>0.0116280751370975</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.01540751271637455</v>
+        <v>0.01540752550388939</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.004323213572720023</v>
+        <v>0.004323206184883205</v>
       </c>
     </row>
     <row r="3">
@@ -8402,148 +8402,148 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01595022849403729</v>
+        <v>0.01595026541612997</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.793955750225705e-07</v>
+        <v>-1.79395729891294e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379120448695816</v>
+        <v>0.01379120572413062</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02518433238859637</v>
+        <v>0.02518431608788884</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0549255859740168</v>
+        <v>0.05492560783241954</v>
       </c>
       <c r="H3" t="n">
-        <v>1.731600973720049e-13</v>
+        <v>9.384992782912605e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9803447272965506</v>
+        <v>0.9803281699881209</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>277.9577307425636</v>
+        <v>277.9793036441267</v>
       </c>
       <c r="L3" t="n">
-        <v>114.0320323110966</v>
+        <v>113.5839240641123</v>
       </c>
       <c r="M3" t="n">
-        <v>253.4900307439259</v>
+        <v>253.7147718377303</v>
       </c>
       <c r="N3" t="n">
-        <v>65.77948826711301</v>
+        <v>65.88272377225761</v>
       </c>
       <c r="O3" t="n">
-        <v>277.9577307425636</v>
+        <v>277.9793036441267</v>
       </c>
       <c r="P3" t="n">
-        <v>114.0320323110966</v>
+        <v>113.5839240641123</v>
       </c>
       <c r="Q3" t="n">
-        <v>253.4900307439259</v>
+        <v>253.7147718377303</v>
       </c>
       <c r="R3" t="n">
-        <v>65.77948826711301</v>
+        <v>65.88272377225761</v>
       </c>
       <c r="S3" t="n">
-        <v>257.0504352096336</v>
+        <v>257.0444431875463</v>
       </c>
       <c r="T3" t="n">
-        <v>82941.78308141034</v>
+        <v>82933.31636966697</v>
       </c>
       <c r="U3" t="n">
-        <v>1.124855601892618</v>
+        <v>1.124767007933522</v>
       </c>
       <c r="V3" t="n">
-        <v>309418.6874069105</v>
+        <v>309414.4104577606</v>
       </c>
       <c r="W3" t="n">
-        <v>383154.1810488119</v>
+        <v>383148.1844613529</v>
       </c>
       <c r="X3" t="n">
-        <v>3788.94616124999</v>
+        <v>3788.952115952658</v>
       </c>
       <c r="Y3" t="n">
-        <v>-590796.0786863687</v>
+        <v>-590780.9024479737</v>
       </c>
       <c r="Z3" t="n">
-        <v>716.4707974534631</v>
+        <v>716.4706375934454</v>
       </c>
       <c r="AA3" t="n">
-        <v>1005.118863265347</v>
+        <v>1005.118628898828</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.402874851058578</v>
+        <v>1.402874836957622</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9993141076252712</v>
+        <v>0.999314096602079</v>
       </c>
       <c r="AD3" t="n">
-        <v>321.5135668758004</v>
+        <v>321.5098142701867</v>
       </c>
       <c r="AE3" t="n">
-        <v>116277.4188228914</v>
+        <v>116265.5467014963</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.600122105592621e-06</v>
+        <v>8.601000282288529e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>82885.09750898388</v>
+        <v>82876.6356331819</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.206489501796883e-05</v>
+        <v>1.206612686868798e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.00390377982684709</v>
+        <v>0.003903870368836224</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.639920054045892e-05</v>
+        <v>1.639889159835806e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0231098233952022</v>
+        <v>0.0231093526998357</v>
       </c>
       <c r="AL3" t="n">
-        <v>82941.78308141034</v>
+        <v>82933.31636966697</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.124855601892618</v>
+        <v>1.124767007933522</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.124855601892618</v>
+        <v>1.124767007933522</v>
       </c>
       <c r="AO3" t="n">
-        <v>309418.6874069105</v>
+        <v>309414.4104577606</v>
       </c>
       <c r="AP3" t="n">
-        <v>383154.1810488119</v>
+        <v>383148.1844613529</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3788.94616124999</v>
+        <v>3788.952115952658</v>
       </c>
       <c r="AR3" t="n">
-        <v>716.4707974534631</v>
+        <v>716.4706375934454</v>
       </c>
       <c r="AS3" t="n">
-        <v>1005.118863265347</v>
+        <v>1005.118628898828</v>
       </c>
       <c r="AT3" t="n">
-        <v>321.5135668758004</v>
+        <v>321.5098142701867</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9993141076252712</v>
+        <v>0.999314096602079</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.639920054045892e-05</v>
+        <v>1.639889159835806e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0231098233952022</v>
+        <v>0.0231093526998357</v>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
@@ -8554,97 +8554,97 @@
         <v>1</v>
       </c>
       <c r="AZ3" t="n">
-        <v>295.5933468835981</v>
+        <v>295.5933403806764</v>
       </c>
       <c r="BA3" t="n">
-        <v>135130.503023785</v>
+        <v>135127.6985167088</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.593332131832587</v>
+        <v>1.593299083550209</v>
       </c>
       <c r="BC3" t="n">
-        <v>336974.4279987988</v>
+        <v>336974.4290545614</v>
       </c>
       <c r="BD3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="BE3" t="n">
-        <v>3788.946161249698</v>
+        <v>3788.952115952347</v>
       </c>
       <c r="BF3" t="n">
-        <v>-698202.8458769697</v>
+        <v>-698204.5814081966</v>
       </c>
       <c r="BG3" t="n">
-        <v>717.8557622455322</v>
+        <v>717.8557549405775</v>
       </c>
       <c r="BH3" t="n">
-        <v>1006.774470037743</v>
+        <v>1006.774423990564</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.402474595855358</v>
+        <v>1.402474545981599</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9995308296345083</v>
+        <v>0.9995308391810189</v>
       </c>
       <c r="BK3" t="n">
-        <v>344.8023979999685</v>
+        <v>344.8023913322563</v>
       </c>
       <c r="BL3" t="n">
-        <v>189429.1757304816</v>
+        <v>189425.2393372351</v>
       </c>
       <c r="BM3" t="n">
-        <v>5.279017850042236e-06</v>
+        <v>5.279127551844835e-06</v>
       </c>
       <c r="BN3" t="n">
-        <v>135067.8124867925</v>
+        <v>135065.0105415321</v>
       </c>
       <c r="BO3" t="n">
-        <v>7.403688425751206e-06</v>
+        <v>7.403842016452533e-06</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.003395609410752818</v>
+        <v>0.003395609225726045</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.832921504485031e-05</v>
+        <v>1.832921432487972e-05</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.02606721789341843</v>
+        <v>0.02606721650931828</v>
       </c>
       <c r="BS3" t="n">
-        <v>135130.503023785</v>
+        <v>135127.6985167088</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.593332131832587</v>
+        <v>1.593299083550209</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.593332131832587</v>
+        <v>1.593299083550209</v>
       </c>
       <c r="BV3" t="n">
-        <v>336974.4279987988</v>
+        <v>336974.4290545614</v>
       </c>
       <c r="BW3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="BX3" t="n">
-        <v>3788.946161249698</v>
+        <v>3788.952115952347</v>
       </c>
       <c r="BY3" t="n">
-        <v>717.8557622455322</v>
+        <v>717.8557549405775</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1006.774470037743</v>
+        <v>1006.774423990564</v>
       </c>
       <c r="CA3" t="n">
-        <v>344.8023979999685</v>
+        <v>344.8023913322563</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.9995308296345083</v>
+        <v>0.9995308391810189</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.832921504485031e-05</v>
+        <v>1.832921432487972e-05</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02606721789341843</v>
+        <v>0.02606721650931828</v>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
@@ -8655,97 +8655,97 @@
         <v>1</v>
       </c>
       <c r="CG3" t="n">
-        <v>295.5933468835981</v>
+        <v>295.5933403806764</v>
       </c>
       <c r="CH3" t="n">
-        <v>135130.503023785</v>
+        <v>135127.6985167088</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.593332131832587</v>
+        <v>1.593299083550209</v>
       </c>
       <c r="CJ3" t="n">
-        <v>336974.4279987988</v>
+        <v>336974.4290545614</v>
       </c>
       <c r="CK3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="CL3" t="n">
-        <v>3788.946161249698</v>
+        <v>3788.952115952347</v>
       </c>
       <c r="CM3" t="n">
-        <v>-698202.8458769697</v>
+        <v>-698204.5814081966</v>
       </c>
       <c r="CN3" t="n">
-        <v>717.8557622455322</v>
+        <v>717.8557549405775</v>
       </c>
       <c r="CO3" t="n">
-        <v>1006.774470037743</v>
+        <v>1006.774423990564</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.402474595855358</v>
+        <v>1.402474545981599</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.9995308296345083</v>
+        <v>0.9995308391810189</v>
       </c>
       <c r="CR3" t="n">
-        <v>344.8023979999685</v>
+        <v>344.8023913322563</v>
       </c>
       <c r="CS3" t="n">
-        <v>189429.1757304816</v>
+        <v>189425.2393372351</v>
       </c>
       <c r="CT3" t="n">
-        <v>5.279017850042236e-06</v>
+        <v>5.279127551844835e-06</v>
       </c>
       <c r="CU3" t="n">
-        <v>135067.8124867925</v>
+        <v>135065.0105415321</v>
       </c>
       <c r="CV3" t="n">
-        <v>7.403688425751206e-06</v>
+        <v>7.403842016452533e-06</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.003395609410752818</v>
+        <v>0.003395609225726045</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.832921504485031e-05</v>
+        <v>1.832921432487972e-05</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02606721789341843</v>
+        <v>0.02606721650931828</v>
       </c>
       <c r="CZ3" t="n">
-        <v>135130.503023785</v>
+        <v>135127.6985167088</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.593332131832587</v>
+        <v>1.593299083550209</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.593332131832587</v>
+        <v>1.593299083550209</v>
       </c>
       <c r="DC3" t="n">
-        <v>336974.4279987988</v>
+        <v>336974.4290545614</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="DE3" t="n">
-        <v>3788.946161249698</v>
+        <v>3788.952115952347</v>
       </c>
       <c r="DF3" t="n">
-        <v>717.8557622455322</v>
+        <v>717.8557549405775</v>
       </c>
       <c r="DG3" t="n">
-        <v>1006.774470037743</v>
+        <v>1006.774423990564</v>
       </c>
       <c r="DH3" t="n">
-        <v>344.8023979999685</v>
+        <v>344.8023913322563</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.9995308296345083</v>
+        <v>0.9995308391810189</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.832921504485031e-05</v>
+        <v>1.832921432487972e-05</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.02606721789341843</v>
+        <v>0.02606721650931828</v>
       </c>
       <c r="DL3" t="inlineStr">
         <is>
@@ -8756,37 +8756,37 @@
         <v>1</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0160374287133779</v>
+        <v>0.0161271766514929</v>
       </c>
       <c r="DO3" t="n">
-        <v>-1.825908094205932e-07</v>
+        <v>-1.826451165063137e-07</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01379361004716724</v>
+        <v>0.01379703184927639</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.02515223164247335</v>
+        <v>0.02510682920285156</v>
       </c>
       <c r="DR3" t="n">
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.05498308781220907</v>
+        <v>0.05503085505850434</v>
       </c>
       <c r="DT3" t="n">
-        <v>1.135480598435379e-13</v>
+        <v>-6.162563515044184e-12</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.8645287769456325</v>
+        <v>0.8646059663065889</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.8645287769456325</v>
+        <v>0.8646059663065889</v>
       </c>
       <c r="DW3" t="n">
-        <v>498758.8280841266</v>
+        <v>498767.6486054561</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.742713109629137</v>
+        <v>2.74270994387523</v>
       </c>
       <c r="DY3" t="n">
         <v>421784.4310884894</v>
@@ -8795,169 +8795,169 @@
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>1485.00431117625</v>
+        <v>1485.007527613314</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.006324338053164483</v>
+        <v>0.006324364444154158</v>
       </c>
       <c r="ED3" t="n">
-        <v>-7.113116041620977e-08</v>
+        <v>-7.113135399052583e-08</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.009985702194064784</v>
+        <v>0.009985714285074807</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.005468275226806188</v>
+        <v>0.005468285877895405</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.02459522109724313</v>
+        <v>0.02459527083900296</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.002166345440326452</v>
+        <v>0.002166430091196224</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.01188682146147578</v>
+        <v>0.01188681547315103</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.03204523418760414</v>
+        <v>0.03204528799460138</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.04266986376939112</v>
+        <v>0.04266995612110982</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.1133634859560406</v>
+        <v>0.1133637605190614</v>
       </c>
       <c r="EN3" t="n">
-        <v>-1.838258434361251e-10</v>
+        <v>-1.69581848563638e-10</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.9607508105101528</v>
+        <v>0.9607483825628569</v>
       </c>
       <c r="EP3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EQ3" t="n">
-        <v>147.8703210740053</v>
+        <v>147.7007679785438</v>
       </c>
       <c r="ER3" t="n">
-        <v>130.1084646252046</v>
+        <v>129.8298938092899</v>
       </c>
       <c r="ES3" t="n">
-        <v>-70.26677228535038</v>
+        <v>-70.42524785132204</v>
       </c>
       <c r="ET3" t="n">
-        <v>-28.37184247210787</v>
+        <v>-28.47728422255597</v>
       </c>
       <c r="EU3" t="n">
-        <v>269.1122895923723</v>
+        <v>269.1165220734783</v>
       </c>
       <c r="EV3" t="n">
-        <v>130.1084646252046</v>
+        <v>129.8298938092899</v>
       </c>
       <c r="EW3" t="n">
-        <v>-235.5699722853504</v>
+        <v>-235.728447851322</v>
       </c>
       <c r="EX3" t="n">
-        <v>-61.0875390430234</v>
+        <v>-61.15576777799674</v>
       </c>
       <c r="EY3" t="n">
-        <v>232.4495873530192</v>
+        <v>232.4483844532469</v>
       </c>
       <c r="EZ3" t="n">
-        <v>55931.5960777679</v>
+        <v>55930.36243479655</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.8388647148986752</v>
+        <v>0.8388505535724415</v>
       </c>
       <c r="FB3" t="n">
-        <v>291852.8369916002</v>
+        <v>291851.9784497342</v>
       </c>
       <c r="FC3" t="n">
-        <v>358528.1841416156</v>
+        <v>358526.9805661469</v>
       </c>
       <c r="FD3" t="n">
-        <v>3801.263841062894</v>
+        <v>3801.264989904659</v>
       </c>
       <c r="FE3" t="n">
-        <v>-525074.0271334068</v>
+        <v>-525070.925215879</v>
       </c>
       <c r="FF3" t="n">
-        <v>715.9598802275607</v>
+        <v>715.9598606112655</v>
       </c>
       <c r="FG3" t="n">
-        <v>1004.38033190275</v>
+        <v>1004.38029907294</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.402844432544904</v>
+        <v>1.402844425126613</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.9992640790443587</v>
+        <v>0.9992640790986035</v>
       </c>
       <c r="FJ3" t="n">
-        <v>305.722775749121</v>
+        <v>305.7219839082633</v>
       </c>
       <c r="FK3" t="n">
-        <v>78405.67808474951</v>
+        <v>78403.94833263803</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.275417832518571e-05</v>
+        <v>1.275445970855169e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>55890.50094636193</v>
+        <v>55889.2682098813</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.789212805517165e-05</v>
+        <v>1.789252269764374e-05</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.004315445129584522</v>
+        <v>0.004315467362656826</v>
       </c>
       <c r="FP3" t="n">
-        <v>1.510693774938315e-05</v>
+        <v>1.510687330932671e-05</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.02114967868544187</v>
+        <v>0.02114958133219835</v>
       </c>
       <c r="FR3" t="n">
-        <v>55931.5960777679</v>
+        <v>55930.36243479655</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.8388647148986752</v>
+        <v>0.8388505535724415</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.8388647148986752</v>
+        <v>0.8388505535724415</v>
       </c>
       <c r="FU3" t="n">
-        <v>291852.8369916002</v>
+        <v>291851.9784497342</v>
       </c>
       <c r="FV3" t="n">
-        <v>358528.1841416156</v>
+        <v>358526.9805661469</v>
       </c>
       <c r="FW3" t="n">
-        <v>3801.263841062894</v>
+        <v>3801.264989904659</v>
       </c>
       <c r="FX3" t="n">
-        <v>715.9598802275607</v>
+        <v>715.9598606112655</v>
       </c>
       <c r="FY3" t="n">
-        <v>1004.38033190275</v>
+        <v>1004.38029907294</v>
       </c>
       <c r="FZ3" t="n">
-        <v>305.722775749121</v>
+        <v>305.7219839082633</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.9992640790443587</v>
+        <v>0.9992640790986035</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.510693774938315e-05</v>
+        <v>1.510687330932671e-05</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.02114967868544187</v>
+        <v>0.02114958133219835</v>
       </c>
       <c r="GD3" t="inlineStr">
         <is>
@@ -8968,97 +8968,97 @@
         <v>1</v>
       </c>
       <c r="GF3" t="n">
-        <v>243.3678546592403</v>
+        <v>243.3416299436559</v>
       </c>
       <c r="GG3" t="n">
-        <v>65651.70331184019</v>
+        <v>65626.74669726423</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.9404446715113648</v>
+        <v>0.9401885603147393</v>
       </c>
       <c r="GI3" t="n">
-        <v>299651.786086611</v>
+        <v>299633.0529654348</v>
       </c>
       <c r="GJ3" t="n">
-        <v>369461.0000686872</v>
+        <v>369434.7389966867</v>
       </c>
       <c r="GK3" t="n">
-        <v>3801.263841071544</v>
+        <v>3801.264989923234</v>
       </c>
       <c r="GL3" t="n">
-        <v>-555644.425926638</v>
+        <v>-555571.2794989879</v>
       </c>
       <c r="GM3" t="n">
-        <v>716.1501976955888</v>
+        <v>716.1496837321154</v>
       </c>
       <c r="GN3" t="n">
-        <v>1004.641302973909</v>
+        <v>1004.640612356906</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.402836033846839</v>
+        <v>1.402836076281372</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.99929405634642</v>
+        <v>0.9992939778463985</v>
       </c>
       <c r="GQ3" t="n">
-        <v>312.8288747359081</v>
+        <v>312.8119994319403</v>
       </c>
       <c r="GR3" t="n">
-        <v>92033.70697756532</v>
+        <v>91998.71705007755</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.086558428254733e-05</v>
+        <v>1.086971679676436e-05</v>
       </c>
       <c r="GT3" t="n">
-        <v>65605.46261788822</v>
+        <v>65580.51835532139</v>
       </c>
       <c r="GU3" t="n">
-        <v>1.524263316035724e-05</v>
+        <v>1.524843086146264e-05</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.00412222061503097</v>
+        <v>0.004122663927114679</v>
       </c>
       <c r="GW3" t="n">
-        <v>1.568640705348951e-05</v>
+        <v>1.568502721522125e-05</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.02202641086076043</v>
+        <v>0.02202431925186129</v>
       </c>
       <c r="GY3" t="n">
-        <v>65651.70331184019</v>
+        <v>65626.74669726423</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9404446715113648</v>
+        <v>0.9401885603147393</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9404446715113648</v>
+        <v>0.9401885603147393</v>
       </c>
       <c r="HB3" t="n">
-        <v>299651.786086611</v>
+        <v>299633.0529654348</v>
       </c>
       <c r="HC3" t="n">
-        <v>369461.0000686872</v>
+        <v>369434.7389966867</v>
       </c>
       <c r="HD3" t="n">
-        <v>3801.263841071544</v>
+        <v>3801.264989923234</v>
       </c>
       <c r="HE3" t="n">
-        <v>716.1501976955888</v>
+        <v>716.1496837321154</v>
       </c>
       <c r="HF3" t="n">
-        <v>1004.641302973909</v>
+        <v>1004.640612356906</v>
       </c>
       <c r="HG3" t="n">
-        <v>312.8288747359081</v>
+        <v>312.8119994319403</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.99929405634642</v>
+        <v>0.9992939778463985</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.568640705348951e-05</v>
+        <v>1.568502721522125e-05</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.02202641086076043</v>
+        <v>0.02202431925186129</v>
       </c>
       <c r="HK3" t="inlineStr">
         <is>
@@ -9069,97 +9069,97 @@
         <v>1</v>
       </c>
       <c r="HM3" t="n">
-        <v>268.6028881481409</v>
+        <v>268.6028226804219</v>
       </c>
       <c r="HN3" t="n">
-        <v>92654.46753478315</v>
+        <v>92654.01885982853</v>
       </c>
       <c r="HO3" t="n">
-        <v>1.202438301225137</v>
+        <v>1.202432769030554</v>
       </c>
       <c r="HP3" t="n">
-        <v>317683.4104719367</v>
+        <v>317683.3645380763</v>
       </c>
       <c r="HQ3" t="n">
-        <v>394738.8963462471</v>
+        <v>394738.8317926236</v>
       </c>
       <c r="HR3" t="n">
-        <v>3801.263841062894</v>
+        <v>3801.264989914587</v>
       </c>
       <c r="HS3" t="n">
-        <v>-626291.549976342</v>
+        <v>-626291.6742546997</v>
       </c>
       <c r="HT3" t="n">
-        <v>716.7868863790583</v>
+        <v>716.7868831323688</v>
       </c>
       <c r="HU3" t="n">
-        <v>1005.444725569284</v>
+        <v>1005.44471545445</v>
       </c>
       <c r="HV3" t="n">
-        <v>1.402710826154226</v>
+        <v>1.402710818396457</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.9993938096917948</v>
+        <v>0.9993938117837826</v>
       </c>
       <c r="HX3" t="n">
-        <v>328.6660257336101</v>
+        <v>328.6659854547154</v>
       </c>
       <c r="HY3" t="n">
-        <v>129889.0163716567</v>
+        <v>129888.3869401539</v>
       </c>
       <c r="HZ3" t="n">
-        <v>7.698880382146091e-06</v>
+        <v>7.698917690468743e-06</v>
       </c>
       <c r="IA3" t="n">
-        <v>92598.56981910511</v>
+        <v>92598.12160616188</v>
       </c>
       <c r="IB3" t="n">
-        <v>1.07993028613027e-05</v>
+        <v>1.079935513436436e-05</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.003735645016517376</v>
+        <v>0.00373564587481117</v>
       </c>
       <c r="ID3" t="n">
-        <v>1.698853714509671e-05</v>
+        <v>1.698853377487505e-05</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02400848363048537</v>
+        <v>0.02400847843367215</v>
       </c>
       <c r="IF3" t="n">
-        <v>92654.46753478315</v>
+        <v>92654.01885982853</v>
       </c>
       <c r="IG3" t="n">
-        <v>1.202438301225137</v>
+        <v>1.202432769030554</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.202438301225137</v>
+        <v>1.202432769030554</v>
       </c>
       <c r="II3" t="n">
-        <v>317683.4104719367</v>
+        <v>317683.3645380763</v>
       </c>
       <c r="IJ3" t="n">
-        <v>394738.8963462471</v>
+        <v>394738.8317926236</v>
       </c>
       <c r="IK3" t="n">
-        <v>3801.263841062894</v>
+        <v>3801.264989914587</v>
       </c>
       <c r="IL3" t="n">
-        <v>716.7868863790583</v>
+        <v>716.7868831323688</v>
       </c>
       <c r="IM3" t="n">
-        <v>1005.444725569284</v>
+        <v>1005.44471545445</v>
       </c>
       <c r="IN3" t="n">
-        <v>328.6660257336101</v>
+        <v>328.6659854547154</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.9993938096917948</v>
+        <v>0.9993938117837826</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.698853714509671e-05</v>
+        <v>1.698853377487505e-05</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.02400848363048537</v>
+        <v>0.02400847843367215</v>
       </c>
       <c r="IR3" t="inlineStr">
         <is>
@@ -9170,64 +9170,64 @@
         <v>1</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.02448171759469558</v>
+        <v>0.02448128052685106</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.002201228147540871</v>
+        <v>0.002201763967062647</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.01189238600742983</v>
+        <v>0.0118978123828341</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.03201339421392882</v>
+        <v>0.03198236065730625</v>
       </c>
       <c r="IX3" t="n">
-        <v>0.0427033687182823</v>
+        <v>0.04273633085024626</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.1132920946818774</v>
+        <v>0.1132995483843003</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-1.563593698961085e-11</v>
+        <v>-9.257991595568171e-11</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.4836745339357676</v>
+        <v>0.483121187722188</v>
       </c>
       <c r="JB3" t="n">
-        <v>0.8802493989299914</v>
+        <v>0.880265523051921</v>
       </c>
       <c r="JC3" t="n">
-        <v>389424.6426404853</v>
+        <v>389425.8542842524</v>
       </c>
       <c r="JD3" t="n">
-        <v>2.742713110280626</v>
+        <v>2.742709944537423</v>
       </c>
       <c r="JE3" t="n">
-        <v>381076.3223812272</v>
+        <v>381076.2578274033</v>
       </c>
       <c r="JF3" t="n">
         <v>0</v>
       </c>
       <c r="JG3" t="n">
-        <v>2819.797506897477</v>
+        <v>2819.800080348505</v>
       </c>
       <c r="JH3" t="n">
-        <v>6.466737176007328</v>
+        <v>6.466874290460979</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.008972027844099787</v>
+        <v>0.008972033255953436</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.0007902556164752744</v>
+        <v>0.0007902853744585437</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.01168969907874135</v>
+        <v>0.01168970211656445</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.01556543054967022</v>
+        <v>0.01556544214758444</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.004336163220836337</v>
+        <v>0.004336154882399994</v>
       </c>
     </row>
   </sheetData>
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4091107084443905</v>
+        <v>0.4091092861064464</v>
       </c>
     </row>
     <row r="3">
@@ -9274,7 +9274,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4294038855511785</v>
+        <v>0.4294021614893837</v>
       </c>
     </row>
   </sheetData>
@@ -10377,10 +10377,10 @@
         <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H2" t="n">
-        <v>7.082069225226791e-11</v>
+        <v>9.75423696357367e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10408,10 +10408,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>2.147995634712346e-10</v>
+        <v>2.225793946283479e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_windows/performance_analysis_evaluate_cascade_throat_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_evaluate_cascade_throat_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015416512413595</v>
+        <v>2.015307483574172</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999958307</v>
+        <v>2.300000000043871</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740321957346736</v>
+        <v>2.736586425993109</v>
       </c>
       <c r="E2" t="n">
-        <v>92.55823378509079</v>
+        <v>92.56668773393856</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08695059165633</v>
+        <v>79.08882413903751</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455438661968548</v>
+        <v>0.1456016621620949</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23249445785319</v>
+        <v>-78.23442580119961</v>
       </c>
       <c r="I2" t="n">
-        <v>136186.9850424866</v>
+        <v>136004.5605316121</v>
       </c>
       <c r="J2" t="n">
-        <v>83.704354666556</v>
+        <v>83.59223142692815</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.35240832620558</v>
+        <v>-24.55185721834646</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2466584080788</v>
+        <v>135.273509197177</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372086.9914584132</v>
+        <v>372085.8141401936</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.716003207146823</v>
+        <v>0.7155150228027652</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069502772201159</v>
+        <v>2.069586254973516</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999771385</v>
+        <v>2.399999999876494</v>
       </c>
       <c r="D3" t="n">
-        <v>2.742709944164941</v>
+        <v>2.739474097986275</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53027716136778</v>
+        <v>92.53503956194497</v>
       </c>
       <c r="F3" t="n">
-        <v>78.20388215397108</v>
+        <v>78.2120394163825</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548292672074487</v>
+        <v>0.1547846114657394</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35871142117853</v>
+        <v>-77.36682402784824</v>
       </c>
       <c r="I3" t="n">
-        <v>140844.1891726076</v>
+        <v>140692.6951454219</v>
       </c>
       <c r="J3" t="n">
-        <v>86.56680342508147</v>
+        <v>86.47369093142093</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.84397151585621</v>
+        <v>-26.9621551357235</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5958535361322</v>
+        <v>142.5752883583434</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370432.231242503</v>
+        <v>370426.8748157118</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.703672233826278</v>
+        <v>0.7032570154574247</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -837,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RI3"/>
+  <dimension ref="A1:RL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,1777 +1458,1792 @@
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
+          <t>h_is_1</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
           <t>blade_speed_2</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>v_2</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>v_m_2</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>v_t_2</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>alpha_2</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>w_2</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>w_m_2</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>w_t_2</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>beta_2</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>T_2</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>p_2</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>rhomass_2</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>umass_2</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>hmass_2</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>smass_2</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass_2</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>cvmass_2</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>cpmass_2</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>gamma_2</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor_2</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>speed_sound_2</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus_2</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility_2</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus_2</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility_2</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient_2</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>viscosity_2</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>conductivity_2</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>P_2</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>rho_2</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>d_2</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>u_2</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>h_2</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>s_2</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>cv_2</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>cp_2</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>a_2</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>Z_2</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>mu_2</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>k_2</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>fluid_name_2</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>converged_2</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>T0_2</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>p0_2</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_2</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>umass0_2</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>hmass0_2</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>smass0_2</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_2</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_2</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_2</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>gamma0_2</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_2</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_2</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_2</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_2</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_2</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_2</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_2</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_2</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_2</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>P0_2</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>rho0_2</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>d0_2</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>u0_2</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>h0_2</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>s0_2</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>cv0_2</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>cp0_2</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>a0_2</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>Z0_2</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>mu0_2</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>k0_2</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_2</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>converged0_2</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>T0_rel_2</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>p0_rel_2</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_rel_2</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>umass0_rel_2</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>hmass0_rel_2</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>smass0_rel_2</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_rel_2</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_rel_2</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_rel_2</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>gamma0_rel_2</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_rel_2</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_rel_2</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_rel_2</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_rel_2</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_rel_2</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_rel_2</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_rel_2</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_rel_2</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_rel_2</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>P0_rel_2</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>rho0_rel_2</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>d0_rel_2</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>u0_rel_2</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>h0_rel_2</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>s0_rel_2</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>cv0_rel_2</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>cp0_rel_2</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>a0_rel_2</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>Z0_rel_2</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>mu0_rel_2</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>k0_rel_2</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_rel_2</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>converged0_rel_2</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>Ma_2</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Ma_rel_2</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>Re_2</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>mass_flow_2</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>rothalpy_2</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>loss_profile_2</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>loss_incidence_2</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>loss_trailing_2</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>loss_secondary_2</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>loss_clearance_2</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>loss_total_2</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>loss_error_2</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>blockage_2</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>h_is_2</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>blade_speed_3</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>v_3</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>v_m_3</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>v_t_3</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>alpha_3</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>w_3</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>w_m_3</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>w_t_3</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>beta_3</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>T_3</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>p_3</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>rhomass_3</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>umass_3</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>hmass_3</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>smass_3</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass_3</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>cvmass_3</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>cpmass_3</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>gamma_3</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor_3</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>speed_sound_3</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus_3</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility_3</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus_3</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility_3</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient_3</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>viscosity_3</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>conductivity_3</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>P_3</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>rho_3</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>d_3</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>u_3</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>h_3</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>s_3</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>cv_3</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>cp_3</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>a_3</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>Z_3</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>mu_3</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>k_3</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>fluid_name_3</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>converged_3</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>T0_3</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>p0_3</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_3</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>umass0_3</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>hmass0_3</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>smass0_3</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_3</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_3</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_3</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>gamma0_3</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_3</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_3</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_3</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_3</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_3</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_3</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_3</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_3</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_3</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>P0_3</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>rho0_3</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>d0_3</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>u0_3</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>h0_3</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>s0_3</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>cv0_3</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>cp0_3</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>a0_3</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>Z0_3</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>mu0_3</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>k0_3</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_3</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>converged0_3</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>T0_rel_3</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>p0_rel_3</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_rel_3</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>umass0_rel_3</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>hmass0_rel_3</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>smass0_rel_3</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_rel_3</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_rel_3</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_rel_3</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>gamma0_rel_3</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_rel_3</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_rel_3</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_rel_3</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_rel_3</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_rel_3</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_rel_3</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_rel_3</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_rel_3</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_rel_3</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>P0_rel_3</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>rho0_rel_3</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>d0_rel_3</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>u0_rel_3</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>h0_rel_3</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>s0_rel_3</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>cv0_rel_3</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>cp0_rel_3</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>a0_rel_3</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>Z0_rel_3</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>mu0_rel_3</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>k0_rel_3</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_rel_3</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>converged0_rel_3</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>Ma_3</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>Ma_rel_3</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>Re_3</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>mass_flow_3</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>rothalpy_3</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>blade_speed_4</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>v_4</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>v_m_4</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>v_t_4</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>alpha_4</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>w_4</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>w_m_4</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>w_t_4</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>beta_4</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>T_4</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>p_4</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>rhomass_4</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>umass_4</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>hmass_4</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>smass_4</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass_4</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>cvmass_4</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>cpmass_4</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>gamma_4</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor_4</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>speed_sound_4</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus_4</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility_4</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus_4</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility_4</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient_4</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>viscosity_4</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>conductivity_4</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>P_4</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>rho_4</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>d_4</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>u_4</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>h_4</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>s_4</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>cv_4</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>cp_4</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>a_4</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>Z_4</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>mu_4</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>k_4</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>fluid_name_4</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>converged_4</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>T0_4</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>p0_4</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_4</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
         <is>
           <t>umass0_4</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
+      <c r="OO1" s="1" t="inlineStr">
         <is>
           <t>hmass0_4</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>smass0_4</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_4</t>
         </is>
       </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_4</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_4</t>
         </is>
       </c>
-      <c r="OR1" s="1" t="inlineStr">
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>gamma0_4</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_4</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="OV1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_4</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
+      <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_4</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_4</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_4</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_4</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_4</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_4</t>
         </is>
       </c>
-      <c r="PA1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_4</t>
         </is>
       </c>
-      <c r="PB1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>P0_4</t>
         </is>
       </c>
-      <c r="PC1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>rho0_4</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>d0_4</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>u0_4</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>h0_4</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
         <is>
           <t>s0_4</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
         <is>
           <t>cv0_4</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>cp0_4</t>
         </is>
       </c>
-      <c r="PJ1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>a0_4</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>Z0_4</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>mu0_4</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>k0_4</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_4</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>converged0_4</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
         <is>
           <t>T0_rel_4</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>p0_rel_4</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_rel_4</t>
         </is>
       </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
         <is>
           <t>umass0_rel_4</t>
         </is>
       </c>
-      <c r="PT1" s="1" t="inlineStr">
+      <c r="PV1" s="1" t="inlineStr">
         <is>
           <t>hmass0_rel_4</t>
         </is>
       </c>
-      <c r="PU1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
         <is>
           <t>smass0_rel_4</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="PX1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_rel_4</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
+      <c r="PY1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_rel_4</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
+      <c r="PZ1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_rel_4</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="QA1" s="1" t="inlineStr">
         <is>
           <t>gamma0_rel_4</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
+      <c r="QB1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_rel_4</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
+      <c r="QC1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_rel_4</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_rel_4</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QE1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_rel_4</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_rel_4</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_rel_4</t>
         </is>
       </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QH1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_rel_4</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_rel_4</t>
         </is>
       </c>
-      <c r="QH1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_rel_4</t>
         </is>
       </c>
-      <c r="QI1" s="1" t="inlineStr">
+      <c r="QK1" s="1" t="inlineStr">
         <is>
           <t>P0_rel_4</t>
         </is>
       </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>rho0_rel_4</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>d0_rel_4</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>u0_rel_4</t>
         </is>
       </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>h0_rel_4</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
         <is>
           <t>s0_rel_4</t>
         </is>
       </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="QQ1" s="1" t="inlineStr">
         <is>
           <t>cv0_rel_4</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>cp0_rel_4</t>
         </is>
       </c>
-      <c r="QQ1" s="1" t="inlineStr">
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>a0_rel_4</t>
         </is>
       </c>
-      <c r="QR1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>Z0_rel_4</t>
         </is>
       </c>
-      <c r="QS1" s="1" t="inlineStr">
+      <c r="QU1" s="1" t="inlineStr">
         <is>
           <t>mu0_rel_4</t>
         </is>
       </c>
-      <c r="QT1" s="1" t="inlineStr">
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>k0_rel_4</t>
         </is>
       </c>
-      <c r="QU1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_rel_4</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
+      <c r="QX1" s="1" t="inlineStr">
         <is>
           <t>converged0_rel_4</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
+      <c r="QY1" s="1" t="inlineStr">
         <is>
           <t>Ma_4</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
+      <c r="QZ1" s="1" t="inlineStr">
         <is>
           <t>Ma_rel_4</t>
         </is>
       </c>
-      <c r="QY1" s="1" t="inlineStr">
+      <c r="RA1" s="1" t="inlineStr">
         <is>
           <t>Re_4</t>
         </is>
       </c>
-      <c r="QZ1" s="1" t="inlineStr">
+      <c r="RB1" s="1" t="inlineStr">
         <is>
           <t>mass_flow_4</t>
         </is>
       </c>
-      <c r="RA1" s="1" t="inlineStr">
+      <c r="RC1" s="1" t="inlineStr">
         <is>
           <t>rothalpy_4</t>
         </is>
       </c>
-      <c r="RB1" s="1" t="inlineStr">
+      <c r="RD1" s="1" t="inlineStr">
         <is>
           <t>loss_profile_4</t>
         </is>
       </c>
-      <c r="RC1" s="1" t="inlineStr">
+      <c r="RE1" s="1" t="inlineStr">
         <is>
           <t>loss_incidence_4</t>
         </is>
       </c>
-      <c r="RD1" s="1" t="inlineStr">
+      <c r="RF1" s="1" t="inlineStr">
         <is>
           <t>loss_trailing_4</t>
         </is>
       </c>
-      <c r="RE1" s="1" t="inlineStr">
+      <c r="RG1" s="1" t="inlineStr">
         <is>
           <t>loss_secondary_4</t>
         </is>
       </c>
-      <c r="RF1" s="1" t="inlineStr">
+      <c r="RH1" s="1" t="inlineStr">
         <is>
           <t>loss_clearance_4</t>
         </is>
       </c>
-      <c r="RG1" s="1" t="inlineStr">
+      <c r="RI1" s="1" t="inlineStr">
         <is>
           <t>loss_total_4</t>
         </is>
       </c>
-      <c r="RH1" s="1" t="inlineStr">
+      <c r="RJ1" s="1" t="inlineStr">
         <is>
           <t>loss_error_4</t>
         </is>
       </c>
-      <c r="RI1" s="1" t="inlineStr">
+      <c r="RK1" s="1" t="inlineStr">
         <is>
           <t>blockage_4</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>h_is_4</t>
         </is>
       </c>
     </row>
@@ -3240,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.63342892254525</v>
+        <v>80.51709292679399</v>
       </c>
       <c r="D2" t="n">
-        <v>80.63342892254525</v>
+        <v>80.51709292679399</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.63342892254525</v>
+        <v>80.51709292679399</v>
       </c>
       <c r="H2" t="n">
-        <v>80.63342892254525</v>
+        <v>80.51709292679399</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3586344157082</v>
+        <v>292.3679815151253</v>
       </c>
       <c r="L2" t="n">
-        <v>132782.2752200276</v>
+        <v>132797.1147163576</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583018602709077</v>
+        <v>1.583144799189505</v>
       </c>
       <c r="N2" t="n">
-        <v>334654.3932778504</v>
+        <v>334661.0798719112</v>
       </c>
       <c r="O2" t="n">
-        <v>418533.5561586862</v>
+        <v>418542.9299618988</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687434.9937277113</v>
+        <v>-687460.9792290343</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7131885957094</v>
+        <v>717.7136117172994</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.647986841933</v>
+        <v>1006.648477798437</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576966450287</v>
+        <v>1.402576823629961</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980077565951</v>
+        <v>0.9994980730455671</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9118430793812</v>
+        <v>342.9173297983504</v>
       </c>
       <c r="W2" t="n">
-        <v>186144.8338177014</v>
+        <v>186165.6303743754</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372160910892308e-06</v>
+        <v>5.371560786967065e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132716.3059641612</v>
+        <v>132731.1468704912</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534869153682143e-06</v>
+        <v>7.534026666519521e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433387560497264</v>
+        <v>0.003433277971285069</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817171219649099e-05</v>
+        <v>1.817216953917954e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582477179421082</v>
+        <v>0.02582547624590024</v>
       </c>
       <c r="AD2" t="n">
-        <v>132782.2752200276</v>
+        <v>132797.1147163576</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583018602709077</v>
+        <v>1.583144799189505</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583018602709077</v>
+        <v>1.583144799189505</v>
       </c>
       <c r="AG2" t="n">
-        <v>334654.3932778504</v>
+        <v>334661.0798719112</v>
       </c>
       <c r="AH2" t="n">
-        <v>418533.5561586862</v>
+        <v>418542.9299618988</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7131885957094</v>
+        <v>717.7136117172994</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.647986841933</v>
+        <v>1006.648477798437</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9118430793812</v>
+        <v>342.9173297983504</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980077565951</v>
+        <v>0.9994980730455671</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817171219649099e-05</v>
+        <v>1.817216953917954e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582477179421082</v>
+        <v>0.02582547624590024</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2351433190479784</v>
+        <v>0.2348003029597291</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2351433190479784</v>
+        <v>0.2348003029597291</v>
       </c>
       <c r="DH2" t="n">
-        <v>183756.6381401409</v>
+        <v>183501.5278309104</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.740321957274894</v>
+        <v>2.736586426086016</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3621,1088 +3636,1099 @@
           <t>b''</t>
         </is>
       </c>
-      <c r="DS2" t="n">
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="DT2" t="n">
         <v>0</v>
       </c>
-      <c r="DT2" t="n">
-        <v>268.7002207322083</v>
-      </c>
       <c r="DU2" t="n">
-        <v>110.6155878012886</v>
+        <v>268.1804739389702</v>
       </c>
       <c r="DV2" t="n">
-        <v>244.8754792887864</v>
+        <v>110.3106907186824</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.69026945496361</v>
+        <v>244.4428729075525</v>
       </c>
       <c r="DX2" t="n">
-        <v>268.7002207322083</v>
+        <v>65.71158542021142</v>
       </c>
       <c r="DY2" t="n">
-        <v>110.6155878012886</v>
+        <v>268.1804739389702</v>
       </c>
       <c r="DZ2" t="n">
-        <v>244.8754792887864</v>
+        <v>110.3106907186824</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.69026945496361</v>
+        <v>244.4428729075525</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.5768488189154</v>
+        <v>65.71158542021141</v>
       </c>
       <c r="EC2" t="n">
-        <v>85923.78275685551</v>
+        <v>259.7161473048152</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.153944218186534</v>
+        <v>86090.0456388311</v>
       </c>
       <c r="EE2" t="n">
-        <v>311223.5767572943</v>
+        <v>1.155556329877644</v>
       </c>
       <c r="EF2" t="n">
-        <v>385684.5267778143</v>
+        <v>311323.0966759897</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.609711975854</v>
+        <v>385824.0477875177</v>
       </c>
       <c r="EH2" t="n">
-        <v>-597750.8436616167</v>
+        <v>3788.592532146</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5374565233992</v>
+        <v>-598134.6083692359</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.204881931627</v>
+        <v>716.5412203934281</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402864390102963</v>
+        <v>1005.209708029685</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993241593965888</v>
+        <v>1.402863756362486</v>
       </c>
       <c r="EM2" t="n">
-        <v>323.0917670972826</v>
+        <v>0.9993247308970437</v>
       </c>
       <c r="EN2" t="n">
-        <v>120458.2636526967</v>
+        <v>323.1785601223965</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.301630537222284e-06</v>
+        <v>120691.3664199217</v>
       </c>
       <c r="EP2" t="n">
-        <v>85865.93579715547</v>
+        <v>8.285596805000106e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.164606186046047e-05</v>
+        <v>86032.13667224873</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003865875517508875</v>
+        <v>1.162356345756746e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.652911225933552e-05</v>
+        <v>0.00386380694214611</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02330775168487713</v>
+        <v>1.653626066205354e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>85923.78275685551</v>
+        <v>0.02331864745558657</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.153944218186534</v>
+        <v>86090.0456388311</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.153944218186534</v>
+        <v>1.155556329877644</v>
       </c>
       <c r="EX2" t="n">
-        <v>311223.5767572943</v>
+        <v>1.155556329877644</v>
       </c>
       <c r="EY2" t="n">
-        <v>385684.5267778143</v>
+        <v>311323.0966759897</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.609711975854</v>
+        <v>385824.0477875177</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5374565233992</v>
+        <v>3788.592532146</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.204881931627</v>
+        <v>716.5412203934281</v>
       </c>
       <c r="FC2" t="n">
-        <v>323.0917670972826</v>
+        <v>1005.209708029685</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993241593965888</v>
+        <v>323.1785601223965</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.652911225933552e-05</v>
+        <v>0.9993247308970437</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02330775168487713</v>
-      </c>
-      <c r="FG2" t="inlineStr">
+        <v>1.653626066205354e-05</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.02331864745558657</v>
+      </c>
+      <c r="FH2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="FH2" t="b">
+      <c r="FI2" t="b">
         <v>1</v>
       </c>
-      <c r="FI2" t="n">
-        <v>295.5937145257022</v>
-      </c>
       <c r="FJ2" t="n">
-        <v>135289.0563422752</v>
+        <v>295.5937333100112</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.595200521149685</v>
+        <v>135297.1574118434</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3683103439</v>
+        <v>1.595295983928476</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310883891</v>
+        <v>336974.3652607619</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.609711981052</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698104.7865642412</v>
+        <v>3788.5925321512</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8561752310915</v>
+        <v>-698099.7794804123</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.777073317969</v>
+        <v>717.8561963319721</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402477415470959</v>
+        <v>1006.777206328809</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995302899335892</v>
+        <v>1.402477559535094</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027749637995</v>
+        <v>0.9995302623589711</v>
       </c>
       <c r="FU2" t="n">
-        <v>189651.7207779301</v>
+        <v>344.8027942245753</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.27282323565593e-06</v>
+        <v>189663.0914370713</v>
       </c>
       <c r="FW2" t="n">
-        <v>135226.2208901553</v>
+        <v>5.272507119983288e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.395015503777948e-06</v>
+        <v>135234.3145511309</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395619871185993</v>
+        <v>7.394572918265568e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832925574863445e-05</v>
+        <v>0.00339562040564056</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606729614415853</v>
+        <v>1.832925782835663e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>135289.0563422752</v>
+        <v>0.02606730014231216</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.595200521149685</v>
+        <v>135297.1574118434</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595200521149685</v>
+        <v>1.595295983928476</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3683103439</v>
+        <v>1.595295983928476</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310883891</v>
+        <v>336974.3652607619</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.609711981052</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8561752310915</v>
+        <v>3788.5925321512</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.777073317969</v>
+        <v>717.8561963319721</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8027749637995</v>
+        <v>1006.777206328809</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995302899335892</v>
+        <v>344.8027942245753</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832925574863445e-05</v>
+        <v>0.9995302623589711</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606729614415853</v>
-      </c>
-      <c r="GN2" t="inlineStr">
+        <v>1.832925782835663e-05</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.02606730014231216</v>
+      </c>
+      <c r="GO2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="GO2" t="b">
+      <c r="GP2" t="b">
         <v>1</v>
       </c>
-      <c r="GP2" t="n">
-        <v>295.5937145257022</v>
-      </c>
       <c r="GQ2" t="n">
-        <v>135289.0563422752</v>
+        <v>295.5937333100112</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595200521149685</v>
+        <v>135297.1574118434</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3683103439</v>
+        <v>1.595295983928476</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310883891</v>
+        <v>336974.3652607619</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.609711981052</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698104.7865642412</v>
+        <v>3788.5925321512</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561752310915</v>
+        <v>-698099.7794804123</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777073317969</v>
+        <v>717.8561963319721</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402477415470959</v>
+        <v>1006.777206328809</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302899335892</v>
+        <v>1.402477559535094</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8027749637995</v>
+        <v>0.9995302623589711</v>
       </c>
       <c r="HB2" t="n">
-        <v>189651.7207779301</v>
+        <v>344.8027942245753</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.27282323565593e-06</v>
+        <v>189663.0914370713</v>
       </c>
       <c r="HD2" t="n">
-        <v>135226.2208901553</v>
+        <v>5.272507119983288e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.395015503777948e-06</v>
+        <v>135234.3145511309</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395619871185993</v>
+        <v>7.394572918265568e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832925574863445e-05</v>
+        <v>0.00339562040564056</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606729614415853</v>
+        <v>1.832925782835663e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>135289.0563422752</v>
+        <v>0.02606730014231216</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.595200521149685</v>
+        <v>135297.1574118434</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595200521149685</v>
+        <v>1.595295983928476</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3683103439</v>
+        <v>1.595295983928476</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310883891</v>
+        <v>336974.3652607619</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.609711981052</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8561752310915</v>
+        <v>3788.5925321512</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.777073317969</v>
+        <v>717.8561963319721</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8027749637995</v>
+        <v>1006.777206328809</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995302899335892</v>
+        <v>344.8027942245753</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832925574863445e-05</v>
+        <v>0.9995302623589711</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606729614415853</v>
-      </c>
-      <c r="HU2" t="inlineStr">
+        <v>1.832925782835663e-05</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>0.02606730014231216</v>
+      </c>
+      <c r="HV2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="HV2" t="b">
+      <c r="HW2" t="b">
         <v>1</v>
       </c>
-      <c r="HW2" t="n">
-        <v>0.8316529484680522</v>
-      </c>
       <c r="HX2" t="n">
-        <v>0.8316529484680522</v>
+        <v>0.8298213651221261</v>
       </c>
       <c r="HY2" t="n">
-        <v>490728.2377264337</v>
+        <v>0.8298213651221261</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.740321957274736</v>
+        <v>490251.2447164503</v>
       </c>
       <c r="IA2" t="n">
+        <v>2.736586426091094</v>
+      </c>
+      <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
-      <c r="IB2" t="n">
-        <v>0.01593373937723827</v>
-      </c>
       <c r="IC2" t="n">
-        <v>-1.788003961088507e-07</v>
+        <v>0.01595362529222805</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01379066172769853</v>
+        <v>-1.786050812290162e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02519178354024262</v>
+        <v>0.01379133206949992</v>
       </c>
       <c r="IF2" t="n">
+        <v>0.02518310637917774</v>
+      </c>
+      <c r="IG2" t="n">
         <v>0</v>
       </c>
-      <c r="IG2" t="n">
-        <v>0.05491600584478332</v>
-      </c>
       <c r="IH2" t="n">
-        <v>3.398878400950878e-12</v>
+        <v>0.05492788513582448</v>
       </c>
       <c r="II2" t="n">
+        <v>2.478434124597584e-13</v>
+      </c>
+      <c r="IJ2" t="n">
         <v>0</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IK2" t="n">
+        <v>384354.2637049005</v>
+      </c>
+      <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
-      <c r="IK2" t="n">
-        <v>268.7002207322083</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>110.6155878012886</v>
-      </c>
       <c r="IM2" t="n">
-        <v>244.8754792887864</v>
+        <v>268.1804739389702</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.6902694549636</v>
+        <v>110.3106907186824</v>
       </c>
       <c r="IO2" t="n">
-        <v>136.2628191981848</v>
+        <v>244.4428729075525</v>
       </c>
       <c r="IP2" t="n">
-        <v>110.6155878012886</v>
+        <v>65.71158542021142</v>
       </c>
       <c r="IQ2" t="n">
-        <v>79.57227928878635</v>
+        <v>135.7627942948553</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.72967878070872</v>
+        <v>110.3106907186824</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.5768488186224</v>
+        <v>79.13967290755249</v>
       </c>
       <c r="IT2" t="n">
-        <v>85923.78275667573</v>
+        <v>35.65661149241665</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.153944218185426</v>
+        <v>259.7161473049218</v>
       </c>
       <c r="IV2" t="n">
-        <v>311223.5767570845</v>
+        <v>86090.04563894865</v>
       </c>
       <c r="IW2" t="n">
-        <v>385684.5267775203</v>
+        <v>1.155556329878747</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.609711975321</v>
+        <v>311323.0966760657</v>
       </c>
       <c r="IY2" t="n">
-        <v>-597750.8436606622</v>
+        <v>385824.0477876243</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5374565233918</v>
+        <v>3788.59253214602</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.20488193162</v>
+        <v>-598134.6083695381</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402864390102968</v>
+        <v>716.5412203934309</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993241593965863</v>
+        <v>1005.209708029688</v>
       </c>
       <c r="JD2" t="n">
-        <v>323.0917670971</v>
+        <v>1.402863756362486</v>
       </c>
       <c r="JE2" t="n">
-        <v>120458.2636524448</v>
+        <v>0.9993247308970442</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.301630537239641e-06</v>
+        <v>323.178560122463</v>
       </c>
       <c r="JG2" t="n">
-        <v>85865.93579697561</v>
+        <v>120691.3664200866</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.164606186048487e-05</v>
+        <v>8.285596804988785e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003865875517513255</v>
+        <v>86032.13667236629</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.652911225932051e-05</v>
+        <v>1.162356345755158e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02330775168485426</v>
+        <v>0.003863806942144525</v>
       </c>
       <c r="JL2" t="n">
-        <v>85923.78275667573</v>
+        <v>1.6536260662059e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.153944218185426</v>
+        <v>0.02331864745559491</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.153944218185426</v>
+        <v>86090.04563894865</v>
       </c>
       <c r="JO2" t="n">
-        <v>311223.5767570845</v>
+        <v>1.155556329878747</v>
       </c>
       <c r="JP2" t="n">
-        <v>385684.5267775203</v>
+        <v>1.155556329878747</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.609711975321</v>
+        <v>311323.0966760657</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5374565233918</v>
+        <v>385824.0477876243</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.20488193162</v>
+        <v>3788.59253214602</v>
       </c>
       <c r="JT2" t="n">
-        <v>323.0917670971</v>
+        <v>716.5412203934309</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993241593965863</v>
+        <v>1005.209708029688</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.652911225932051e-05</v>
+        <v>323.178560122463</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02330775168485426</v>
-      </c>
-      <c r="JX2" t="inlineStr">
+        <v>0.9993247308970442</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>1.6536260662059e-05</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>0.02331864745559491</v>
+      </c>
+      <c r="JZ2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="JY2" t="b">
+      <c r="KA2" t="b">
         <v>1</v>
       </c>
-      <c r="JZ2" t="n">
-        <v>295.5937145256028</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>135289.0563423656</v>
-      </c>
       <c r="KB2" t="n">
-        <v>1.59520052115129</v>
+        <v>295.5937333101111</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3683102719</v>
+        <v>135297.1574119946</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310882884</v>
+        <v>1.595295983929719</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.609711980521</v>
+        <v>336974.3652608333</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698104.7865638077</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8561752310876</v>
+        <v>3788.59253215122</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.777073317968</v>
+        <v>-698099.7794806962</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477415470965</v>
+        <v>717.8561963319769</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995302899335876</v>
+        <v>1006.777206328815</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8027749637417</v>
+        <v>1.402477559535092</v>
       </c>
       <c r="KL2" t="n">
-        <v>189651.7207780573</v>
+        <v>0.9995302623589719</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.272823235652392e-06</v>
+        <v>344.8027942246335</v>
       </c>
       <c r="KN2" t="n">
-        <v>135226.2208902455</v>
+        <v>189663.0914372832</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.395015503773019e-06</v>
+        <v>5.272507119977397e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395619871187158</v>
+        <v>135234.3145512822</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925574862964e-05</v>
+        <v>7.394572918257296e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606729614415115</v>
+        <v>0.003395620405639414</v>
       </c>
       <c r="KS2" t="n">
-        <v>135289.0563423656</v>
+        <v>1.832925782836148e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.59520052115129</v>
+        <v>0.02606730014231966</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.59520052115129</v>
+        <v>135297.1574119946</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3683102719</v>
+        <v>1.595295983929719</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310882884</v>
+        <v>1.595295983929719</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.609711980521</v>
+        <v>336974.3652608333</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8561752310876</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.777073317968</v>
+        <v>3788.59253215122</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8027749637417</v>
+        <v>717.8561963319769</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995302899335876</v>
+        <v>1006.777206328815</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925574862964e-05</v>
+        <v>344.8027942246335</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606729614415115</v>
-      </c>
-      <c r="LE2" t="inlineStr">
+        <v>0.9995302623589719</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>1.832925782836148e-05</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>0.02606730014231966</v>
+      </c>
+      <c r="LG2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="LF2" t="b">
+      <c r="LH2" t="b">
         <v>1</v>
       </c>
-      <c r="LG2" t="n">
-        <v>268.8436129121171</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>97121.60601798874</v>
-      </c>
       <c r="LI2" t="n">
-        <v>1.259315350812133</v>
+        <v>268.9149995864311</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317845.7587681435</v>
+        <v>97217.51293092281</v>
       </c>
       <c r="LK2" t="n">
-        <v>394968.3047256393</v>
+        <v>1.260223877100544</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.60971197532</v>
+        <v>317896.7664459503</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623575.2181557413</v>
+        <v>395039.8159448979</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8078758001399</v>
+        <v>3788.592532146019</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.539803619874</v>
+        <v>-623769.5432703047</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402802393176045</v>
+        <v>716.8101497221987</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993679210281223</v>
+        <v>1005.542677166305</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.8155301225783</v>
+        <v>1.402801951892011</v>
       </c>
       <c r="LS2" t="n">
-        <v>136156.7385582221</v>
+        <v>0.9993682450412389</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.344476744883169e-06</v>
+        <v>328.8592385360113</v>
       </c>
       <c r="LU2" t="n">
-        <v>97060.52628692308</v>
+        <v>136291.1944007565</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.030284955434792e-05</v>
+        <v>7.337231171806718e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003732875208115008</v>
+        <v>97156.40487734959</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.700135543541983e-05</v>
+        <v>1.029268220929337e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02402858775676756</v>
+        <v>0.003731886927815498</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97121.60601798874</v>
+        <v>1.700496896182161e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.259315350812133</v>
+        <v>0.02403411266992757</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.259315350812133</v>
+        <v>97217.51293092281</v>
       </c>
       <c r="MC2" t="n">
-        <v>317845.7587681435</v>
+        <v>1.260223877100544</v>
       </c>
       <c r="MD2" t="n">
-        <v>394968.3047256393</v>
+        <v>1.260223877100544</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.60971197532</v>
+        <v>317896.7664459503</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8078758001399</v>
+        <v>395039.8159448979</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.539803619874</v>
+        <v>3788.592532146019</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.8155301225783</v>
+        <v>716.8101497221987</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993679210281223</v>
+        <v>1005.542677166305</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.700135543541983e-05</v>
+        <v>328.8592385360113</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02402858775676756</v>
-      </c>
-      <c r="ML2" t="inlineStr">
+        <v>0.9993682450412389</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>1.700496896182161e-05</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>0.02403411266992757</v>
+      </c>
+      <c r="MN2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="MM2" t="b">
+      <c r="MO2" t="b">
         <v>1</v>
       </c>
-      <c r="MN2" t="n">
-        <v>0.831652948468522</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>0.4217464914766251</v>
-      </c>
       <c r="MP2" t="n">
-        <v>247906.0168995833</v>
+        <v>0.8298213651219554</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.740321957272104</v>
+        <v>0.4200860175978577</v>
       </c>
       <c r="MR2" t="n">
-        <v>381305.730760419</v>
+        <v>247234.4528775175</v>
       </c>
       <c r="MS2" t="n">
+        <v>2.736586426093706</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>381377.2419797779</v>
+      </c>
+      <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
-      <c r="MT2" t="n">
-        <v>135.2466584080788</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>123.2132876980791</v>
-      </c>
       <c r="MV2" t="n">
-        <v>-55.76866813168428</v>
+        <v>135.273509197177</v>
       </c>
       <c r="MW2" t="n">
-        <v>-24.35240832620558</v>
+        <v>123.0428316975635</v>
       </c>
       <c r="MX2" t="n">
-        <v>253.0894805095669</v>
+        <v>-56.20839668914053</v>
       </c>
       <c r="MY2" t="n">
-        <v>123.2132876980791</v>
+        <v>-24.55185721834646</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-221.0718681316843</v>
+        <v>253.3908559911494</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.86711134942018</v>
+        <v>123.0428316975635</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.8579071228905</v>
+        <v>-221.5115966891405</v>
       </c>
       <c r="NC2" t="n">
-        <v>60000.00000008855</v>
+        <v>-60.94918436564583</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8831276059861962</v>
+        <v>236.8531194511331</v>
       </c>
       <c r="NE2" t="n">
-        <v>295000.8106193306</v>
+        <v>59999.99999785647</v>
       </c>
       <c r="NF2" t="n">
-        <v>362941.162153338</v>
+        <v>0.8831455139087857</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.930300643679</v>
+        <v>294997.3791191726</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537102.3760699802</v>
+        <v>362936.352994834</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0325594644862</v>
+        <v>3799.909996467897</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487930699376</v>
+        <v>-537084.1833021316</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852310865057</v>
+        <v>716.032497584975</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992718931663098</v>
+        <v>1004.487937157484</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6114265263915</v>
+        <v>1.402852441118814</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.9674338207</v>
+        <v>0.9992718290086211</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188919732713984e-05</v>
+        <v>308.6083020020596</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.39511186678</v>
+        <v>84109.96984042831</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878794470878e-05</v>
+        <v>1.188919698695861e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004235350389689312</v>
+        <v>59956.39126047231</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534216699777433e-05</v>
+        <v>1.667878901609734e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150522933714974</v>
+        <v>0.004235436775310801</v>
       </c>
       <c r="NU2" t="n">
-        <v>60000.00000008855</v>
+        <v>1.534191315934591e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8831276059861962</v>
+        <v>0.02150484610156793</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8831276059861962</v>
+        <v>59999.99999785647</v>
       </c>
       <c r="NX2" t="n">
-        <v>295000.8106193306</v>
+        <v>0.8831455139087857</v>
       </c>
       <c r="NY2" t="n">
-        <v>362941.162153338</v>
+        <v>0.8831455139087857</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.930300643679</v>
+        <v>294997.3791191726</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0325594644862</v>
+        <v>362936.352994834</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487930699376</v>
+        <v>3799.909996467897</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6114265263915</v>
+        <v>716.032497584975</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992718931663098</v>
+        <v>1004.487937157484</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534216699777433e-05</v>
+        <v>308.6083020020596</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150522933714974</v>
-      </c>
-      <c r="OG2" t="inlineStr">
+        <v>0.9992718290086211</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>1.534191315934591e-05</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>0.02150484610156793</v>
+      </c>
+      <c r="OI2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="OH2" t="b">
+      <c r="OJ2" t="b">
         <v>1</v>
       </c>
-      <c r="OI2" t="n">
-        <v>245.9911173344623</v>
-      </c>
-      <c r="OJ2" t="n">
-        <v>68472.19874785979</v>
-      </c>
       <c r="OK2" t="n">
-        <v>0.9703827872834022</v>
+        <v>245.9899579036</v>
       </c>
       <c r="OL2" t="n">
-        <v>301524.9414662153</v>
+        <v>68475.90311775028</v>
       </c>
       <c r="OM2" t="n">
-        <v>372086.9914584132</v>
+        <v>0.9704399109141548</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.93030065225</v>
+        <v>301524.1004806163</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562662.1089921131</v>
+        <v>372085.8141401936</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2042382643683</v>
+        <v>3799.909996467036</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.719254177958</v>
+        <v>-562653.8859282014</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402839023422662</v>
+        <v>716.2042342648067</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992991876489368</v>
+        <v>1004.719346183368</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5123178630325</v>
+        <v>1.40283915971919</v>
       </c>
       <c r="OU2" t="n">
-        <v>95988.32269671743</v>
+        <v>0.9992991345094377</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.041793388930837e-05</v>
+        <v>314.5115752504288</v>
       </c>
       <c r="OW2" t="n">
-        <v>68424.33172590542</v>
+        <v>95993.51993898436</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.461468420335921e-05</v>
+        <v>1.041736984575232e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004078408825700776</v>
+        <v>68428.02988063123</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582419098949267e-05</v>
+        <v>1.461389436089922e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02223540545772361</v>
+        <v>0.004078428943613929</v>
       </c>
       <c r="PB2" t="n">
-        <v>68472.19874785979</v>
+        <v>1.582413100516232e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9703827872834022</v>
+        <v>0.02223531517186058</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9703827872834022</v>
+        <v>68475.90311775028</v>
       </c>
       <c r="PE2" t="n">
-        <v>301524.9414662153</v>
+        <v>0.9704399109141548</v>
       </c>
       <c r="PF2" t="n">
-        <v>372086.9914584132</v>
+        <v>0.9704399109141548</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.93030065225</v>
+        <v>301524.1004806163</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2042382643683</v>
+        <v>372085.8141401936</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.719254177958</v>
+        <v>3799.909996467036</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5123178630325</v>
+        <v>716.2042342648067</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992991876489368</v>
+        <v>1004.719346183368</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582419098949267e-05</v>
+        <v>314.5115752504288</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02223540545772361</v>
-      </c>
-      <c r="PN2" t="inlineStr">
+        <v>0.9992991345094377</v>
+      </c>
+      <c r="PN2" t="n">
+        <v>1.582413100516232e-05</v>
+      </c>
+      <c r="PO2" t="n">
+        <v>0.02223531517186058</v>
+      </c>
+      <c r="PP2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="PO2" t="b">
+      <c r="PQ2" t="b">
         <v>1</v>
       </c>
-      <c r="PP2" t="n">
-        <v>268.833047767935</v>
-      </c>
-      <c r="PQ2" t="n">
-        <v>93363.60412959165</v>
-      </c>
       <c r="PR2" t="n">
-        <v>1.21060593701324</v>
+        <v>268.9044324062121</v>
       </c>
       <c r="PS2" t="n">
-        <v>317846.9217261657</v>
+        <v>93456.81904750386</v>
       </c>
       <c r="PT2" t="n">
-        <v>394968.3047254386</v>
+        <v>1.211492551640722</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.930300643679</v>
+        <v>317897.9309856739</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626578.5393023271</v>
+        <v>395039.8159447977</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7955152658036</v>
+        <v>3799.909996458465</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.46238265372</v>
+        <v>-626772.8248475575</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402718573484479</v>
+        <v>716.7977888235076</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993921257919464</v>
+        <v>1005.465250387831</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.8071694777134</v>
+        <v>1.402718125063023</v>
       </c>
       <c r="QB2" t="n">
-        <v>130883.6375549223</v>
+        <v>0.9993924304690657</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.640374447725547e-06</v>
+        <v>328.850869992882</v>
       </c>
       <c r="QD2" t="n">
-        <v>93307.1251988883</v>
+        <v>131014.3114359508</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.071729514620084e-05</v>
+        <v>7.632753926191279e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003732511350030044</v>
+        <v>93400.31264660848</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.700025151104284e-05</v>
+        <v>1.070660227641445e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02402644315515578</v>
+        <v>0.003731523193868759</v>
       </c>
       <c r="QI2" t="n">
-        <v>93363.60412959165</v>
+        <v>1.7003864661522e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.21060593701324</v>
+        <v>0.02403196740247236</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.21060593701324</v>
+        <v>93456.81904750386</v>
       </c>
       <c r="QL2" t="n">
-        <v>317846.9217261657</v>
+        <v>1.211492551640722</v>
       </c>
       <c r="QM2" t="n">
-        <v>394968.3047254386</v>
+        <v>1.211492551640722</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.930300643679</v>
+        <v>317897.9309856739</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7955152658036</v>
+        <v>395039.8159447977</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.46238265372</v>
+        <v>3799.909996458465</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.8071694777134</v>
+        <v>716.7977888235076</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993921257919464</v>
+        <v>1005.465250387831</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.700025151104284e-05</v>
+        <v>328.850869992882</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02402644315515578</v>
-      </c>
-      <c r="QU2" t="inlineStr">
+        <v>0.9993924304690657</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>1.7003864661522e-05</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>0.02403196740247236</v>
+      </c>
+      <c r="QW2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="QV2" t="b">
+      <c r="QX2" t="b">
         <v>1</v>
       </c>
-      <c r="QW2" t="n">
-        <v>0.4382425496371339</v>
-      </c>
-      <c r="QX2" t="n">
-        <v>0.8200910878713801</v>
-      </c>
       <c r="QY2" t="n">
-        <v>379651.6229980186</v>
+        <v>0.4383339927007996</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.740321957346736</v>
+        <v>0.821075954040466</v>
       </c>
       <c r="RA2" t="n">
-        <v>381305.730760419</v>
+        <v>380117.7037296589</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02447341407688595</v>
+        <v>2.736586425993109</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.00191819942120034</v>
+        <v>381377.2419797779</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01189011779732759</v>
+        <v>0.02434338147107242</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03198070534311114</v>
+        <v>0.001878260471377819</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04237533103259179</v>
+        <v>0.01189985195867785</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1126377676711168</v>
+        <v>0.03191600446276638</v>
       </c>
       <c r="RH2" t="n">
-        <v>-6.632952520568836e-11</v>
+        <v>0.04236690797682069</v>
       </c>
       <c r="RI2" t="n">
+        <v>0.1124044063407152</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>2.818120736769458e-12</v>
+      </c>
+      <c r="RK2" t="n">
         <v>0</v>
+      </c>
+      <c r="RL2" t="n">
+        <v>360270.8205822113</v>
       </c>
     </row>
     <row r="3">
@@ -4713,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.70781348251367</v>
+        <v>80.60702140318358</v>
       </c>
       <c r="D3" t="n">
-        <v>80.70781348251367</v>
+        <v>80.60702140318358</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.70781348251367</v>
+        <v>80.60702140318358</v>
       </c>
       <c r="H3" t="n">
-        <v>80.70781348251367</v>
+        <v>80.60702140318358</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3526508591667</v>
+        <v>292.3607573312513</v>
       </c>
       <c r="L3" t="n">
-        <v>132772.776323624</v>
+        <v>132785.645465731</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582937821075637</v>
+        <v>1.58304726395176</v>
       </c>
       <c r="N3" t="n">
-        <v>334650.1128485569</v>
+        <v>334655.9119384789</v>
       </c>
       <c r="O3" t="n">
-        <v>418527.5555098248</v>
+        <v>418535.6851388432</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687418.3590767304</v>
+        <v>-687440.8955615896</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7129177628011</v>
+        <v>717.7132846903638</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647672584644</v>
+        <v>1006.648098343234</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577057861084</v>
+        <v>1.402576934015541</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979659654309</v>
+        <v>0.999498022584433</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9083307032737</v>
+        <v>342.9130892321466</v>
       </c>
       <c r="W3" t="n">
-        <v>186131.5217509475</v>
+        <v>186149.5569908438</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372545126118111e-06</v>
+        <v>5.372024603041023e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132706.8061663551</v>
+        <v>132719.6765299017</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535408536216644e-06</v>
+        <v>7.534677797189331e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433457717826092</v>
+        <v>0.003433362669955022</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817141942490172e-05</v>
+        <v>1.817181606880044e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582432083490091</v>
+        <v>0.02582493179007944</v>
       </c>
       <c r="AD3" t="n">
-        <v>132772.776323624</v>
+        <v>132785.645465731</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582937821075637</v>
+        <v>1.58304726395176</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582937821075637</v>
+        <v>1.58304726395176</v>
       </c>
       <c r="AG3" t="n">
-        <v>334650.1128485569</v>
+        <v>334655.9119384789</v>
       </c>
       <c r="AH3" t="n">
-        <v>418527.5555098248</v>
+        <v>418535.6851388432</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7129177628011</v>
+        <v>717.7132846903638</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647672584644</v>
+        <v>1006.648098343234</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9083307032737</v>
+        <v>342.9130892321466</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979659654309</v>
+        <v>0.999498022584433</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817141942490172e-05</v>
+        <v>1.817181606880044e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582432083490091</v>
+        <v>0.02582493179007944</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2353626501782249</v>
+        <v>0.2350654551673119</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353626501782249</v>
+        <v>0.2350654551673119</v>
       </c>
       <c r="DH3" t="n">
-        <v>183919.7315730573</v>
+        <v>183698.7335327049</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.742709943850523</v>
+        <v>2.739474097883853</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5094,1088 +5120,1099 @@
           <t>b''</t>
         </is>
       </c>
-      <c r="DS3" t="n">
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="DT3" t="n">
         <v>0</v>
       </c>
-      <c r="DT3" t="n">
-        <v>270.1892348626343</v>
-      </c>
       <c r="DU3" t="n">
-        <v>111.1594610757349</v>
+        <v>269.8984361103117</v>
       </c>
       <c r="DV3" t="n">
-        <v>246.2636734254728</v>
+        <v>110.9412339574054</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.70634913510118</v>
+        <v>246.0431027742908</v>
       </c>
       <c r="DX3" t="n">
-        <v>270.1892348626343</v>
+        <v>65.72930943218435</v>
       </c>
       <c r="DY3" t="n">
-        <v>111.1594610757349</v>
+        <v>269.8984361103117</v>
       </c>
       <c r="DZ3" t="n">
-        <v>246.2636734254728</v>
+        <v>110.9412339574054</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.70634913510119</v>
+        <v>246.0431027742908</v>
       </c>
       <c r="EB3" t="n">
-        <v>259.1762751342602</v>
+        <v>65.72930943218435</v>
       </c>
       <c r="EC3" t="n">
-        <v>85445.68968293426</v>
+        <v>259.2546785081677</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.14929893667237</v>
+        <v>85538.65463638502</v>
       </c>
       <c r="EE3" t="n">
-        <v>310937.3972638179</v>
+        <v>1.150201058108026</v>
       </c>
       <c r="EF3" t="n">
-        <v>385283.3197705679</v>
+        <v>310993.4114340668</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.663460333076</v>
+        <v>385361.8481811936</v>
       </c>
       <c r="EH3" t="n">
-        <v>-596648.3636158359</v>
+        <v>3788.654478386301</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5266811096819</v>
+        <v>-596864.5505913768</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.191028907674</v>
+        <v>716.5287823817417</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.40286615335934</v>
+        <v>1005.193723732596</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993225343370902</v>
+        <v>1.402865800298115</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.8420505216656</v>
+        <v>0.9993228550508733</v>
       </c>
       <c r="EN3" t="n">
-        <v>119787.9683026414</v>
+        <v>322.8909420331811</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.348083819850121e-06</v>
+        <v>119918.3065430453</v>
       </c>
       <c r="EP3" t="n">
-        <v>85388.02366554644</v>
+        <v>8.339010354862246e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.171124423627448e-05</v>
+        <v>85480.95371457639</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003871836181384519</v>
+        <v>1.169851243516809e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.6508547358953e-05</v>
+        <v>0.003870667995148947</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02327640878262657</v>
+        <v>1.651257339041816e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>85445.68968293426</v>
+        <v>0.02328254445780822</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.14929893667237</v>
+        <v>85538.65463638502</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.14929893667237</v>
+        <v>1.150201058108026</v>
       </c>
       <c r="EX3" t="n">
-        <v>310937.3972638179</v>
+        <v>1.150201058108026</v>
       </c>
       <c r="EY3" t="n">
-        <v>385283.3197705679</v>
+        <v>310993.4114340668</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.663460333076</v>
+        <v>385361.8481811936</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5266811096819</v>
+        <v>3788.654478386301</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.191028907674</v>
+        <v>716.5287823817417</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.8420505216656</v>
+        <v>1005.193723732596</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993225343370902</v>
+        <v>322.8909420331811</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.6508547358953e-05</v>
+        <v>0.9993228550508733</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02327640878262657</v>
-      </c>
-      <c r="FG3" t="inlineStr">
+        <v>1.651257339041816e-05</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0.02328254445780822</v>
+      </c>
+      <c r="FH3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="FH3" t="b">
+      <c r="FI3" t="b">
         <v>1</v>
       </c>
-      <c r="FI3" t="n">
-        <v>295.5936557654641</v>
-      </c>
       <c r="FJ3" t="n">
-        <v>135263.7146905865</v>
+        <v>295.5936655843844</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594901895781954</v>
+        <v>135267.9492286744</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.3778504317</v>
+        <v>1.594951795472837</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.431088389</v>
+        <v>336974.3762564479</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.663460331028</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698120.4516158929</v>
+        <v>3788.654478391502</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8561092235954</v>
+        <v>-698117.8338118483</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.776657235172</v>
+        <v>717.8561202533263</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402476964811321</v>
+        <v>1006.776726761779</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995303761925526</v>
+        <v>1.402477040115637</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8027147129953</v>
+        <v>0.9995303617788143</v>
       </c>
       <c r="FU3" t="n">
-        <v>189616.1512534014</v>
+        <v>344.8027247808847</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.273812348736098e-06</v>
+        <v>189622.0948469083</v>
       </c>
       <c r="FW3" t="n">
-        <v>135200.9024111929</v>
+        <v>5.273647044176743e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.396400335839865e-06</v>
+        <v>135205.1330774539</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395618199302468</v>
+        <v>7.396168897131575e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832924924291128e-05</v>
+        <v>0.003395618478668783</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606728363725052</v>
+        <v>1.832925033001352e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>135263.7146905865</v>
+        <v>0.0260672857271427</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594901895781954</v>
+        <v>135267.9492286744</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594901895781954</v>
+        <v>1.594951795472837</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.3778504317</v>
+        <v>1.594951795472837</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.431088389</v>
+        <v>336974.3762564479</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.663460331028</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8561092235954</v>
+        <v>3788.654478391502</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.776657235172</v>
+        <v>717.8561202533263</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8027147129953</v>
+        <v>1006.776726761779</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995303761925526</v>
+        <v>344.8027247808847</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832924924291128e-05</v>
+        <v>0.9995303617788143</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606728363725052</v>
-      </c>
-      <c r="GN3" t="inlineStr">
+        <v>1.832925033001352e-05</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>0.0260672857271427</v>
+      </c>
+      <c r="GO3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="GO3" t="b">
+      <c r="GP3" t="b">
         <v>1</v>
       </c>
-      <c r="GP3" t="n">
-        <v>295.5936557654641</v>
-      </c>
       <c r="GQ3" t="n">
-        <v>135263.7146905865</v>
+        <v>295.5936655843844</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594901895781954</v>
+        <v>135267.9492286744</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.3778504317</v>
+        <v>1.594951795472837</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.431088389</v>
+        <v>336974.3762564479</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.663460331028</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698120.4516158929</v>
+        <v>3788.654478391502</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8561092235954</v>
+        <v>-698117.8338118483</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776657235172</v>
+        <v>717.8561202533263</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402476964811321</v>
+        <v>1006.776726761779</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995303761925526</v>
+        <v>1.402477040115637</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8027147129953</v>
+        <v>0.9995303617788143</v>
       </c>
       <c r="HB3" t="n">
-        <v>189616.1512534014</v>
+        <v>344.8027247808847</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.273812348736098e-06</v>
+        <v>189622.0948469083</v>
       </c>
       <c r="HD3" t="n">
-        <v>135200.9024111929</v>
+        <v>5.273647044176743e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.396400335839865e-06</v>
+        <v>135205.1330774539</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395618199302468</v>
+        <v>7.396168897131575e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832924924291128e-05</v>
+        <v>0.003395618478668783</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606728363725052</v>
+        <v>1.832925033001352e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>135263.7146905865</v>
+        <v>0.0260672857271427</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594901895781954</v>
+        <v>135267.9492286744</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594901895781954</v>
+        <v>1.594951795472837</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.3778504317</v>
+        <v>1.594951795472837</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.431088389</v>
+        <v>336974.3762564479</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.663460331028</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8561092235954</v>
+        <v>3788.654478391502</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.776657235172</v>
+        <v>717.8561202533263</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8027147129953</v>
+        <v>1006.776726761779</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995303761925526</v>
+        <v>344.8027247808847</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832924924291128e-05</v>
+        <v>0.9995303617788143</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606728363725052</v>
-      </c>
-      <c r="HU3" t="inlineStr">
+        <v>1.832925033001352e-05</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>0.0260672857271427</v>
+      </c>
+      <c r="HV3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="HV3" t="b">
+      <c r="HW3" t="b">
         <v>1</v>
       </c>
-      <c r="HW3" t="n">
-        <v>0.8369084337868873</v>
-      </c>
       <c r="HX3" t="n">
-        <v>0.8369084337868873</v>
+        <v>0.8358811009401937</v>
       </c>
       <c r="HY3" t="n">
-        <v>492073.4419539075</v>
+        <v>0.8358811009401937</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.742709943799571</v>
+        <v>491809.7221654195</v>
       </c>
       <c r="IA3" t="n">
+        <v>2.739474097841065</v>
+      </c>
+      <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
-      <c r="IB3" t="n">
-        <v>0.01595026541612997</v>
-      </c>
       <c r="IC3" t="n">
-        <v>-1.79395729891294e-07</v>
+        <v>0.01597187822282696</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01379120572413062</v>
+        <v>-1.792898703477757e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02518431608788884</v>
+        <v>0.01379193482753116</v>
       </c>
       <c r="IF3" t="n">
+        <v>0.0251748243243768</v>
+      </c>
+      <c r="IG3" t="n">
         <v>0</v>
       </c>
-      <c r="IG3" t="n">
-        <v>0.05492560783241954</v>
-      </c>
       <c r="IH3" t="n">
-        <v>9.384992782912605e-13</v>
+        <v>0.05493845808486457</v>
       </c>
       <c r="II3" t="n">
+        <v>-6.694506060611616e-13</v>
+      </c>
+      <c r="IJ3" t="n">
         <v>0</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IK3" t="n">
+        <v>383878.7067615397</v>
+      </c>
+      <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
-      <c r="IK3" t="n">
-        <v>270.1892348626343</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>111.1594610757349</v>
-      </c>
       <c r="IM3" t="n">
-        <v>246.2636734254728</v>
+        <v>269.8984361103117</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.70634913510118</v>
+        <v>110.9412339574054</v>
       </c>
       <c r="IO3" t="n">
-        <v>137.5173590639542</v>
+        <v>246.0431027742908</v>
       </c>
       <c r="IP3" t="n">
-        <v>111.1594610757349</v>
+        <v>65.72930943218435</v>
       </c>
       <c r="IQ3" t="n">
-        <v>80.96047342547283</v>
+        <v>137.211112130154</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.06687429046098</v>
+        <v>110.9412339574054</v>
       </c>
       <c r="IS3" t="n">
-        <v>259.1762751341533</v>
+        <v>80.73990277429084</v>
       </c>
       <c r="IT3" t="n">
-        <v>85445.68968281627</v>
+        <v>36.04607188452823</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.149298936671258</v>
+        <v>259.2546785082678</v>
       </c>
       <c r="IV3" t="n">
-        <v>310937.3972637413</v>
+        <v>85538.65463650064</v>
       </c>
       <c r="IW3" t="n">
-        <v>385283.3197704607</v>
+        <v>1.150201058109136</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.663460333058</v>
+        <v>310993.4114341385</v>
       </c>
       <c r="IY3" t="n">
-        <v>-596648.3636155332</v>
+        <v>385361.848181294</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.526681109679</v>
+        <v>3788.654478386301</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.191028907671</v>
+        <v>-596864.5505916557</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402866153359341</v>
+        <v>716.5287823817441</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993225343370897</v>
+        <v>1005.193723732599</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.842050521599</v>
+        <v>1.402865800298115</v>
       </c>
       <c r="JE3" t="n">
-        <v>119787.9683024761</v>
+        <v>0.9993228550508737</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.348083819861644e-06</v>
+        <v>322.8909420332435</v>
       </c>
       <c r="JG3" t="n">
-        <v>85388.02366542848</v>
+        <v>119918.3065432075</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.171124423629066e-05</v>
+        <v>8.339010354850972e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003871836181386114</v>
+        <v>85480.95371469198</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650854735894751e-05</v>
+        <v>1.169851243515227e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.0232764087826182</v>
+        <v>0.003870667995147456</v>
       </c>
       <c r="JL3" t="n">
-        <v>85445.68968281627</v>
+        <v>1.65125733904233e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.149298936671258</v>
+        <v>0.02328254445781607</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.149298936671258</v>
+        <v>85538.65463650064</v>
       </c>
       <c r="JO3" t="n">
-        <v>310937.3972637413</v>
+        <v>1.150201058109136</v>
       </c>
       <c r="JP3" t="n">
-        <v>385283.3197704607</v>
+        <v>1.150201058109136</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.663460333058</v>
+        <v>310993.4114341385</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.526681109679</v>
+        <v>385361.848181294</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.191028907671</v>
+        <v>3788.654478386301</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.842050521599</v>
+        <v>716.5287823817441</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993225343370897</v>
+        <v>1005.193723732599</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.650854735894751e-05</v>
+        <v>322.8909420332435</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.0232764087826182</v>
-      </c>
-      <c r="JX3" t="inlineStr">
+        <v>0.9993228550508737</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>1.65125733904233e-05</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>0.02328254445781607</v>
+      </c>
+      <c r="JZ3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="JY3" t="b">
+      <c r="KA3" t="b">
         <v>1</v>
       </c>
-      <c r="JZ3" t="n">
-        <v>295.5936557655563</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>135263.7146873375</v>
-      </c>
       <c r="KB3" t="n">
-        <v>1.594901895743127</v>
+        <v>295.5936655843844</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.3778505046</v>
+        <v>135267.9492286741</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310884895</v>
+        <v>1.594951795472834</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.66346033826</v>
+        <v>336974.3762564479</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698120.4516182797</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8561092235914</v>
+        <v>3788.654478391502</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.776657235122</v>
+        <v>-698117.8338118485</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402476964811258</v>
+        <v>717.8561202533263</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995303761925649</v>
+        <v>1006.776726761779</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8027147130456</v>
+        <v>1.402477040115637</v>
       </c>
       <c r="KL3" t="n">
-        <v>189616.1512488407</v>
+        <v>0.9995303617788143</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.273812348862944e-06</v>
+        <v>344.8027247808847</v>
       </c>
       <c r="KN3" t="n">
-        <v>135200.9024079471</v>
+        <v>189622.094846908</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.396400336017435e-06</v>
+        <v>5.273647044176752e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395618199301096</v>
+        <v>135205.1330774536</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832924924291528e-05</v>
+        <v>7.396168897131588e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606728363725635</v>
+        <v>0.003395618478668783</v>
       </c>
       <c r="KS3" t="n">
-        <v>135263.7146873375</v>
+        <v>1.832925033001352e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594901895743127</v>
+        <v>0.0260672857271427</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.594901895743127</v>
+        <v>135267.9492286741</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.3778505046</v>
+        <v>1.594951795472834</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310884895</v>
+        <v>1.594951795472834</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.66346033826</v>
+        <v>336974.3762564479</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8561092235914</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.776657235122</v>
+        <v>3788.654478391502</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8027147130456</v>
+        <v>717.8561202533263</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995303761925649</v>
+        <v>1006.776726761779</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832924924291528e-05</v>
+        <v>344.8027247808847</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606728363725635</v>
-      </c>
-      <c r="LE3" t="inlineStr">
+        <v>0.9995303617788143</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>1.832925033001352e-05</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>0.0260672857271427</v>
+      </c>
+      <c r="LG3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="LF3" t="b">
+      <c r="LH3" t="b">
         <v>1</v>
       </c>
-      <c r="LG3" t="n">
-        <v>268.6145399623552</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>96814.79254440499</v>
-      </c>
       <c r="LI3" t="n">
-        <v>1.256408943391981</v>
+        <v>268.6509379636765</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317682.0796468758</v>
+        <v>96863.64304203718</v>
       </c>
       <c r="LK3" t="n">
-        <v>394738.8317924232</v>
+        <v>1.256872382294029</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.663460339689</v>
+        <v>317708.0866361827</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622951.260678907</v>
+        <v>394775.2928271905</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.8005988039788</v>
+        <v>3788.654478392929</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.530611208703</v>
+        <v>-623050.2864133536</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402803810273717</v>
+        <v>716.8017536794897</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993668811003646</v>
+        <v>1005.532072947976</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.6752350583353</v>
+        <v>1.402803589397452</v>
       </c>
       <c r="LS3" t="n">
-        <v>135726.6042321887</v>
+        <v>0.999367045084453</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.367752296294774e-06</v>
+        <v>328.6975309814032</v>
       </c>
       <c r="LU3" t="n">
-        <v>96753.80351704743</v>
+        <v>135795.0899789784</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.033551099439523e-05</v>
+        <v>7.364036506436309e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003736050108515326</v>
+        <v>96802.63937541435</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.698975747820092e-05</v>
+        <v>1.033029684368273e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02401085594978529</v>
+        <v>0.003735545299435511</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96814.79254440499</v>
+        <v>1.699160059263386e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.256408943391981</v>
+        <v>0.02401367376758677</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.256408943391981</v>
+        <v>96863.64304203718</v>
       </c>
       <c r="MC3" t="n">
-        <v>317682.0796468758</v>
+        <v>1.256872382294029</v>
       </c>
       <c r="MD3" t="n">
-        <v>394738.8317924232</v>
+        <v>1.256872382294029</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.663460339689</v>
+        <v>317708.0866361827</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.8005988039788</v>
+        <v>394775.2928271905</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.530611208703</v>
+        <v>3788.654478392929</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.6752350583353</v>
+        <v>716.8017536794897</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993668811003646</v>
+        <v>1005.532072947976</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.698975747820092e-05</v>
+        <v>328.6975309814032</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02401085594978529</v>
-      </c>
-      <c r="ML3" t="inlineStr">
+        <v>0.999367045084453</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>1.699160059263386e-05</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>0.02401367376758677</v>
+      </c>
+      <c r="MN3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="MM3" t="b">
+      <c r="MO3" t="b">
         <v>1</v>
       </c>
-      <c r="MN3" t="n">
-        <v>0.8369084337870599</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>0.4259586347000789</v>
-      </c>
       <c r="MP3" t="n">
-        <v>249491.6870585546</v>
+        <v>0.8358811009400322</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.742709943796917</v>
+        <v>0.424945683722609</v>
       </c>
       <c r="MR3" t="n">
-        <v>381076.2578274033</v>
+        <v>249070.7323447208</v>
       </c>
       <c r="MS3" t="n">
+        <v>2.73947409784371</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>381112.7188620705</v>
+      </c>
+      <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
-      <c r="MT3" t="n">
-        <v>142.5958535361322</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>127.2296574368088</v>
-      </c>
       <c r="MV3" t="n">
-        <v>-64.39092881928599</v>
+        <v>142.5752883583434</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.84397151585621</v>
+        <v>127.0782382616892</v>
       </c>
       <c r="MX3" t="n">
-        <v>262.5771858816726</v>
+        <v>-64.64390312140893</v>
       </c>
       <c r="MY3" t="n">
-        <v>127.2296574368088</v>
+        <v>-26.9621551357235</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-229.694128819286</v>
+        <v>262.7252345581264</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.01753447701464</v>
+        <v>127.0782382616892</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.185008238191</v>
+        <v>-229.9471031214089</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.00000451977</v>
+        <v>-61.07315279141093</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559944314200082</v>
+        <v>234.1825947802841</v>
       </c>
       <c r="NE3" t="n">
-        <v>293092.1083320247</v>
+        <v>57500.00000200155</v>
       </c>
       <c r="NF3" t="n">
-        <v>360265.4425196468</v>
+        <v>0.8560032808941206</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.777122541765</v>
+        <v>293090.3786525324</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529819.5792343244</v>
+        <v>360263.0183904796</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9876072023453</v>
+        <v>3800.76677115875</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421565706729</v>
+        <v>-529810.4062341589</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402847696807787</v>
+        <v>715.9875784252821</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992670927287353</v>
+        <v>1004.421571279902</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.8631782004522</v>
+        <v>1.402847760975115</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.72431041043</v>
+        <v>0.9992670603518737</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622070921029e-05</v>
+        <v>306.861594040569</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.92967677701</v>
+        <v>80604.72538217215</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740403814800473e-05</v>
+        <v>1.240622054425082e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004283552887963922</v>
+        <v>57457.92781259745</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.519973813281477e-05</v>
+        <v>1.740403871266575e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02128988124117035</v>
+        <v>0.004283597427611717</v>
       </c>
       <c r="NU3" t="n">
-        <v>57500.00000451977</v>
+        <v>1.519960961231313e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8559944314200082</v>
+        <v>0.02128968738044962</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8559944314200082</v>
+        <v>57500.00000200155</v>
       </c>
       <c r="NX3" t="n">
-        <v>293092.1083320247</v>
+        <v>0.8560032808941206</v>
       </c>
       <c r="NY3" t="n">
-        <v>360265.4425196468</v>
+        <v>0.8560032808941206</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.777122541765</v>
+        <v>293090.3786525324</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9876072023453</v>
+        <v>360263.0183904796</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421565706729</v>
+        <v>3800.76677115875</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.8631782004522</v>
+        <v>715.9875784252821</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992670927287353</v>
+        <v>1004.421571279902</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.519973813281477e-05</v>
+        <v>306.861594040569</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02128988124117035</v>
-      </c>
-      <c r="OG3" t="inlineStr">
+        <v>0.9992670603518737</v>
+      </c>
+      <c r="OG3" t="n">
+        <v>1.519960961231313e-05</v>
+      </c>
+      <c r="OH3" t="n">
+        <v>0.02128968738044962</v>
+      </c>
+      <c r="OI3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="OH3" t="b">
+      <c r="OJ3" t="b">
         <v>1</v>
       </c>
-      <c r="OI3" t="n">
-        <v>244.3380814220052</v>
-      </c>
-      <c r="OJ3" t="n">
-        <v>66682.68429083715</v>
-      </c>
       <c r="OK3" t="n">
-        <v>0.9514184624969469</v>
+        <v>244.3327408040193</v>
       </c>
       <c r="OL3" t="n">
-        <v>300344.581150206</v>
+        <v>66679.99445109769</v>
       </c>
       <c r="OM3" t="n">
-        <v>370432.231242503</v>
+        <v>0.9514009196875376</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.77712256017</v>
+        <v>300340.7596236044</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558242.3587964987</v>
+        <v>370426.8748157118</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1698439208691</v>
+        <v>3800.766771167425</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.669731453466</v>
+        <v>-558224.887540468</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402837245915194</v>
+        <v>716.1697474249482</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992959094677045</v>
+        <v>1004.669652338399</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4525509469935</v>
+        <v>1.402837324462221</v>
       </c>
       <c r="OU3" t="n">
-        <v>93479.24409930452</v>
+        <v>0.9992958672658976</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.069756189874282e-05</v>
+        <v>313.4491208049531</v>
       </c>
       <c r="OW3" t="n">
-        <v>66635.84415904198</v>
+        <v>93475.47461821864</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.50069382720397e-05</v>
+        <v>1.069799328737612e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004105906731467877</v>
+        <v>66633.1533872272</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573743275448254e-05</v>
+        <v>1.500754428037753e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210378607817319</v>
+        <v>0.004105996775575931</v>
       </c>
       <c r="PB3" t="n">
-        <v>66682.68429083715</v>
+        <v>1.573715257596479e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9514184624969469</v>
+        <v>0.02210336160300148</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9514184624969469</v>
+        <v>66679.99445109769</v>
       </c>
       <c r="PE3" t="n">
-        <v>300344.581150206</v>
+        <v>0.9514009196875376</v>
       </c>
       <c r="PF3" t="n">
-        <v>370432.231242503</v>
+        <v>0.9514009196875376</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.77712256017</v>
+        <v>300340.7596236044</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1698439208691</v>
+        <v>370426.8748157118</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.669731453466</v>
+        <v>3800.766771167425</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4525509469935</v>
+        <v>716.1697474249482</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992959094677045</v>
+        <v>1004.669652338399</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573743275448254e-05</v>
+        <v>313.4491208049531</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210378607817319</v>
-      </c>
-      <c r="PN3" t="inlineStr">
+        <v>0.9992958672658976</v>
+      </c>
+      <c r="PN3" t="n">
+        <v>1.573715257596479e-05</v>
+      </c>
+      <c r="PO3" t="n">
+        <v>0.02210336160300148</v>
+      </c>
+      <c r="PP3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="PO3" t="b">
+      <c r="PQ3" t="b">
         <v>1</v>
       </c>
-      <c r="PP3" t="n">
-        <v>268.6032668433917</v>
-      </c>
-      <c r="PQ3" t="n">
-        <v>92811.72285738548</v>
-      </c>
       <c r="PR3" t="n">
-        <v>1.204478637622643</v>
+        <v>268.6396634167829</v>
       </c>
       <c r="PS3" t="n">
-        <v>317683.3158553866</v>
+        <v>92858.99740572534</v>
       </c>
       <c r="PT3" t="n">
-        <v>394738.8317926173</v>
+        <v>1.204928692959473</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.777122551494</v>
+        <v>317709.3237385717</v>
       </c>
       <c r="PV3" t="n">
-        <v>-626162.3198683402</v>
+        <v>394775.2928272907</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7874030471856</v>
+        <v>3800.76677115875</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.447971276284</v>
+        <v>-626261.4133024885</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402714343195699</v>
+        <v>716.7885573570135</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993927905874178</v>
+        <v>1005.449427526844</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.6663359219499</v>
+        <v>1.402714115909158</v>
       </c>
       <c r="QB3" t="n">
-        <v>130109.6618663543</v>
+        <v>0.9993929447870463</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.685824293565354e-06</v>
+        <v>328.6886273005379</v>
       </c>
       <c r="QD3" t="n">
-        <v>92755.63659663968</v>
+        <v>130175.933785968</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.078101597586607e-05</v>
+        <v>7.681911478692942e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003735661199508851</v>
+        <v>92802.89711891544</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.698858015221348e-05</v>
+        <v>1.077552566832718e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02400856853573028</v>
+        <v>0.003735156447140914</v>
       </c>
       <c r="QI3" t="n">
-        <v>92811.72285738548</v>
+        <v>1.699042302887144e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.204478637622643</v>
+        <v>0.02401138592666762</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.204478637622643</v>
+        <v>92858.99740572534</v>
       </c>
       <c r="QL3" t="n">
-        <v>317683.3158553866</v>
+        <v>1.204928692959473</v>
       </c>
       <c r="QM3" t="n">
-        <v>394738.8317926173</v>
+        <v>1.204928692959473</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.777122551494</v>
+        <v>317709.3237385717</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7874030471856</v>
+        <v>394775.2928272907</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.447971276284</v>
+        <v>3800.76677115875</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.6663359219499</v>
+        <v>716.7885573570135</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993927905874178</v>
+        <v>1005.449427526844</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.698858015221348e-05</v>
+        <v>328.6886273005379</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02400856853573028</v>
-      </c>
-      <c r="QU3" t="inlineStr">
+        <v>0.9993929447870463</v>
+      </c>
+      <c r="QU3" t="n">
+        <v>1.699042302887144e-05</v>
+      </c>
+      <c r="QV3" t="n">
+        <v>0.02401138592666762</v>
+      </c>
+      <c r="QW3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="QV3" t="b">
+      <c r="QX3" t="b">
         <v>1</v>
       </c>
-      <c r="QW3" t="n">
-        <v>0.464688707105107</v>
-      </c>
-      <c r="QX3" t="n">
-        <v>0.8556816344714692</v>
-      </c>
       <c r="QY3" t="n">
-        <v>385359.6461730694</v>
+        <v>0.4646240882770557</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.742709944164941</v>
+        <v>0.8561685126467552</v>
       </c>
       <c r="RA3" t="n">
-        <v>381076.2578274033</v>
+        <v>385584.1696525451</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02459527083900296</v>
+        <v>2.739474097986275</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.002166430091196224</v>
+        <v>381112.7188620705</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01188681547315103</v>
+        <v>0.02451482902380551</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03204528799460138</v>
+        <v>0.002154432247484661</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04266995612110982</v>
+        <v>0.01189215795664021</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1133637605190614</v>
+        <v>0.03201251962023062</v>
       </c>
       <c r="RH3" t="n">
-        <v>-1.69581848563638e-10</v>
+        <v>0.0426828255335834</v>
       </c>
       <c r="RI3" t="n">
+        <v>0.1132567643817444</v>
+      </c>
+      <c r="RJ3" t="n">
+        <v>-4.00517952137136e-11</v>
+      </c>
+      <c r="RK3" t="n">
         <v>0</v>
+      </c>
+      <c r="RL3" t="n">
+        <v>357443.5642241068</v>
       </c>
     </row>
   </sheetData>
@@ -6189,7 +6226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM3"/>
+  <dimension ref="A1:JE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6850,717 +6887,677 @@
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
+          <t>h_is_throat_1</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
           <t>dh_s_1</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>incidence_1</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_profile_1</t>
-        </is>
-      </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_incidence_1</t>
+          <t>loss_profile_2</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_secondary_1</t>
+          <t>loss_incidence_2</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_clearance_1</t>
+          <t>loss_trailing_2</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_trailing_1</t>
+          <t>loss_secondary_2</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_2</t>
+          <t>loss_clearance_2</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_2</t>
+          <t>loss_total_2</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_2</t>
+          <t>loss_error_2</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_2</t>
+          <t>critical_mach_2</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_2</t>
+          <t>blade_speed_throat_2</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_2</t>
+          <t>v_throat_2</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_2</t>
+          <t>v_m_throat_2</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>critical_mach_2</t>
+          <t>v_t_throat_2</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>blade_speed_throat_2</t>
+          <t>alpha_throat_2</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>v_throat_2</t>
+          <t>w_throat_2</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>v_m_throat_2</t>
+          <t>w_m_throat_2</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>v_t_throat_2</t>
+          <t>w_t_throat_2</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>alpha_throat_2</t>
+          <t>beta_throat_2</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>w_throat_2</t>
+          <t>T_throat_2</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>w_m_throat_2</t>
+          <t>p_throat_2</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>w_t_throat_2</t>
+          <t>rhomass_throat_2</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>beta_throat_2</t>
+          <t>umass_throat_2</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>T_throat_2</t>
+          <t>hmass_throat_2</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>p_throat_2</t>
+          <t>smass_throat_2</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>rhomass_throat_2</t>
+          <t>gibbsmass_throat_2</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>umass_throat_2</t>
+          <t>cvmass_throat_2</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>hmass_throat_2</t>
+          <t>cpmass_throat_2</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>smass_throat_2</t>
+          <t>gamma_throat_2</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass_throat_2</t>
+          <t>compressibility_factor_throat_2</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>cvmass_throat_2</t>
+          <t>speed_sound_throat_2</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>cpmass_throat_2</t>
+          <t>isentropic_bulk_modulus_throat_2</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>gamma_throat_2</t>
+          <t>isentropic_compressibility_throat_2</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor_throat_2</t>
+          <t>isothermal_bulk_modulus_throat_2</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound_throat_2</t>
+          <t>isothermal_compressibility_throat_2</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus_throat_2</t>
+          <t>isobaric_expansion_coefficient_throat_2</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility_throat_2</t>
+          <t>viscosity_throat_2</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus_throat_2</t>
+          <t>conductivity_throat_2</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility_throat_2</t>
+          <t>P_throat_2</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient_throat_2</t>
+          <t>rho_throat_2</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>viscosity_throat_2</t>
+          <t>d_throat_2</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>conductivity_throat_2</t>
+          <t>u_throat_2</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>P_throat_2</t>
+          <t>h_throat_2</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>rho_throat_2</t>
+          <t>s_throat_2</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>d_throat_2</t>
+          <t>cv_throat_2</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>u_throat_2</t>
+          <t>cp_throat_2</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>h_throat_2</t>
+          <t>a_throat_2</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>s_throat_2</t>
+          <t>Z_throat_2</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>cv_throat_2</t>
+          <t>mu_throat_2</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>cp_throat_2</t>
+          <t>k_throat_2</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>a_throat_2</t>
+          <t>fluid_name_throat_2</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>Z_throat_2</t>
+          <t>converged_throat_2</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>mu_throat_2</t>
+          <t>T0_throat_2</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>k_throat_2</t>
+          <t>p0_throat_2</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name_throat_2</t>
+          <t>rhomass0_throat_2</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>converged_throat_2</t>
+          <t>umass0_throat_2</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>T0_throat_2</t>
+          <t>hmass0_throat_2</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>p0_throat_2</t>
+          <t>smass0_throat_2</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_throat_2</t>
+          <t>gibbsmass0_throat_2</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>umass0_throat_2</t>
+          <t>cvmass0_throat_2</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_throat_2</t>
+          <t>cpmass0_throat_2</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>smass0_throat_2</t>
+          <t>gamma0_throat_2</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_throat_2</t>
+          <t>compressibility_factor0_throat_2</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_throat_2</t>
+          <t>speed_sound0_throat_2</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_throat_2</t>
+          <t>isentropic_bulk_modulus0_throat_2</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_throat_2</t>
+          <t>isentropic_compressibility0_throat_2</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_throat_2</t>
+          <t>isothermal_bulk_modulus0_throat_2</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_throat_2</t>
+          <t>isothermal_compressibility0_throat_2</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_throat_2</t>
+          <t>isobaric_expansion_coefficient0_throat_2</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_throat_2</t>
+          <t>viscosity0_throat_2</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_throat_2</t>
+          <t>conductivity0_throat_2</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_throat_2</t>
+          <t>P0_throat_2</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_throat_2</t>
+          <t>rho0_throat_2</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_throat_2</t>
+          <t>d0_throat_2</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_throat_2</t>
+          <t>u0_throat_2</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>P0_throat_2</t>
+          <t>h0_throat_2</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>rho0_throat_2</t>
+          <t>s0_throat_2</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>d0_throat_2</t>
+          <t>cv0_throat_2</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>u0_throat_2</t>
+          <t>cp0_throat_2</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>h0_throat_2</t>
+          <t>a0_throat_2</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>s0_throat_2</t>
+          <t>Z0_throat_2</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>cv0_throat_2</t>
+          <t>mu0_throat_2</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>cp0_throat_2</t>
+          <t>k0_throat_2</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>a0_throat_2</t>
+          <t>fluid_name0_throat_2</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>Z0_throat_2</t>
+          <t>converged0_throat_2</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>mu0_throat_2</t>
+          <t>T0_rel_throat_2</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>k0_throat_2</t>
+          <t>p0_rel_throat_2</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_throat_2</t>
+          <t>rhomass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>converged0_throat_2</t>
+          <t>umass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>T0_rel_throat_2</t>
+          <t>hmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>p0_rel_throat_2</t>
+          <t>smass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_rel_throat_2</t>
+          <t>gibbsmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>umass0_rel_throat_2</t>
+          <t>cvmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_rel_throat_2</t>
+          <t>cpmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>smass0_rel_throat_2</t>
+          <t>gamma0_rel_throat_2</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_rel_throat_2</t>
+          <t>compressibility_factor0_rel_throat_2</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_rel_throat_2</t>
+          <t>speed_sound0_rel_throat_2</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_rel_throat_2</t>
+          <t>isentropic_bulk_modulus0_rel_throat_2</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_rel_throat_2</t>
+          <t>isentropic_compressibility0_rel_throat_2</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_rel_throat_2</t>
+          <t>isothermal_bulk_modulus0_rel_throat_2</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_rel_throat_2</t>
+          <t>isothermal_compressibility0_rel_throat_2</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_rel_throat_2</t>
+          <t>isobaric_expansion_coefficient0_rel_throat_2</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_rel_throat_2</t>
+          <t>viscosity0_rel_throat_2</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_rel_throat_2</t>
+          <t>conductivity0_rel_throat_2</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_rel_throat_2</t>
+          <t>P0_rel_throat_2</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_rel_throat_2</t>
+          <t>rho0_rel_throat_2</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_rel_throat_2</t>
+          <t>d0_rel_throat_2</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_rel_throat_2</t>
+          <t>u0_rel_throat_2</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>P0_rel_throat_2</t>
+          <t>h0_rel_throat_2</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>rho0_rel_throat_2</t>
+          <t>s0_rel_throat_2</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>d0_rel_throat_2</t>
+          <t>cv0_rel_throat_2</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>u0_rel_throat_2</t>
+          <t>cp0_rel_throat_2</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>h0_rel_throat_2</t>
+          <t>a0_rel_throat_2</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>s0_rel_throat_2</t>
+          <t>Z0_rel_throat_2</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>cv0_rel_throat_2</t>
+          <t>mu0_rel_throat_2</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>cp0_rel_throat_2</t>
+          <t>k0_rel_throat_2</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>a0_rel_throat_2</t>
+          <t>fluid_name0_rel_throat_2</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>Z0_rel_throat_2</t>
+          <t>converged0_rel_throat_2</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>mu0_rel_throat_2</t>
+          <t>loss_profile_throat_2</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>k0_rel_throat_2</t>
+          <t>loss_incidence_throat_2</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_rel_throat_2</t>
+          <t>loss_trailing_throat_2</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>converged0_rel_throat_2</t>
+          <t>loss_secondary_throat_2</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_throat_2</t>
+          <t>loss_clearance_throat_2</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_throat_2</t>
+          <t>loss_total_throat_2</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_throat_2</t>
+          <t>loss_error_throat_2</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_throat_2</t>
+          <t>Ma_throat_2</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_throat_2</t>
+          <t>Ma_rel_throat_2</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_throat_2</t>
+          <t>Re_throat_2</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_throat_2</t>
+          <t>mass_flow_throat_2</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>Ma_throat_2</t>
+          <t>rothalpy_throat_2</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>Ma_rel_throat_2</t>
+          <t>blockage_throat_2</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>Re_throat_2</t>
+          <t>h_is_throat_2</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>mass_flow_throat_2</t>
+          <t>dh_s_2</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>rothalpy_throat_2</t>
-        </is>
-      </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
-          <t>blockage_throat_2</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>dh_s_2</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
           <t>incidence_2</t>
-        </is>
-      </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_profile_2</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_incidence_2</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_secondary_2</t>
-        </is>
-      </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_clearance_2</t>
-        </is>
-      </c>
-      <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_trailing_2</t>
         </is>
       </c>
     </row>
@@ -7569,148 +7566,148 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593373937723827</v>
+        <v>0.01595362529222805</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788003961088507e-07</v>
+        <v>-1.786050812290162e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379066172769853</v>
+        <v>0.01379133206949992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519178354024262</v>
+        <v>0.02518310637917774</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491600584478332</v>
+        <v>0.05492788513582448</v>
       </c>
       <c r="H2" t="n">
-        <v>3.398878400950878e-12</v>
+        <v>2.478434124597584e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0.980328512695522</v>
+        <v>0.9677811191898694</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>276.8866482906694</v>
+        <v>275.2477306517566</v>
       </c>
       <c r="L2" t="n">
-        <v>113.1374588738324</v>
+        <v>112.4677878076587</v>
       </c>
       <c r="M2" t="n">
-        <v>252.7174932631548</v>
+        <v>251.2216350846269</v>
       </c>
       <c r="N2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="O2" t="n">
-        <v>276.8866482906694</v>
+        <v>275.2477306517566</v>
       </c>
       <c r="P2" t="n">
-        <v>113.1374588738324</v>
+        <v>112.4677878076587</v>
       </c>
       <c r="Q2" t="n">
-        <v>252.7174932631548</v>
+        <v>251.2216350846269</v>
       </c>
       <c r="R2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="S2" t="n">
-        <v>257.347117731936</v>
+        <v>257.7988726489946</v>
       </c>
       <c r="T2" t="n">
-        <v>83286.15113019425</v>
+        <v>83814.87751526601</v>
       </c>
       <c r="U2" t="n">
-        <v>1.128222423019083</v>
+        <v>1.133393119912999</v>
       </c>
       <c r="V2" t="n">
-        <v>309630.6389470272</v>
+        <v>309953.3718797392</v>
       </c>
       <c r="W2" t="n">
-        <v>383451.323087769</v>
+        <v>383903.7744741186</v>
       </c>
       <c r="X2" t="n">
-        <v>3788.912938498741</v>
+        <v>3788.85425866778</v>
       </c>
       <c r="Y2" t="n">
-        <v>-591614.5009721221</v>
+        <v>-592858.5820417773</v>
       </c>
       <c r="Z2" t="n">
-        <v>716.4784597907448</v>
+        <v>716.4902164014501</v>
       </c>
       <c r="AA2" t="n">
-        <v>1005.128759490811</v>
+        <v>1005.143964931133</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.402873660408953</v>
+        <v>1.402871863316484</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9993152779336608</v>
+        <v>0.9993170534663851</v>
       </c>
       <c r="AD2" t="n">
-        <v>321.6992986763784</v>
+        <v>321.981905345395</v>
       </c>
       <c r="AE2" t="n">
-        <v>116760.2335871268</v>
+        <v>117501.5252342195</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.564559775857228e-06</v>
+        <v>8.510527825121152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83229.32911370642</v>
+        <v>83757.84582095612</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.201499532254811e-05</v>
+        <v>1.193918002783449e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.003899289844111572</v>
+        <v>0.003892473193434502</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.641448192401238e-05</v>
+        <v>1.643773782873149e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.02313309666287896</v>
+        <v>0.02316851969034664</v>
       </c>
       <c r="AL2" t="n">
-        <v>83286.15113019425</v>
+        <v>83814.87751526601</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.128222423019083</v>
+        <v>1.133393119912999</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.128222423019083</v>
+        <v>1.133393119912999</v>
       </c>
       <c r="AO2" t="n">
-        <v>309630.6389470272</v>
+        <v>309953.3718797392</v>
       </c>
       <c r="AP2" t="n">
-        <v>383451.323087769</v>
+        <v>383903.7744741186</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3788.912938498741</v>
+        <v>3788.85425866778</v>
       </c>
       <c r="AR2" t="n">
-        <v>716.4784597907448</v>
+        <v>716.4902164014501</v>
       </c>
       <c r="AS2" t="n">
-        <v>1005.128759490811</v>
+        <v>1005.143964931133</v>
       </c>
       <c r="AT2" t="n">
-        <v>321.6992986763784</v>
+        <v>321.981905345395</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9993152779336608</v>
+        <v>0.9993170534663851</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.641448192401238e-05</v>
+        <v>1.643773782873149e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.02313309666287896</v>
+        <v>0.02316851969034664</v>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
@@ -7721,97 +7718,97 @@
         <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>295.5933831674573</v>
+        <v>295.5934472641803</v>
       </c>
       <c r="BA2" t="n">
-        <v>135146.1511272137</v>
+        <v>135173.7940876647</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.593516528906317</v>
+        <v>1.593842273176355</v>
       </c>
       <c r="BC2" t="n">
-        <v>336974.422108031</v>
+        <v>336974.4117017416</v>
       </c>
       <c r="BD2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="BE2" t="n">
-        <v>3788.912938499349</v>
+        <v>3788.854258670374</v>
       </c>
       <c r="BF2" t="n">
-        <v>-698193.1629293847</v>
+        <v>-698176.0604133564</v>
       </c>
       <c r="BG2" t="n">
-        <v>717.8558030044395</v>
+        <v>717.8558750065105</v>
       </c>
       <c r="BH2" t="n">
-        <v>1006.774726963762</v>
+        <v>1006.77518083294</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.402474874132257</v>
+        <v>1.402475365718514</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9995307763686845</v>
+        <v>0.9995306822732115</v>
       </c>
       <c r="BK2" t="n">
-        <v>344.8024352033561</v>
+        <v>344.8025009247025</v>
       </c>
       <c r="BL2" t="n">
-        <v>189451.139340373</v>
+        <v>189489.9388952092</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.278405838475181e-06</v>
+        <v>5.277325043378768e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>135083.4462953147</v>
+        <v>135111.0639994236</v>
       </c>
       <c r="BO2" t="n">
-        <v>7.402831563934452e-06</v>
+        <v>7.401318370228115e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.003395610443132169</v>
+        <v>0.003395612266864657</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.832921906201903e-05</v>
+        <v>1.832922615850382e-05</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0260672256161855</v>
+        <v>0.02606723925876138</v>
       </c>
       <c r="BS2" t="n">
-        <v>135146.1511272137</v>
+        <v>135173.7940876647</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.593516528906317</v>
+        <v>1.593842273176355</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.593516528906317</v>
+        <v>1.593842273176355</v>
       </c>
       <c r="BV2" t="n">
-        <v>336974.422108031</v>
+        <v>336974.4117017416</v>
       </c>
       <c r="BW2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="BX2" t="n">
-        <v>3788.912938499349</v>
+        <v>3788.854258670374</v>
       </c>
       <c r="BY2" t="n">
-        <v>717.8558030044395</v>
+        <v>717.8558750065105</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1006.774726963762</v>
+        <v>1006.77518083294</v>
       </c>
       <c r="CA2" t="n">
-        <v>344.8024352033561</v>
+        <v>344.8025009247025</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.9995307763686845</v>
+        <v>0.9995306822732115</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.832921906201903e-05</v>
+        <v>1.832922615850382e-05</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0260672256161855</v>
+        <v>0.02606723925876138</v>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
@@ -7822,97 +7819,97 @@
         <v>1</v>
       </c>
       <c r="CG2" t="n">
-        <v>295.5933831674573</v>
+        <v>295.5934472641803</v>
       </c>
       <c r="CH2" t="n">
-        <v>135146.1511272137</v>
+        <v>135173.7940876647</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.593516528906317</v>
+        <v>1.593842273176355</v>
       </c>
       <c r="CJ2" t="n">
-        <v>336974.422108031</v>
+        <v>336974.4117017416</v>
       </c>
       <c r="CK2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="CL2" t="n">
-        <v>3788.912938499349</v>
+        <v>3788.854258670374</v>
       </c>
       <c r="CM2" t="n">
-        <v>-698193.1629293847</v>
+        <v>-698176.0604133564</v>
       </c>
       <c r="CN2" t="n">
-        <v>717.8558030044395</v>
+        <v>717.8558750065105</v>
       </c>
       <c r="CO2" t="n">
-        <v>1006.774726963762</v>
+        <v>1006.77518083294</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.402474874132257</v>
+        <v>1.402475365718514</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.9995307763686845</v>
+        <v>0.9995306822732115</v>
       </c>
       <c r="CR2" t="n">
-        <v>344.8024352033561</v>
+        <v>344.8025009247025</v>
       </c>
       <c r="CS2" t="n">
-        <v>189451.139340373</v>
+        <v>189489.9388952092</v>
       </c>
       <c r="CT2" t="n">
-        <v>5.278405838475181e-06</v>
+        <v>5.277325043378768e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>135083.4462953147</v>
+        <v>135111.0639994236</v>
       </c>
       <c r="CV2" t="n">
-        <v>7.402831563934452e-06</v>
+        <v>7.401318370228115e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.003395610443132169</v>
+        <v>0.003395612266864657</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.832921906201903e-05</v>
+        <v>1.832922615850382e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0260672256161855</v>
+        <v>0.02606723925876138</v>
       </c>
       <c r="CZ2" t="n">
-        <v>135146.1511272137</v>
+        <v>135173.7940876647</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.593516528906317</v>
+        <v>1.593842273176355</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.593516528906317</v>
+        <v>1.593842273176355</v>
       </c>
       <c r="DC2" t="n">
-        <v>336974.422108031</v>
+        <v>336974.4117017416</v>
       </c>
       <c r="DD2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="DE2" t="n">
-        <v>3788.912938499349</v>
+        <v>3788.854258670374</v>
       </c>
       <c r="DF2" t="n">
-        <v>717.8558030044395</v>
+        <v>717.8558750065105</v>
       </c>
       <c r="DG2" t="n">
-        <v>1006.774726963762</v>
+        <v>1006.77518083294</v>
       </c>
       <c r="DH2" t="n">
-        <v>344.8024352033561</v>
+        <v>344.8025009247025</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.9995307763686845</v>
+        <v>0.9995306822732115</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.832921906201903e-05</v>
+        <v>1.832922615850382e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0260672256161855</v>
+        <v>0.02606723925876138</v>
       </c>
       <c r="DL2" t="inlineStr">
         <is>
@@ -7923,37 +7920,37 @@
         <v>1</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01612578355692618</v>
+        <v>0.0161238183267888</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.821900015202942e-07</v>
+        <v>-1.815133704359519e-07</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01379701422308553</v>
+        <v>0.01379698661186921</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.02510725074487449</v>
+        <v>0.02510791097798277</v>
       </c>
       <c r="DR2" t="n">
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.05502986633488468</v>
+        <v>0.05502853440327034</v>
       </c>
       <c r="DT2" t="n">
-        <v>2.395791898202049e-13</v>
+        <v>1.09051656593806e-13</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.8607001924776049</v>
+        <v>0.8548546551288158</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.8607001924776049</v>
+        <v>0.8548546551288158</v>
       </c>
       <c r="DW2" t="n">
-        <v>497860.0756337244</v>
+        <v>496478.0005316653</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.740321957280215</v>
+        <v>2.736586426088666</v>
       </c>
       <c r="DY2" t="n">
         <v>421784.4310884894</v>
@@ -7962,439 +7959,415 @@
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>1473.430087346758</v>
+        <v>382377.7567095311</v>
       </c>
       <c r="EB2" t="n">
+        <v>1469.784082617203</v>
+      </c>
+      <c r="EC2" t="n">
         <v>0</v>
       </c>
-      <c r="EC2" t="n">
-        <v>0.006566594185884041</v>
-      </c>
       <c r="ED2" t="n">
-        <v>-7.368701180084484e-08</v>
+        <v>0.02434338147107242</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01038200860519402</v>
+        <v>0.001878260471377819</v>
       </c>
       <c r="EF2" t="n">
+        <v>0.01189985195867785</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.03191600446276638</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.04236690797682069</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.1124044063407152</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>2.818120736769458e-12</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.9379634652018912</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>140.4501955630097</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>125.6290992262637</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-62.79798453203134</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>-26.55900697682177</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>260.4089494570381</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>125.6290992262637</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-228.1011845320313</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-61.15576777799674</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>235.0521210525397</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>58317.76854303112</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.8649646102110267</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>293711.2614216447</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>361133.4054661315</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>3800.425886728992</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>-532164.7601124973</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>716.0019737106227</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1004.443230290305</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1.40284980652338</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.9992684014917759</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>307.431401090372</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>81751.32258271259</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1.223221800464747e-05</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>58275.1782853456</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1.715996466117151e-05</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.004267799086731187</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1.52460128080139e-05</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.0213598279317279</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>58317.76854303112</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.8649646102110267</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.8649646102110267</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>293711.2614216447</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>361133.4054661315</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>3800.425886728992</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>716.0019737106227</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1004.443230290305</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>307.431401090372</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.9992684014917759</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1.52460128080139e-05</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.0213598279317279</v>
+      </c>
+      <c r="FZ2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="GA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>244.9018494833833</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>67303.47667120554</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.9580643600171838</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>300747.1026416628</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>370996.5341829825</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>3800.425886747272</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>-559734.7943059511</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>716.1815062596535</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1004.686858828868</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>1.402838316889763</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.9992968520384629</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>313.8143817775287</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>94349.66676971276</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1.059887156189735e-05</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>67256.26583888561</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1.486850314282286e-05</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0.004096489743699561</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1.576704914530017e-05</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0.0221487104436192</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>67303.47667120554</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0.9580643600171838</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0.9580643600171838</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>300747.1026416628</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>370996.5341829825</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>3800.425886747272</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>716.1815062596535</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1004.686858828868</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>313.8143817775287</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0.9992968520384629</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1.576704914530017e-05</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0.0221487104436192</v>
+      </c>
+      <c r="HG2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="HH2" t="b">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>268.903960536096</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>93288.90563800315</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1.209316683727152</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>317897.9829631475</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>395039.8159447978</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>3800.425886738621</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-626909.7567231217</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>716.7972368567245</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>1005.461793155542</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>1.402714382054066</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>0.9993935108110494</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>328.8504964622655</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>130778.7096865423</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>7.64650456023657e-06</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>93232.60056337087</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1.072586191908583e-05</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0.003731506949966252</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>1.700381535930479e-05</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>0.02403187162958811</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>93288.90563800315</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1.209316683727152</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>1.209316683727152</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>317897.9829631475</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>395039.8159447978</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>3800.425886738621</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>716.7972368567245</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1005.461793155542</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>328.8504964622655</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>0.9993935108110494</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1.700381535930479e-05</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>0.02403187162958811</v>
+      </c>
+      <c r="IN2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="IO2" t="b">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>0.02422153926308148</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0.001910144932298496</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>0.01191623495216232</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>0.03182251866094622</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>0.04246812532264233</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>0.1123385631311309</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>1.739675070666635e-11</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>0.4568505203595749</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>0.8470473365226888</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>385010.3241727001</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>2.736586426271908</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>381377.2419797779</v>
+      </c>
+      <c r="JB2" t="n">
         <v>0</v>
       </c>
-      <c r="EG2" t="n">
-        <v>0.005683391511346205</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.02447341407688595</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.00191819942120034</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.01189011779732759</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.03198070534311114</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.04237533103259179</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.1126377676711168</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>-6.632952520568836e-11</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0.9609971910903922</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>142.8392306618756</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>127.0237013781557</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-65.33012401847745</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>-27.2174132071944</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>263.2997357758243</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>127.0237013781557</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>-230.6333240184775</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>-61.15576777799674</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>234.2245141449717</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>57552.78501119111</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.8566358451981306</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>293120.2727888638</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>360304.92929583</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>3800.682524721649</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>-529908.0884763828</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>715.988330878846</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>1004.423000552428</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>1.402848282903634</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.9992669513502628</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>306.8890813343365</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>80678.74193361285</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1.239483878941566e-05</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>57510.66805786217</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1.738807831259912e-05</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.004282836275626885</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>1.52018503694895e-05</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.02129307615338264</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>57552.78501119111</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.8566358451981306</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.8566358451981306</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>293120.2727888638</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>360304.92929583</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>3800.682524721649</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>715.988330878846</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>1004.423000552428</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>306.8890813343365</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.9992669513502628</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1.52018503694895e-05</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.02129307615338264</v>
-      </c>
-      <c r="GD2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="GE2" t="b">
-        <v>1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>244.412270269999</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>66775.3440294719</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0.9524513186419514</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>300397.5209412455</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>370506.4522036676</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>3800.682524730321</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>-558426.9922411819</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>716.1714182521346</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1004.672268655722</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1.402837704844035</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.9992959140329984</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>313.500187827094</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>93609.17077952593</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1.068271400838772e-05</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>66728.43940271284</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1.498611400103185e-05</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.004104667247492335</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1.574133338826685e-05</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.02210970405375197</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>66775.3440294719</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.9524513186419514</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.9524513186419514</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>300397.5209412455</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>370506.4522036676</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>3800.682524730321</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>716.1714182521346</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1004.672268655722</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>313.500187827094</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.9992959140329984</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1.574133338826685e-05</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0.02210970405375197</v>
-      </c>
-      <c r="HK2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="HL2" t="b">
-        <v>1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>268.832360338356</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>93119.11301617336</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1.207436909409114</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>317846.9973591591</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>394968.3047256394</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>3800.682524721649</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>-626778.1492920235</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>716.7947110183087</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>1005.457345502206</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>1.402713120014252</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0.9993937012269706</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>328.8066257243974</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>130540.5890593755</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>7.660452639333173e-06</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>93062.92726345148</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>1.074541742244045e-05</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>0.003732487672904552</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1.70001796974797e-05</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0.02402630364837266</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>93119.11301617336</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1.207436909409114</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>1.207436909409114</v>
-      </c>
-      <c r="II2" t="n">
-        <v>317846.9973591591</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>394968.3047256394</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>3800.682524721649</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>716.7947110183087</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>1005.457345502206</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>328.8066257243974</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>0.9993937012269706</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>1.70001796974797e-05</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>0.02402630364837266</v>
-      </c>
-      <c r="IR2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="IS2" t="b">
-        <v>1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>0.02429129783225098</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>0.001965973237287362</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>0.01191299607167525</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>0.03185011009748257</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>0.04251564289121203</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>0.1125360201299082</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-7.029729576224497e-11</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>0.4654425307046399</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>0.8579638435848281</v>
-      </c>
       <c r="JC2" t="n">
-        <v>386655.8846951178</v>
+        <v>358368.2703576944</v>
       </c>
       <c r="JD2" t="n">
-        <v>2.740321957341152</v>
+        <v>2665.532412622648</v>
       </c>
       <c r="JE2" t="n">
-        <v>381305.730760419</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>2666.318026735506</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>6.129678780708716</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>0.008898449696283188</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>0.0006974507522067246</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>0.0116280751370975</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>0.01540752550388939</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>0.004323206184883205</v>
+        <v>6.05661149241665</v>
       </c>
     </row>
     <row r="3">
@@ -8402,148 +8375,148 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01595026541612997</v>
+        <v>0.01597187822282696</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.79395729891294e-07</v>
+        <v>-1.792898703477757e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379120572413062</v>
+        <v>0.01379193482753116</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02518431608788884</v>
+        <v>0.0251748243243768</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05492560783241954</v>
+        <v>0.05493845808486457</v>
       </c>
       <c r="H3" t="n">
-        <v>9.384992782912605e-13</v>
+        <v>-6.694506060611616e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9803281699881209</v>
+        <v>0.9678707379485612</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>277.9793036441267</v>
+        <v>276.5074661154435</v>
       </c>
       <c r="L3" t="n">
-        <v>113.5839240641123</v>
+        <v>112.9825228809988</v>
       </c>
       <c r="M3" t="n">
-        <v>253.7147718377303</v>
+        <v>252.3714095158716</v>
       </c>
       <c r="N3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="O3" t="n">
-        <v>277.9793036441267</v>
+        <v>276.5074661154435</v>
       </c>
       <c r="P3" t="n">
-        <v>113.5839240641123</v>
+        <v>112.9825228809988</v>
       </c>
       <c r="Q3" t="n">
-        <v>253.7147718377303</v>
+        <v>252.3714095158716</v>
       </c>
       <c r="R3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="S3" t="n">
-        <v>257.0444431875463</v>
+        <v>257.4518752269024</v>
       </c>
       <c r="T3" t="n">
-        <v>82933.31636966697</v>
+        <v>83408.53277525389</v>
       </c>
       <c r="U3" t="n">
-        <v>1.124767007933522</v>
+        <v>1.12942003269842</v>
       </c>
       <c r="V3" t="n">
-        <v>309414.4104577606</v>
+        <v>309705.4772516396</v>
       </c>
       <c r="W3" t="n">
-        <v>383148.1844613529</v>
+        <v>383556.2416797981</v>
       </c>
       <c r="X3" t="n">
-        <v>3788.952115952658</v>
+        <v>3788.899353197041</v>
       </c>
       <c r="Y3" t="n">
-        <v>-590780.9024479737</v>
+        <v>-591903.0018467781</v>
       </c>
       <c r="Z3" t="n">
-        <v>716.4706375934454</v>
+        <v>716.4811773129379</v>
       </c>
       <c r="AA3" t="n">
-        <v>1005.118628898828</v>
+        <v>1005.132276394284</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.402874836957622</v>
+        <v>1.402873248064788</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.999314096602079</v>
+        <v>0.9993156883447698</v>
       </c>
       <c r="AD3" t="n">
-        <v>321.5098142701867</v>
+        <v>321.7648544323868</v>
       </c>
       <c r="AE3" t="n">
-        <v>116265.5467014963</v>
+        <v>116931.8168139768</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.601000282288529e-06</v>
+        <v>8.551992325500845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>82876.6356331819</v>
+        <v>83351.66200886639</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.206612686868798e-05</v>
+        <v>1.199736125110051e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.003903870368836224</v>
+        <v>0.00389770700246526</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.639889159835806e-05</v>
+        <v>1.641987615958876e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0231093526998357</v>
+        <v>0.02314131260413165</v>
       </c>
       <c r="AL3" t="n">
-        <v>82933.31636966697</v>
+        <v>83408.53277525389</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.124767007933522</v>
+        <v>1.12942003269842</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.124767007933522</v>
+        <v>1.12942003269842</v>
       </c>
       <c r="AO3" t="n">
-        <v>309414.4104577606</v>
+        <v>309705.4772516396</v>
       </c>
       <c r="AP3" t="n">
-        <v>383148.1844613529</v>
+        <v>383556.2416797981</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3788.952115952658</v>
+        <v>3788.899353197041</v>
       </c>
       <c r="AR3" t="n">
-        <v>716.4706375934454</v>
+        <v>716.4811773129379</v>
       </c>
       <c r="AS3" t="n">
-        <v>1005.118628898828</v>
+        <v>1005.132276394284</v>
       </c>
       <c r="AT3" t="n">
-        <v>321.5098142701867</v>
+        <v>321.7648544323868</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.999314096602079</v>
+        <v>0.9993156883447698</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.639889159835806e-05</v>
+        <v>1.641987615958876e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0231093526998357</v>
+        <v>0.02314131260413165</v>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
@@ -8554,97 +8527,97 @@
         <v>1</v>
       </c>
       <c r="AZ3" t="n">
-        <v>295.5933403806764</v>
+        <v>295.5933980054959</v>
       </c>
       <c r="BA3" t="n">
-        <v>135127.6985167088</v>
+        <v>135152.550402908</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.593299083550209</v>
+        <v>1.593591937892323</v>
       </c>
       <c r="BC3" t="n">
-        <v>336974.4290545614</v>
+        <v>336974.419698861</v>
       </c>
       <c r="BD3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="BE3" t="n">
-        <v>3788.952115952347</v>
+        <v>3788.899353198037</v>
       </c>
       <c r="BF3" t="n">
-        <v>-698204.5814081966</v>
+        <v>-698189.2034242445</v>
       </c>
       <c r="BG3" t="n">
-        <v>717.8557549405775</v>
+        <v>717.8558196727361</v>
       </c>
       <c r="BH3" t="n">
-        <v>1006.774423990564</v>
+        <v>1006.774832033356</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.402474545981599</v>
+        <v>1.402474987933281</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9995308391810189</v>
+        <v>0.9995307545857491</v>
       </c>
       <c r="BK3" t="n">
-        <v>344.8023913322563</v>
+        <v>344.8024504175468</v>
       </c>
       <c r="BL3" t="n">
-        <v>189425.2393372351</v>
+        <v>189460.1213377611</v>
       </c>
       <c r="BM3" t="n">
-        <v>5.279127551844835e-06</v>
+        <v>5.278155597806487e-06</v>
       </c>
       <c r="BN3" t="n">
-        <v>135065.0105415321</v>
+        <v>135089.839724667</v>
       </c>
       <c r="BO3" t="n">
-        <v>7.403842016452533e-06</v>
+        <v>7.402481208343629e-06</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.003395609225726045</v>
+        <v>0.003395610865324449</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.832921432487972e-05</v>
+        <v>1.832922070482704e-05</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.02606721650931828</v>
+        <v>0.02606722877439043</v>
       </c>
       <c r="BS3" t="n">
-        <v>135127.6985167088</v>
+        <v>135152.550402908</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.593299083550209</v>
+        <v>1.593591937892323</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.593299083550209</v>
+        <v>1.593591937892323</v>
       </c>
       <c r="BV3" t="n">
-        <v>336974.4290545614</v>
+        <v>336974.419698861</v>
       </c>
       <c r="BW3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="BX3" t="n">
-        <v>3788.952115952347</v>
+        <v>3788.899353198037</v>
       </c>
       <c r="BY3" t="n">
-        <v>717.8557549405775</v>
+        <v>717.8558196727361</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1006.774423990564</v>
+        <v>1006.774832033356</v>
       </c>
       <c r="CA3" t="n">
-        <v>344.8023913322563</v>
+        <v>344.8024504175468</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.9995308391810189</v>
+        <v>0.9995307545857491</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.832921432487972e-05</v>
+        <v>1.832922070482704e-05</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02606721650931828</v>
+        <v>0.02606722877439043</v>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
@@ -8655,97 +8628,97 @@
         <v>1</v>
       </c>
       <c r="CG3" t="n">
-        <v>295.5933403806764</v>
+        <v>295.5933980054959</v>
       </c>
       <c r="CH3" t="n">
-        <v>135127.6985167088</v>
+        <v>135152.550402908</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.593299083550209</v>
+        <v>1.593591937892323</v>
       </c>
       <c r="CJ3" t="n">
-        <v>336974.4290545614</v>
+        <v>336974.419698861</v>
       </c>
       <c r="CK3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="CL3" t="n">
-        <v>3788.952115952347</v>
+        <v>3788.899353198037</v>
       </c>
       <c r="CM3" t="n">
-        <v>-698204.5814081966</v>
+        <v>-698189.2034242445</v>
       </c>
       <c r="CN3" t="n">
-        <v>717.8557549405775</v>
+        <v>717.8558196727361</v>
       </c>
       <c r="CO3" t="n">
-        <v>1006.774423990564</v>
+        <v>1006.774832033356</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.402474545981599</v>
+        <v>1.402474987933281</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.9995308391810189</v>
+        <v>0.9995307545857491</v>
       </c>
       <c r="CR3" t="n">
-        <v>344.8023913322563</v>
+        <v>344.8024504175468</v>
       </c>
       <c r="CS3" t="n">
-        <v>189425.2393372351</v>
+        <v>189460.1213377611</v>
       </c>
       <c r="CT3" t="n">
-        <v>5.279127551844835e-06</v>
+        <v>5.278155597806487e-06</v>
       </c>
       <c r="CU3" t="n">
-        <v>135065.0105415321</v>
+        <v>135089.839724667</v>
       </c>
       <c r="CV3" t="n">
-        <v>7.403842016452533e-06</v>
+        <v>7.402481208343629e-06</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.003395609225726045</v>
+        <v>0.003395610865324449</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.832921432487972e-05</v>
+        <v>1.832922070482704e-05</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02606721650931828</v>
+        <v>0.02606722877439043</v>
       </c>
       <c r="CZ3" t="n">
-        <v>135127.6985167088</v>
+        <v>135152.550402908</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.593299083550209</v>
+        <v>1.593591937892323</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.593299083550209</v>
+        <v>1.593591937892323</v>
       </c>
       <c r="DC3" t="n">
-        <v>336974.4290545614</v>
+        <v>336974.419698861</v>
       </c>
       <c r="DD3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="DE3" t="n">
-        <v>3788.952115952347</v>
+        <v>3788.899353198037</v>
       </c>
       <c r="DF3" t="n">
-        <v>717.8557549405775</v>
+        <v>717.8558196727361</v>
       </c>
       <c r="DG3" t="n">
-        <v>1006.774423990564</v>
+        <v>1006.774832033356</v>
       </c>
       <c r="DH3" t="n">
-        <v>344.8023913322563</v>
+        <v>344.8024504175468</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.9995308391810189</v>
+        <v>0.9995307545857491</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.832921432487972e-05</v>
+        <v>1.832922070482704e-05</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.02606721650931828</v>
+        <v>0.02606722877439043</v>
       </c>
       <c r="DL3" t="inlineStr">
         <is>
@@ -8756,37 +8729,37 @@
         <v>1</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0161271766514929</v>
+        <v>0.01612531557352456</v>
       </c>
       <c r="DO3" t="n">
-        <v>-1.826451165063137e-07</v>
+        <v>-1.820328153725114e-07</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01379703184927639</v>
+        <v>0.01379700796025294</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.02510682920285156</v>
+        <v>0.02510740051179448</v>
       </c>
       <c r="DR3" t="n">
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.05503085505850434</v>
+        <v>0.0550295420127566</v>
       </c>
       <c r="DT3" t="n">
-        <v>-6.162563515044184e-12</v>
+        <v>6.409296704479317e-12</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.8646059663065889</v>
+        <v>0.8593463900935355</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.8646059663065889</v>
+        <v>0.8593463900935355</v>
       </c>
       <c r="DW3" t="n">
-        <v>498767.6486054561</v>
+        <v>497542.5313189477</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.74270994387523</v>
+        <v>2.739474097862317</v>
       </c>
       <c r="DY3" t="n">
         <v>421784.4310884894</v>
@@ -8795,439 +8768,415 @@
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>1485.007527613314</v>
+        <v>382020.7369474773</v>
       </c>
       <c r="EB3" t="n">
+        <v>1483.141419653897</v>
+      </c>
+      <c r="EC3" t="n">
         <v>0</v>
       </c>
-      <c r="EC3" t="n">
-        <v>0.006324364444154158</v>
-      </c>
       <c r="ED3" t="n">
-        <v>-7.113135399052583e-08</v>
+        <v>0.02451482902380551</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.009985714285074807</v>
+        <v>0.002154432247484661</v>
       </c>
       <c r="EF3" t="n">
+        <v>0.01189215795664021</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.03201251962023062</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.0426828255335834</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0.1132567643817444</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>-4.00517952137136e-11</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0.9384151267142805</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>145.4521741139866</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>128.5369817996867</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>-68.07774426574724</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>-27.90728133463472</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>266.4365230904817</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>128.5369817996867</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>-233.3809442657472</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>-61.15576777799674</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>233.2017000724576</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>56609.23435171381</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0.8462886508546205</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>292389.9167357609</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>359281.0824090181</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>3801.043288486981</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>-527128.674515151</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>715.9717730463676</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>1004.398116121095</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>1.402845969538032</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0.9992653354508684</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>306.2175310793099</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>79355.78973678836</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>1.260147499403452e-05</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>56567.71410400878</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>1.767792840561562e-05</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0.004301565591054049</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>1.514718864662721e-05</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0.02121047961330947</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>56609.23435171381</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0.8462886508546205</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>0.8462886508546205</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>292389.9167357609</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>359281.0824090181</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3801.043288486981</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>715.9717730463676</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>1004.398116121095</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>306.2175310793099</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0.9992653354508684</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>1.514718864662721e-05</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>0.02121047961330947</v>
+      </c>
+      <c r="FZ3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="GA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>243.7657103970356</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>66077.78471196862</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0.9450026382995849</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>299935.863395979</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>369859.2498860607</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>3801.043288495656</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>-556704.7675839673</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>716.1582272499467</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>1004.653035361286</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>1.402836687667698</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>0.9992947564415877</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>313.0847706857505</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>92631.11819700095</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>1.079550824241671e-05</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>66031.29146202034</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>1.514433502448118e-05</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0.004115516130065827</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>1.570734104055231e-05</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0.02205815272714757</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>66077.78471196862</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0.9450026382995849</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>0.9450026382995849</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>299935.863395979</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>369859.2498860607</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>3801.043288495656</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>716.1582272499467</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>1004.653035361286</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>313.0847706857505</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0.9992947564415877</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>1.570734104055231e-05</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0.02205815272714757</v>
+      </c>
+      <c r="HG3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="HH3" t="b">
+        <v>1</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>268.6394115171584</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>92769.53420796643</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>1.203768259331335</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>317709.3513647552</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>394775.2928271905</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>3801.043288486981</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>-626334.7393431962</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>716.7882625208193</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>1005.447581151833</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>1.40271211698675</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0.9993935236460942</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>328.6884284610991</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>130050.407582974</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>7.68932615118477e-06</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>92713.54115222374</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>1.078591096372997e-05</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>0.0037351477583814</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>1.699039672467508e-05</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0.02401133482353212</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>92769.53420796643</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>1.203768259331335</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>1.203768259331335</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>317709.3513647552</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>394775.2928271905</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>3801.043288486981</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>716.7882625208193</v>
+      </c>
+      <c r="II3" t="n">
+        <v>1005.447581151833</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>328.6884284610991</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>0.9993935236460942</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>1.699039672467508e-05</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>0.02401133482353212</v>
+      </c>
+      <c r="IN3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="IO3" t="b">
+        <v>1</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>0.02445060328732329</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0.002174219644670809</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>0.01189873409995252</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>0.03197489169910529</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>0.04272264878002783</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>0.1132210975110797</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>-5.485784049241715e-11</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>0.4749962342172848</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>0.8700890577733613</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>387931.1479314626</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>2.739474098740049</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>381112.7188620705</v>
+      </c>
+      <c r="JB3" t="n">
         <v>0</v>
       </c>
-      <c r="EG3" t="n">
-        <v>0.005468285877895405</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0.02459527083900296</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0.002166430091196224</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0.01188681547315103</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>0.03204528799460138</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0.04266995612110982</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>0.1133637605190614</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>-1.69581848563638e-10</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0.9607483825628569</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>147.7007679785438</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>129.8298938092899</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>-70.42524785132204</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>-28.47728422255597</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>269.1165220734783</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>129.8298938092899</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>-235.728447851322</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>-61.15576777799674</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>232.4483844532469</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>55930.36243479655</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>0.8388505535724415</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>291851.9784497342</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>358526.9805661469</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>3801.264989904659</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>-525070.925215879</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>715.9598606112655</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>1004.38029907294</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>1.402844425126613</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>0.9992640790986035</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>305.7219839082633</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>78403.94833263803</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>1.275445970855169e-05</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>55889.2682098813</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>1.789252269764374e-05</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0.004315467362656826</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>1.510687330932671e-05</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0.02114958133219835</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>55930.36243479655</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0.8388505535724415</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>0.8388505535724415</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>291851.9784497342</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>358526.9805661469</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>3801.264989904659</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>715.9598606112655</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>1004.38029907294</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>305.7219839082633</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0.9992640790986035</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>1.510687330932671e-05</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0.02114958133219835</v>
-      </c>
-      <c r="GD3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="GE3" t="b">
-        <v>1</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>243.3416299436559</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>65626.74669726423</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0.9401885603147393</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>299633.0529654348</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>369434.7389966867</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>3801.264989923234</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>-555571.2794989879</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>716.1496837321154</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>1004.640612356906</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>1.402836076281372</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0.9992939778463985</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>312.8119994319403</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>91998.71705007755</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>1.086971679676436e-05</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>65580.51835532139</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>1.524843086146264e-05</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>0.004122663927114679</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1.568502721522125e-05</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0.02202431925186129</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>65626.74669726423</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0.9401885603147393</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0.9401885603147393</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>299633.0529654348</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>369434.7389966867</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>3801.264989923234</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>716.1496837321154</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>1004.640612356906</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>312.8119994319403</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0.9992939778463985</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>1.568502721522125e-05</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>0.02202431925186129</v>
-      </c>
-      <c r="HK3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="HL3" t="b">
-        <v>1</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>268.6028226804219</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>92654.01885982853</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>1.202432769030554</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>317683.3645380763</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>394738.8317926236</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>3801.264989914587</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>-626291.6742546997</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>716.7868831323688</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>1005.44471545445</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>1.402710818396457</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>0.9993938117837826</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>328.6659854547154</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>129888.3869401539</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>7.698917690468743e-06</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>92598.12160616188</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>1.079935513436436e-05</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0.00373564587481117</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>1.698853377487505e-05</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0.02400847843367215</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>92654.01885982853</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>1.202432769030554</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>1.202432769030554</v>
-      </c>
-      <c r="II3" t="n">
-        <v>317683.3645380763</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>394738.8317926236</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>3801.264989914587</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>716.7868831323688</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>1005.44471545445</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>328.6659854547154</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>0.9993938117837826</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>1.698853377487505e-05</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>0.02400847843367215</v>
-      </c>
-      <c r="IR3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="IS3" t="b">
-        <v>1</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>0.02448128052685106</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>0.002201763967062647</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>0.0118978123828341</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>0.03198236065730625</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>0.04273633085024626</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0.1132995483843003</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>-9.257991595568171e-11</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>0.483121187722188</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0.880265523051921</v>
-      </c>
       <c r="JC3" t="n">
-        <v>389425.8542842524</v>
+        <v>356409.7355848434</v>
       </c>
       <c r="JD3" t="n">
-        <v>2.742709944537423</v>
+        <v>2819.454166372772</v>
       </c>
       <c r="JE3" t="n">
-        <v>381076.2578274033</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>2819.800080348505</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>6.466874290460979</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>0.008972033255953436</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0.0007902853744585437</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>0.01168970211656445</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>0.01556544214758444</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0.004336154882399994</v>
+        <v>6.44607188452823</v>
       </c>
     </row>
   </sheetData>
@@ -9266,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4091092861064464</v>
+        <v>0.4116004983770142</v>
       </c>
     </row>
     <row r="3">
@@ -9274,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4294021614893837</v>
+        <v>0.4307135950907691</v>
       </c>
     </row>
   </sheetData>
@@ -10380,7 +10329,7 @@
         <v>99</v>
       </c>
       <c r="H2" t="n">
-        <v>9.75423696357367e-11</v>
+        <v>3.496360888020452e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10411,7 +10360,7 @@
         <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>2.225793946283479e-10</v>
+        <v>1.34351253185546e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_windows/performance_analysis_evaluate_cascade_throat_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_evaluate_cascade_throat_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015307483574172</v>
+        <v>2.015461016597947</v>
       </c>
       <c r="C2" t="n">
-        <v>2.300000000043871</v>
+        <v>2.299999999961707</v>
       </c>
       <c r="D2" t="n">
-        <v>2.736586425993109</v>
+        <v>2.737065943079645</v>
       </c>
       <c r="E2" t="n">
-        <v>92.56668773393856</v>
+        <v>92.56376337782805</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08882413903751</v>
+        <v>79.09413211336732</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1456016621620949</v>
+        <v>0.1455173252785781</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23442580119961</v>
+        <v>-78.2396494386459</v>
       </c>
       <c r="I2" t="n">
-        <v>136004.5605316121</v>
+        <v>136037.5212891244</v>
       </c>
       <c r="J2" t="n">
-        <v>83.59223142692815</v>
+        <v>83.61249003633949</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.55185721834646</v>
+        <v>-24.49242669579841</v>
       </c>
       <c r="M2" t="n">
-        <v>135.273509197177</v>
+        <v>135.234326269795</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372085.8141401936</v>
+        <v>372082.4786628254</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7155150228027652</v>
+        <v>0.7155777079508036</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069586254973516</v>
+        <v>2.069685994825397</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999876494</v>
+        <v>2.399999999957172</v>
       </c>
       <c r="D3" t="n">
-        <v>2.739474097986275</v>
+        <v>2.739856258960444</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53503956194497</v>
+        <v>92.53315093959309</v>
       </c>
       <c r="F3" t="n">
-        <v>78.2120394163825</v>
+        <v>78.21512357257023</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1547846114657394</v>
+        <v>0.1547340301463403</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.36682402784824</v>
+        <v>-77.36985760271658</v>
       </c>
       <c r="I3" t="n">
-        <v>140692.6951454219</v>
+        <v>140717.8707456404</v>
       </c>
       <c r="J3" t="n">
-        <v>86.47369093142093</v>
+        <v>86.4891645640076</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.9621551357235</v>
+        <v>-26.92738856704577</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5752883583434</v>
+        <v>142.5519907081711</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370426.8748157118</v>
+        <v>370424.8496195124</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7032570154574247</v>
+        <v>0.7033060664803839</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.51709292679399</v>
+        <v>80.53202494058738</v>
       </c>
       <c r="D2" t="n">
-        <v>80.51709292679399</v>
+        <v>80.53202494058738</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.51709292679399</v>
+        <v>80.53202494058738</v>
       </c>
       <c r="H2" t="n">
-        <v>80.51709292679399</v>
+        <v>80.53202494058738</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3679815151253</v>
+        <v>292.3667825468701</v>
       </c>
       <c r="L2" t="n">
-        <v>132797.1147163576</v>
+        <v>132795.2111625588</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583144799189505</v>
+        <v>1.583128611413727</v>
       </c>
       <c r="N2" t="n">
-        <v>334661.0798719112</v>
+        <v>334660.2221710025</v>
       </c>
       <c r="O2" t="n">
-        <v>418542.9299618988</v>
+        <v>418541.7275680739</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687460.9792290343</v>
+        <v>-687457.6460250475</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7136117172994</v>
+        <v>717.7135574397028</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.648477798437</v>
+        <v>1006.648414819518</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576823629961</v>
+        <v>1.402576841951449</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980730455671</v>
+        <v>0.9994980646704519</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9173297983504</v>
+        <v>342.9166260125878</v>
       </c>
       <c r="W2" t="n">
-        <v>186165.6303743754</v>
+        <v>186162.9626718765</v>
       </c>
       <c r="X2" t="n">
-        <v>5.371560786967065e-06</v>
+        <v>5.371637761065075e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132731.1468704912</v>
+        <v>132729.2431357003</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534026666519521e-06</v>
+        <v>7.534134727021806e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433277971285069</v>
+        <v>0.003433292028088158</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817216953917954e-05</v>
+        <v>1.817211087539319e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582547624590024</v>
+        <v>0.02582538588508894</v>
       </c>
       <c r="AD2" t="n">
-        <v>132797.1147163576</v>
+        <v>132795.2111625588</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583144799189505</v>
+        <v>1.583128611413727</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583144799189505</v>
+        <v>1.583128611413727</v>
       </c>
       <c r="AG2" t="n">
-        <v>334661.0798719112</v>
+        <v>334660.2221710025</v>
       </c>
       <c r="AH2" t="n">
-        <v>418542.9299618988</v>
+        <v>418541.7275680739</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7136117172994</v>
+        <v>717.7135574397028</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.648477798437</v>
+        <v>1006.648414819518</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9173297983504</v>
+        <v>342.9166260125878</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980730455671</v>
+        <v>0.9994980646704519</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817216953917954e-05</v>
+        <v>1.817211087539319e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582547624590024</v>
+        <v>0.02582538588508894</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2348003029597291</v>
+        <v>0.2348443290050078</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2348003029597291</v>
+        <v>0.2348443290050078</v>
       </c>
       <c r="DH2" t="n">
-        <v>183501.5278309104</v>
+        <v>183534.2742844959</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.736586426086016</v>
+        <v>2.737065943086948</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>268.1804739389702</v>
+        <v>268.359912197718</v>
       </c>
       <c r="DV2" t="n">
-        <v>110.3106907186824</v>
+        <v>110.3833379394801</v>
       </c>
       <c r="DW2" t="n">
-        <v>244.4428729075525</v>
+        <v>244.6069524361592</v>
       </c>
       <c r="DX2" t="n">
-        <v>65.71158542021142</v>
+        <v>65.71185739886582</v>
       </c>
       <c r="DY2" t="n">
-        <v>268.1804739389702</v>
+        <v>268.359912197718</v>
       </c>
       <c r="DZ2" t="n">
-        <v>110.3106907186824</v>
+        <v>110.3833379394801</v>
       </c>
       <c r="EA2" t="n">
-        <v>244.4428729075525</v>
+        <v>244.6069524361592</v>
       </c>
       <c r="EB2" t="n">
-        <v>65.71158542021141</v>
+        <v>65.71185739886582</v>
       </c>
       <c r="EC2" t="n">
-        <v>259.7161473048152</v>
+        <v>259.6680857973368</v>
       </c>
       <c r="ED2" t="n">
-        <v>86090.0456388311</v>
+        <v>86032.52134614428</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.155556329877644</v>
+        <v>1.154998165437642</v>
       </c>
       <c r="EF2" t="n">
-        <v>311323.0966759897</v>
+        <v>311288.7600696505</v>
       </c>
       <c r="EG2" t="n">
-        <v>385824.0477875177</v>
+        <v>385775.9098510059</v>
       </c>
       <c r="EH2" t="n">
-        <v>3788.592532146</v>
+        <v>3788.598903899747</v>
       </c>
       <c r="EI2" t="n">
-        <v>-598134.6083692359</v>
+        <v>-598002.3153785301</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.5412203934281</v>
+        <v>716.5399202223302</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.209708029685</v>
+        <v>1005.20803883139</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.402863756362486</v>
+        <v>1.402863972351311</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9993247308970437</v>
+        <v>0.9993245345872503</v>
       </c>
       <c r="EN2" t="n">
-        <v>323.1785601223965</v>
+        <v>323.1486169228785</v>
       </c>
       <c r="EO2" t="n">
-        <v>120691.3664199217</v>
+        <v>120610.7164809138</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.285596805000106e-06</v>
+        <v>8.291137215474933e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>86032.13667224873</v>
+        <v>85974.63393315367</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.162356345756746e-05</v>
+        <v>1.163133768941095e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.00386380694214611</v>
+        <v>0.003864520381996836</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.653626066205354e-05</v>
+        <v>1.65337944315695e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02331864745558657</v>
+        <v>0.02331488829244842</v>
       </c>
       <c r="EV2" t="n">
-        <v>86090.0456388311</v>
+        <v>86032.52134614428</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.155556329877644</v>
+        <v>1.154998165437642</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.155556329877644</v>
+        <v>1.154998165437642</v>
       </c>
       <c r="EY2" t="n">
-        <v>311323.0966759897</v>
+        <v>311288.7600696505</v>
       </c>
       <c r="EZ2" t="n">
-        <v>385824.0477875177</v>
+        <v>385775.9098510059</v>
       </c>
       <c r="FA2" t="n">
-        <v>3788.592532146</v>
+        <v>3788.598903899747</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.5412203934281</v>
+        <v>716.5399202223302</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.209708029685</v>
+        <v>1005.20803883139</v>
       </c>
       <c r="FD2" t="n">
-        <v>323.1785601223965</v>
+        <v>323.1486169228785</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9993247308970437</v>
+        <v>0.9993245345872503</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.653626066205354e-05</v>
+        <v>1.65337944315695e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02331864745558657</v>
+        <v>0.02331488829244842</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.5937333100112</v>
+        <v>295.5937263429229</v>
       </c>
       <c r="FK2" t="n">
-        <v>135297.1574118434</v>
+        <v>135294.1527839187</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.595295983928476</v>
+        <v>1.595260577477948</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.3652607619</v>
+        <v>336974.3663917399</v>
       </c>
       <c r="FN2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.431088389</v>
       </c>
       <c r="FO2" t="n">
-        <v>3788.5925321512</v>
+        <v>3788.598903904948</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698099.7794804123</v>
+        <v>-698101.6365355878</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.8561963319721</v>
+        <v>717.8561885058041</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.777206328809</v>
+        <v>1006.777156996053</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.402477559535094</v>
+        <v>1.402477506102761</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.9995302623589711</v>
+        <v>0.9995302725861877</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8027942245753</v>
+        <v>344.8027870808182</v>
       </c>
       <c r="FV2" t="n">
-        <v>189663.0914370713</v>
+        <v>189658.8741418949</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.272507119983288e-06</v>
+        <v>5.272624360576145e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>135234.3145511309</v>
+        <v>135231.3126710486</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.394572918265568e-06</v>
+        <v>7.394737063837495e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.00339562040564056</v>
+        <v>0.00339562020741675</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.832925782835663e-05</v>
+        <v>1.832925705699661e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606730014231216</v>
+        <v>0.02606729865941641</v>
       </c>
       <c r="GC2" t="n">
-        <v>135297.1574118434</v>
+        <v>135294.1527839187</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595295983928476</v>
+        <v>1.595260577477948</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.595295983928476</v>
+        <v>1.595260577477948</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.3652607619</v>
+        <v>336974.3663917399</v>
       </c>
       <c r="GG2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GH2" t="n">
-        <v>3788.5925321512</v>
+        <v>3788.598903904948</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.8561963319721</v>
+        <v>717.8561885058041</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.777206328809</v>
+        <v>1006.777156996053</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8027942245753</v>
+        <v>344.8027870808182</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9995302623589711</v>
+        <v>0.9995302725861877</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.832925782835663e-05</v>
+        <v>1.832925705699661e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606730014231216</v>
+        <v>0.02606729865941641</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.5937333100112</v>
+        <v>295.5937263429229</v>
       </c>
       <c r="GR2" t="n">
-        <v>135297.1574118434</v>
+        <v>135294.1527839187</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.595295983928476</v>
+        <v>1.595260577477948</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3652607619</v>
+        <v>336974.3663917399</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.5925321512</v>
+        <v>3788.598903904948</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698099.7794804123</v>
+        <v>-698101.6365355878</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.8561963319721</v>
+        <v>717.8561885058041</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.777206328809</v>
+        <v>1006.777156996053</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.402477559535094</v>
+        <v>1.402477506102761</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9995302623589711</v>
+        <v>0.9995302725861877</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8027942245753</v>
+        <v>344.8027870808182</v>
       </c>
       <c r="HC2" t="n">
-        <v>189663.0914370713</v>
+        <v>189658.8741418949</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.272507119983288e-06</v>
+        <v>5.272624360576145e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>135234.3145511309</v>
+        <v>135231.3126710486</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.394572918265568e-06</v>
+        <v>7.394737063837495e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.00339562040564056</v>
+        <v>0.00339562020741675</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832925782835663e-05</v>
+        <v>1.832925705699661e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606730014231216</v>
+        <v>0.02606729865941641</v>
       </c>
       <c r="HJ2" t="n">
-        <v>135297.1574118434</v>
+        <v>135294.1527839187</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595295983928476</v>
+        <v>1.595260577477948</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.595295983928476</v>
+        <v>1.595260577477948</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.3652607619</v>
+        <v>336974.3663917399</v>
       </c>
       <c r="HN2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.431088389</v>
       </c>
       <c r="HO2" t="n">
-        <v>3788.5925321512</v>
+        <v>3788.598903904948</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.8561963319721</v>
+        <v>717.8561885058041</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.777206328809</v>
+        <v>1006.777156996053</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8027942245753</v>
+        <v>344.8027870808182</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9995302623589711</v>
+        <v>0.9995302725861877</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.832925782835663e-05</v>
+        <v>1.832925705699661e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606730014231216</v>
+        <v>0.02606729865941641</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,166 +3972,166 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8298213651221261</v>
+        <v>0.830453537920491</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.8298213651221261</v>
+        <v>0.830453537920491</v>
       </c>
       <c r="HZ2" t="n">
-        <v>490251.2447164503</v>
+        <v>490415.447552676</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.736586426091094</v>
+        <v>2.737065943010843</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01595362529222805</v>
+        <v>0.01595401972232894</v>
       </c>
       <c r="ID2" t="n">
-        <v>-1.786050812290162e-07</v>
+        <v>-1.786755949425342e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.01379133206949992</v>
+        <v>0.01379134453100929</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.02518310637917774</v>
+        <v>0.0251829021128466</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.05492788513582448</v>
+        <v>0.05492808769058988</v>
       </c>
       <c r="II2" t="n">
-        <v>2.478434124597584e-13</v>
+        <v>-2.538018406550435e-12</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>384354.2637049005</v>
+        <v>384304.7525436436</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>268.1804739389702</v>
+        <v>268.359912197718</v>
       </c>
       <c r="IN2" t="n">
-        <v>110.3106907186824</v>
+        <v>110.3833379394801</v>
       </c>
       <c r="IO2" t="n">
-        <v>244.4428729075525</v>
+        <v>244.6069524361592</v>
       </c>
       <c r="IP2" t="n">
-        <v>65.71158542021142</v>
+        <v>65.71185739886582</v>
       </c>
       <c r="IQ2" t="n">
-        <v>135.7627942948553</v>
+        <v>135.9174986714995</v>
       </c>
       <c r="IR2" t="n">
-        <v>110.3106907186824</v>
+        <v>110.3833379394801</v>
       </c>
       <c r="IS2" t="n">
-        <v>79.13967290755249</v>
+        <v>79.30375243615916</v>
       </c>
       <c r="IT2" t="n">
-        <v>35.65661149241665</v>
+        <v>35.69496007039369</v>
       </c>
       <c r="IU2" t="n">
-        <v>259.7161473049218</v>
+        <v>259.6680857974367</v>
       </c>
       <c r="IV2" t="n">
-        <v>86090.04563894865</v>
+        <v>86032.52134625983</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.155556329878747</v>
+        <v>1.154998165438748</v>
       </c>
       <c r="IX2" t="n">
-        <v>311323.0966760657</v>
+        <v>311288.7600697219</v>
       </c>
       <c r="IY2" t="n">
-        <v>385824.0477876243</v>
+        <v>385775.909851106</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3788.59253214602</v>
+        <v>3788.598903899748</v>
       </c>
       <c r="JA2" t="n">
-        <v>-598134.6083695381</v>
+        <v>-598002.3153788085</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.5412203934309</v>
+        <v>716.5399202223329</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.209708029688</v>
+        <v>1005.208038831393</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.402863756362486</v>
+        <v>1.402863972351311</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993247308970442</v>
+        <v>0.9993245345872508</v>
       </c>
       <c r="JF2" t="n">
-        <v>323.178560122463</v>
+        <v>323.1486169229407</v>
       </c>
       <c r="JG2" t="n">
-        <v>120691.3664200866</v>
+        <v>120610.7164810757</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.285596804988785e-06</v>
+        <v>8.291137215463798e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>86032.13667236629</v>
+        <v>85974.63393326919</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.162356345755158e-05</v>
+        <v>1.163133768939532e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003863806942144525</v>
+        <v>0.003864520381995352</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.6536260662059e-05</v>
+        <v>1.653379443157463e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.02331864745559491</v>
+        <v>0.02331488829245624</v>
       </c>
       <c r="JN2" t="n">
-        <v>86090.04563894865</v>
+        <v>86032.52134625983</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.155556329878747</v>
+        <v>1.154998165438748</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.155556329878747</v>
+        <v>1.154998165438748</v>
       </c>
       <c r="JQ2" t="n">
-        <v>311323.0966760657</v>
+        <v>311288.7600697219</v>
       </c>
       <c r="JR2" t="n">
-        <v>385824.0477876243</v>
+        <v>385775.909851106</v>
       </c>
       <c r="JS2" t="n">
-        <v>3788.59253214602</v>
+        <v>3788.598903899748</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.5412203934309</v>
+        <v>716.5399202223329</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.209708029688</v>
+        <v>1005.208038831393</v>
       </c>
       <c r="JV2" t="n">
-        <v>323.178560122463</v>
+        <v>323.1486169229407</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993247308970442</v>
+        <v>0.9993245345872508</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.6536260662059e-05</v>
+        <v>1.653379443157463e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.02331864745559491</v>
+        <v>0.02331488829245624</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.5937333101111</v>
+        <v>295.5937263429229</v>
       </c>
       <c r="KC2" t="n">
-        <v>135297.1574119946</v>
+        <v>135294.152783918</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.595295983929719</v>
+        <v>1.595260577477941</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.3652608333</v>
+        <v>336974.3663917399</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KG2" t="n">
-        <v>3788.59253215122</v>
+        <v>3788.598903904949</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698099.7794806962</v>
+        <v>-698101.6365355882</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.8561963319769</v>
+        <v>717.8561885058041</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.777206328815</v>
+        <v>1006.777156996053</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.402477559535092</v>
+        <v>1.402477506102761</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.9995302623589719</v>
+        <v>0.9995302725861877</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8027942246335</v>
+        <v>344.8027870808182</v>
       </c>
       <c r="KN2" t="n">
-        <v>189663.0914372832</v>
+        <v>189658.874141894</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.272507119977397e-06</v>
+        <v>5.272624360576168e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>135234.3145512822</v>
+        <v>135231.3126710479</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.394572918257296e-06</v>
+        <v>7.394737063837531e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.003395620405639414</v>
+        <v>0.00339562020741675</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.832925782836148e-05</v>
+        <v>1.832925705699661e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606730014231966</v>
+        <v>0.02606729865941641</v>
       </c>
       <c r="KU2" t="n">
-        <v>135297.1574119946</v>
+        <v>135294.152783918</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.595295983929719</v>
+        <v>1.595260577477941</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.595295983929719</v>
+        <v>1.595260577477941</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.3652608333</v>
+        <v>336974.3663917399</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3788.59253215122</v>
+        <v>3788.598903904949</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.8561963319769</v>
+        <v>717.8561885058041</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.777206328815</v>
+        <v>1006.777156996053</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.8027942246335</v>
+        <v>344.8027870808182</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.9995302623589719</v>
+        <v>0.9995302725861877</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.832925782836148e-05</v>
+        <v>1.832925705699661e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606730014231966</v>
+        <v>0.02606729865941641</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>268.9149995864311</v>
+        <v>268.8879241072212</v>
       </c>
       <c r="LJ2" t="n">
-        <v>97217.51293092281</v>
+        <v>97181.17776633881</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.260223877100544</v>
+        <v>1.259879872190854</v>
       </c>
       <c r="LL2" t="n">
-        <v>317896.7664459503</v>
+        <v>317877.4201707435</v>
       </c>
       <c r="LM2" t="n">
-        <v>395039.8159448979</v>
+        <v>395012.6930736645</v>
       </c>
       <c r="LN2" t="n">
-        <v>3788.592532146019</v>
+        <v>3788.598903899748</v>
       </c>
       <c r="LO2" t="n">
-        <v>-623769.5432703047</v>
+        <v>-623695.8014708323</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.8101497221987</v>
+        <v>716.8092871078029</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.542677166305</v>
+        <v>1005.541587959902</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.402801951892011</v>
+        <v>1.402802120515322</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.9993682450412389</v>
+        <v>0.9993681217857528</v>
       </c>
       <c r="LT2" t="n">
-        <v>328.8592385360113</v>
+        <v>328.8426615527819</v>
       </c>
       <c r="LU2" t="n">
-        <v>136291.1944007565</v>
+        <v>136240.2547114801</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.337231171806718e-06</v>
+        <v>7.339974533354541e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>97156.40487734959</v>
+        <v>97120.08038698432</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.029268220929337e-05</v>
+        <v>1.029653183991821e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.003731886927815498</v>
+        <v>0.003732261706924965</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.700496896182161e-05</v>
+        <v>1.700359847868265e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.02403411266992757</v>
+        <v>0.02403201725594785</v>
       </c>
       <c r="MB2" t="n">
-        <v>97217.51293092281</v>
+        <v>97181.17776633881</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.260223877100544</v>
+        <v>1.259879872190854</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.260223877100544</v>
+        <v>1.259879872190854</v>
       </c>
       <c r="ME2" t="n">
-        <v>317896.7664459503</v>
+        <v>317877.4201707435</v>
       </c>
       <c r="MF2" t="n">
-        <v>395039.8159448979</v>
+        <v>395012.6930736645</v>
       </c>
       <c r="MG2" t="n">
-        <v>3788.592532146019</v>
+        <v>3788.598903899748</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.8101497221987</v>
+        <v>716.8092871078029</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.542677166305</v>
+        <v>1005.541587959902</v>
       </c>
       <c r="MJ2" t="n">
-        <v>328.8592385360113</v>
+        <v>328.8426615527819</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.9993682450412389</v>
+        <v>0.9993681217857528</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.700496896182161e-05</v>
+        <v>1.700359847868265e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.02403411266992757</v>
+        <v>0.02403201725594785</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.8298213651219554</v>
+        <v>0.8304535379203313</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.4200860175978577</v>
+        <v>0.4206036837345059</v>
       </c>
       <c r="MR2" t="n">
-        <v>247234.4528775175</v>
+        <v>247433.5269293125</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.736586426093706</v>
+        <v>2.737065943013465</v>
       </c>
       <c r="MT2" t="n">
-        <v>381377.2419797779</v>
+        <v>381350.1191084441</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>135.273509197177</v>
+        <v>135.234326269795</v>
       </c>
       <c r="MW2" t="n">
-        <v>123.0428316975635</v>
+        <v>123.0654110277745</v>
       </c>
       <c r="MX2" t="n">
-        <v>-56.20839668914053</v>
+        <v>-56.06449509458082</v>
       </c>
       <c r="MY2" t="n">
-        <v>-24.55185721834646</v>
+        <v>-24.49242669579841</v>
       </c>
       <c r="MZ2" t="n">
-        <v>253.3908559911494</v>
+        <v>253.2760387855953</v>
       </c>
       <c r="NA2" t="n">
-        <v>123.0428316975635</v>
+        <v>123.0654110277745</v>
       </c>
       <c r="NB2" t="n">
-        <v>-221.5115966891405</v>
+        <v>-221.3676950945808</v>
       </c>
       <c r="NC2" t="n">
-        <v>-60.94918436564583</v>
+        <v>-60.92891175597168</v>
       </c>
       <c r="ND2" t="n">
-        <v>236.8531194511331</v>
+        <v>236.8550748426379</v>
       </c>
       <c r="NE2" t="n">
-        <v>59999.99999785647</v>
+        <v>59999.99999999987</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.8831455139087857</v>
+        <v>0.883138199845522</v>
       </c>
       <c r="NG2" t="n">
-        <v>294997.3791191726</v>
+        <v>294998.7806200492</v>
       </c>
       <c r="NH2" t="n">
-        <v>362936.352994834</v>
+        <v>362938.3171620027</v>
       </c>
       <c r="NI2" t="n">
-        <v>3799.909996467897</v>
+        <v>3799.918289188037</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-537084.1833021316</v>
+        <v>-537091.6136195381</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.032497584975</v>
+        <v>716.032522856737</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.487937157484</v>
+        <v>1004.487934518086</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.402852441118814</v>
+        <v>1.402852387920182</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.9992718290086211</v>
+        <v>0.9992718552126348</v>
       </c>
       <c r="NO2" t="n">
-        <v>308.6083020020596</v>
+        <v>308.6095781311741</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.96984042831</v>
+        <v>84109.96885928648</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188919698695861e-05</v>
+        <v>1.188919712564596e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59956.39126047231</v>
+        <v>59956.3928347336</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667878901609734e-05</v>
+        <v>1.667878857816619e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.004235436775310801</v>
+        <v>0.00423540149307542</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.534191315934591e-05</v>
+        <v>1.534201683283813e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02150484610156793</v>
+        <v>0.02150500262377587</v>
       </c>
       <c r="NW2" t="n">
-        <v>59999.99999785647</v>
+        <v>59999.99999999987</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.8831455139087857</v>
+        <v>0.883138199845522</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.8831455139087857</v>
+        <v>0.883138199845522</v>
       </c>
       <c r="NZ2" t="n">
-        <v>294997.3791191726</v>
+        <v>294998.7806200492</v>
       </c>
       <c r="OA2" t="n">
-        <v>362936.352994834</v>
+        <v>362938.3171620027</v>
       </c>
       <c r="OB2" t="n">
-        <v>3799.909996467897</v>
+        <v>3799.918289188037</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.032497584975</v>
+        <v>716.032522856737</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.487937157484</v>
+        <v>1004.487934518086</v>
       </c>
       <c r="OE2" t="n">
-        <v>308.6083020020596</v>
+        <v>308.6095781311741</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.9992718290086211</v>
+        <v>0.9992718552126348</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.534191315934591e-05</v>
+        <v>1.534201683283813e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.02150484610156793</v>
+        <v>0.02150500262377587</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>245.9899579036</v>
+        <v>245.9866206919714</v>
       </c>
       <c r="OL2" t="n">
-        <v>68475.90311775028</v>
+        <v>68470.68678641229</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9704399109141548</v>
+        <v>0.9703791408162958</v>
       </c>
       <c r="ON2" t="n">
-        <v>301524.1004806163</v>
+        <v>301521.7216284009</v>
       </c>
       <c r="OO2" t="n">
-        <v>372085.8141401936</v>
+        <v>372082.4786628254</v>
       </c>
       <c r="OP2" t="n">
-        <v>3799.909996467036</v>
+        <v>3799.918289196607</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-562653.8859282014</v>
+        <v>-562646.5802022652</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.2042342648067</v>
+        <v>716.2041572021876</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.719346183368</v>
+        <v>1004.719204882697</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.40283915971919</v>
+        <v>1.402839113371777</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.9992991345094377</v>
+        <v>0.9992991436744176</v>
       </c>
       <c r="OV2" t="n">
-        <v>314.5115752504288</v>
+        <v>314.5094394895451</v>
       </c>
       <c r="OW2" t="n">
-        <v>95993.51993898436</v>
+        <v>95986.20506627126</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.041736984575232e-05</v>
+        <v>1.041816372789793e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68428.02988063123</v>
+        <v>68422.81780664412</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.461389436089922e-05</v>
+        <v>1.461500756700634e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004078428943613929</v>
+        <v>0.004078483783250555</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.582413100516232e-05</v>
+        <v>1.58239558306952e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.02223531517186058</v>
+        <v>0.02223504910978904</v>
       </c>
       <c r="PD2" t="n">
-        <v>68475.90311775028</v>
+        <v>68470.68678641229</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.9704399109141548</v>
+        <v>0.9703791408162958</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9704399109141548</v>
+        <v>0.9703791408162958</v>
       </c>
       <c r="PG2" t="n">
-        <v>301524.1004806163</v>
+        <v>301521.7216284009</v>
       </c>
       <c r="PH2" t="n">
-        <v>372085.8141401936</v>
+        <v>372082.4786628254</v>
       </c>
       <c r="PI2" t="n">
-        <v>3799.909996467036</v>
+        <v>3799.918289196607</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.2042342648067</v>
+        <v>716.2041572021876</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.719346183368</v>
+        <v>1004.719204882697</v>
       </c>
       <c r="PL2" t="n">
-        <v>314.5115752504288</v>
+        <v>314.5094394895451</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9992991345094377</v>
+        <v>0.9992991436744176</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.582413100516232e-05</v>
+        <v>1.58239558306952e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.02223531517186058</v>
+        <v>0.02223504910978904</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>268.9044324062121</v>
+        <v>268.8773570199542</v>
       </c>
       <c r="PS2" t="n">
-        <v>93456.81904750386</v>
+        <v>93421.26342985702</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.211492551640722</v>
+        <v>1.211153726623904</v>
       </c>
       <c r="PU2" t="n">
-        <v>317897.9309856739</v>
+        <v>317878.5841851818</v>
       </c>
       <c r="PV2" t="n">
-        <v>395039.8159447977</v>
+        <v>395012.693073464</v>
       </c>
       <c r="PW2" t="n">
-        <v>3799.909996458465</v>
+        <v>3799.918289188036</v>
       </c>
       <c r="PX2" t="n">
-        <v>-626772.8248475575</v>
+        <v>-626699.2934152014</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.7977888235076</v>
+        <v>716.7969255531513</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.465250387831</v>
+        <v>1005.46415841024</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.402718125063023</v>
+        <v>1.402718291005957</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.9993924304690657</v>
+        <v>0.9993923161032597</v>
       </c>
       <c r="QC2" t="n">
-        <v>328.850869992882</v>
+        <v>328.8342954681277</v>
       </c>
       <c r="QD2" t="n">
-        <v>131014.3114359508</v>
+        <v>130964.4673502146</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.632753926191279e-06</v>
+        <v>7.635658894605974e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>93400.31264660848</v>
+        <v>93364.7676728402</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.070660227641445e-05</v>
+        <v>1.071067839534613e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.003731523193868759</v>
+        <v>0.003731897902519721</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.7003864661522e-05</v>
+        <v>1.700249425000658e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.02403196740247236</v>
+        <v>0.02402987210319137</v>
       </c>
       <c r="QK2" t="n">
-        <v>93456.81904750386</v>
+        <v>93421.26342985702</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.211492551640722</v>
+        <v>1.211153726623904</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.211492551640722</v>
+        <v>1.211153726623904</v>
       </c>
       <c r="QN2" t="n">
-        <v>317897.9309856739</v>
+        <v>317878.5841851818</v>
       </c>
       <c r="QO2" t="n">
-        <v>395039.8159447977</v>
+        <v>395012.693073464</v>
       </c>
       <c r="QP2" t="n">
-        <v>3799.909996458465</v>
+        <v>3799.918289188036</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.7977888235076</v>
+        <v>716.7969255531513</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.465250387831</v>
+        <v>1005.46415841024</v>
       </c>
       <c r="QS2" t="n">
-        <v>328.850869992882</v>
+        <v>328.8342954681277</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9993924304690657</v>
+        <v>0.9993923161032597</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.7003864661522e-05</v>
+        <v>1.700249425000658e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.02403196740247236</v>
+        <v>0.02402987210319137</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.4383339927007996</v>
+        <v>0.4382052141373065</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.821075954040466</v>
+        <v>0.8207005120169688</v>
       </c>
       <c r="RA2" t="n">
-        <v>380117.7037296589</v>
+        <v>379939.7495840255</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.736586425993109</v>
+        <v>2.737065943079645</v>
       </c>
       <c r="RC2" t="n">
-        <v>381377.2419797779</v>
+        <v>381350.1191084441</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.02434338147107242</v>
+        <v>0.0243824170280734</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.001878260471377819</v>
+        <v>0.001899441189367724</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.01189985195867785</v>
+        <v>0.01189653595464985</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.03191600446276638</v>
+        <v>0.03194002580814421</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.04236690797682069</v>
+        <v>0.04238224442778565</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.1124044063407152</v>
+        <v>0.1125006644080208</v>
       </c>
       <c r="RJ2" t="n">
-        <v>2.818120736769458e-12</v>
+        <v>-1.416054218328355e-10</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360270.8205822113</v>
+        <v>360272.3128509006</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.60702140318358</v>
+        <v>80.61892404737108</v>
       </c>
       <c r="D3" t="n">
-        <v>80.60702140318358</v>
+        <v>80.61892404737108</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.60702140318358</v>
+        <v>80.61892404737108</v>
       </c>
       <c r="H3" t="n">
-        <v>80.60702140318358</v>
+        <v>80.61892404737108</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3607573312513</v>
+        <v>292.3598005569998</v>
       </c>
       <c r="L3" t="n">
-        <v>132785.645465731</v>
+        <v>132784.126526156</v>
       </c>
       <c r="M3" t="n">
-        <v>1.58304726395176</v>
+        <v>1.583034346611986</v>
       </c>
       <c r="N3" t="n">
-        <v>334655.9119384789</v>
+        <v>334655.2274951276</v>
       </c>
       <c r="O3" t="n">
-        <v>418535.6851388432</v>
+        <v>418534.7256313121</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687440.8955615896</v>
+        <v>-687438.235671207</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7132846903638</v>
+        <v>717.7132413812285</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.648098343234</v>
+        <v>1006.648048090493</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402576934015541</v>
+        <v>1.40257694863371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.999498022584433</v>
+        <v>0.9994980159016482</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9130892321466</v>
+        <v>342.912527605623</v>
       </c>
       <c r="W3" t="n">
-        <v>186149.5569908438</v>
+        <v>186147.428299004</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372024603041023e-06</v>
+        <v>5.372086034912739e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132719.6765299017</v>
+        <v>132718.1574460749</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.534677797189331e-06</v>
+        <v>7.534764038645678e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433362669955022</v>
+        <v>0.003433373887798947</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817181606880044e-05</v>
+        <v>1.817176925475244e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582493179007944</v>
+        <v>0.02582485968177947</v>
       </c>
       <c r="AD3" t="n">
-        <v>132785.645465731</v>
+        <v>132784.126526156</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.58304726395176</v>
+        <v>1.583034346611986</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.58304726395176</v>
+        <v>1.583034346611986</v>
       </c>
       <c r="AG3" t="n">
-        <v>334655.9119384789</v>
+        <v>334655.2274951276</v>
       </c>
       <c r="AH3" t="n">
-        <v>418535.6851388432</v>
+        <v>418534.7256313121</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7132846903638</v>
+        <v>717.7132413812285</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.648098343234</v>
+        <v>1006.648048090493</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9130892321466</v>
+        <v>342.912527605623</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.999498022584433</v>
+        <v>0.9994980159016482</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817181606880044e-05</v>
+        <v>1.817176925475244e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582493179007944</v>
+        <v>0.02582485968177947</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2350654551673119</v>
+        <v>0.2351005505989834</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2350654551673119</v>
+        <v>0.2351005505989834</v>
       </c>
       <c r="DH3" t="n">
-        <v>183698.7335327049</v>
+        <v>183724.8331143463</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.739474097883853</v>
+        <v>2.739856258968485</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>269.8984361103117</v>
+        <v>270.0096461582981</v>
       </c>
       <c r="DV3" t="n">
-        <v>110.9412339574054</v>
+        <v>110.9901773532149</v>
       </c>
       <c r="DW3" t="n">
-        <v>246.0431027742908</v>
+        <v>246.1430266118283</v>
       </c>
       <c r="DX3" t="n">
-        <v>65.72930943218435</v>
+        <v>65.72855740591538</v>
       </c>
       <c r="DY3" t="n">
-        <v>269.8984361103117</v>
+        <v>270.0096461582981</v>
       </c>
       <c r="DZ3" t="n">
-        <v>110.9412339574054</v>
+        <v>110.9901773532149</v>
       </c>
       <c r="EA3" t="n">
-        <v>246.0431027742908</v>
+        <v>246.1430266118283</v>
       </c>
       <c r="EB3" t="n">
-        <v>65.72930943218435</v>
+        <v>65.72855740591538</v>
       </c>
       <c r="EC3" t="n">
-        <v>259.2546785081677</v>
+        <v>259.2247043028132</v>
       </c>
       <c r="ED3" t="n">
-        <v>85538.65463638502</v>
+        <v>85502.96500468506</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.150201058108026</v>
+        <v>1.14985423753114</v>
       </c>
       <c r="EF3" t="n">
-        <v>310993.4114340668</v>
+        <v>310971.9971210546</v>
       </c>
       <c r="EG3" t="n">
-        <v>385361.8481811936</v>
+        <v>385331.826579325</v>
       </c>
       <c r="EH3" t="n">
-        <v>3788.654478386301</v>
+        <v>3788.658382551285</v>
       </c>
       <c r="EI3" t="n">
-        <v>-596864.5505913768</v>
+        <v>-596782.0223419063</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.5287823817417</v>
+        <v>716.5279782001992</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.193723732596</v>
+        <v>1005.192689978034</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.402865800298115</v>
+        <v>1.402865932050432</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.9993228550508733</v>
+        <v>0.9993227334871307</v>
       </c>
       <c r="EN3" t="n">
-        <v>322.8909420331811</v>
+        <v>322.8722512723868</v>
       </c>
       <c r="EO3" t="n">
-        <v>119918.3065430453</v>
+        <v>119868.2690121082</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.339010354862246e-06</v>
+        <v>8.342491371915844e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>85480.95371457639</v>
+        <v>85445.2776088934</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.169851243516809e-05</v>
+        <v>1.170339693408541e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003870667995148947</v>
+        <v>0.0038711144963529</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.651257339041816e-05</v>
+        <v>1.651103424280383e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.02328254445780822</v>
+        <v>0.02328019875831514</v>
       </c>
       <c r="EV3" t="n">
-        <v>85538.65463638502</v>
+        <v>85502.96500468506</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.150201058108026</v>
+        <v>1.14985423753114</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.150201058108026</v>
+        <v>1.14985423753114</v>
       </c>
       <c r="EY3" t="n">
-        <v>310993.4114340668</v>
+        <v>310971.9971210546</v>
       </c>
       <c r="EZ3" t="n">
-        <v>385361.8481811936</v>
+        <v>385331.826579325</v>
       </c>
       <c r="FA3" t="n">
-        <v>3788.654478386301</v>
+        <v>3788.658382551285</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.5287823817417</v>
+        <v>716.5279782001992</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.193723732596</v>
+        <v>1005.192689978034</v>
       </c>
       <c r="FD3" t="n">
-        <v>322.8909420331811</v>
+        <v>322.8722512723868</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9993228550508733</v>
+        <v>0.9993227334871307</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.651257339041816e-05</v>
+        <v>1.651103424280383e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02328254445780822</v>
+        <v>0.02328019875831514</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.5936655843844</v>
+        <v>295.5936613164599</v>
       </c>
       <c r="FK3" t="n">
-        <v>135267.9492286744</v>
+        <v>135266.1085927642</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.594951795472837</v>
+        <v>1.594930105465085</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.3762564479</v>
+        <v>336974.3769493707</v>
       </c>
       <c r="FN3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FO3" t="n">
-        <v>3788.654478391502</v>
+        <v>3788.658382556485</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698117.8338118483</v>
+        <v>-698118.9716885785</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.8561202533263</v>
+        <v>717.8561154590132</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.776726761779</v>
+        <v>1006.776696540501</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.402477040115637</v>
+        <v>1.402477007382942</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.9995303617788143</v>
+        <v>0.9995303680440643</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.8027247808847</v>
+        <v>344.8027204047031</v>
       </c>
       <c r="FV3" t="n">
-        <v>189622.0948469083</v>
+        <v>189619.5113320915</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.273647044176743e-06</v>
+        <v>5.273718896198623e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>135205.1330774539</v>
+        <v>135203.2941245335</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.396168897131575e-06</v>
+        <v>7.396269495319519e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003395618478668783</v>
+        <v>0.003395618357235026</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.832925033001352e-05</v>
+        <v>1.83292498574846e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0260672857271427</v>
+        <v>0.0260672848187311</v>
       </c>
       <c r="GC3" t="n">
-        <v>135267.9492286744</v>
+        <v>135266.1085927642</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594951795472837</v>
+        <v>1.594930105465085</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.594951795472837</v>
+        <v>1.594930105465085</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.3762564479</v>
+        <v>336974.3769493707</v>
       </c>
       <c r="GG3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GH3" t="n">
-        <v>3788.654478391502</v>
+        <v>3788.658382556485</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.8561202533263</v>
+        <v>717.8561154590132</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.776726761779</v>
+        <v>1006.776696540501</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.8027247808847</v>
+        <v>344.8027204047031</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9995303617788143</v>
+        <v>0.9995303680440643</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.832925033001352e-05</v>
+        <v>1.83292498574846e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.0260672857271427</v>
+        <v>0.0260672848187311</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.5936655843844</v>
+        <v>295.5936613164599</v>
       </c>
       <c r="GR3" t="n">
-        <v>135267.9492286744</v>
+        <v>135266.1085927642</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.594951795472837</v>
+        <v>1.594930105465085</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.3762564479</v>
+        <v>336974.3769493707</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.654478391502</v>
+        <v>3788.658382556485</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698117.8338118483</v>
+        <v>-698118.9716885785</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.8561202533263</v>
+        <v>717.8561154590132</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.776726761779</v>
+        <v>1006.776696540501</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.402477040115637</v>
+        <v>1.402477007382942</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9995303617788143</v>
+        <v>0.9995303680440643</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.8027247808847</v>
+        <v>344.8027204047031</v>
       </c>
       <c r="HC3" t="n">
-        <v>189622.0948469083</v>
+        <v>189619.5113320915</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.273647044176743e-06</v>
+        <v>5.273718896198623e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>135205.1330774539</v>
+        <v>135203.2941245335</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.396168897131575e-06</v>
+        <v>7.396269495319519e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.003395618478668783</v>
+        <v>0.003395618357235026</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832925033001352e-05</v>
+        <v>1.83292498574846e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.0260672857271427</v>
+        <v>0.0260672848187311</v>
       </c>
       <c r="HJ3" t="n">
-        <v>135267.9492286744</v>
+        <v>135266.1085927642</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594951795472837</v>
+        <v>1.594930105465085</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.594951795472837</v>
+        <v>1.594930105465085</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.3762564479</v>
+        <v>336974.3769493707</v>
       </c>
       <c r="HN3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HO3" t="n">
-        <v>3788.654478391502</v>
+        <v>3788.658382556485</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.8561202533263</v>
+        <v>717.8561154590132</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.776726761779</v>
+        <v>1006.776696540501</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.8027247808847</v>
+        <v>344.8027204047031</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9995303617788143</v>
+        <v>0.9995303680440643</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.832925033001352e-05</v>
+        <v>1.83292498574846e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.0260672857271427</v>
+        <v>0.0260672848187311</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,166 +5456,166 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8358811009401937</v>
+        <v>0.8362739290670976</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.8358811009401937</v>
+        <v>0.8362739290670976</v>
       </c>
       <c r="HZ3" t="n">
-        <v>491809.7221654195</v>
+        <v>491909.8639937616</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.739474097841065</v>
+        <v>2.739856258969246</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.01597187822282696</v>
+        <v>0.01597125674100318</v>
       </c>
       <c r="ID3" t="n">
-        <v>-1.792898703477757e-07</v>
+        <v>-1.793336701274667e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.01379193482753116</v>
+        <v>0.01379191296190491</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.0251748243243768</v>
+        <v>0.02517508639410731</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.05493845808486457</v>
+        <v>0.05493807676334526</v>
       </c>
       <c r="II3" t="n">
-        <v>-6.694506060611616e-13</v>
+        <v>-4.06064071256651e-14</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>383878.7067615397</v>
+        <v>383847.8503459267</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>269.8984361103117</v>
+        <v>270.0096461582981</v>
       </c>
       <c r="IN3" t="n">
-        <v>110.9412339574054</v>
+        <v>110.9901773532149</v>
       </c>
       <c r="IO3" t="n">
-        <v>246.0431027742908</v>
+        <v>246.1430266118283</v>
       </c>
       <c r="IP3" t="n">
-        <v>65.72930943218435</v>
+        <v>65.72855740591538</v>
       </c>
       <c r="IQ3" t="n">
-        <v>137.211112130154</v>
+        <v>137.3094936103421</v>
       </c>
       <c r="IR3" t="n">
-        <v>110.9412339574054</v>
+        <v>110.9901773532149</v>
       </c>
       <c r="IS3" t="n">
-        <v>80.73990277429084</v>
+        <v>80.83982661182833</v>
       </c>
       <c r="IT3" t="n">
-        <v>36.04607188452823</v>
+        <v>36.06776716241515</v>
       </c>
       <c r="IU3" t="n">
-        <v>259.2546785082678</v>
+        <v>259.2247043029132</v>
       </c>
       <c r="IV3" t="n">
-        <v>85538.65463650064</v>
+        <v>85502.9650048</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.150201058109136</v>
+        <v>1.149854237532241</v>
       </c>
       <c r="IX3" t="n">
-        <v>310993.4114341385</v>
+        <v>310971.9971211262</v>
       </c>
       <c r="IY3" t="n">
-        <v>385361.848181294</v>
+        <v>385331.8265794253</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3788.654478386301</v>
+        <v>3788.658382551285</v>
       </c>
       <c r="JA3" t="n">
-        <v>-596864.5505916557</v>
+        <v>-596782.0223421851</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.5287823817441</v>
+        <v>716.5279782002018</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.193723732599</v>
+        <v>1005.192689978038</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.402865800298115</v>
+        <v>1.402865932050432</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.9993228550508737</v>
+        <v>0.9993227334871312</v>
       </c>
       <c r="JF3" t="n">
-        <v>322.8909420332435</v>
+        <v>322.8722512724493</v>
       </c>
       <c r="JG3" t="n">
-        <v>119918.3065432075</v>
+        <v>119868.2690122694</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.339010354850972e-06</v>
+        <v>8.342491371904624e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>85480.95371469198</v>
+        <v>85445.27760900829</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.169851243515227e-05</v>
+        <v>1.170339693406968e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.003870667995147456</v>
+        <v>0.003871114496351412</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.65125733904233e-05</v>
+        <v>1.651103424280896e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.02328254445781607</v>
+        <v>0.02328019875832295</v>
       </c>
       <c r="JN3" t="n">
-        <v>85538.65463650064</v>
+        <v>85502.9650048</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.150201058109136</v>
+        <v>1.149854237532241</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.150201058109136</v>
+        <v>1.149854237532241</v>
       </c>
       <c r="JQ3" t="n">
-        <v>310993.4114341385</v>
+        <v>310971.9971211262</v>
       </c>
       <c r="JR3" t="n">
-        <v>385361.848181294</v>
+        <v>385331.8265794253</v>
       </c>
       <c r="JS3" t="n">
-        <v>3788.654478386301</v>
+        <v>3788.658382551285</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.5287823817441</v>
+        <v>716.5279782002018</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.193723732599</v>
+        <v>1005.192689978038</v>
       </c>
       <c r="JV3" t="n">
-        <v>322.8909420332435</v>
+        <v>322.8722512724493</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.9993228550508737</v>
+        <v>0.9993227334871312</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.65125733904233e-05</v>
+        <v>1.651103424280896e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.02328254445781607</v>
+        <v>0.02328019875832295</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5936655843844</v>
+        <v>295.5936613164599</v>
       </c>
       <c r="KC3" t="n">
-        <v>135267.9492286741</v>
+        <v>135266.1085927637</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.594951795472834</v>
+        <v>1.59493010546508</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.3762564479</v>
+        <v>336974.3769493707</v>
       </c>
       <c r="KF3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KG3" t="n">
-        <v>3788.654478391502</v>
+        <v>3788.658382556486</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698117.8338118485</v>
+        <v>-698118.971688579</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.8561202533263</v>
+        <v>717.8561154590132</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.776726761779</v>
+        <v>1006.776696540501</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.402477040115637</v>
+        <v>1.402477007382942</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.9995303617788143</v>
+        <v>0.9995303680440643</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8027247808847</v>
+        <v>344.8027204047031</v>
       </c>
       <c r="KN3" t="n">
-        <v>189622.094846908</v>
+        <v>189619.5113320909</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.273647044176752e-06</v>
+        <v>5.273718896198642e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>135205.1330774536</v>
+        <v>135203.294124533</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.396168897131588e-06</v>
+        <v>7.396269495319546e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395618478668783</v>
+        <v>0.003395618357235026</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.832925033001352e-05</v>
+        <v>1.83292498574846e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.0260672857271427</v>
+        <v>0.0260672848187311</v>
       </c>
       <c r="KU3" t="n">
-        <v>135267.9492286741</v>
+        <v>135266.1085927637</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.594951795472834</v>
+        <v>1.59493010546508</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.594951795472834</v>
+        <v>1.59493010546508</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.3762564479</v>
+        <v>336974.3769493707</v>
       </c>
       <c r="KY3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3788.654478391502</v>
+        <v>3788.658382556486</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.8561202533263</v>
+        <v>717.8561154590132</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.776726761779</v>
+        <v>1006.776696540501</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.8027247808847</v>
+        <v>344.8027204047031</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.9995303617788143</v>
+        <v>0.9995303680440643</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.832925033001352e-05</v>
+        <v>1.83292498574846e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.0260672857271427</v>
+        <v>0.0260672848187311</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>268.6509379636765</v>
+        <v>268.6344489507043</v>
       </c>
       <c r="LJ3" t="n">
-        <v>96863.64304203718</v>
+        <v>96841.56596156018</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.256872382294029</v>
+        <v>1.256663141198617</v>
       </c>
       <c r="LL3" t="n">
-        <v>317708.0866361827</v>
+        <v>317696.3048243748</v>
       </c>
       <c r="LM3" t="n">
-        <v>394775.2928271905</v>
+        <v>394758.7750971894</v>
       </c>
       <c r="LN3" t="n">
-        <v>3788.654478392929</v>
+        <v>3788.658382557914</v>
       </c>
       <c r="LO3" t="n">
-        <v>-623050.2864133536</v>
+        <v>-623005.3817637225</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.8017536794897</v>
+        <v>716.8012305893308</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.532072947976</v>
+        <v>1005.531411803329</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.402803589397452</v>
+        <v>1.402803690747871</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.999367045084453</v>
+        <v>0.9993669704223208</v>
       </c>
       <c r="LT3" t="n">
-        <v>328.6975309814032</v>
+        <v>328.6874307031822</v>
       </c>
       <c r="LU3" t="n">
-        <v>135795.0899789784</v>
+        <v>135764.1391830592</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.364036506436309e-06</v>
+        <v>7.365715320830324e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>96802.63937541435</v>
+        <v>96780.56885541833</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.033029684368273e-05</v>
+        <v>1.033265263705891e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.003735545299435511</v>
+        <v>0.003735773978571641</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.699160059263386e-05</v>
+        <v>1.699076564611879e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.02401367376758677</v>
+        <v>0.02401239727477615</v>
       </c>
       <c r="MB3" t="n">
-        <v>96863.64304203718</v>
+        <v>96841.56596156018</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.256872382294029</v>
+        <v>1.256663141198617</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.256872382294029</v>
+        <v>1.256663141198617</v>
       </c>
       <c r="ME3" t="n">
-        <v>317708.0866361827</v>
+        <v>317696.3048243748</v>
       </c>
       <c r="MF3" t="n">
-        <v>394775.2928271905</v>
+        <v>394758.7750971894</v>
       </c>
       <c r="MG3" t="n">
-        <v>3788.654478392929</v>
+        <v>3788.658382557914</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.8017536794897</v>
+        <v>716.8012305893308</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.532072947976</v>
+        <v>1005.531411803329</v>
       </c>
       <c r="MJ3" t="n">
-        <v>328.6975309814032</v>
+        <v>328.6874307031822</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.999367045084453</v>
+        <v>0.9993669704223208</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.699160059263386e-05</v>
+        <v>1.699076564611879e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.02401367376758677</v>
+        <v>0.02401239727477615</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.8358811009400322</v>
+        <v>0.8362739290669358</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.424945683722609</v>
+        <v>0.4252749905549369</v>
       </c>
       <c r="MR3" t="n">
-        <v>249070.7323447208</v>
+        <v>249197.3896843908</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.73947409784371</v>
+        <v>2.739856258971871</v>
       </c>
       <c r="MT3" t="n">
-        <v>381112.7188620705</v>
+        <v>381096.2011319693</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>142.5752883583434</v>
+        <v>142.5519907081711</v>
       </c>
       <c r="MW3" t="n">
-        <v>127.0782382616892</v>
+        <v>127.0966684632638</v>
       </c>
       <c r="MX3" t="n">
-        <v>-64.64390312140893</v>
+        <v>-64.55623068613673</v>
       </c>
       <c r="MY3" t="n">
-        <v>-26.9621551357235</v>
+        <v>-26.92738856704577</v>
       </c>
       <c r="MZ3" t="n">
-        <v>262.7252345581264</v>
+        <v>262.657421387281</v>
       </c>
       <c r="NA3" t="n">
-        <v>127.0782382616892</v>
+        <v>127.0966684632638</v>
       </c>
       <c r="NB3" t="n">
-        <v>-229.9471031214089</v>
+        <v>-229.8594306861367</v>
       </c>
       <c r="NC3" t="n">
-        <v>-61.07315279141093</v>
+        <v>-61.06038353036454</v>
       </c>
       <c r="ND3" t="n">
-        <v>234.1825947802841</v>
+        <v>234.1838852758625</v>
       </c>
       <c r="NE3" t="n">
-        <v>57500.00000200155</v>
+        <v>57500.00000006863</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8560032808941206</v>
+        <v>0.8559985489366306</v>
       </c>
       <c r="NG3" t="n">
-        <v>293090.3786525324</v>
+        <v>293091.3035262351</v>
       </c>
       <c r="NH3" t="n">
-        <v>360263.0183904796</v>
+        <v>360264.3145920814</v>
       </c>
       <c r="NI3" t="n">
-        <v>3800.76677115875</v>
+        <v>3800.772306157155</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-529810.4062341589</v>
+        <v>-529815.3111127011</v>
       </c>
       <c r="NK3" t="n">
-        <v>715.9875784252821</v>
+        <v>715.9875938122877</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.421571279902</v>
+        <v>1004.421568299322</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.402847760975115</v>
+        <v>1.402847726664177</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992670603518737</v>
+        <v>0.9992670776642463</v>
       </c>
       <c r="NO3" t="n">
-        <v>306.861594040569</v>
+        <v>306.8624411048029</v>
       </c>
       <c r="NP3" t="n">
-        <v>80604.72538217215</v>
+        <v>80604.72480450316</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240622054425082e-05</v>
+        <v>1.240622063316235e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57457.92781259745</v>
+        <v>57457.92880612398</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.740403871266575e-05</v>
+        <v>1.740403841172601e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.004283597427611717</v>
+        <v>0.004283573611782865</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.519960961231313e-05</v>
+        <v>1.519967833333361e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02128968738044962</v>
+        <v>0.02128979103942749</v>
       </c>
       <c r="NW3" t="n">
-        <v>57500.00000200155</v>
+        <v>57500.00000006863</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8560032808941206</v>
+        <v>0.8559985489366306</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8560032808941206</v>
+        <v>0.8559985489366306</v>
       </c>
       <c r="NZ3" t="n">
-        <v>293090.3786525324</v>
+        <v>293091.3035262351</v>
       </c>
       <c r="OA3" t="n">
-        <v>360263.0183904796</v>
+        <v>360264.3145920814</v>
       </c>
       <c r="OB3" t="n">
-        <v>3800.76677115875</v>
+        <v>3800.772306157155</v>
       </c>
       <c r="OC3" t="n">
-        <v>715.9875784252821</v>
+        <v>715.9875938122877</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.421571279902</v>
+        <v>1004.421568299322</v>
       </c>
       <c r="OE3" t="n">
-        <v>306.861594040569</v>
+        <v>306.8624411048029</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992670603518737</v>
+        <v>0.9992670776642463</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.519960961231313e-05</v>
+        <v>1.519967833333361e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02128968738044962</v>
+        <v>0.02128979103942749</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>244.3327408040193</v>
+        <v>244.3307141638764</v>
       </c>
       <c r="OL3" t="n">
-        <v>66679.99445109769</v>
+        <v>66676.78108791767</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9514009196875376</v>
+        <v>0.9513629553241009</v>
       </c>
       <c r="ON3" t="n">
-        <v>300340.7596236044</v>
+        <v>300339.3152661144</v>
       </c>
       <c r="OO3" t="n">
-        <v>370426.8748157118</v>
+        <v>370424.8496195124</v>
       </c>
       <c r="OP3" t="n">
-        <v>3800.766771167425</v>
+        <v>3800.77230617556</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-558224.887540468</v>
+        <v>-558220.5623226453</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.1697474249482</v>
+        <v>716.1697015762405</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.669652338399</v>
+        <v>1004.669565289608</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.402837324462221</v>
+        <v>1.402837292723218</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.9992958672658976</v>
+        <v>0.9992958743515007</v>
       </c>
       <c r="OV3" t="n">
-        <v>313.4491208049531</v>
+        <v>313.4478194890653</v>
       </c>
       <c r="OW3" t="n">
-        <v>93475.47461821864</v>
+        <v>93470.96849288521</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.069799328737612e-05</v>
+        <v>1.069850902503613e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66633.1533872272</v>
+        <v>66629.94274370717</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.500754428037753e-05</v>
+        <v>1.50082674368566e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.004105996775575931</v>
+        <v>0.00410603051143205</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.573715257596479e-05</v>
+        <v>1.573704590511253e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.02210336160300148</v>
+        <v>0.02210319966286587</v>
       </c>
       <c r="PD3" t="n">
-        <v>66679.99445109769</v>
+        <v>66676.78108791767</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.9514009196875376</v>
+        <v>0.9513629553241009</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9514009196875376</v>
+        <v>0.9513629553241009</v>
       </c>
       <c r="PG3" t="n">
-        <v>300340.7596236044</v>
+        <v>300339.3152661144</v>
       </c>
       <c r="PH3" t="n">
-        <v>370426.8748157118</v>
+        <v>370424.8496195124</v>
       </c>
       <c r="PI3" t="n">
-        <v>3800.766771167425</v>
+        <v>3800.77230617556</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.1697474249482</v>
+        <v>716.1697015762405</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.669652338399</v>
+        <v>1004.669565289608</v>
       </c>
       <c r="PL3" t="n">
-        <v>313.4491208049531</v>
+        <v>313.4478194890653</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9992958672658976</v>
+        <v>0.9992958743515007</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.573715257596479e-05</v>
+        <v>1.573704590511253e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.02210336160300148</v>
+        <v>0.02210319966286587</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>268.6396634167829</v>
+        <v>268.6231741231098</v>
       </c>
       <c r="PS3" t="n">
-        <v>92858.99740572534</v>
+        <v>92837.30500535645</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.204928692959473</v>
+        <v>1.204721243359337</v>
       </c>
       <c r="PU3" t="n">
-        <v>317709.3237385717</v>
+        <v>317697.5416232927</v>
       </c>
       <c r="PV3" t="n">
-        <v>394775.2928272907</v>
+        <v>394758.7750970894</v>
       </c>
       <c r="PW3" t="n">
-        <v>3800.76677115875</v>
+        <v>3800.772306166884</v>
       </c>
       <c r="PX3" t="n">
-        <v>-626261.4133024885</v>
+        <v>-626216.7459046711</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.7885573570135</v>
+        <v>716.7880334377721</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.449427526844</v>
+        <v>1005.44876207138</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402714115909158</v>
+        <v>1.402714212804541</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.9993929447870463</v>
+        <v>0.999392876688985</v>
       </c>
       <c r="QC3" t="n">
-        <v>328.6886273005379</v>
+        <v>328.6785283490879</v>
       </c>
       <c r="QD3" t="n">
-        <v>130175.933785968</v>
+        <v>130145.5239108366</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.681911478692942e-06</v>
+        <v>7.683706438379744e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>92802.89711891544</v>
+        <v>92781.21139916866</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.077552566832718e-05</v>
+        <v>1.077804422813303e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.003735156447140914</v>
+        <v>0.003735385068600885</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.699042302887144e-05</v>
+        <v>1.698958809322666e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02401138592666762</v>
+        <v>0.02401010943908388</v>
       </c>
       <c r="QK3" t="n">
-        <v>92858.99740572534</v>
+        <v>92837.30500535645</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.204928692959473</v>
+        <v>1.204721243359337</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.204928692959473</v>
+        <v>1.204721243359337</v>
       </c>
       <c r="QN3" t="n">
-        <v>317709.3237385717</v>
+        <v>317697.5416232927</v>
       </c>
       <c r="QO3" t="n">
-        <v>394775.2928272907</v>
+        <v>394758.7750970894</v>
       </c>
       <c r="QP3" t="n">
-        <v>3800.76677115875</v>
+        <v>3800.772306166884</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.7885573570135</v>
+        <v>716.7880334377721</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.449427526844</v>
+        <v>1005.44876207138</v>
       </c>
       <c r="QS3" t="n">
-        <v>328.6886273005379</v>
+        <v>328.6785283490879</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9993929447870463</v>
+        <v>0.999392876688985</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.699042302887144e-05</v>
+        <v>1.698958809322666e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02401138592666762</v>
+        <v>0.02401010943908388</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.4646240882770557</v>
+        <v>0.4645468835968923</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8561685126467552</v>
+        <v>0.8559451604491911</v>
       </c>
       <c r="RA3" t="n">
-        <v>385584.1696525451</v>
+        <v>385480.7710235369</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.739474097986275</v>
+        <v>2.739856258960444</v>
       </c>
       <c r="RC3" t="n">
-        <v>381112.7188620705</v>
+        <v>381096.2011319693</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.02451482902380551</v>
+        <v>0.02453974795699215</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.002154432247484661</v>
+        <v>0.002167609839125731</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01189215795664021</v>
+        <v>0.01189015978285063</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.03201251962023062</v>
+        <v>0.03202685944101664</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.0426828255335834</v>
+        <v>0.04269102602198501</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.1132567643817444</v>
+        <v>0.1133154030419702</v>
       </c>
       <c r="RJ3" t="n">
-        <v>-4.00517952137136e-11</v>
+        <v>-8.171233134568467e-11</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>357443.5642241068</v>
+        <v>357444.4675520055</v>
       </c>
     </row>
   </sheetData>
@@ -7566,148 +7566,148 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01595362529222805</v>
+        <v>0.01595401972232894</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.786050812290162e-07</v>
+        <v>-1.786755949425342e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379133206949992</v>
+        <v>0.01379134453100929</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02518310637917774</v>
+        <v>0.0251829021128466</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05492788513582448</v>
+        <v>0.05492808769058988</v>
       </c>
       <c r="H2" t="n">
-        <v>2.478434124597584e-13</v>
+        <v>-2.538018406550435e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9677811191898694</v>
+        <v>0.9685503188872062</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>275.2477306517566</v>
+        <v>338.0958597804167</v>
       </c>
       <c r="L2" t="n">
-        <v>112.4677878076587</v>
+        <v>138.147890725177</v>
       </c>
       <c r="M2" t="n">
-        <v>251.2216350846269</v>
+        <v>308.5838146903427</v>
       </c>
       <c r="N2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="O2" t="n">
-        <v>275.2477306517566</v>
+        <v>338.0958597804167</v>
       </c>
       <c r="P2" t="n">
-        <v>112.4677878076587</v>
+        <v>138.147890725177</v>
       </c>
       <c r="Q2" t="n">
-        <v>251.2216350846269</v>
+        <v>308.5838146903427</v>
       </c>
       <c r="R2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="S2" t="n">
-        <v>257.7988726489946</v>
+        <v>238.5503474774706</v>
       </c>
       <c r="T2" t="n">
-        <v>83814.87751526601</v>
+        <v>63147.21197980076</v>
       </c>
       <c r="U2" t="n">
-        <v>1.133393119912999</v>
+        <v>0.9228700644562853</v>
       </c>
       <c r="V2" t="n">
-        <v>309953.3718797392</v>
+        <v>296205.2124588753</v>
       </c>
       <c r="W2" t="n">
-        <v>383903.7744741186</v>
+        <v>364630.0258880597</v>
       </c>
       <c r="X2" t="n">
-        <v>3788.85425866778</v>
+        <v>3792.370883061816</v>
       </c>
       <c r="Y2" t="n">
-        <v>-592858.5820417773</v>
+        <v>-540041.3660297783</v>
       </c>
       <c r="Z2" t="n">
-        <v>716.4902164014501</v>
+        <v>716.0692961654817</v>
       </c>
       <c r="AA2" t="n">
-        <v>1005.143964931133</v>
+        <v>1004.573466380125</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.402871863316484</v>
+        <v>1.402899791625712</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9993170534663851</v>
+        <v>0.9992573200104352</v>
       </c>
       <c r="AD2" t="n">
-        <v>321.981905345395</v>
+        <v>309.7127838902171</v>
       </c>
       <c r="AE2" t="n">
-        <v>117501.5252342195</v>
+        <v>88523.5501718118</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.510527825121152e-06</v>
+        <v>1.129642900741261e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>83757.84582095612</v>
+        <v>63100.40866798384</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.193918002783449e-05</v>
+        <v>1.584775790061379e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.003892473193434502</v>
+        <v>0.004205718629761351</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.643773782873149e-05</v>
+        <v>1.543228148409742e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.02316851969034664</v>
+        <v>0.02164182501499473</v>
       </c>
       <c r="AL2" t="n">
-        <v>83814.87751526601</v>
+        <v>63147.21197980076</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.133393119912999</v>
+        <v>0.9228700644562853</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.133393119912999</v>
+        <v>0.9228700644562853</v>
       </c>
       <c r="AO2" t="n">
-        <v>309953.3718797392</v>
+        <v>296205.2124588753</v>
       </c>
       <c r="AP2" t="n">
-        <v>383903.7744741186</v>
+        <v>364630.0258880597</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3788.85425866778</v>
+        <v>3792.370883061816</v>
       </c>
       <c r="AR2" t="n">
-        <v>716.4902164014501</v>
+        <v>716.0692961654817</v>
       </c>
       <c r="AS2" t="n">
-        <v>1005.143964931133</v>
+        <v>1004.573466380125</v>
       </c>
       <c r="AT2" t="n">
-        <v>321.981905345395</v>
+        <v>309.7127838902171</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9993170534663851</v>
+        <v>0.9992573200104352</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.643773782873149e-05</v>
+        <v>1.543228148409742e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.02316851969034664</v>
+        <v>0.02164182501499473</v>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
@@ -7718,97 +7718,97 @@
         <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>295.5934472641803</v>
+        <v>295.5896289137399</v>
       </c>
       <c r="BA2" t="n">
-        <v>135173.7940876647</v>
+        <v>133527.125791736</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.593842273176355</v>
+        <v>1.574437815792206</v>
       </c>
       <c r="BC2" t="n">
-        <v>336974.4117017416</v>
+        <v>336975.0315350421</v>
       </c>
       <c r="BD2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="BE2" t="n">
-        <v>3788.854258670374</v>
+        <v>3792.370883058859</v>
       </c>
       <c r="BF2" t="n">
-        <v>-698176.0604133564</v>
+        <v>-699201.070938051</v>
       </c>
       <c r="BG2" t="n">
-        <v>717.8558750065105</v>
+        <v>717.8515857589138</v>
       </c>
       <c r="BH2" t="n">
-        <v>1006.77518083294</v>
+        <v>1006.748143660325</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.402475365718514</v>
+        <v>1.402446081659052</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9995306822732115</v>
+        <v>0.9995362887964702</v>
       </c>
       <c r="BK2" t="n">
-        <v>344.8025009247025</v>
+        <v>344.7985863365217</v>
       </c>
       <c r="BL2" t="n">
-        <v>189489.9388952092</v>
+        <v>187178.7167266222</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.277325043378768e-06</v>
+        <v>5.34248774373487e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>135111.0639994236</v>
+        <v>133465.8916121719</v>
       </c>
       <c r="BO2" t="n">
-        <v>7.401318370228115e-06</v>
+        <v>7.492551002512478e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.003395612266864657</v>
+        <v>0.003395503619092892</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.832922615850382e-05</v>
+        <v>1.832880343988876e-05</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.02606723925876138</v>
+        <v>0.02606642662360828</v>
       </c>
       <c r="BS2" t="n">
-        <v>135173.7940876647</v>
+        <v>133527.125791736</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.593842273176355</v>
+        <v>1.574437815792206</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.593842273176355</v>
+        <v>1.574437815792206</v>
       </c>
       <c r="BV2" t="n">
-        <v>336974.4117017416</v>
+        <v>336975.0315350421</v>
       </c>
       <c r="BW2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="BX2" t="n">
-        <v>3788.854258670374</v>
+        <v>3792.370883058859</v>
       </c>
       <c r="BY2" t="n">
-        <v>717.8558750065105</v>
+        <v>717.8515857589138</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1006.77518083294</v>
+        <v>1006.748143660325</v>
       </c>
       <c r="CA2" t="n">
-        <v>344.8025009247025</v>
+        <v>344.7985863365217</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.9995306822732115</v>
+        <v>0.9995362887964702</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.832922615850382e-05</v>
+        <v>1.832880343988876e-05</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.02606723925876138</v>
+        <v>0.02606642662360828</v>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
@@ -7819,97 +7819,97 @@
         <v>1</v>
       </c>
       <c r="CG2" t="n">
-        <v>295.5934472641803</v>
+        <v>295.5896289137399</v>
       </c>
       <c r="CH2" t="n">
-        <v>135173.7940876647</v>
+        <v>133527.125791736</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.593842273176355</v>
+        <v>1.574437815792206</v>
       </c>
       <c r="CJ2" t="n">
-        <v>336974.4117017416</v>
+        <v>336975.0315350421</v>
       </c>
       <c r="CK2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="CL2" t="n">
-        <v>3788.854258670374</v>
+        <v>3792.370883058859</v>
       </c>
       <c r="CM2" t="n">
-        <v>-698176.0604133564</v>
+        <v>-699201.070938051</v>
       </c>
       <c r="CN2" t="n">
-        <v>717.8558750065105</v>
+        <v>717.8515857589138</v>
       </c>
       <c r="CO2" t="n">
-        <v>1006.77518083294</v>
+        <v>1006.748143660325</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.402475365718514</v>
+        <v>1.402446081659052</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.9995306822732115</v>
+        <v>0.9995362887964702</v>
       </c>
       <c r="CR2" t="n">
-        <v>344.8025009247025</v>
+        <v>344.7985863365217</v>
       </c>
       <c r="CS2" t="n">
-        <v>189489.9388952092</v>
+        <v>187178.7167266222</v>
       </c>
       <c r="CT2" t="n">
-        <v>5.277325043378768e-06</v>
+        <v>5.34248774373487e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>135111.0639994236</v>
+        <v>133465.8916121719</v>
       </c>
       <c r="CV2" t="n">
-        <v>7.401318370228115e-06</v>
+        <v>7.492551002512478e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.003395612266864657</v>
+        <v>0.003395503619092892</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.832922615850382e-05</v>
+        <v>1.832880343988876e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02606723925876138</v>
+        <v>0.02606642662360828</v>
       </c>
       <c r="CZ2" t="n">
-        <v>135173.7940876647</v>
+        <v>133527.125791736</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.593842273176355</v>
+        <v>1.574437815792206</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.593842273176355</v>
+        <v>1.574437815792206</v>
       </c>
       <c r="DC2" t="n">
-        <v>336974.4117017416</v>
+        <v>336975.0315350421</v>
       </c>
       <c r="DD2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="DE2" t="n">
-        <v>3788.854258670374</v>
+        <v>3792.370883058859</v>
       </c>
       <c r="DF2" t="n">
-        <v>717.8558750065105</v>
+        <v>717.8515857589138</v>
       </c>
       <c r="DG2" t="n">
-        <v>1006.77518083294</v>
+        <v>1006.748143660325</v>
       </c>
       <c r="DH2" t="n">
-        <v>344.8025009247025</v>
+        <v>344.7985863365217</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.9995306822732115</v>
+        <v>0.9995362887964702</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.832922615850382e-05</v>
+        <v>1.832880343988876e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.02606723925876138</v>
+        <v>0.02606642662360828</v>
       </c>
       <c r="DL2" t="inlineStr">
         <is>
@@ -7920,37 +7920,37 @@
         <v>1</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0161238183267888</v>
+        <v>0.02464867471040202</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.815133704359519e-07</v>
+        <v>-2.133898147999845e-07</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01379698661186921</v>
+        <v>0.01379699015885857</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.02510791097798277</v>
+        <v>0.02510782617051977</v>
       </c>
       <c r="DR2" t="n">
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.05502853440327034</v>
+        <v>0.06355327764996556</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.09051656593806e-13</v>
+        <v>-2.464972670424004e-13</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.8548546551288158</v>
+        <v>1.091643217091938</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.8548546551288158</v>
+        <v>1.091643217091938</v>
       </c>
       <c r="DW2" t="n">
-        <v>496478.0005316653</v>
+        <v>528917.5953460474</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.736586426088666</v>
+        <v>2.737065943076564</v>
       </c>
       <c r="DY2" t="n">
         <v>421784.4310884894</v>
@@ -7959,157 +7959,157 @@
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>382377.7567095311</v>
+        <v>362385.4595414446</v>
       </c>
       <c r="EB2" t="n">
-        <v>1469.784082617203</v>
+        <v>1471.157307362242</v>
       </c>
       <c r="EC2" t="n">
         <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.02434338147107242</v>
+        <v>0.0243824170280734</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.001878260471377819</v>
+        <v>0.001899441189367724</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.01189985195867785</v>
+        <v>0.01189653595464985</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.03191600446276638</v>
+        <v>0.03194002580814421</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.04236690797682069</v>
+        <v>0.04238224442778565</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.1124044063407152</v>
+        <v>0.1125006644080208</v>
       </c>
       <c r="EJ2" t="n">
-        <v>2.818120736769458e-12</v>
+        <v>-1.416054218328355e-10</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9379634652018912</v>
+        <v>0.9436170292911165</v>
       </c>
       <c r="EL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EM2" t="n">
-        <v>140.4501955630097</v>
+        <v>188.6962152869628</v>
       </c>
       <c r="EN2" t="n">
-        <v>125.6290992262637</v>
+        <v>152.356843091968</v>
       </c>
       <c r="EO2" t="n">
-        <v>-62.79798453203134</v>
+        <v>-111.3267893486255</v>
       </c>
       <c r="EP2" t="n">
-        <v>-26.55900697682177</v>
+        <v>-36.15551233175084</v>
       </c>
       <c r="EQ2" t="n">
-        <v>260.4089494570381</v>
+        <v>315.8112706094753</v>
       </c>
       <c r="ER2" t="n">
-        <v>125.6290992262637</v>
+        <v>152.356843091968</v>
       </c>
       <c r="ES2" t="n">
-        <v>-228.1011845320313</v>
+        <v>-276.6299893486255</v>
       </c>
       <c r="ET2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="EU2" t="n">
-        <v>235.0521210525397</v>
+        <v>219.0787372005498</v>
       </c>
       <c r="EV2" t="n">
-        <v>58317.76854303112</v>
+        <v>44826.28598498402</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.8649646102110267</v>
+        <v>0.713350075734456</v>
       </c>
       <c r="EX2" t="n">
-        <v>293711.2614216447</v>
+        <v>282305.2007973514</v>
       </c>
       <c r="EY2" t="n">
-        <v>361133.4054661315</v>
+        <v>345144.3137515786</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3800.425886728992</v>
+        <v>3805.450634585939</v>
       </c>
       <c r="FA2" t="n">
-        <v>-532164.7601124973</v>
+        <v>-488549.0057525398</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.0019737106227</v>
+        <v>715.779789393603</v>
       </c>
       <c r="FC2" t="n">
-        <v>1004.443230290305</v>
+        <v>1004.09657722207</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.40284980652338</v>
+        <v>1.402800962112558</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9992684014917759</v>
+        <v>0.9992486883204348</v>
       </c>
       <c r="FF2" t="n">
-        <v>307.431401090372</v>
+        <v>296.7905045698074</v>
       </c>
       <c r="FG2" t="n">
-        <v>81751.32258271259</v>
+        <v>62835.15865109751</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.223221800464747e-05</v>
+        <v>1.591465704021953e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>58275.1782853456</v>
+        <v>44792.64011657824</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.715996466117151e-05</v>
+        <v>2.232509620771134e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.004267799086731187</v>
+        <v>0.004578074716822208</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.52460128080139e-05</v>
+        <v>1.438304382885727e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0213598279317279</v>
+        <v>0.02005889188337334</v>
       </c>
       <c r="FN2" t="n">
-        <v>58317.76854303112</v>
+        <v>44826.28598498402</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.8649646102110267</v>
+        <v>0.713350075734456</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.8649646102110267</v>
+        <v>0.713350075734456</v>
       </c>
       <c r="FQ2" t="n">
-        <v>293711.2614216447</v>
+        <v>282305.2007973514</v>
       </c>
       <c r="FR2" t="n">
-        <v>361133.4054661315</v>
+        <v>345144.3137515786</v>
       </c>
       <c r="FS2" t="n">
-        <v>3800.425886728992</v>
+        <v>3805.450634585939</v>
       </c>
       <c r="FT2" t="n">
-        <v>716.0019737106227</v>
+        <v>715.779789393603</v>
       </c>
       <c r="FU2" t="n">
-        <v>1004.443230290305</v>
+        <v>1004.09657722207</v>
       </c>
       <c r="FV2" t="n">
-        <v>307.431401090372</v>
+        <v>296.7905045698074</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.9992684014917759</v>
+        <v>0.9992486883204348</v>
       </c>
       <c r="FX2" t="n">
-        <v>1.52460128080139e-05</v>
+        <v>1.438304382885727e-05</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0213598279317279</v>
+        <v>0.02005889188337334</v>
       </c>
       <c r="FZ2" t="inlineStr">
         <is>
@@ -8120,97 +8120,97 @@
         <v>1</v>
       </c>
       <c r="GB2" t="n">
-        <v>244.9018494833833</v>
+        <v>236.8600861214128</v>
       </c>
       <c r="GC2" t="n">
-        <v>67303.47667120554</v>
+        <v>58861.77099424904</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.9580643600171838</v>
+        <v>0.8663542999781652</v>
       </c>
       <c r="GE2" t="n">
-        <v>300747.1026416628</v>
+        <v>295005.5286770084</v>
       </c>
       <c r="GF2" t="n">
-        <v>370996.5341829825</v>
+        <v>362947.4445833905</v>
       </c>
       <c r="GG2" t="n">
-        <v>3800.425886747272</v>
+        <v>3805.450634587999</v>
       </c>
       <c r="GH2" t="n">
-        <v>-559734.7943059511</v>
+        <v>-538411.9204559076</v>
       </c>
       <c r="GI2" t="n">
-        <v>716.1815062596535</v>
+        <v>716.0273291826904</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1004.686858828868</v>
+        <v>1004.455941618899</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.402838316889763</v>
+        <v>1.402817882336189</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9992968520384629</v>
+        <v>0.9992857090439929</v>
       </c>
       <c r="GM2" t="n">
-        <v>313.8143817775287</v>
+        <v>308.6133180317281</v>
       </c>
       <c r="GN2" t="n">
-        <v>94349.66676971276</v>
+        <v>82513.47223995246</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.059887156189735e-05</v>
+        <v>1.211923305193072e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>67256.26583888561</v>
+        <v>58819.80353895852</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.486850314282286e-05</v>
+        <v>1.70010768454482e-05</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.004096489743699561</v>
+        <v>0.004235056530269289</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.576704914530017e-05</v>
+        <v>1.534209890247433e-05</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.0221487104436192</v>
+        <v>0.0215049416797823</v>
       </c>
       <c r="GU2" t="n">
-        <v>67303.47667120554</v>
+        <v>58861.77099424904</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.9580643600171838</v>
+        <v>0.8663542999781652</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.9580643600171838</v>
+        <v>0.8663542999781652</v>
       </c>
       <c r="GX2" t="n">
-        <v>300747.1026416628</v>
+        <v>295005.5286770084</v>
       </c>
       <c r="GY2" t="n">
-        <v>370996.5341829825</v>
+        <v>362947.4445833905</v>
       </c>
       <c r="GZ2" t="n">
-        <v>3800.425886747272</v>
+        <v>3805.450634587999</v>
       </c>
       <c r="HA2" t="n">
-        <v>716.1815062596535</v>
+        <v>716.0273291826904</v>
       </c>
       <c r="HB2" t="n">
-        <v>1004.686858828868</v>
+        <v>1004.455941618899</v>
       </c>
       <c r="HC2" t="n">
-        <v>313.8143817775287</v>
+        <v>308.6133180317281</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.9992968520384629</v>
+        <v>0.9992857090439929</v>
       </c>
       <c r="HE2" t="n">
-        <v>1.576704914530017e-05</v>
+        <v>1.534209890247433e-05</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.0221487104436192</v>
+        <v>0.0215049416797823</v>
       </c>
       <c r="HG2" t="inlineStr">
         <is>
@@ -8221,97 +8221,97 @@
         <v>1</v>
       </c>
       <c r="HI2" t="n">
-        <v>268.903960536096</v>
+        <v>268.872341435026</v>
       </c>
       <c r="HJ2" t="n">
-        <v>93288.90563800315</v>
+        <v>91636.91617425159</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.209316683727152</v>
+        <v>1.1880291797967</v>
       </c>
       <c r="HL2" t="n">
-        <v>317897.9829631475</v>
+        <v>317879.1363118867</v>
       </c>
       <c r="HM2" t="n">
-        <v>395039.8159447978</v>
+        <v>395012.6930734578</v>
       </c>
       <c r="HN2" t="n">
-        <v>3800.425886738621</v>
+        <v>3805.450634590597</v>
       </c>
       <c r="HO2" t="n">
-        <v>-626909.7567231217</v>
+        <v>-628167.7292643219</v>
       </c>
       <c r="HP2" t="n">
-        <v>716.7972368567245</v>
+        <v>716.7910582470111</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1005.461793155542</v>
+        <v>1005.427410187183</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.402714382054066</v>
+        <v>1.40267850529004</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9993935108110494</v>
+        <v>0.9994038051237244</v>
       </c>
       <c r="HT2" t="n">
-        <v>328.8504964622655</v>
+        <v>328.8303269851792</v>
       </c>
       <c r="HU2" t="n">
-        <v>130778.7096865423</v>
+        <v>128460.8633203145</v>
       </c>
       <c r="HV2" t="n">
-        <v>7.64650456023657e-06</v>
+        <v>7.784472049720863e-06</v>
       </c>
       <c r="HW2" t="n">
-        <v>93232.60056337087</v>
+        <v>91582.5421405113</v>
       </c>
       <c r="HX2" t="n">
-        <v>1.072586191908583e-05</v>
+        <v>1.091911161917455e-05</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.003731506949966252</v>
+        <v>0.003731725201390393</v>
       </c>
       <c r="HZ2" t="n">
-        <v>1.700381535930479e-05</v>
+        <v>1.700197027977517e-05</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.02403187162958811</v>
+        <v>0.02402885426153636</v>
       </c>
       <c r="IB2" t="n">
-        <v>93288.90563800315</v>
+        <v>91636.91617425159</v>
       </c>
       <c r="IC2" t="n">
-        <v>1.209316683727152</v>
+        <v>1.1880291797967</v>
       </c>
       <c r="ID2" t="n">
-        <v>1.209316683727152</v>
+        <v>1.1880291797967</v>
       </c>
       <c r="IE2" t="n">
-        <v>317897.9829631475</v>
+        <v>317879.1363118867</v>
       </c>
       <c r="IF2" t="n">
-        <v>395039.8159447978</v>
+        <v>395012.6930734578</v>
       </c>
       <c r="IG2" t="n">
-        <v>3800.425886738621</v>
+        <v>3805.450634590597</v>
       </c>
       <c r="IH2" t="n">
-        <v>716.7972368567245</v>
+        <v>716.7910582470111</v>
       </c>
       <c r="II2" t="n">
-        <v>1005.461793155542</v>
+        <v>1005.427410187183</v>
       </c>
       <c r="IJ2" t="n">
-        <v>328.8504964622655</v>
+        <v>328.8303269851792</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.9993935108110494</v>
+        <v>0.9994038051237244</v>
       </c>
       <c r="IL2" t="n">
-        <v>1.700381535930479e-05</v>
+        <v>1.700197027977517e-05</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.02403187162958811</v>
+        <v>0.02402885426153636</v>
       </c>
       <c r="IN2" t="inlineStr">
         <is>
@@ -8322,52 +8322,52 @@
         <v>1</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.02422153926308148</v>
+        <v>0.02995672890747457</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.001910144932298496</v>
+        <v>0.00223857328086208</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.01191623495216232</v>
+        <v>0.01191452607880486</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.03182251866094622</v>
+        <v>0.03183734622190425</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.04246812532264233</v>
+        <v>0.04249305104695086</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.1123385631311309</v>
+        <v>0.1184402255359966</v>
       </c>
       <c r="IV2" t="n">
-        <v>1.739675070666635e-11</v>
+        <v>-1.097617274847806e-10</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.4568505203595749</v>
+        <v>0.6357892600387423</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.8470473365226888</v>
+        <v>1.064088189301198</v>
       </c>
       <c r="IY2" t="n">
-        <v>385010.3241727001</v>
+        <v>408182.0891648168</v>
       </c>
       <c r="IZ2" t="n">
-        <v>2.736586426271908</v>
+        <v>2.737065943079644</v>
       </c>
       <c r="JA2" t="n">
-        <v>381377.2419797779</v>
+        <v>381350.1191084442</v>
       </c>
       <c r="JB2" t="n">
         <v>0</v>
       </c>
       <c r="JC2" t="n">
-        <v>358368.2703576944</v>
+        <v>341483.2651669472</v>
       </c>
       <c r="JD2" t="n">
-        <v>2665.532412622648</v>
+        <v>2666.004311102093</v>
       </c>
       <c r="JE2" t="n">
-        <v>6.05661149241665</v>
+        <v>6.094960070393689</v>
       </c>
     </row>
     <row r="3">
@@ -8375,148 +8375,148 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01597187822282696</v>
+        <v>0.01597125674100318</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.792898703477757e-07</v>
+        <v>-1.793336701274667e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379193482753116</v>
+        <v>0.01379191296190491</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0251748243243768</v>
+        <v>0.02517508639410731</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05493845808486457</v>
+        <v>0.05493807676334526</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.694506060611616e-13</v>
+        <v>-4.06064071256651e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9678707379485612</v>
+        <v>0.9687822899614287</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>276.5074661154435</v>
+        <v>337.1378185770636</v>
       </c>
       <c r="L3" t="n">
-        <v>112.9825228809988</v>
+        <v>137.7564296420481</v>
       </c>
       <c r="M3" t="n">
-        <v>252.3714095158716</v>
+        <v>307.7093999330805</v>
       </c>
       <c r="N3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="O3" t="n">
-        <v>276.5074661154435</v>
+        <v>337.1378185770636</v>
       </c>
       <c r="P3" t="n">
-        <v>112.9825228809988</v>
+        <v>137.7564296420481</v>
       </c>
       <c r="Q3" t="n">
-        <v>252.3714095158716</v>
+        <v>307.7093999330805</v>
       </c>
       <c r="R3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="S3" t="n">
-        <v>257.4518752269024</v>
+        <v>238.8734885478092</v>
       </c>
       <c r="T3" t="n">
-        <v>83408.53277525389</v>
+        <v>63477.12183158984</v>
       </c>
       <c r="U3" t="n">
-        <v>1.12942003269842</v>
+        <v>0.9264360733335579</v>
       </c>
       <c r="V3" t="n">
-        <v>309705.4772516396</v>
+        <v>296435.9355226285</v>
       </c>
       <c r="W3" t="n">
-        <v>383556.2416797981</v>
+        <v>364953.4767310388</v>
       </c>
       <c r="X3" t="n">
-        <v>3788.899353197041</v>
+        <v>3792.231206050851</v>
       </c>
       <c r="Y3" t="n">
-        <v>-591903.0018467781</v>
+        <v>-540910.0208381939</v>
       </c>
       <c r="Z3" t="n">
-        <v>716.4811773129379</v>
+        <v>716.0751648317388</v>
       </c>
       <c r="AA3" t="n">
-        <v>1005.132276394284</v>
+        <v>1004.582202840294</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.402873248064788</v>
+        <v>1.402900494498155</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9993156883447698</v>
+        <v>0.999257893250842</v>
       </c>
       <c r="AD3" t="n">
-        <v>321.7648544323868</v>
+        <v>309.9227396408131</v>
       </c>
       <c r="AE3" t="n">
-        <v>116931.8168139768</v>
+        <v>88986.1345714535</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.551992325500845e-06</v>
+        <v>1.123770579333375e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>83351.66200886639</v>
+        <v>63430.11134462931</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.199736125110051e-05</v>
+        <v>1.576538301449271e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.00389770700246526</v>
+        <v>0.004200047689950745</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.641987615958876e-05</v>
+        <v>1.544941535314487e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02314131260413165</v>
+        <v>0.02166776121049016</v>
       </c>
       <c r="AL3" t="n">
-        <v>83408.53277525389</v>
+        <v>63477.12183158984</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.12942003269842</v>
+        <v>0.9264360733335579</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.12942003269842</v>
+        <v>0.9264360733335579</v>
       </c>
       <c r="AO3" t="n">
-        <v>309705.4772516396</v>
+        <v>296435.9355226285</v>
       </c>
       <c r="AP3" t="n">
-        <v>383556.2416797981</v>
+        <v>364953.4767310388</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3788.899353197041</v>
+        <v>3792.231206050851</v>
       </c>
       <c r="AR3" t="n">
-        <v>716.4811773129379</v>
+        <v>716.0751648317388</v>
       </c>
       <c r="AS3" t="n">
-        <v>1005.132276394284</v>
+        <v>1004.582202840294</v>
       </c>
       <c r="AT3" t="n">
-        <v>321.7648544323868</v>
+        <v>309.9227396408131</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9993156883447698</v>
+        <v>0.999257893250842</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.641987615958876e-05</v>
+        <v>1.544941535314487e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.02314131260413165</v>
+        <v>0.02166776121049016</v>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
@@ -8527,97 +8527,97 @@
         <v>1</v>
       </c>
       <c r="AZ3" t="n">
-        <v>295.5933980054959</v>
+        <v>295.5897796900206</v>
       </c>
       <c r="BA3" t="n">
-        <v>135152.550402908</v>
+        <v>133592.1455577591</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.593591937892323</v>
+        <v>1.575204018803829</v>
       </c>
       <c r="BC3" t="n">
-        <v>336974.419698861</v>
+        <v>336975.0070628653</v>
       </c>
       <c r="BD3" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="BE3" t="n">
-        <v>3788.899353198037</v>
+        <v>3792.231206047728</v>
       </c>
       <c r="BF3" t="n">
-        <v>-698189.2034242445</v>
+        <v>-699160.3556406796</v>
       </c>
       <c r="BG3" t="n">
-        <v>717.8558196727361</v>
+        <v>717.8517551281841</v>
       </c>
       <c r="BH3" t="n">
-        <v>1006.774832033356</v>
+        <v>1006.749211262267</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.402474987933281</v>
+        <v>1.402447237985084</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9995307545857491</v>
+        <v>0.9995360673678105</v>
       </c>
       <c r="BK3" t="n">
-        <v>344.8024504175468</v>
+        <v>344.7987408919906</v>
       </c>
       <c r="BL3" t="n">
-        <v>189460.1213377611</v>
+        <v>187269.9754746521</v>
       </c>
       <c r="BM3" t="n">
-        <v>5.278155597806487e-06</v>
+        <v>5.339884289862338e-06</v>
       </c>
       <c r="BN3" t="n">
-        <v>135089.839724667</v>
+        <v>133530.8526427743</v>
       </c>
       <c r="BO3" t="n">
-        <v>7.402481208343629e-06</v>
+        <v>7.488905973477376e-06</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.003395610865324449</v>
+        <v>0.003395507909488484</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.832922070482704e-05</v>
+        <v>1.832882013070156e-05</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.02606722877439043</v>
+        <v>0.02606645870942161</v>
       </c>
       <c r="BS3" t="n">
-        <v>135152.550402908</v>
+        <v>133592.1455577591</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.593591937892323</v>
+        <v>1.575204018803829</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.593591937892323</v>
+        <v>1.575204018803829</v>
       </c>
       <c r="BV3" t="n">
-        <v>336974.419698861</v>
+        <v>336975.0070628653</v>
       </c>
       <c r="BW3" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="BX3" t="n">
-        <v>3788.899353198037</v>
+        <v>3792.231206047728</v>
       </c>
       <c r="BY3" t="n">
-        <v>717.8558196727361</v>
+        <v>717.8517551281841</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1006.774832033356</v>
+        <v>1006.749211262267</v>
       </c>
       <c r="CA3" t="n">
-        <v>344.8024504175468</v>
+        <v>344.7987408919906</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.9995307545857491</v>
+        <v>0.9995360673678105</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.832922070482704e-05</v>
+        <v>1.832882013070156e-05</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02606722877439043</v>
+        <v>0.02606645870942161</v>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
@@ -8628,97 +8628,97 @@
         <v>1</v>
       </c>
       <c r="CG3" t="n">
-        <v>295.5933980054959</v>
+        <v>295.5897796900206</v>
       </c>
       <c r="CH3" t="n">
-        <v>135152.550402908</v>
+        <v>133592.1455577591</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.593591937892323</v>
+        <v>1.575204018803829</v>
       </c>
       <c r="CJ3" t="n">
-        <v>336974.419698861</v>
+        <v>336975.0070628653</v>
       </c>
       <c r="CK3" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="CL3" t="n">
-        <v>3788.899353198037</v>
+        <v>3792.231206047728</v>
       </c>
       <c r="CM3" t="n">
-        <v>-698189.2034242445</v>
+        <v>-699160.3556406796</v>
       </c>
       <c r="CN3" t="n">
-        <v>717.8558196727361</v>
+        <v>717.8517551281841</v>
       </c>
       <c r="CO3" t="n">
-        <v>1006.774832033356</v>
+        <v>1006.749211262267</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.402474987933281</v>
+        <v>1.402447237985084</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.9995307545857491</v>
+        <v>0.9995360673678105</v>
       </c>
       <c r="CR3" t="n">
-        <v>344.8024504175468</v>
+        <v>344.7987408919906</v>
       </c>
       <c r="CS3" t="n">
-        <v>189460.1213377611</v>
+        <v>187269.9754746521</v>
       </c>
       <c r="CT3" t="n">
-        <v>5.278155597806487e-06</v>
+        <v>5.339884289862338e-06</v>
       </c>
       <c r="CU3" t="n">
-        <v>135089.839724667</v>
+        <v>133530.8526427743</v>
       </c>
       <c r="CV3" t="n">
-        <v>7.402481208343629e-06</v>
+        <v>7.488905973477376e-06</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.003395610865324449</v>
+        <v>0.003395507909488484</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.832922070482704e-05</v>
+        <v>1.832882013070156e-05</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02606722877439043</v>
+        <v>0.02606645870942161</v>
       </c>
       <c r="CZ3" t="n">
-        <v>135152.550402908</v>
+        <v>133592.1455577591</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.593591937892323</v>
+        <v>1.575204018803829</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.593591937892323</v>
+        <v>1.575204018803829</v>
       </c>
       <c r="DC3" t="n">
-        <v>336974.419698861</v>
+        <v>336975.0070628653</v>
       </c>
       <c r="DD3" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="DE3" t="n">
-        <v>3788.899353198037</v>
+        <v>3792.231206047728</v>
       </c>
       <c r="DF3" t="n">
-        <v>717.8558196727361</v>
+        <v>717.8517551281841</v>
       </c>
       <c r="DG3" t="n">
-        <v>1006.774832033356</v>
+        <v>1006.749211262267</v>
       </c>
       <c r="DH3" t="n">
-        <v>344.8024504175468</v>
+        <v>344.7987408919906</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.9995307545857491</v>
+        <v>0.9995360673678105</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.832922070482704e-05</v>
+        <v>1.832882013070156e-05</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.02606722877439043</v>
+        <v>0.02606645870942161</v>
       </c>
       <c r="DL3" t="inlineStr">
         <is>
@@ -8729,37 +8729,37 @@
         <v>1</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.01612531557352456</v>
+        <v>0.02396191688001213</v>
       </c>
       <c r="DO3" t="n">
-        <v>-1.820328153725114e-07</v>
+        <v>-2.12798996016035e-07</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01379700796025294</v>
+        <v>0.01379701078343936</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.02510740051179448</v>
+        <v>0.02510733300005791</v>
       </c>
       <c r="DR3" t="n">
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0550295420127566</v>
+        <v>0.06286604786451339</v>
       </c>
       <c r="DT3" t="n">
-        <v>6.409296704479317e-12</v>
+        <v>-2.28891905429407e-12</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.8593463900935355</v>
+        <v>1.087812462447227</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.8593463900935355</v>
+        <v>1.087812462447227</v>
       </c>
       <c r="DW3" t="n">
-        <v>497542.5313189477</v>
+        <v>528869.619484424</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.739474097862317</v>
+        <v>2.739856258971451</v>
       </c>
       <c r="DY3" t="n">
         <v>421784.4310884894</v>
@@ -8768,157 +8768,157 @@
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>382020.7369474773</v>
+        <v>362738.9247229693</v>
       </c>
       <c r="EB3" t="n">
-        <v>1483.141419653897</v>
+        <v>1483.976233398309</v>
       </c>
       <c r="EC3" t="n">
         <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.02451482902380551</v>
+        <v>0.02453974795699215</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.002154432247484661</v>
+        <v>0.002167609839125731</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.01189215795664021</v>
+        <v>0.01189015978285063</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.03201251962023062</v>
+        <v>0.03202685944101664</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0426828255335834</v>
+        <v>0.04269102602198501</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.1132567643817444</v>
+        <v>0.1133154030419702</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-4.00517952137136e-11</v>
+        <v>-8.171233134568467e-11</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9384151267142805</v>
+        <v>0.9438158167801302</v>
       </c>
       <c r="EL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EM3" t="n">
-        <v>145.4521741139866</v>
+        <v>184.2925191995731</v>
       </c>
       <c r="EN3" t="n">
-        <v>128.5369817996867</v>
+        <v>150.0066171546127</v>
       </c>
       <c r="EO3" t="n">
-        <v>-68.07774426574724</v>
+        <v>-107.0595509179563</v>
       </c>
       <c r="EP3" t="n">
-        <v>-27.90728133463472</v>
+        <v>-35.51540670293937</v>
       </c>
       <c r="EQ3" t="n">
-        <v>266.4365230904817</v>
+        <v>310.9396296353478</v>
       </c>
       <c r="ER3" t="n">
-        <v>128.5369817996867</v>
+        <v>150.0066171546127</v>
       </c>
       <c r="ES3" t="n">
-        <v>-233.3809442657472</v>
+        <v>-272.3627509179563</v>
       </c>
       <c r="ET3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="EU3" t="n">
-        <v>233.2017000724576</v>
+        <v>220.3504270865966</v>
       </c>
       <c r="EV3" t="n">
-        <v>56609.23435171381</v>
+        <v>45839.58336119517</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.8462886508546205</v>
+        <v>0.7252650972741405</v>
       </c>
       <c r="EX3" t="n">
-        <v>292389.9167357609</v>
+        <v>283213.1475212828</v>
       </c>
       <c r="EY3" t="n">
-        <v>359281.0824090181</v>
+        <v>346417.0484583058</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3801.043288486981</v>
+        <v>3804.831655079842</v>
       </c>
       <c r="FA3" t="n">
-        <v>-527128.674515151</v>
+        <v>-491979.2317311396</v>
       </c>
       <c r="FB3" t="n">
-        <v>715.9717730463676</v>
+        <v>715.794709950766</v>
       </c>
       <c r="FC3" t="n">
-        <v>1004.398116121095</v>
+        <v>1004.122146497033</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.402845969538032</v>
+        <v>1.402807442606133</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9992653354508684</v>
+        <v>0.9992490799066788</v>
       </c>
       <c r="FF3" t="n">
-        <v>306.2175310793099</v>
+        <v>297.6514604829151</v>
       </c>
       <c r="FG3" t="n">
-        <v>79355.78973678836</v>
+        <v>64255.87080951764</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.260147499403452e-05</v>
+        <v>1.556278029387284e-05</v>
       </c>
       <c r="FI3" t="n">
-        <v>56567.71410400878</v>
+        <v>45805.19667770169</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.767792840561562e-05</v>
+        <v>2.183158402388888e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.004301565591054049</v>
+        <v>0.00455173584096562</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.514718864662721e-05</v>
+        <v>1.445258837424412e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.02121047961330947</v>
+        <v>0.02016346878127883</v>
       </c>
       <c r="FN3" t="n">
-        <v>56609.23435171381</v>
+        <v>45839.58336119517</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.8462886508546205</v>
+        <v>0.7252650972741405</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.8462886508546205</v>
+        <v>0.7252650972741405</v>
       </c>
       <c r="FQ3" t="n">
-        <v>292389.9167357609</v>
+        <v>283213.1475212828</v>
       </c>
       <c r="FR3" t="n">
-        <v>359281.0824090181</v>
+        <v>346417.0484583058</v>
       </c>
       <c r="FS3" t="n">
-        <v>3801.043288486981</v>
+        <v>3804.831655079842</v>
       </c>
       <c r="FT3" t="n">
-        <v>715.9717730463676</v>
+        <v>715.794709950766</v>
       </c>
       <c r="FU3" t="n">
-        <v>1004.398116121095</v>
+        <v>1004.122146497033</v>
       </c>
       <c r="FV3" t="n">
-        <v>306.2175310793099</v>
+        <v>297.6514604829151</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.9992653354508684</v>
+        <v>0.9992490799066788</v>
       </c>
       <c r="FX3" t="n">
-        <v>1.514718864662721e-05</v>
+        <v>1.445258837424412e-05</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.02121047961330947</v>
+        <v>0.02016346878127883</v>
       </c>
       <c r="FZ3" t="inlineStr">
         <is>
@@ -8929,97 +8929,97 @@
         <v>1</v>
       </c>
       <c r="GB3" t="n">
-        <v>243.7657103970356</v>
+        <v>237.3114091675608</v>
       </c>
       <c r="GC3" t="n">
-        <v>66077.78471196862</v>
+        <v>59381.83361194412</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.9450026382995849</v>
+        <v>0.8723469057892753</v>
       </c>
       <c r="GE3" t="n">
-        <v>299935.863395979</v>
+        <v>295327.5624058123</v>
       </c>
       <c r="GF3" t="n">
-        <v>369859.2498860607</v>
+        <v>363398.9147747613</v>
       </c>
       <c r="GG3" t="n">
-        <v>3801.043288495656</v>
+        <v>3804.831655069913</v>
       </c>
       <c r="GH3" t="n">
-        <v>-556704.7675839673</v>
+        <v>-539531.0469352226</v>
       </c>
       <c r="GI3" t="n">
-        <v>716.1582272499467</v>
+        <v>716.0356268601037</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1004.653035361286</v>
+        <v>1004.470097518707</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.402836687667698</v>
+        <v>1.402821395805989</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9992947564415877</v>
+        <v>0.9992853730783841</v>
       </c>
       <c r="GM3" t="n">
-        <v>313.0847706857505</v>
+        <v>308.9074869107362</v>
       </c>
       <c r="GN3" t="n">
-        <v>92631.11819700095</v>
+        <v>83242.68761036902</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.079550824241671e-05</v>
+        <v>1.201306719793411e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>66031.29146202034</v>
+        <v>59339.47675679842</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.514433502448118e-05</v>
+        <v>1.685218769451707e-05</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.004115516130065827</v>
+        <v>0.004227046524592849</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.570734104055231e-05</v>
+        <v>1.536610270670494e-05</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.02205815272714757</v>
+        <v>0.02154126949978479</v>
       </c>
       <c r="GU3" t="n">
-        <v>66077.78471196862</v>
+        <v>59381.83361194412</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.9450026382995849</v>
+        <v>0.8723469057892753</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.9450026382995849</v>
+        <v>0.8723469057892753</v>
       </c>
       <c r="GX3" t="n">
-        <v>299935.863395979</v>
+        <v>295327.5624058123</v>
       </c>
       <c r="GY3" t="n">
-        <v>369859.2498860607</v>
+        <v>363398.9147747613</v>
       </c>
       <c r="GZ3" t="n">
-        <v>3801.043288495656</v>
+        <v>3804.831655069913</v>
       </c>
       <c r="HA3" t="n">
-        <v>716.1582272499467</v>
+        <v>716.0356268601037</v>
       </c>
       <c r="HB3" t="n">
-        <v>1004.653035361286</v>
+        <v>1004.470097518707</v>
       </c>
       <c r="HC3" t="n">
-        <v>313.0847706857505</v>
+        <v>308.9074869107362</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.9992947564415877</v>
+        <v>0.9992853730783841</v>
       </c>
       <c r="HE3" t="n">
-        <v>1.570734104055231e-05</v>
+        <v>1.536610270670494e-05</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.02205815272714757</v>
+        <v>0.02154126949978479</v>
       </c>
       <c r="HG3" t="inlineStr">
         <is>
@@ -9030,97 +9030,97 @@
         <v>1</v>
       </c>
       <c r="HI3" t="n">
-        <v>268.6394115171584</v>
+        <v>268.6195007485724</v>
       </c>
       <c r="HJ3" t="n">
-        <v>92769.53420796643</v>
+        <v>91532.89074863819</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.203768259331335</v>
+        <v>1.187800466557757</v>
       </c>
       <c r="HL3" t="n">
-        <v>317709.3513647552</v>
+        <v>317697.9443214455</v>
       </c>
       <c r="HM3" t="n">
-        <v>394775.2928271905</v>
+        <v>394758.7750970894</v>
       </c>
       <c r="HN3" t="n">
-        <v>3801.043288486981</v>
+        <v>3804.831655069913</v>
       </c>
       <c r="HO3" t="n">
-        <v>-626334.7393431962</v>
+        <v>-627293.2045201551</v>
       </c>
       <c r="HP3" t="n">
-        <v>716.7882625208193</v>
+        <v>716.7837337686956</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1005.447581151833</v>
+        <v>1005.421836708234</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.40271211698675</v>
+        <v>1.402685062929569</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9993935236460942</v>
+        <v>0.9994013208079899</v>
       </c>
       <c r="HT3" t="n">
-        <v>328.6884284610991</v>
+        <v>328.6756296263296</v>
       </c>
       <c r="HU3" t="n">
-        <v>130050.407582974</v>
+        <v>128315.316245439</v>
       </c>
       <c r="HV3" t="n">
-        <v>7.68932615118477e-06</v>
+        <v>7.793301916407387e-06</v>
       </c>
       <c r="HW3" t="n">
-        <v>92713.54115222374</v>
+        <v>91478.35079775278</v>
       </c>
       <c r="HX3" t="n">
-        <v>1.078591096372997e-05</v>
+        <v>1.093154818904503e-05</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.0037351477583814</v>
+        <v>0.003735258343500589</v>
       </c>
       <c r="HZ3" t="n">
-        <v>1.699039672467508e-05</v>
+        <v>1.698920454324731e-05</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.02401133482353212</v>
+        <v>0.02400936429215917</v>
       </c>
       <c r="IB3" t="n">
-        <v>92769.53420796643</v>
+        <v>91532.89074863819</v>
       </c>
       <c r="IC3" t="n">
-        <v>1.203768259331335</v>
+        <v>1.187800466557757</v>
       </c>
       <c r="ID3" t="n">
-        <v>1.203768259331335</v>
+        <v>1.187800466557757</v>
       </c>
       <c r="IE3" t="n">
-        <v>317709.3513647552</v>
+        <v>317697.9443214455</v>
       </c>
       <c r="IF3" t="n">
-        <v>394775.2928271905</v>
+        <v>394758.7750970894</v>
       </c>
       <c r="IG3" t="n">
-        <v>3801.043288486981</v>
+        <v>3804.831655069913</v>
       </c>
       <c r="IH3" t="n">
-        <v>716.7882625208193</v>
+        <v>716.7837337686956</v>
       </c>
       <c r="II3" t="n">
-        <v>1005.447581151833</v>
+        <v>1005.421836708234</v>
       </c>
       <c r="IJ3" t="n">
-        <v>328.6884284610991</v>
+        <v>328.6756296263296</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.9993935236460942</v>
+        <v>0.9994013208079899</v>
       </c>
       <c r="IL3" t="n">
-        <v>1.699039672467508e-05</v>
+        <v>1.698920454324731e-05</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.02401133482353212</v>
+        <v>0.02400936429215917</v>
       </c>
       <c r="IN3" t="inlineStr">
         <is>
@@ -9131,52 +9131,52 @@
         <v>1</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.02445060328732329</v>
+        <v>0.027099108192838</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.002174219644670809</v>
+        <v>0.002463395525126429</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.01189873409995252</v>
+        <v>0.01189775204997357</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.03197489169910529</v>
+        <v>0.03198341153483886</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04272264878002783</v>
+        <v>0.04273691830593378</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1132210975110797</v>
+        <v>0.1161805856087106</v>
       </c>
       <c r="IV3" t="n">
-        <v>-5.485784049241715e-11</v>
+        <v>4.92419577335923e-11</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.4749962342172848</v>
+        <v>0.619155434011893</v>
       </c>
       <c r="IX3" t="n">
-        <v>0.8700890577733613</v>
+        <v>1.044643386364958</v>
       </c>
       <c r="IY3" t="n">
-        <v>387931.1479314626</v>
+        <v>406632.074929755</v>
       </c>
       <c r="IZ3" t="n">
-        <v>2.739474098740049</v>
+        <v>2.739856259040303</v>
       </c>
       <c r="JA3" t="n">
-        <v>381112.7188620705</v>
+        <v>381096.2011319693</v>
       </c>
       <c r="JB3" t="n">
         <v>0</v>
       </c>
       <c r="JC3" t="n">
-        <v>356409.7355848434</v>
+        <v>342881.807975889</v>
       </c>
       <c r="JD3" t="n">
-        <v>2819.454166372772</v>
+        <v>2819.847040075867</v>
       </c>
       <c r="JE3" t="n">
-        <v>6.44607188452823</v>
+        <v>6.46776716241515</v>
       </c>
     </row>
   </sheetData>
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4116004983770142</v>
+        <v>0.4107228769282394</v>
       </c>
     </row>
     <row r="3">
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4307135950907691</v>
+        <v>0.4301928121009288</v>
       </c>
     </row>
   </sheetData>
@@ -10320,16 +10320,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="H2" t="n">
-        <v>3.496360888020452e-11</v>
+        <v>1.79820694259923e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>1.34351253185546e-10</v>
+        <v>9.58305967425603e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
